--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0620039156524908</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.09882808357633652</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04882808357633652</v>
+        <v>0.02708377771841879</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01366707633435693</v>
+        <v>0.007580802488831926</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003399166488477622</v>
+        <v>0.003898847159808955</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007552432917035423</v>
+        <v>0.0007720694988695886</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004050089580768738</v>
+        <v>0.01099999999999998</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000760046169632465</v>
+        <v>0.0007483489923747264</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01522012827780253</v>
+        <v>0.01987838816876975</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007941101311134178</v>
+        <v>0.0007649249524144822</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.003898847159808955</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007053529411764712</v>
+        <v>0.0007720694988695886</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004681575607584872</v>
+        <v>0.008053132893716862</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001510486583407085</v>
+        <v>0.001544138997739177</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008</v>
+        <v>0.0203483917542582</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001567450980392157</v>
+        <v>0.001531907404374477</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02902422729505102</v>
+        <v>0.03784730741109565</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001588220262226836</v>
+        <v>0.001529849904828964</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03454456813704532</v>
+        <v>0.008053132893716862</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001499051285771107</v>
+        <v>0.001544138997739177</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01177307141504006</v>
+        <v>0.012</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002265729875110627</v>
+        <v>0.002351176470588235</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01045601878460965</v>
+        <v>0.029795206205083</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002280138508897395</v>
+        <v>0.002297861106561715</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04199999999999998</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002637537707390647</v>
+        <v>0.001917626199415936</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04842587958486366</v>
+        <v>0.012</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00224857692865666</v>
+        <v>0.002351176470588235</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01459949796856146</v>
+        <v>0.01466738173856895</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003020973166814169</v>
+        <v>0.003088277995478354</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01344819894016884</v>
+        <v>0.03739482703215041</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00304018467852986</v>
+        <v>0.003063814808748954</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04600892037861773</v>
+        <v>0.06274991895967663</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003176440524453671</v>
+        <v>0.003059699809657929</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06145317737597777</v>
+        <v>0.01466738173856895</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002998102571542213</v>
+        <v>0.003088277995478354</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004555692111452312</v>
+        <v>0.002351176470588235</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.012</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01208669932586742</v>
+        <v>0.0173271071521206</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003776216458517712</v>
+        <v>0.003860347494347943</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01627041813500929</v>
+        <v>0.04498629328129541</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003800230848162325</v>
+        <v>0.003829768510936193</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05007038244268128</v>
+        <v>0.07339672734054042</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003970550655567088</v>
+        <v>0.00382462476207241</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07370249223707892</v>
+        <v>0.0173271071521206</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003747628214427767</v>
+        <v>0.003860347494347943</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.01979025875473579</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004555692111452312</v>
+        <v>0.004632416993217532</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01881103701766648</v>
+        <v>0.05180864399835297</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00456027701779479</v>
+        <v>0.00459572221312343</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05610788717687729</v>
+        <v>0.08150611024337434</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005033560139831091</v>
+        <v>0.004589549714486892</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.08513199663533577</v>
+        <v>0.01979025875473579</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004765722556742817</v>
+        <v>0.004632416993217532</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01886281958507495</v>
+        <v>0.02230158840001979</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005286703041924796</v>
+        <v>0.00540448649208712</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0212584162366759</v>
+        <v>0.05610788717687729</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005320323187427254</v>
+        <v>0.005453023484817015</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05789494650593868</v>
+        <v>0.08513199663533577</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005558770917793924</v>
+        <v>0.005069917613556188</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08706977511700342</v>
+        <v>0.02230158840001979</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005246679500198873</v>
+        <v>0.00540448649208712</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02532483901088285</v>
+        <v>0.02390584794157792</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006041946333628339</v>
+        <v>0.006176555990956708</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02330091644057306</v>
+        <v>0.0579194648548888</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00608036935705972</v>
+        <v>0.006127629617497908</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06053077713272334</v>
+        <v>0.08857650149053248</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006352881048907342</v>
+        <v>0.006119399619315857</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09239331332143036</v>
+        <v>0.02390584794157792</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005996205143084426</v>
+        <v>0.006176555990956708</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02158697380518479</v>
+        <v>0.02594778923301544</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006797189625331881</v>
+        <v>0.006948625489826298</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02492689827789341</v>
+        <v>0.05956227577909881</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006840415526692185</v>
+        <v>0.006893583319685146</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06403555444987308</v>
+        <v>0.0930096872281605</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007146991180020761</v>
+        <v>0.006884324571730338</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0981515085004015</v>
+        <v>0.02594778923301544</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00674573078596998</v>
+        <v>0.006948625489826298</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03268951210063783</v>
+        <v>0.02708377771841879</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007552432917035424</v>
+        <v>0.007580802488831926</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
+        <v>0.06274729866018117</v>
+      </c>
+      <c r="K75" s="171" t="n">
+        <v>0.007659537021872385</v>
+      </c>
+      <c r="L75" s="172" t="n">
+        <v>0.0960609429245925</v>
+      </c>
+      <c r="M75" s="170" t="n">
+        <v>0.007649249524144821</v>
+      </c>
+      <c r="N75" s="171" t="n">
         <v>0.02708377771841879</v>
       </c>
-      <c r="K75" s="171" t="n">
+      <c r="O75" s="172" t="n">
         <v>0.007580802488831926</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.06730110036677575</v>
-      </c>
-      <c r="M75" s="170" t="n">
-        <v>0.007941101311134176</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.1029418595577997</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.007495256428855533</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03467274202989903</v>
+        <v>0.02794926779504407</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008307676208738965</v>
+        <v>0.008492764487565474</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02841168233518367</v>
+        <v>0.06487492186633739</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008360507865957115</v>
+        <v>0.008425490724059624</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06941923679281911</v>
+        <v>0.0984307250129271</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008735211442247596</v>
+        <v>0.008414174476559302</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1083618653975081</v>
+        <v>0.02794926779504407</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008244782071741086</v>
+        <v>0.008492764487565474</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03357695172562541</v>
+        <v>0.02920092576462967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009062919500442509</v>
+        <v>0.009264833986435064</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02999610508468031</v>
+        <v>0.06694553376576892</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009120554035589579</v>
+        <v>0.009191444426246861</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07268178563739092</v>
+        <v>0.1028194899262632</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009529321573361014</v>
+        <v>0.009179099428973785</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1127090249234096</v>
+        <v>0.02920092576462967</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008994307714626639</v>
+        <v>0.009264833986435064</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03144242932047402</v>
+        <v>0.03013426004912166</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00981816279214605</v>
+        <v>0.01003690348530465</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0313722145307766</v>
+        <v>0.06915952272667725</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009880600205222044</v>
+        <v>0.009957398128434099</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07578056880987902</v>
+        <v>0.1050276940976993</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01032343170447443</v>
+        <v>0.009944024381388267</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1164808370393871</v>
+        <v>0.03013426004912166</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009743833357512194</v>
+        <v>0.01003690348530465</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03130946294710193</v>
+        <v>0.03114903339434587</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01057340608384959</v>
+        <v>0.01080897298417424</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03323415323713445</v>
+        <v>0.07051727711726383</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01064064637485451</v>
+        <v>0.01072335183062134</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07820740821967115</v>
+        <v>0.1083557939603346</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01111754183558785</v>
+        <v>0.01070894933380275</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1213748006493235</v>
+        <v>0.03114903339434587</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01049335900039775</v>
+        <v>0.01080897298417424</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03621834073816615</v>
+        <v>0.03204500854612816</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01132864937555314</v>
+        <v>0.01158104248304383</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0345760637674157</v>
+        <v>0.0732191853057301</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01140069254448697</v>
+        <v>0.01148930553280858</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08115412577615516</v>
+        <v>0.1113042459472677</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01191165196670126</v>
+        <v>0.01147387428621723</v>
       </c>
       <c r="N80" t="n">
-        <v>0.125388414657102</v>
+        <v>0.03204500854612816</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0112428846432833</v>
+        <v>0.01158104248304383</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03620935082632375</v>
+        <v>0.03292194825029442</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01208389266725668</v>
+        <v>0.01235311198191342</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03649208868528227</v>
+        <v>0.07486563566027751</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01216073871411944</v>
+        <v>0.01225525923499582</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08381254338871882</v>
+        <v>0.1145735064915974</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01270576209781468</v>
+        <v>0.01223879923863171</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1285191779666054</v>
+        <v>0.03292194825029442</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01199241028616885</v>
+        <v>0.01235311198191342</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04032278134423179</v>
+        <v>0.03417961525267048</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01283913595896022</v>
+        <v>0.01312518148078301</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03767637055439599</v>
+        <v>0.07655701654910754</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0129207848837519</v>
+        <v>0.01302121293718305</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08647448296674992</v>
+        <v>0.1171640320264224</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0134998722289281</v>
+        <v>0.0130037241910462</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1319645894817167</v>
+        <v>0.03417961525267048</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01274193592905441</v>
+        <v>0.01312518148078301</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04882808357633652</v>
+        <v>0.03481777229908224</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01366707633435693</v>
+        <v>0.0138972509796526</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03912305193841881</v>
+        <v>0.07899371634042171</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01368083105338437</v>
+        <v>0.01378716663937029</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08863176641963633</v>
+        <v>0.1201762789848417</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01429398236004152</v>
+        <v>0.01376864914346068</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1361221481063188</v>
+        <v>0.03481777229908224</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01349146157193996</v>
+        <v>0.0138972509796526</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0441542874727578</v>
+        <v>0.03583618213535553</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0143496225423673</v>
+        <v>0.01466932047852219</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04082627540101252</v>
+        <v>0.08017612340242133</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01444087722301683</v>
+        <v>0.01455312034155753</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09127621565676569</v>
+        <v>0.122010703799954</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01508809249115494</v>
+        <v>0.01453357409587516</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1382893527442948</v>
+        <v>0.03583618213535553</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01424098721482552</v>
+        <v>0.01466932047852219</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05407358589487273</v>
+        <v>0.03673460750731622</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01510486583407085</v>
+        <v>0.01544138997739177</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04198018350583908</v>
+        <v>0.08210462610330801</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0152009233926493</v>
+        <v>0.01531907404374477</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09399965258752591</v>
+        <v>0.125667762904858</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01588220262226835</v>
+        <v>0.01529849904828964</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1413637022995276</v>
+        <v>0.03673460750731622</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01499051285771107</v>
+        <v>0.01544138997739177</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.05129026491516025</v>
+        <v>0.03751281116079019</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01586010912577439</v>
+        <v>0.01621345947626136</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04307891881656035</v>
+        <v>0.08427961281128313</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01596096956228176</v>
+        <v>0.01608502774593201</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0956938991213048</v>
+        <v>0.1268479127326526</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01667631275338177</v>
+        <v>0.01606342400070412</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1454426956759001</v>
+        <v>0.03751281116079019</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01574003850059662</v>
+        <v>0.01621345947626136</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.05173674240773891</v>
+        <v>0.0388705558416033</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01661535241747793</v>
+        <v>0.01698552897513095</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04441662389683822</v>
+        <v>0.08530147189454818</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01672101573191423</v>
+        <v>0.01685098144811925</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09795077716748998</v>
+        <v>0.1297516097164365</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01747042288449519</v>
+        <v>0.0168283489531186</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1468238317772952</v>
+        <v>0.0388705558416033</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01648956414348217</v>
+        <v>0.01698552897513095</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06234543624672733</v>
+        <v>0.0392076042955814</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01737059570918147</v>
+        <v>0.01775759847400054</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04538744131033452</v>
+        <v>0.08707059172130455</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01748106190154669</v>
+        <v>0.01761693515030649</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09956210863546955</v>
+        <v>0.1320793102893086</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01826453301560861</v>
+        <v>0.01759327390553309</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1492046095075962</v>
+        <v>0.0392076042955814</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01723908978636773</v>
+        <v>0.01775759847400054</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05904876430624408</v>
+        <v>0.04032371926855036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01812583900088502</v>
+        <v>0.01852966797287013</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04668551362071122</v>
+        <v>0.08838736065975381</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01824110807117916</v>
+        <v>0.01838288885249372</v>
       </c>
       <c r="L89" t="n">
-        <v>0.101419715434631</v>
+        <v>0.1337314708843676</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01905864314672203</v>
+        <v>0.01835819885794757</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1515825277706856</v>
+        <v>0.04032371926855036</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01798861542925328</v>
+        <v>0.01852966797287013</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0667791444604077</v>
+        <v>0.04111866350633604</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01888108229258856</v>
+        <v>0.01930173747173972</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0480049833916301</v>
+        <v>0.08975216707809736</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01900115424081162</v>
+        <v>0.01914884255468096</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1032154194743623</v>
+        <v>0.1364085479347124</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01985275327783544</v>
+        <v>0.01912312381036205</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1547550854704468</v>
+        <v>0.04111866350633604</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01873814107213883</v>
+        <v>0.01930173747173972</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.06646899458333685</v>
+        <v>0.0419921997547643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0196363255842921</v>
+        <v>0.0200738069706093</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04873999318675312</v>
+        <v>0.09116539934453666</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01976120041044409</v>
+        <v>0.0199147962568682</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1037410426640512</v>
+        <v>0.1385109978734416</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02064686340894886</v>
+        <v>0.01988804876277653</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1571197815107625</v>
+        <v>0.0419921997547643</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01948766671502439</v>
+        <v>0.0200738069706093</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.07905073254915007</v>
+        <v>0.04234409075966102</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02039156887599565</v>
+        <v>0.02084587646947889</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04958468556974212</v>
+        <v>0.09272744582727319</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02052124658007655</v>
+        <v>0.02068074995905544</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1051884069130855</v>
+        <v>0.1403392771336541</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02144097354006228</v>
+        <v>0.02065297371519102</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1587741147955157</v>
+        <v>0.04234409075966102</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02023719235790994</v>
+        <v>0.02084587646947889</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08245677623196593</v>
+        <v>0.04347409926685203</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02114681216769919</v>
+        <v>0.02161794596834848</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05013320310425901</v>
+        <v>0.09433869489450836</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02128129274970902</v>
+        <v>0.02144670366124268</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1065493341308529</v>
+        <v>0.1424938421484488</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0222350836711757</v>
+        <v>0.0214178986676055</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1588155842285894</v>
+        <v>0.04347409926685203</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02098671800079549</v>
+        <v>0.02161794596834848</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.081619543505903</v>
+        <v>0.04428198802216324</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02190205545940273</v>
+        <v>0.02239001546721807</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05097968835396566</v>
+        <v>0.0955995349144437</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02204133891934149</v>
+        <v>0.02221265736342991</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1071156462267414</v>
+        <v>0.1453751493509244</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02302919380228912</v>
+        <v>0.02218282362001998</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1609416887138667</v>
+        <v>0.04428198802216324</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02173624364368105</v>
+        <v>0.02239001546721807</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.08647145224507991</v>
+        <v>0.04496751977142045</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02265729875110627</v>
+        <v>0.02316208496608766</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05141828388252397</v>
+        <v>0.09591035425528066</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02280138508897395</v>
+        <v>0.02297861106561715</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1076791651101385</v>
+        <v>0.1469836551741796</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02382330393340253</v>
+        <v>0.02294774857243446</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1618499271552302</v>
+        <v>0.04496751977142045</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0224857692865666</v>
+        <v>0.02316208496608766</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.08894492032361523</v>
+        <v>0.04513045726044959</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02341254204280981</v>
+        <v>0.02393415446495725</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05204313225359575</v>
+        <v>0.09717154128522065</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02356143125860641</v>
+        <v>0.02374456476780439</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1074317126904324</v>
+        <v>0.1481198160513134</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02461741406451595</v>
+        <v>0.02371267352484895</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1620377984565632</v>
+        <v>0.04513045726044959</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02323529492945215</v>
+        <v>0.02393415446495725</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.08597236561562749</v>
+        <v>0.04617056323507647</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02416778533451336</v>
+        <v>0.02470622396382683</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05194837603084296</v>
+        <v>0.09918348437246519</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02432147742823888</v>
+        <v>0.02451051846999163</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1076651108770105</v>
+        <v>0.1491840884154244</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02541152419562937</v>
+        <v>0.02447759847726343</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1627028015217485</v>
+        <v>0.04617056323507647</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02398482057233771</v>
+        <v>0.02470622396382683</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.08748620599523532</v>
+        <v>0.04688760044112698</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0249230286262169</v>
+        <v>0.02547829346269643</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05262815777792745</v>
+        <v>0.09984657188521567</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02508152359787134</v>
+        <v>0.02527647217217887</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1073056600238463</v>
+        <v>0.1513769286996113</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02620563432674279</v>
+        <v>0.02524252342967791</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1640424352546692</v>
+        <v>0.04688760044112698</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02473434621522326</v>
+        <v>0.02547829346269643</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0904188593365573</v>
+        <v>0.047081331624427</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02567827191792044</v>
+        <v>0.02625036296156601</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05257737958307379</v>
+        <v>0.1007611921916736</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02584156976750381</v>
+        <v>0.02604242587436611</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1077905845779992</v>
+        <v>0.1527987933369733</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0269997444578562</v>
+        <v>0.02600744838209239</v>
       </c>
       <c r="N99" t="n">
-        <v>0.16425420182705</v>
+        <v>0.047081331624427</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02548387185810881</v>
+        <v>0.02625036296156601</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.08770490523454913</v>
+        <v>0.04805151953080236</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02643351520962398</v>
+        <v>0.0270224324604356</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05254058102450462</v>
+        <v>0.1016277336600404</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02660161593713627</v>
+        <v>0.02680837957655335</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1058742146696882</v>
+        <v>0.1536501387606089</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02779385458896962</v>
+        <v>0.02677237333450688</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1625581354983686</v>
+        <v>0.04805151953080236</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02623339750099437</v>
+        <v>0.0270224324604356</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09461533130623181</v>
+        <v>0.04849792690607892</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02718875850132753</v>
+        <v>0.02779450195930519</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05204997222750617</v>
+        <v>0.1021465846585176</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02736166210676874</v>
+        <v>0.02757433327874059</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1054116541666961</v>
+        <v>0.1555314214036169</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02858796472008304</v>
+        <v>0.02753729828692135</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1636843694333833</v>
+        <v>0.04849792690607892</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02698292314387992</v>
+        <v>0.02779450195930519</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09238704582193166</v>
+        <v>0.04872031649608256</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02794400179303107</v>
+        <v>0.02856657145817478</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05201043566988263</v>
+        <v>0.1038181335553066</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0281217082764012</v>
+        <v>0.02834028698092782</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1040580069368053</v>
+        <v>0.1569430976990961</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02938207485119646</v>
+        <v>0.02830222323933584</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1618470403243893</v>
+        <v>0.04872031649608256</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02773244878676547</v>
+        <v>0.02856657145817478</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09403875840459655</v>
+        <v>0.04911845104663914</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02869924508473461</v>
+        <v>0.02933864095704437</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05202685382943824</v>
+        <v>0.1044427687186089</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02888175444603367</v>
+        <v>0.02910624068311506</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1031683768477988</v>
+        <v>0.1591856240801453</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03017618498230987</v>
+        <v>0.02906714819175032</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1622602848636818</v>
+        <v>0.04911845104663914</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02848197442965103</v>
+        <v>0.02933864095704437</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.08958917867717439</v>
+        <v>0.05009209330357453</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02945448837643815</v>
+        <v>0.03011071045591395</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05200410918397727</v>
+        <v>0.1048208785166258</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02964180061566613</v>
+        <v>0.0298721943853023</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1012978677674591</v>
+        <v>0.1590594569798633</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03097029511342329</v>
+        <v>0.02983207314416481</v>
       </c>
       <c r="N104" t="n">
-        <v>0.162138239743556</v>
+        <v>0.05009209330357453</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02923150007253658</v>
+        <v>0.03011071045591395</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.08905701626261306</v>
+        <v>0.05004100601271459</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03020973166814169</v>
+        <v>0.03088277995478354</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05144708421130395</v>
+        <v>0.105552851317559</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0304018467852986</v>
+        <v>0.03063814808748954</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09980158356356889</v>
+        <v>0.159965052831349</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03176440524453671</v>
+        <v>0.03059699809657928</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1612950416563068</v>
+        <v>0.05004100601271459</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02998102571542213</v>
+        <v>0.03088277995478354</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0884609807838605</v>
+        <v>0.05086495191988517</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03096497495984523</v>
+        <v>0.03165484945365313</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0512606613892225</v>
+        <v>0.1066390754896099</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03116189295493106</v>
+        <v>0.03140410178967678</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0987346281039109</v>
+        <v>0.1618028680677011</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03255851537565013</v>
+        <v>0.03136192304899377</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1591448272942295</v>
+        <v>0.05086495191988517</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03073055135830769</v>
+        <v>0.03165484945365313</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09081978186386461</v>
+        <v>0.05086369377091214</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03172021825154878</v>
+        <v>0.03242691895252272</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05064972319553718</v>
+        <v>0.1076799394009799</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03192193912456352</v>
+        <v>0.03217005549186402</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09685210525626772</v>
+        <v>0.1625733591220183</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03335262550676354</v>
+        <v>0.03212684800140825</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1577017333496192</v>
+        <v>0.05086369377091214</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03148007700119324</v>
+        <v>0.03242691895252272</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.09115212912557324</v>
+        <v>0.05133699431162138</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03247546154325232</v>
+        <v>0.03319898845139231</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05061915210805221</v>
+        <v>0.1076758314198705</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03268198529419599</v>
+        <v>0.03293600919405126</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09530911888842208</v>
+        <v>0.1642769824273995</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03414673563787696</v>
+        <v>0.03289177295382274</v>
       </c>
       <c r="N108" t="n">
-        <v>0.156779896514771</v>
+        <v>0.05133699431162138</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03222960264407879</v>
+        <v>0.03319898845139231</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.08947673219193436</v>
+        <v>0.05198461628783871</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03323070483495586</v>
+        <v>0.0339710579502619</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05017383060457185</v>
+        <v>0.108927139914483</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03344203146382846</v>
+        <v>0.0337019628962385</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09436077286815675</v>
+        <v>0.1642141944169435</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03494084576899038</v>
+        <v>0.03365669790623721</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1555934534819801</v>
+        <v>0.05198461628783871</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03297912828696434</v>
+        <v>0.0339710579502619</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.08581230068589582</v>
+        <v>0.05240632244539002</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03398594812665941</v>
+        <v>0.03474312744913149</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05011864116290031</v>
+        <v>0.1089342532530191</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03420207763346093</v>
+        <v>0.03446791659842573</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0942621710632543</v>
+        <v>0.164485451523749</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0357349559001038</v>
+        <v>0.0344216228586517</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1549565409435416</v>
+        <v>0.05240632244539002</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0337286539298499</v>
+        <v>0.03474312744913149</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.08217754423040555</v>
+        <v>0.05250187553010119</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03474119141836295</v>
+        <v>0.03551519694800107</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04975846626084185</v>
+        <v>0.1098975598036802</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03496212380309339</v>
+        <v>0.03523387030061297</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09376841734149741</v>
+        <v>0.1662912101809149</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03652906603121722</v>
+        <v>0.03518654781106618</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1543832955917506</v>
+        <v>0.05250187553010119</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03447817957273545</v>
+        <v>0.03551519694800107</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.08059117244841146</v>
+        <v>0.05277103828779807</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03549643471006649</v>
+        <v>0.03628726644687066</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0491981883762007</v>
+        <v>0.1100174479346676</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03572216997272585</v>
+        <v>0.03599982400280021</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09343071011829446</v>
+        <v>0.16703192682154</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03732317616233063</v>
+        <v>0.03595147276348067</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1529878541189023</v>
+        <v>0.05277103828779807</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03522770521562101</v>
+        <v>0.03628726644687066</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.08707189496286144</v>
+        <v>0.0532135734643065</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03625167800177004</v>
+        <v>0.03705933594574026</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0490426899867811</v>
+        <v>0.109994306014183</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03648221614235832</v>
+        <v>0.03676577770498744</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09279063130743767</v>
+        <v>0.1670080578787229</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03811728629344405</v>
+        <v>0.03671639771589514</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1514843532172916</v>
+        <v>0.0532135734643065</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03597723085850656</v>
+        <v>0.03705933594574026</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08163842139670338</v>
+        <v>0.05312924380545238</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03700692129347358</v>
+        <v>0.03783140544460984</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04849685357038729</v>
+        <v>0.1109285224104277</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03724226231199078</v>
+        <v>0.03753173140717468</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09363771782046684</v>
+        <v>0.1679200597855626</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03891139642455747</v>
+        <v>0.03748132266830963</v>
       </c>
       <c r="N114" t="n">
-        <v>0.149386929579214</v>
+        <v>0.05312924380545238</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03672675650139211</v>
+        <v>0.03783140544460984</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.08130946137288519</v>
+        <v>0.05361781205706154</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03776216458517712</v>
+        <v>0.03860347494347943</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0483655616048235</v>
+        <v>0.1108204854916031</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03800230848162325</v>
+        <v>0.03829768510936192</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09366671683347091</v>
+        <v>0.1677683889751579</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03970550655567089</v>
+        <v>0.03824624762072411</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1481097198969644</v>
+        <v>0.05361781205706154</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03747628214427767</v>
+        <v>0.03860347494347943</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.08210372451435483</v>
+        <v>0.05337904096495986</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03851740787688066</v>
+        <v>0.03937554444234902</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04795369656789399</v>
+        <v>0.1107705836259108</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03876235465125571</v>
+        <v>0.03906363881154916</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09447237552253887</v>
+        <v>0.1692535018806073</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04049961668678431</v>
+        <v>0.03901117257313859</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1468668608628379</v>
+        <v>0.05337904096495986</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03822580778716322</v>
+        <v>0.03937554444234902</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08003956900581993</v>
+        <v>0.05391269327497321</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0392726511685842</v>
+        <v>0.04014761394121861</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04776614093740297</v>
+        <v>0.1115792051815523</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03952240082088818</v>
+        <v>0.0398295925137364</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09374944106375965</v>
+        <v>0.16887585493501</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04129372681789772</v>
+        <v>0.03977609752555307</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1457724891691298</v>
+        <v>0.05391269327497321</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03897533343004878</v>
+        <v>0.04014761394121861</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08607358736876899</v>
+        <v>0.05391853173292743</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04002789446028774</v>
+        <v>0.04091968344008819</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04740777719115469</v>
+        <v>0.1117467385267289</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04028244699052064</v>
+        <v>0.04059554621592364</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09519266063322229</v>
+        <v>0.1697359045714645</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04208783694901114</v>
+        <v>0.04054102247796756</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1445407415081351</v>
+        <v>0.05391853173292743</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03972485907293433</v>
+        <v>0.04091968344008819</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08516312660112363</v>
+        <v>0.05409631908464842</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04078313775199129</v>
+        <v>0.04169175293895779</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04688348780695341</v>
+        <v>0.1113735720296422</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04104249316015311</v>
+        <v>0.04136149991811088</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09489678140701566</v>
+        <v>0.1693341072230697</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04288194708012456</v>
+        <v>0.04130594743038204</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1445857545721489</v>
+        <v>0.05409631908464842</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04047438471581988</v>
+        <v>0.04169175293895779</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08130437289447578</v>
+        <v>0.05416755543683759</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04153838104369483</v>
+        <v>0.04246382243782737</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04669815526260333</v>
+        <v>0.1113600940584935</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04180253932978557</v>
+        <v>0.04212745362029811</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09625655056122878</v>
+        <v>0.1698709193229245</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04367605721123798</v>
+        <v>0.04207087238279652</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1437216650534665</v>
+        <v>0.05416755543683759</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04122391035870544</v>
+        <v>0.04246382243782737</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08349351244041747</v>
+        <v>0.05376679145269406</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04229362433539837</v>
+        <v>0.04323589193669696</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0467566620359087</v>
+        <v>0.1122157743537546</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04256258549941803</v>
+        <v>0.04289340732248535</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0967667152719506</v>
+        <v>0.1702639932706715</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0444701673423514</v>
+        <v>0.042835797335211</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1416626096443829</v>
+        <v>0.05376679145269406</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04197343600159099</v>
+        <v>0.04323589193669696</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08872673143054063</v>
+        <v>0.05406642237013853</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04304886762710192</v>
+        <v>0.04400796143556655</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04666389060467378</v>
+        <v>0.1122144781514706</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0433226316690505</v>
+        <v>0.04365936102467259</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09712202271527012</v>
+        <v>0.1696628272440709</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04526427747346481</v>
+        <v>0.04360072228762548</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1407227250371932</v>
+        <v>0.05406642237013853</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04272296164447654</v>
+        <v>0.04400796143556655</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08200021605643718</v>
+        <v>0.05366157422441784</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04380411091880546</v>
+        <v>0.04478003093443614</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0467247234467028</v>
+        <v>0.1112940060606957</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04408267783868297</v>
+        <v>0.04442531472685983</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09771722006727626</v>
+        <v>0.1694340602962822</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04605838760457823</v>
+        <v>0.04436564724003997</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1410161479241926</v>
+        <v>0.05366157422441784</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0434724872873621</v>
+        <v>0.04478003093443614</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08731015250969917</v>
+        <v>0.05365292645173009</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04455935421050899</v>
+        <v>0.04555210043330573</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04634433895791823</v>
+        <v>0.1110492270168841</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04484272400831543</v>
+        <v>0.04519126842904707</v>
       </c>
       <c r="L124" t="n">
-        <v>0.097947054504058</v>
+        <v>0.1688675512349111</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04685249773569165</v>
+        <v>0.04513057219245444</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1404570149976763</v>
+        <v>0.05365292645173009</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04422201293024765</v>
+        <v>0.04555210043330573</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0866527269819185</v>
+        <v>0.05374049613699966</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04531459750221254</v>
+        <v>0.04632416993217531</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04662302140438719</v>
+        <v>0.1117808833560794</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04560277017794789</v>
+        <v>0.04595722213123431</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0992062732017043</v>
+        <v>0.1697644017599224</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04764660786680506</v>
+        <v>0.04589549714486893</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1390594629499394</v>
+        <v>0.05374049613699966</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04497153857313321</v>
+        <v>0.04632416993217531</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08302412566468717</v>
+        <v>0.05382430036515093</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04606984079391609</v>
+        <v>0.04709623943104491</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04685632778277168</v>
+        <v>0.1108897174143254</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04636281634758036</v>
+        <v>0.04672317583342155</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1000896233363042</v>
+        <v>0.1686257135712808</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04844071799791848</v>
+        <v>0.04666042209728341</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1396376284732769</v>
+        <v>0.05382430036515093</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04572106421601876</v>
+        <v>0.04709623943104491</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0874205347495971</v>
+        <v>0.05390435622110828</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04682508408561963</v>
+        <v>0.04786830892991449</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04683974843386708</v>
+        <v>0.1108764715276657</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04712286251721282</v>
+        <v>0.04748912953560878</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1007918520839465</v>
+        <v>0.169052588368951</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0492348281290319</v>
+        <v>0.0474253470496979</v>
       </c>
       <c r="N127" t="n">
-        <v>0.140449336810072</v>
+        <v>0.05390435622110828</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04647058985890431</v>
+        <v>0.04786830892991449</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08883814042824031</v>
+        <v>0.05358068078979611</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04758032737732317</v>
+        <v>0.04864037842878408</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04736877369846876</v>
+        <v>0.1117418880321442</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04788290868684529</v>
+        <v>0.04825508323779602</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1021077066207204</v>
+        <v>0.1689461278528978</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05002893826014532</v>
+        <v>0.04819027200211237</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1400620247073179</v>
+        <v>0.05358068078979611</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04722011550178986</v>
+        <v>0.04864037842878408</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0892731288922087</v>
+        <v>0.05405329115613877</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04833557066902671</v>
+        <v>0.04941244792765367</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04723889391737213</v>
+        <v>0.1109867092638046</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04864295485647776</v>
+        <v>0.04902103693998326</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1019319341227146</v>
+        <v>0.1691074337230857</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05082304839125874</v>
+        <v>0.04895519695452686</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1409501646132362</v>
+        <v>0.05405329115613877</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04796964114467541</v>
+        <v>0.04941244792765367</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08272168633309429</v>
+        <v>0.05382220440506065</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04909081396073025</v>
+        <v>0.05018451742652326</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04794559943137251</v>
+        <v>0.1108116775586905</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04940300102611022</v>
+        <v>0.0497869906421705</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1034592817660183</v>
+        <v>0.1683376076794795</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05161715852237216</v>
+        <v>0.04972012190694134</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1422866361356985</v>
+        <v>0.05382220440506065</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04871916678756096</v>
+        <v>0.05018451742652326</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.08317999894248901</v>
+        <v>0.05378743762148613</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0498460572524338</v>
+        <v>0.05095658692539285</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04818438058126533</v>
+        <v>0.1105175352528459</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05016304719574269</v>
+        <v>0.05055294434435774</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1042844967267203</v>
+        <v>0.167437751422044</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05241126865348558</v>
+        <v>0.05048504685935582</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1436443188825763</v>
+        <v>0.05378743762148613</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04946869243044652</v>
+        <v>0.05095658692539285</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08464425291198485</v>
+        <v>0.05394900789033959</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05060130054413734</v>
+        <v>0.05172865642426244</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04845072770784595</v>
+        <v>0.1103050246823143</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05092309336537515</v>
+        <v>0.05131889804654498</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1049023261809097</v>
+        <v>0.1675089666507439</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05320537878459899</v>
+        <v>0.0512499718117703</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1441960924617414</v>
+        <v>0.05394900789033959</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05021821807333207</v>
+        <v>0.05172865642426244</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.08411063443317371</v>
+        <v>0.05350693229654539</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05135654383584088</v>
+        <v>0.05250072592313202</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04874013115190971</v>
+        <v>0.1103748881831396</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05168313953500762</v>
+        <v>0.05208485174873222</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1062075173046754</v>
+        <v>0.1669523550655438</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05399948891571241</v>
+        <v>0.05201489676418478</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1458148364810649</v>
+        <v>0.05350693229654539</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05096774371621762</v>
+        <v>0.05250072592313202</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08757532969764764</v>
+        <v>0.05356122792502795</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05211178712754443</v>
+        <v>0.05327279542200161</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04924808125425206</v>
+        <v>0.1105278680913654</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05244318570464008</v>
+        <v>0.05285080545091945</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1067948172741063</v>
+        <v>0.1668690183664085</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05479359904682583</v>
+        <v>0.05277982171659927</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1480734305484187</v>
+        <v>0.05356122792502795</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05171726935910318</v>
+        <v>0.05327279542200161</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09203452489699854</v>
+        <v>0.05361191186071158</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05286703041924796</v>
+        <v>0.0540448649208712</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04997006835566832</v>
+        <v>0.1101647067430355</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05320323187427255</v>
+        <v>0.05361675915310669</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1074589732652914</v>
+        <v>0.1660600582533027</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05558770917793925</v>
+        <v>0.05354474666901375</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1485447542716742</v>
+        <v>0.05361191186071158</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05246679500198873</v>
+        <v>0.0540448649208712</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08648440622281842</v>
+        <v>0.05375900118852073</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0536222737109515</v>
+        <v>0.05481693441974079</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05040158279695388</v>
+        <v>0.1090861464741937</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05396327804390501</v>
+        <v>0.05438271285529393</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1079947324543198</v>
+        <v>0.1655265764261911</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05638181930905267</v>
+        <v>0.05430967162142824</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1521016872587029</v>
+        <v>0.05375900118852073</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05321632064487429</v>
+        <v>0.05481693441974079</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.08992115986669921</v>
+        <v>0.05340251299337972</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05437751700265505</v>
+        <v>0.05558900391861038</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05033811491890412</v>
+        <v>0.1089929296208838</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05472332421353748</v>
+        <v>0.05514866655748117</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1086968420172803</v>
+        <v>0.1661696745850383</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05717592944016608</v>
+        <v>0.05507459657384271</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1539171091173764</v>
+        <v>0.05340251299337972</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05396584628775984</v>
+        <v>0.05558900391861038</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09534097202023287</v>
+        <v>0.05364246436021299</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05513276029435859</v>
+        <v>0.05636107341747996</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05127515506231443</v>
+        <v>0.1091857985191493</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05548337038316994</v>
+        <v>0.0559146202596684</v>
       </c>
       <c r="L138" t="n">
-        <v>0.108860049130262</v>
+        <v>0.1648904544298093</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0579700395712795</v>
+        <v>0.05583952152625719</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1546638994555663</v>
+        <v>0.05364246436021299</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05471537193064539</v>
+        <v>0.05636107341747996</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.08674002887501139</v>
+        <v>0.05337887237394486</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05588800358606213</v>
+        <v>0.05713314291634956</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05120819356798018</v>
+        <v>0.108965495505034</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0562434165528024</v>
+        <v>0.05668057396185565</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1101791009693537</v>
+        <v>0.1638900176604685</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05876414970239292</v>
+        <v>0.05660444647867167</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1564149378811441</v>
+        <v>0.05337887237394486</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05546489757353094</v>
+        <v>0.05713314291634956</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.09411451662262671</v>
+        <v>0.05321175411949973</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05664324687776568</v>
+        <v>0.05790521241521915</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05163272077669673</v>
+        <v>0.1083327629145818</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05700346272243487</v>
+        <v>0.05744652766404288</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1100487447106445</v>
+        <v>0.1644694659769808</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05955825983350632</v>
+        <v>0.05736937143108616</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1583431040019813</v>
+        <v>0.05321175411949973</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0562144232164165</v>
+        <v>0.05790521241521915</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09146062145467079</v>
+        <v>0.053041126681802</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05739849016946921</v>
+        <v>0.05867728191408874</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05254422702925947</v>
+        <v>0.1078883430838363</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05776350889206733</v>
+        <v>0.05821248136623013</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1114637275302233</v>
+        <v>0.1629299010793108</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06035236996461974</v>
+        <v>0.05813429638350064</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1610212774259495</v>
+        <v>0.053041126681802</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05696394885930206</v>
+        <v>0.05867728191408874</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.09577452956273563</v>
+        <v>0.053167007145776</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05815373346117276</v>
+        <v>0.05944935141295832</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05293820266646378</v>
+        <v>0.1069329783488414</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0585235550616998</v>
+        <v>0.05897843506841736</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1122157743537546</v>
+        <v>0.1628724246674234</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06114648009573316</v>
+        <v>0.05889922133591513</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1624223377609201</v>
+        <v>0.053167007145776</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05771347450218761</v>
+        <v>0.05944935141295832</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.09105242713841319</v>
+        <v>0.05328941259634616</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0589089767528763</v>
+        <v>0.0602214209118279</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05321013802910503</v>
+        <v>0.1070674110456406</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05928360123133226</v>
+        <v>0.0597443887706046</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1125306153747297</v>
+        <v>0.161798138441283</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06194059022684658</v>
+        <v>0.05966414628832961</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1636191646147648</v>
+        <v>0.05328941259634616</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05846300014507316</v>
+        <v>0.0602214209118279</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09429050037329539</v>
+        <v>0.05280836011843683</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05966422004457984</v>
+        <v>0.06099349041069749</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05365552345797861</v>
+        <v>0.1067923835102778</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06004364740096473</v>
+        <v>0.06051034247279184</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1124465472047802</v>
+        <v>0.1610081441008546</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06273470035796</v>
+        <v>0.06042907124074409</v>
       </c>
       <c r="N144" t="n">
-        <v>0.165384637595355</v>
+        <v>0.05280836011843683</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05921252578795871</v>
+        <v>0.06099349041069749</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.09548493545897421</v>
+        <v>0.0526238667969724</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06041946333628339</v>
+        <v>0.06176555990956709</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05396984929387988</v>
+        <v>0.1067086380787967</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0608036935705972</v>
+        <v>0.06127629617497908</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1127671744402047</v>
+        <v>0.1618035433461029</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06352881048907341</v>
+        <v>0.06119399619315857</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1664916363105625</v>
+        <v>0.0526238667969724</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05996205143084427</v>
+        <v>0.06176555990956709</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.09765616715267306</v>
+        <v>0.05273594971687724</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06117470662798694</v>
+        <v>0.06253762940843667</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05416755543683759</v>
+        <v>0.105416917087241</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06156373974022965</v>
+        <v>0.06204224987716631</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1137910854075229</v>
+        <v>0.1605854378769923</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06432292062018684</v>
+        <v>0.06195892114557305</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1693130403682586</v>
+        <v>0.05273594971687724</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06071157707372982</v>
+        <v>0.06253762940843667</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09074381711891064</v>
+        <v>0.05294462596307571</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06192994991969047</v>
+        <v>0.06330969890730627</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05413170607660801</v>
+        <v>0.1058179628716545</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06232378590986212</v>
+        <v>0.06280820357935356</v>
       </c>
       <c r="L147" t="n">
-        <v>0.113116868433255</v>
+        <v>0.1593549293934878</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06511703075130025</v>
+        <v>0.06272384609798753</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1702639932706715</v>
+        <v>0.05294462596307571</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06146110271661537</v>
+        <v>0.06330969890730627</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.09585303258405228</v>
+        <v>0.05284991262049224</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06268519321139401</v>
+        <v>0.06408176840617585</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05472225109816266</v>
+        <v>0.1056125177680809</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0630838320794946</v>
+        <v>0.0635741572815408</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1146431118439209</v>
+        <v>0.159913119595554</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06591114088241368</v>
+        <v>0.06348877105040202</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1700712183283865</v>
+        <v>0.05284991262049224</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06221062835950093</v>
+        <v>0.06408176840617585</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.09696044574299773</v>
+        <v>0.05275182677405116</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06344043650309757</v>
+        <v>0.06485383790504544</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05482073359065918</v>
+        <v>0.105001324112564</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06384387824912705</v>
+        <v>0.06434011098372804</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1145684039660403</v>
+        <v>0.1579611101831557</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06670525101352709</v>
+        <v>0.0642536960028165</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1711292399073565</v>
+        <v>0.05275182677405116</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06296015400238648</v>
+        <v>0.06485383790504544</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.09106584846980023</v>
+        <v>0.05225038550867687</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06419567979480109</v>
+        <v>0.06562590740391504</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05522525715042227</v>
+        <v>0.1046851242411475</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06460392441875952</v>
+        <v>0.06510606468591527</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1144913331261334</v>
+        <v>0.1581000028562575</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0674993611446405</v>
+        <v>0.06501862095523099</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1729936600851177</v>
+        <v>0.05225038550867687</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06370967964527204</v>
+        <v>0.06562590740391504</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.08916903263851325</v>
+        <v>0.05244560590929373</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06495092308650464</v>
+        <v>0.06639797690278462</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05523392537377669</v>
+        <v>0.1040646604898751</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06536397058839198</v>
+        <v>0.06587201838810251</v>
       </c>
       <c r="L151" t="n">
-        <v>0.11591048765072</v>
+        <v>0.1572308993148242</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06829347127575393</v>
+        <v>0.06578354590764547</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1738585361161481</v>
+        <v>0.05244560590929373</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06445920528815759</v>
+        <v>0.06639797690278462</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.09626979012319017</v>
+        <v>0.05203750506082616</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06570616637820818</v>
+        <v>0.06717004640165421</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05554484185704707</v>
+        <v>0.1038406751947905</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06612401675802444</v>
+        <v>0.06663797209028975</v>
       </c>
       <c r="L152" t="n">
-        <v>0.11602445586632</v>
+        <v>0.1569549012588206</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06908758140686734</v>
+        <v>0.06654847086005994</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1750179252549258</v>
+        <v>0.05203750506082616</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06520873093104314</v>
+        <v>0.06717004640165421</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09036791279788431</v>
+        <v>0.05222610004819847</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06646140966991172</v>
+        <v>0.06794211590052379</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05635611019655819</v>
+        <v>0.1029139106919376</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06688406292765692</v>
+        <v>0.06740392579247699</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1164318260994535</v>
+        <v>0.1560731103882111</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06988169153798077</v>
+        <v>0.06731339581247442</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1751658847559285</v>
+        <v>0.05222610004819847</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06595825657392869</v>
+        <v>0.06794211590052379</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09746319253664915</v>
+        <v>0.05221140795633512</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06721665296161528</v>
+        <v>0.06871418539939338</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05626583398863476</v>
+        <v>0.10238510931736</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06764410909728938</v>
+        <v>0.06816987949466423</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1165311866766402</v>
+        <v>0.1550866284029607</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07067580166909418</v>
+        <v>0.06807832076488891</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1760964718736343</v>
+        <v>0.05221140795633512</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06670778221681424</v>
+        <v>0.06871418539939338</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.09555542121353794</v>
+        <v>0.05199344587016043</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06797189625331881</v>
+        <v>0.06948625489826298</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05677211682960144</v>
+        <v>0.1018550134071015</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06840415526692185</v>
+        <v>0.06893583319685147</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1168211259244001</v>
+        <v>0.154396557003034</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07146991180020761</v>
+        <v>0.06884324571730339</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1779037438625213</v>
+        <v>0.05199344587016043</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06745730785969979</v>
+        <v>0.06948625489826298</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.09864439070260411</v>
+        <v>0.05197223087459879</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06872713954502235</v>
+        <v>0.07025832439713256</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05727306231578298</v>
+        <v>0.1013243652972058</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0691642014365543</v>
+        <v>0.06970178689903871</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1178002321692532</v>
+        <v>0.1535039978883956</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07226402193132102</v>
+        <v>0.06960817066971788</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1785817579770672</v>
+        <v>0.05197223087459879</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06820683350258534</v>
+        <v>0.07025832439713256</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.09172989287790112</v>
+        <v>0.05184778005457459</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06948238283672589</v>
+        <v>0.07103039389600214</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0572667740435041</v>
+        <v>0.1008939073237167</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06992424760618678</v>
+        <v>0.07046774060122594</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1171670937377194</v>
+        <v>0.1527100527590105</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07305813206243443</v>
+        <v>0.07037309562213236</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1794245714717501</v>
+        <v>0.05184778005457459</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06895635914547091</v>
+        <v>0.07103039389600214</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.09781171961348223</v>
+        <v>0.0514201104950122</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07023762612842945</v>
+        <v>0.07180246339487174</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05755135560908949</v>
+        <v>0.101064381822678</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07068429377581924</v>
+        <v>0.07123369430341318</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1185202989563186</v>
+        <v>0.1516158233148432</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07385224219354786</v>
+        <v>0.07113802057454684</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1805262416010479</v>
+        <v>0.0514201104950122</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06970588478835646</v>
+        <v>0.07180246339487174</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.09188966278340088</v>
+        <v>0.05158923928083599</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07099286942013298</v>
+        <v>0.07257453289374133</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05772491060886384</v>
+        <v>0.1009365311301332</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0714443399454517</v>
+        <v>0.07199964800560042</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1187584361515708</v>
+        <v>0.1520224112558584</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07464635232466127</v>
+        <v>0.07190294552696133</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1799808256194387</v>
+        <v>0.05158923928083599</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07045541043124201</v>
+        <v>0.07257453289374133</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.09496351426171046</v>
+        <v>0.05125518349697036</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07174811271183652</v>
+        <v>0.07334660239261093</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05788554263915191</v>
+        <v>0.09981109758212622</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07220438611508417</v>
+        <v>0.07276560170778766</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1189800936499958</v>
+        <v>0.1510309182820209</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0754404624557747</v>
+        <v>0.0726678704793758</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1815823807814003</v>
+        <v>0.05125518349697036</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07120493607412756</v>
+        <v>0.07334660239261093</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0940330659224643</v>
+        <v>0.05081796022833968</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07250335600354008</v>
+        <v>0.07411867189148051</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05863135529627839</v>
+        <v>0.09908882351470077</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07296443228471663</v>
+        <v>0.07353155540997489</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1194838597781137</v>
+        <v>0.1496424460932954</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07623457258688811</v>
+        <v>0.07343279543179028</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1810249643414109</v>
+        <v>0.05081796022833968</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07195446171701311</v>
+        <v>0.07411867189148051</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.09509810963971582</v>
+        <v>0.05067758655986833</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0732585992952436</v>
+        <v>0.07489074139035008</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05856045217656801</v>
+        <v>0.09897045126390058</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0737244784543491</v>
+        <v>0.07429750911216214</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1189683228624443</v>
+        <v>0.1501580963896466</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07702868271800152</v>
+        <v>0.07419772038420476</v>
       </c>
       <c r="N162" t="n">
-        <v>0.182002633553948</v>
+        <v>0.05067758655986833</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07270398735989866</v>
+        <v>0.07489074139035008</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.09215843728751838</v>
+        <v>0.05083407957648066</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07401384258694715</v>
+        <v>0.07566281088921968</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05857093687634544</v>
+        <v>0.09865672316576937</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07448452462398156</v>
+        <v>0.07506346281434936</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1201320712295076</v>
+        <v>0.1493789708710392</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07782279284911493</v>
+        <v>0.07496264533661925</v>
       </c>
       <c r="N163" t="n">
-        <v>0.18330944567349</v>
+        <v>0.05083407957648066</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07345351300278423</v>
+        <v>0.07566281088921968</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.09921384073992537</v>
+        <v>0.0508874563631011</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07476908587865069</v>
+        <v>0.07643488038808927</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05886091299193544</v>
+        <v>0.09844838155635091</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07524457079361403</v>
+        <v>0.07582941651653662</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1199736932058234</v>
+        <v>0.1482061712374378</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07861690298022835</v>
+        <v>0.07572757028903374</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1832394579545147</v>
+        <v>0.0508874563631011</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07420303864566978</v>
+        <v>0.07643488038808927</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.09626411187099015</v>
+        <v>0.05033773400465399</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07552432917035423</v>
+        <v>0.07720694988695886</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05942848411966267</v>
+        <v>0.09794616877168894</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07600461696324649</v>
+        <v>0.07659537021872384</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1204917771179119</v>
+        <v>0.1474407991888074</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07941101311134177</v>
+        <v>0.07649249524144822</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1827867276515002</v>
+        <v>0.05033773400465399</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07495256428855533</v>
+        <v>0.07720694988695886</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.09030904255476613</v>
+        <v>0.05028492958606373</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07627957246205778</v>
+        <v>0.07797901938582845</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05947175385585189</v>
+        <v>0.09795082714782713</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07676466313287895</v>
+        <v>0.07736132392091109</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1202849112922927</v>
+        <v>0.1472839564251124</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08020512324245518</v>
+        <v>0.0772574201938627</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1832453120189241</v>
+        <v>0.05028492958606373</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07570208993144088</v>
+        <v>0.07797901938582845</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.09834842466530669</v>
+        <v>0.05012906019225467</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07703481575376132</v>
+        <v>0.07875108888469803</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05938882579682779</v>
+        <v>0.09736309902080931</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07752470930251143</v>
+        <v>0.07812727762309832</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1198516840554859</v>
+        <v>0.1469367446463177</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08099923337356861</v>
+        <v>0.07802234514627718</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1836092683112647</v>
+        <v>0.05012906019225467</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07645161557432643</v>
+        <v>0.07875108888469803</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.09338205007666514</v>
+        <v>0.04977014290815121</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07779005904546486</v>
+        <v>0.07952315838356763</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05967780353891508</v>
+        <v>0.09648372672667918</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07828475547214389</v>
+        <v>0.07889323132528557</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1205906837340115</v>
+        <v>0.1459002655523881</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08179334350468202</v>
+        <v>0.07878727009869166</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1833726537829999</v>
+        <v>0.04977014290815121</v>
       </c>
       <c r="O168" t="n">
-        <v>0.077201141217212</v>
+        <v>0.07952315838356763</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.09640971066289494</v>
+        <v>0.04990819481867771</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0785453023371684</v>
+        <v>0.08029522788243722</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05973679067843847</v>
+        <v>0.09640662661772051</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07904480164177635</v>
+        <v>0.0796591850274728</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1203004986543892</v>
+        <v>0.1444756208432879</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08258745363579545</v>
+        <v>0.07955219505110614</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1841403240193517</v>
+        <v>0.04990819481867771</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07795066686009755</v>
+        <v>0.08029522788243722</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.09443119829804944</v>
+        <v>0.04954323300875858</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07930054562887195</v>
+        <v>0.0810672973813068</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05956389081172268</v>
+        <v>0.09612251383271625</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07980484781140881</v>
+        <v>0.08042513872966005</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1204797171431393</v>
+        <v>0.1453639084278663</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08338156376690886</v>
+        <v>0.08031712000352062</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1838277954786125</v>
+        <v>0.04954323300875858</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0787001925029831</v>
+        <v>0.0810672973813068</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.09044630485618205</v>
+        <v>0.04927527456331818</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08005578892057548</v>
+        <v>0.08183936688017639</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05985810030360375</v>
+        <v>0.09573162772715604</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08056489398104129</v>
+        <v>0.08119109243184727</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1208269275267814</v>
+        <v>0.1430622117806246</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08417567389802227</v>
+        <v>0.08108204495593511</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1834384299877799</v>
+        <v>0.04927527456331818</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07944971814586865</v>
+        <v>0.08183936688017639</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.09845482221134608</v>
+        <v>0.04910433656728087</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08081103221227903</v>
+        <v>0.08261143637904597</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0597217489551943</v>
+        <v>0.09573428226611638</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08132494015067375</v>
+        <v>0.08195704613403453</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1207403232960515</v>
+        <v>0.1434662448950398</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0849697840291357</v>
+        <v>0.0818469699083496</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1826754601812965</v>
+        <v>0.04910433656728087</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0801992437887542</v>
+        <v>0.08261143637904597</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.09045614414766276</v>
+        <v>0.04903043610557108</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08156627550398259</v>
+        <v>0.08338350587791557</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05975633804589228</v>
+        <v>0.09463079141467379</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08208498632030621</v>
+        <v>0.08272299983622175</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1212714005183878</v>
+        <v>0.1421743977788005</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08576389416024911</v>
+        <v>0.08261189486076408</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1835421186936045</v>
+        <v>0.04903043610557108</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08094876943163976</v>
+        <v>0.08338350587791557</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0974415892854848</v>
+        <v>0.04901367759748815</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08232151879568611</v>
+        <v>0.08415557537678515</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0594632425880188</v>
+        <v>0.09432146913790482</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08284503248993869</v>
+        <v>0.083488953538409</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1201924126211698</v>
+        <v>0.1423850604395953</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08655800429136254</v>
+        <v>0.08337681981317856</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1822416381591464</v>
+        <v>0.04901367759748815</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08169829507452532</v>
+        <v>0.08415557537678515</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09640827399945195</v>
+        <v>0.04859592811045151</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08307676208738966</v>
+        <v>0.08492764487565474</v>
       </c>
       <c r="J175" t="n">
-        <v>0.059443837593895</v>
+        <v>0.09350662940088605</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08360507865957113</v>
+        <v>0.08425490724059623</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1208106078042041</v>
+        <v>0.1415966228851125</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08735211442247595</v>
+        <v>0.08414174476559304</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1820772512123646</v>
+        <v>0.04859592811045151</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08244782071741087</v>
+        <v>0.08492764487565474</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0963569721416189</v>
+        <v>0.04828858098686552</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0838320053790932</v>
+        <v>0.08569971437452434</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05939949807584202</v>
+        <v>0.09338658616869394</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08436512482920361</v>
+        <v>0.08502086094278348</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1195332342672977</v>
+        <v>0.1416074751230406</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08814622455358938</v>
+        <v>0.08490666971800752</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1819521904877016</v>
+        <v>0.04828858098686552</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08319734636029642</v>
+        <v>0.08569971437452434</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.09328845756404031</v>
+        <v>0.04780400396488999</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08458724867079674</v>
+        <v>0.08647178387339392</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05883159904618096</v>
+        <v>0.09266165340640511</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08512517099883607</v>
+        <v>0.0857868146449707</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1192675402102575</v>
+        <v>0.1399160071610679</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08894033468470279</v>
+        <v>0.085671594670422</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1804696886195996</v>
+        <v>0.04780400396488999</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08394687200318197</v>
+        <v>0.08647178387339392</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.09420350411877088</v>
+        <v>0.04695456478268462</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08534249196250028</v>
+        <v>0.08724385337226352</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05874151551723296</v>
+        <v>0.09283214507909601</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08588521716846854</v>
+        <v>0.08655276834715796</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1187207738328901</v>
+        <v>0.1401206090068831</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0897344448158162</v>
+        <v>0.08643651962283648</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1799329782425011</v>
+        <v>0.04695456478268462</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08469639764606753</v>
+        <v>0.08724385337226352</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.09010288565786528</v>
+        <v>0.04685263117840917</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08609773525420383</v>
+        <v>0.08801592287113311</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05883062250131914</v>
+        <v>0.09229837515184328</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08664526333810101</v>
+        <v>0.08731872204934518</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1186001833350027</v>
+        <v>0.1388196706681744</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09052855494692963</v>
+        <v>0.08720144457525096</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1795452919908486</v>
+        <v>0.04685263117840917</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08544592328895308</v>
+        <v>0.08801592287113311</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.09098737603337814</v>
+        <v>0.04591057089022339</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08685297854590737</v>
+        <v>0.08878799237000268</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05850029501076066</v>
+        <v>0.0920606575897234</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08740530950773347</v>
+        <v>0.08808467575153243</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1171130169164018</v>
+        <v>0.1391115821526304</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09132266507804304</v>
+        <v>0.08796636952766546</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1795098624990843</v>
+        <v>0.04591057089022339</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08619544893183864</v>
+        <v>0.08878799237000268</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.09685774909736417</v>
+        <v>0.04524075165628703</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08760822183761091</v>
+        <v>0.08956006186887228</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05835190805787864</v>
+        <v>0.0911193063578129</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08816535567736594</v>
+        <v>0.08885062945371966</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1173665227768944</v>
+        <v>0.1382947334679396</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09211677520915647</v>
+        <v>0.08873129448007994</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1781299224016508</v>
+        <v>0.04524075165628703</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08694497457472419</v>
+        <v>0.08956006186887228</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.08971477870187805</v>
+        <v>0.04445554121475982</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08836346512931446</v>
+        <v>0.09033213136774186</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0575868366549942</v>
+        <v>0.09077463542118833</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08892540184699839</v>
+        <v>0.08961658315590691</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1161679491162874</v>
+        <v>0.1367675146217904</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09291088534026988</v>
+        <v>0.0894962194324944</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1769087043329904</v>
+        <v>0.04445554121475982</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08769450021760974</v>
+        <v>0.09033213136774186</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0965592386989744</v>
+        <v>0.04366730730380151</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08911870842101799</v>
+        <v>0.09110420086661146</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05780645581442846</v>
+        <v>0.09062695874492624</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08968544801663086</v>
+        <v>0.09038253685809414</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1148245441343876</v>
+        <v>0.1360283156218712</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09370499547138329</v>
+        <v>0.09026114438490888</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1770494409275456</v>
+        <v>0.04366730730380151</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0884440258604953</v>
+        <v>0.09110420086661146</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.09239190294070793</v>
+        <v>0.04308841766157184</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08987395171272154</v>
+        <v>0.09187627036548104</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05701214054850258</v>
+        <v>0.09027659029410318</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09044549418626333</v>
+        <v>0.09114849056028139</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1142435560310018</v>
+        <v>0.1351755264758704</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09449910560249671</v>
+        <v>0.09102606933732338</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1764553648197587</v>
+        <v>0.04308841766157184</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08919355150338085</v>
+        <v>0.09187627036548104</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.09121354527913333</v>
+        <v>0.04253124002623059</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09062919500442508</v>
+        <v>0.09264833986435063</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05710526586953765</v>
+        <v>0.08982384403379565</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09120554035589579</v>
+        <v>0.09191444426246861</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1139322330059369</v>
+        <v>0.1354075371914767</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09529321573361012</v>
+        <v>0.09179099428973786</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1747297086440721</v>
+        <v>0.04253124002623059</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08994307714626641</v>
+        <v>0.09264833986435063</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.09002493956630522</v>
+        <v>0.04220814213593747</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09138443829612862</v>
+        <v>0.09342040936322023</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05678720678985484</v>
+        <v>0.08866903392908021</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09196558652552826</v>
+        <v>0.09268039796465587</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1118978232589997</v>
+        <v>0.1339227377763783</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09608732586472354</v>
+        <v>0.09255591924215234</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1743757050349282</v>
+        <v>0.04220814213593747</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09069260278915196</v>
+        <v>0.09342040936322023</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.09382685965427837</v>
+        <v>0.04163149172885222</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09213968158783217</v>
+        <v>0.09419247886208981</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05605933832177526</v>
+        <v>0.0892124739450334</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09272563269516072</v>
+        <v>0.09344635166684309</v>
       </c>
       <c r="L187" t="n">
-        <v>0.111447574989997</v>
+        <v>0.1334195182382637</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09688143599583696</v>
+        <v>0.09332084419456682</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1722965866267695</v>
+        <v>0.04163149172885222</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09144212843203751</v>
+        <v>0.09419247886208981</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.08962007939510733</v>
+        <v>0.04061365654313462</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09289492487953571</v>
+        <v>0.0949645483609594</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05572303547762004</v>
+        <v>0.0880544780467318</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0934856788647932</v>
+        <v>0.09421230536903034</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1100887363987358</v>
+        <v>0.1326962685848214</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09767554612695038</v>
+        <v>0.0940857691469813</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1724955860540383</v>
+        <v>0.04061365654313462</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09219165407492307</v>
+        <v>0.0949645483609594</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09440537264084684</v>
+        <v>0.04026700431694438</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09365016817123925</v>
+        <v>0.09573661785982898</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05557967326971033</v>
+        <v>0.08839536019925184</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09424572503442565</v>
+        <v>0.09497825907121757</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1100285556850228</v>
+        <v>0.1328513788237399</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0984696562580638</v>
+        <v>0.0948506940993958</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1713759359511771</v>
+        <v>0.04026700431694438</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09294117971780862</v>
+        <v>0.09573661785982898</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09018351324355156</v>
+        <v>0.03990390278844128</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09440541146294279</v>
+        <v>0.09650868735869857</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05513062671036723</v>
+        <v>0.08703543436767017</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09500577120405812</v>
+        <v>0.09574421277340482</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1083742810486649</v>
+        <v>0.1313832389627076</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09926376638917722</v>
+        <v>0.09561561905181026</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1692408689526282</v>
+        <v>0.03990390278844128</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09369070536069417</v>
+        <v>0.09650868735869857</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.08895527505527617</v>
+        <v>0.03973671969578504</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09516065475464634</v>
+        <v>0.09728075685756817</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05497727081191188</v>
+        <v>0.08637501451706328</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09576581737369058</v>
+        <v>0.09651016647559205</v>
       </c>
       <c r="L191" t="n">
-        <v>0.107633160689469</v>
+        <v>0.130390239009413</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1000578765202906</v>
+        <v>0.09638054400422474</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1682936176928341</v>
+        <v>0.03973671969578504</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09444023100357972</v>
+        <v>0.09728075685756817</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.09072143192807536</v>
+        <v>0.03984829763848539</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09591589804634988</v>
+        <v>0.09805282635643775</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05432098058666542</v>
+        <v>0.08691441461250771</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09652586354332304</v>
+        <v>0.0972761201777793</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1073124428072418</v>
+        <v>0.1304707689715444</v>
       </c>
       <c r="M192" t="n">
-        <v>0.100851986651404</v>
+        <v>0.09714546895663922</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1672374148062372</v>
+        <v>0.03984829763848539</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09518975664646527</v>
+        <v>0.09805282635643775</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.08848275771400371</v>
+        <v>0.03917679137862806</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09667114133805342</v>
+        <v>0.09882489585530733</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05436313104694894</v>
+        <v>0.08645394861908001</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09728590971295552</v>
+        <v>0.09804207387996652</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1053193756017903</v>
+        <v>0.1287232188567904</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1016460967825175</v>
+        <v>0.09791039390905372</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1669754929272798</v>
+        <v>0.03917679137862806</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09593928228935082</v>
+        <v>0.09882489585530733</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09224002626511602</v>
+        <v>0.03931862761937374</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09742638462975697</v>
+        <v>0.09959696535417693</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05380509720508364</v>
+        <v>0.0859933582764506</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09804595588258798</v>
+        <v>0.09880802758215376</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1047612072729213</v>
+        <v>0.1287459786728395</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1024402069136309</v>
+        <v>0.0986753188614682</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1653110846904043</v>
+        <v>0.03931862761937374</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09668880793223637</v>
+        <v>0.09959696535417693</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.08899401143346691</v>
+        <v>0.0388727162882978</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0981816279214605</v>
+        <v>0.1003690348530465</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0535482540733906</v>
+        <v>0.08532389551317149</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09880600205222044</v>
+        <v>0.099573981284341</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1037451860204415</v>
+        <v>0.1282374384273799</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1032343170447443</v>
+        <v>0.09944024381388268</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1645474227300532</v>
+        <v>0.0388727162882978</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09743833357512192</v>
+        <v>0.1003690348530465</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.08674548707111099</v>
+        <v>0.03893796731297564</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09893687121316405</v>
+        <v>0.1011411043519161</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05319397666419097</v>
+        <v>0.08424320847536299</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0995660482218529</v>
+        <v>0.1003399349865282</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1030785600441579</v>
+        <v>0.1265959881281002</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1040284271758577</v>
+        <v>0.1002051687662972</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1629877396806688</v>
+        <v>0.03893796731297564</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09818785921800749</v>
+        <v>0.1011411043519161</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.08749522703010301</v>
+        <v>0.03891329062098257</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09969211450486759</v>
+        <v>0.1019131738507857</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05274363998980586</v>
+        <v>0.08375222177882202</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1003260943914854</v>
+        <v>0.1011058886887155</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1032685775438774</v>
+        <v>0.126220017782689</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1048225373069712</v>
+        <v>0.1009700937187116</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1616352681766938</v>
+        <v>0.03891329062098257</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09893738486089304</v>
+        <v>0.1019131738507857</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09424400516249767</v>
+        <v>0.03849759613989405</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1004473577965711</v>
+        <v>0.1026852433496553</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05239861906255643</v>
+        <v>0.08335186003934553</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1010861405611178</v>
+        <v>0.1018718423909027</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1024224867194067</v>
+        <v>0.1244911222989331</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1056166474380845</v>
+        <v>0.1017350186711261</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1613932408525702</v>
+        <v>0.03849759613989405</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09968691050377859</v>
+        <v>0.1026852433496553</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09099259532034953</v>
+        <v>0.03878979379728541</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1012026010882747</v>
+        <v>0.1034573128485249</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05186028889476377</v>
+        <v>0.08264304787273033</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1018461867307503</v>
+        <v>0.10263779609309</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1016475357705527</v>
+        <v>0.1229982102707433</v>
       </c>
       <c r="M199" t="n">
-        <v>0.106410757569198</v>
+        <v>0.1024999436235406</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1609648903427405</v>
+        <v>0.03878979379728541</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1004364361466641</v>
+        <v>0.1034573128485249</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.08674177135571334</v>
+        <v>0.03868879352073203</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1019578443799782</v>
+        <v>0.1042293823473945</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05193002449874902</v>
+        <v>0.08222670989477338</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1026062329003828</v>
+        <v>0.1034037497952772</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1014509728971222</v>
+        <v>0.1228345499155467</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1072048677003114</v>
+        <v>0.1032648685759551</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1586534492816474</v>
+        <v>0.03868879352073203</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1011859617895497</v>
+        <v>0.1042293823473945</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09449230712064377</v>
+        <v>0.03869350523780928</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1027130876716818</v>
+        <v>0.105001451846264</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05170920088683334</v>
+        <v>0.08240377072127156</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1033662790700152</v>
+        <v>0.1041697034974644</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1002375215729255</v>
+        <v>0.1196163158181653</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1079989778314248</v>
+        <v>0.1040297935283696</v>
       </c>
       <c r="N201" t="n">
-        <v>0.157562150303733</v>
+        <v>0.03869350523780928</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1019354874324352</v>
+        <v>0.105001451846264</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09224497646719548</v>
+        <v>0.03840283887609253</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1034683309633853</v>
+        <v>0.1057735213451336</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05129919307133785</v>
+        <v>0.08107515496802178</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1041263252396477</v>
+        <v>0.1049356571996517</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1003509637496459</v>
+        <v>0.1185596825634213</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1087930879625382</v>
+        <v>0.1047947184807841</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1581942260434397</v>
+        <v>0.03840283887609253</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1026850130753208</v>
+        <v>0.1057735213451336</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09100055324742315</v>
+        <v>0.03821570436315719</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1042235742550889</v>
+        <v>0.1065455908440032</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05080137606458367</v>
+        <v>0.08114178725082097</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1048863714092802</v>
+        <v>0.1057016109018389</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09986569869419171</v>
+        <v>0.1168808247361365</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1095871980936517</v>
+        <v>0.1055596434331985</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1573529091352101</v>
+        <v>0.03821570436315719</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1034345387182064</v>
+        <v>0.1065455908440032</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09275981131338143</v>
+        <v>0.03803101162657858</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1049788175467924</v>
+        <v>0.1073176603428728</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05031712487889191</v>
+        <v>0.08040459218546597</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1056464175789126</v>
+        <v>0.1064675646040262</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09988188550456031</v>
+        <v>0.115595916921133</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1103813082247651</v>
+        <v>0.106324568385613</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1547414322134865</v>
+        <v>0.03803101162657858</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1041840643610919</v>
+        <v>0.1073176603428728</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.085523524517125</v>
+        <v>0.03824767059393215</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1057340608384959</v>
+        <v>0.1080897298417424</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05004781452658372</v>
+        <v>0.08026449438775377</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1064064637485451</v>
+        <v>0.1072335183062134</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09939968327874868</v>
+        <v>0.1129211337032326</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1111754183558785</v>
+        <v>0.1070894933380275</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1545630279127111</v>
+        <v>0.03824767059393215</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1049335900039775</v>
+        <v>0.1080897298417424</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.08529246671070853</v>
+        <v>0.0379645911927932</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1064893041301995</v>
+        <v>0.108861799340612</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04999482001998025</v>
+        <v>0.0788224184734812</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1071665099181776</v>
+        <v>0.1079994720084006</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09861925111475409</v>
+        <v>0.1105726496672575</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1119695284869919</v>
+        <v>0.107854418290442</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1539209288673267</v>
+        <v>0.0379645911927932</v>
       </c>
       <c r="O206" t="n">
-        <v>0.105683115646863</v>
+        <v>0.108861799340612</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.08906741174618674</v>
+        <v>0.03798068335073715</v>
       </c>
       <c r="G207" t="n">
-        <v>0.107244547421903</v>
+        <v>0.1096338688394816</v>
       </c>
       <c r="J207" t="n">
-        <v>0.05005951637140262</v>
+        <v>0.07857928905844525</v>
       </c>
       <c r="K207" t="n">
-        <v>0.10792655608781</v>
+        <v>0.1087654257105879</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09884074811057358</v>
+        <v>0.1084666393980296</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1127636386181053</v>
+        <v>0.1086193432428565</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1525183677117755</v>
+        <v>0.03798068335073715</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1064326412897486</v>
+        <v>0.1096338688394816</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09184913347561424</v>
+        <v>0.03769485699533937</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1079997907136065</v>
+        <v>0.1104059383383512</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04964327859317193</v>
+        <v>0.07803603075844273</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1086866022574425</v>
+        <v>0.1095313794127751</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09806433336420434</v>
+        <v>0.107419277480371</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1135577487492187</v>
+        <v>0.1093842681952709</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1531585770804998</v>
+        <v>0.03769485699533937</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1071821669326341</v>
+        <v>0.1104059383383512</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.09063840575104573</v>
+        <v>0.0378060220541752</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1087550340053101</v>
+        <v>0.1111780078372208</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04914096134453481</v>
+        <v>0.07749356818927058</v>
       </c>
       <c r="K209" t="n">
-        <v>0.109446648427075</v>
+        <v>0.1102973331149623</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09789016597364353</v>
+        <v>0.1043467384991036</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1143518588803322</v>
+        <v>0.1101491931476854</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1516426816140954</v>
+        <v>0.0378060220541752</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1079316925755197</v>
+        <v>0.1111780078372208</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.08743600242453586</v>
+        <v>0.03791308845482005</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1095102772970136</v>
+        <v>0.1119500773360904</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04913987988314089</v>
+        <v>0.07725282596672572</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1102066945967074</v>
+        <v>0.1110632868171496</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0970184050368883</v>
+        <v>0.1030651970390493</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1151459690114456</v>
+        <v>0.1109141181000999</v>
       </c>
       <c r="N210" t="n">
-        <v>0.150340047016503</v>
+        <v>0.03791308845482005</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1086812182184052</v>
+        <v>0.1119500773360904</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.09024269734813936</v>
+        <v>0.0376149661248493</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1102655205887172</v>
+        <v>0.1127221468349599</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04913968686221633</v>
+        <v>0.07651472870660503</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1109667407663399</v>
+        <v>0.1118292405193368</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09654920965193578</v>
+        <v>0.1003908276850303</v>
       </c>
       <c r="M211" t="n">
-        <v>0.115940079142559</v>
+        <v>0.1116790430525144</v>
       </c>
       <c r="N211" t="n">
-        <v>0.149839652158906</v>
+        <v>0.0376149661248493</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1094307438612908</v>
+        <v>0.1127221468349599</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09005926437391085</v>
+        <v>0.03741056499183831</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1110207638804207</v>
+        <v>0.1134942163338295</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04894042142961992</v>
+        <v>0.07618020102470546</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1117267869359723</v>
+        <v>0.1125951942215241</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09598273891678311</v>
+        <v>0.09903980502186838</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1167341892736724</v>
+        <v>0.1124439680049289</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1489415346033044</v>
+        <v>0.03741056499183831</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1101802695041763</v>
+        <v>0.1134942163338295</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.08988592471447493</v>
+        <v>0.03729879498336247</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1117760071721243</v>
+        <v>0.1142662858326991</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04884212273321051</v>
+        <v>0.07545016753682385</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1124868331056048</v>
+        <v>0.1133611479237113</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09581915192942742</v>
+        <v>0.0954283036343857</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1175282994047858</v>
+        <v>0.1132088929573433</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1489457319116979</v>
+        <v>0.03729879498336247</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1109297951470619</v>
+        <v>0.1142662858326991</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.08571550514752563</v>
+        <v>0.03717856602699712</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1125312504638278</v>
+        <v>0.1150383553315687</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0486448299208469</v>
+        <v>0.07462555285875716</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1132468792752373</v>
+        <v>0.1141271016258985</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09575860778786593</v>
+        <v>0.09347249810740416</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1183224095358992</v>
+        <v>0.1139738179097578</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1488522816460863</v>
+        <v>0.03717856602699712</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1116793207899474</v>
+        <v>0.1150383553315687</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.08354558698460607</v>
+        <v>0.03724878805031766</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1132864937555314</v>
+        <v>0.1158104248304383</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04844858214038791</v>
+        <v>0.07440728160630228</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1140069254448697</v>
+        <v>0.1148930553280858</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09510126559009571</v>
+        <v>0.09188856302574577</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1191165196670126</v>
+        <v>0.1147387428621723</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1468612213684694</v>
+        <v>0.03724878805031766</v>
       </c>
       <c r="O215" t="n">
-        <v>0.112428846432833</v>
+        <v>0.1158104248304383</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.08737617697559322</v>
+        <v>0.03720918861412113</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1140417370472349</v>
+        <v>0.1165824943293079</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04775341853969231</v>
+        <v>0.07379627839525607</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1147669716145022</v>
+        <v>0.115659009030273</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09444728443411396</v>
+        <v>0.09049267297423258</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1199106297981261</v>
+        <v>0.1155036678145868</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1472725886408473</v>
+        <v>0.03720918861412113</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1131783720757186</v>
+        <v>0.1165824943293079</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.08220728187036391</v>
+        <v>0.03696535374019329</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1147969803389384</v>
+        <v>0.1173545638281775</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04775937826661898</v>
+        <v>0.07379346784141552</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1155270177841347</v>
+        <v>0.1164249627324603</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09499682341791776</v>
+        <v>0.0875010025376865</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1207047399292395</v>
+        <v>0.1162685927670013</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1459864210252197</v>
+        <v>0.03696535374019329</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1139278977186041</v>
+        <v>0.1173545638281775</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.08903890841879511</v>
+        <v>0.03671855602337748</v>
       </c>
       <c r="G218" t="n">
-        <v>0.115552223630642</v>
+        <v>0.1181266333270471</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04746650046902669</v>
+        <v>0.07299977456057746</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1162870639537671</v>
+        <v>0.1171909164346475</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09435004163950436</v>
+        <v>0.08732972630092961</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1214988500603529</v>
+        <v>0.1170335177194158</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1447027560835865</v>
+        <v>0.03671855602337748</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1146774233614897</v>
+        <v>0.1181266333270471</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.08987106337076378</v>
+        <v>0.03666880426417106</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1163074669223455</v>
+        <v>0.1188987028259166</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04737482429477424</v>
+        <v>0.07261612316853883</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1170471101233996</v>
+        <v>0.1179568701368347</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09370709819687084</v>
+        <v>0.08579501884878377</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1222929601914663</v>
+        <v>0.1177984426718303</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1443216313779476</v>
+        <v>0.03666880426417106</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1154269490043752</v>
+        <v>0.1188987028259166</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.08870375347614676</v>
+        <v>0.03631610726307134</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1170627102140491</v>
+        <v>0.1196707723247862</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04748438889172049</v>
+        <v>0.07204343828109649</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1178071562930321</v>
+        <v>0.118722823839022</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09336815218801431</v>
+        <v>0.08451305476607107</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1230870703225797</v>
+        <v>0.1185633676242447</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1442430844703026</v>
+        <v>0.03631610726307134</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1161764746472608</v>
+        <v>0.1196707723247862</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.08553698548482097</v>
+        <v>0.03616047382057566</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1178179535057526</v>
+        <v>0.1204428418236558</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04699523340772423</v>
+        <v>0.07218264451404741</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1185672024626645</v>
+        <v>0.1194887775412092</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09333336271093201</v>
+        <v>0.08210000863761341</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1238811804536932</v>
+        <v>0.1193282925766592</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1436671529226516</v>
+        <v>0.03616047382057566</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1169260002901463</v>
+        <v>0.1204428418236558</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.08437076614666342</v>
+        <v>0.03610191273718136</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1185731967974561</v>
+        <v>0.1212149113225254</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04690739699064424</v>
+        <v>0.07063466648318847</v>
       </c>
       <c r="K222" t="n">
-        <v>0.119327248632297</v>
+        <v>0.1202547312433964</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09310288886362098</v>
+        <v>0.08097205504823302</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1246752905848066</v>
+        <v>0.1200932175290737</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1427938742969944</v>
+        <v>0.03610191273718136</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1176755259330319</v>
+        <v>0.1212149113225254</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0882051022115509</v>
+        <v>0.03614043281338578</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1193284400891597</v>
+        <v>0.121986980821395</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04682091878833937</v>
+        <v>0.07040042880431654</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1200872948019295</v>
+        <v>0.1210206849455837</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09277688974407849</v>
+        <v>0.0799422962304388</v>
       </c>
       <c r="M223" t="n">
-        <v>0.12546940071592</v>
+        <v>0.1208581424814882</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1425232861553308</v>
+        <v>0.03614043281338578</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1184250515759174</v>
+        <v>0.121986980821395</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.08204000042936047</v>
+        <v>0.03557604284968624</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1200836833808632</v>
+        <v>0.1227590503202646</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04623583794866842</v>
+        <v>0.07078085609322859</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1208473409715619</v>
+        <v>0.1217866386477709</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09215552445030159</v>
+        <v>0.07958955729470202</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1262635108470334</v>
+        <v>0.1216230674339027</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1404554260596607</v>
+        <v>0.03557604284968624</v>
       </c>
       <c r="O224" t="n">
-        <v>0.119174577218803</v>
+        <v>0.1227590503202646</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.08587546754996889</v>
+        <v>0.03570875164658009</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1208389266725668</v>
+        <v>0.1235311198191342</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04615219361949024</v>
+        <v>0.06977687296572141</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1216073871411944</v>
+        <v>0.1225525923499582</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09173895208028748</v>
+        <v>0.07994472712072648</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1270576209781468</v>
+        <v>0.1223879923863171</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1411903315719838</v>
+        <v>0.03570875164658009</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1199241028616885</v>
+        <v>0.1235311198191342</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.08271151032325316</v>
+        <v>0.03513856800456466</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1215941699642703</v>
+        <v>0.1243031893180038</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04597002494866358</v>
+        <v>0.06948940403759207</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1223674333108268</v>
+        <v>0.1233185460521454</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09192733173203327</v>
+        <v>0.07770834636375412</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1278517311092603</v>
+        <v>0.1231529173387316</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1401280402543002</v>
+        <v>0.03513856800456466</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1206736285045741</v>
+        <v>0.1243031893180038</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.08754813549909021</v>
+        <v>0.0353655007241373</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1223494132559739</v>
+        <v>0.1250752588168733</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04568937108404729</v>
+        <v>0.06871937392463734</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1231274794804593</v>
+        <v>0.1240844997543326</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09182082250353613</v>
+        <v>0.07698095567902707</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1286458412403737</v>
+        <v>0.1239178422911461</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1398685896686096</v>
+        <v>0.0353655007241373</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1214231541474596</v>
+        <v>0.1250752588168733</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.08038534982735696</v>
+        <v>0.03478955860579536</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1231046565476774</v>
+        <v>0.1258473283157429</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04591027117350016</v>
+        <v>0.06916765032252994</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1238875256500918</v>
+        <v>0.1248504534565199</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0913195834927932</v>
+        <v>0.07636309572178723</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1294399513714871</v>
+        <v>0.1246827672435606</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1392120173769118</v>
+        <v>0.03478955860579536</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1221726797903452</v>
+        <v>0.1258473283157429</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.08722316005793027</v>
+        <v>0.03461075045003613</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1238598998393809</v>
+        <v>0.1266193978146125</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04563276436488102</v>
+        <v>0.06852534052837628</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1246475718197242</v>
+        <v>0.1256164071587071</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09062377379780162</v>
+        <v>0.07715530714727675</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1302340615026005</v>
+        <v>0.1254476921959751</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1383583609412068</v>
+        <v>0.03461075045003613</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1229222054332307</v>
+        <v>0.1266193978146125</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.08006157294068711</v>
+        <v>0.03462908505735698</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1246151431310845</v>
+        <v>0.1273914673134821</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04525688980604869</v>
+        <v>0.06768564553308992</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1254076179893567</v>
+        <v>0.1263823608608944</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09023355251655854</v>
+        <v>0.07475813061073755</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1310281716337139</v>
+        <v>0.1262126171483896</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1366076579234944</v>
+        <v>0.03462908505735698</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1236717310761163</v>
+        <v>0.1273914673134821</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.07990059522550433</v>
+        <v>0.03434457122825524</v>
       </c>
       <c r="G231" t="n">
-        <v>0.125370386422788</v>
+        <v>0.1281635368123517</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04508268664486198</v>
+        <v>0.06734873507145389</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1261676641589892</v>
+        <v>0.1271483145630816</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09064907874706116</v>
+        <v>0.0752721067674117</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1318222817648274</v>
+        <v>0.126977542100804</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1375599458857743</v>
+        <v>0.03434457122825524</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1244212567190019</v>
+        <v>0.1281635368123517</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08574023366225897</v>
+        <v>0.03405721776322823</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1261256297144916</v>
+        <v>0.1289356063112213</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04521019402917967</v>
+        <v>0.0674147788782512</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1269277103286217</v>
+        <v>0.1279142682652688</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08977051158730651</v>
+        <v>0.07389777627254113</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1326163918959408</v>
+        <v>0.1277424670532185</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1367152623900466</v>
+        <v>0.03405721776322823</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1251707823618874</v>
+        <v>0.1289356063112213</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.08558049500082782</v>
+        <v>0.03426703346277332</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1268808730061951</v>
+        <v>0.1297076758100909</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04513945110686061</v>
+        <v>0.06708394668826487</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1276877564982541</v>
+        <v>0.1286802219674561</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08999801013529185</v>
+        <v>0.07383567978136796</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1334105020270542</v>
+        <v>0.128507392005633</v>
       </c>
       <c r="N233" t="n">
-        <v>0.135273644998311</v>
+        <v>0.03426703346277332</v>
       </c>
       <c r="O233" t="n">
-        <v>0.125920308004773</v>
+        <v>0.1297076758100909</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.07942138599108783</v>
+        <v>0.03417402712738783</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1276361162978986</v>
+        <v>0.1304797453089605</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04457049702576359</v>
+        <v>0.06715640823627794</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1284478026678866</v>
+        <v>0.1294461756696433</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08913173348901429</v>
+        <v>0.07378635794913413</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1342046121581676</v>
+        <v>0.1292723169580475</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1355351312725673</v>
+        <v>0.03417402712738783</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1266698336476585</v>
+        <v>0.1304797453089605</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08226291338291597</v>
+        <v>0.03387820755756905</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1283913595896022</v>
+        <v>0.1312518148078301</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04460337093374742</v>
+        <v>0.06693233325707348</v>
       </c>
       <c r="K235" t="n">
-        <v>0.129207848837519</v>
+        <v>0.1302121293718305</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08927184074647093</v>
+        <v>0.07315035143108173</v>
       </c>
       <c r="M235" t="n">
-        <v>0.134998722289281</v>
+        <v>0.130037241910462</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1348997587748155</v>
+        <v>0.03387820755756905</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1274193592905441</v>
+        <v>0.1312518148078301</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.08510508392618912</v>
+        <v>0.03347958355381443</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1291466028813057</v>
+        <v>0.1320238843066996</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04423811197867095</v>
+        <v>0.06561189148543439</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1299678950071515</v>
+        <v>0.1309780830740178</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08941849100565899</v>
+        <v>0.07142820088245277</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1357928324203944</v>
+        <v>0.1308021668628764</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1335675650670552</v>
+        <v>0.03347958355381443</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1281688849334296</v>
+        <v>0.1320238843066996</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0829479043707842</v>
+        <v>0.03327816391662118</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1299018461730093</v>
+        <v>0.1327959538055692</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04427475930839295</v>
+        <v>0.06639525265614377</v>
       </c>
       <c r="K237" t="n">
-        <v>0.130727941176784</v>
+        <v>0.131744036776205</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08817184336457554</v>
+        <v>0.07172044695848923</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1365869425515079</v>
+        <v>0.1315670918152909</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1328385877112866</v>
+        <v>0.03327816391662118</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1289184105763152</v>
+        <v>0.1327959538055692</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0797913814665781</v>
+        <v>0.03307395744648672</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1306570894647128</v>
+        <v>0.1335680233044388</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04411335207077223</v>
+        <v>0.06558258650398471</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1314879873464165</v>
+        <v>0.1325099904783923</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08883205692121784</v>
+        <v>0.06982763031443318</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1373810526826213</v>
+        <v>0.1323320167677054</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1317128642695093</v>
+        <v>0.03307395744648672</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1296679362192007</v>
+        <v>0.1335680233044388</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08763552196344779</v>
+        <v>0.03306697294390835</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1314123327564164</v>
+        <v>0.1343400928033084</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04415392941366766</v>
+        <v>0.06537406276374008</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1322480335160489</v>
+        <v>0.1332759441805795</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08869929077358291</v>
+        <v>0.0691502916055266</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1381751628137347</v>
+        <v>0.1330969417201199</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1315904323037233</v>
+        <v>0.03306697294390835</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1304174618620863</v>
+        <v>0.1343400928033084</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08248033261127016</v>
+        <v>0.03285721920938342</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1321675760481199</v>
+        <v>0.135112162302178</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04379653048493798</v>
+        <v>0.06446985117019305</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1330080796856813</v>
+        <v>0.1340418978827667</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08767370401966801</v>
+        <v>0.06978897148701141</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1389692729448481</v>
+        <v>0.1338618666725344</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1306713293759283</v>
+        <v>0.03285721920938342</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1311669875049718</v>
+        <v>0.135112162302178</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08532582015992213</v>
+        <v>0.03244470504340927</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1329228193398234</v>
+        <v>0.1358842318010476</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04354119443244209</v>
+        <v>0.06417012145812651</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1337681258553138</v>
+        <v>0.134807851584954</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08805545575747015</v>
+        <v>0.06914421061412979</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1397633830759615</v>
+        <v>0.1346267916249488</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1303555930481243</v>
+        <v>0.03244470504340927</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1319165131478574</v>
+        <v>0.1358842318010476</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07817199135928057</v>
+        <v>0.03222943924648324</v>
       </c>
       <c r="G242" t="n">
-        <v>0.133678062631527</v>
+        <v>0.1366563012999172</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04368796040403868</v>
+        <v>0.06437504336232358</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1345281720249463</v>
+        <v>0.1355738052871412</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0880447050849866</v>
+        <v>0.06831654964212364</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1405574932070749</v>
+        <v>0.1353917165773633</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1305432608823111</v>
+        <v>0.03222943924648324</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1326660387907429</v>
+        <v>0.1366563012999172</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08501885295922249</v>
+        <v>0.03221143061910262</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1344333059232306</v>
+        <v>0.1374283707987868</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04303686754758666</v>
+        <v>0.06428478661756723</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1352882181945788</v>
+        <v>0.1363397589893285</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08744161110021445</v>
+        <v>0.0677065292262351</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1413516033381884</v>
+        <v>0.1361566415297778</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1286343704404883</v>
+        <v>0.03221143061910262</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1334155644336285</v>
+        <v>0.1374283707987868</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08386641170962469</v>
+        <v>0.0317906879617648</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1351885492149341</v>
+        <v>0.1382004402976564</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04328795501094482</v>
+        <v>0.06389952095864052</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1360482643642112</v>
+        <v>0.1371057126915157</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08654633290115094</v>
+        <v>0.06741469002170619</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1421457134693018</v>
+        <v>0.1369215664821923</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1278289592846562</v>
+        <v>0.0317906879617648</v>
       </c>
       <c r="O244" t="n">
-        <v>0.134165090076514</v>
+        <v>0.1382004402976564</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0857146743603642</v>
+        <v>0.0316672200749671</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1359437925066376</v>
+        <v>0.138972509796526</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04294126194197197</v>
+        <v>0.06381941612032641</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1368083105338437</v>
+        <v>0.1378716663937029</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08635902958579306</v>
+        <v>0.06754157268377875</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1429398236004152</v>
+        <v>0.1376864914346068</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1276270649768144</v>
+        <v>0.0316672200749671</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1349146157193996</v>
+        <v>0.138972509796526</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08456364766131794</v>
+        <v>0.03154103575920683</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1366990357983412</v>
+        <v>0.1397445792953955</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04289682748852688</v>
+        <v>0.06264464183740798</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1375683567034761</v>
+        <v>0.1386376200958902</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08617986025213806</v>
+        <v>0.06548771786769492</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1437339337315286</v>
+        <v>0.1384514163870213</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1280287250789627</v>
+        <v>0.03154103575920683</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1356641413622851</v>
+        <v>0.1397445792953955</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.07741333836236269</v>
+        <v>0.03131214381498139</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1374542790900447</v>
+        <v>0.1405166487942651</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04285469079846843</v>
+        <v>0.06327536784466828</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1383284028731086</v>
+        <v>0.1394035737980774</v>
       </c>
       <c r="L247" t="n">
-        <v>0.086208983998183</v>
+        <v>0.06555366622869668</v>
       </c>
       <c r="M247" t="n">
-        <v>0.144528043862642</v>
+        <v>0.1392163413394358</v>
       </c>
       <c r="N247" t="n">
-        <v>0.126833977153101</v>
+        <v>0.03131214381498139</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1364136670051707</v>
+        <v>0.1405166487942651</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0792637532133755</v>
+        <v>0.03088055304278808</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1382095223817482</v>
+        <v>0.1412887182931347</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04241489101965543</v>
+        <v>0.06281176387689022</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1390884490427411</v>
+        <v>0.1401695275002647</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08674655992192518</v>
+        <v>0.06473995842202612</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1453221539937554</v>
+        <v>0.1399812662918502</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1253428587612292</v>
+        <v>0.03088055304278808</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1371631926480562</v>
+        <v>0.1412887182931347</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.07911489896423324</v>
+        <v>0.03044627224312421</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1389647656734518</v>
+        <v>0.1420607877920043</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04247746729994663</v>
+        <v>0.06205399966885694</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1398484952123736</v>
+        <v>0.1409354812024519</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08639274712136161</v>
+        <v>0.06444713510292516</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1461162641248689</v>
+        <v>0.1407461912442647</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1259554074653471</v>
+        <v>0.03044627224312421</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1379127182909418</v>
+        <v>0.1420607877920043</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08096678236481281</v>
+        <v>0.03030931021648715</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1397200089651553</v>
+        <v>0.1428328572908739</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04254245878720088</v>
+        <v>0.06230224495535139</v>
       </c>
       <c r="K250" t="n">
-        <v>0.140608541382006</v>
+        <v>0.1417014349046391</v>
       </c>
       <c r="L250" t="n">
-        <v>0.08584770469448952</v>
+        <v>0.06557573692663599</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1469103742559823</v>
+        <v>0.1415111161966792</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1247716608274547</v>
+        <v>0.03030931021648715</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1386622439338274</v>
+        <v>0.1428328572908739</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07981941016499114</v>
+        <v>0.03006967576337423</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1404752522568589</v>
+        <v>0.1436049267897435</v>
       </c>
       <c r="J251" t="n">
-        <v>0.042209904629277</v>
+        <v>0.06245666947115666</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1413685875516385</v>
+        <v>0.1424673886068264</v>
       </c>
       <c r="L251" t="n">
-        <v>0.08581159173930597</v>
+        <v>0.06352630454840036</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1477044843870957</v>
+        <v>0.1422760411490937</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1247916564095516</v>
+        <v>0.03006967576337423</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1394117695767129</v>
+        <v>0.1436049267897435</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08167278911464518</v>
+        <v>0.03012737768428279</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1412304955485624</v>
+        <v>0.1443769962886131</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04217984397403378</v>
+        <v>0.06161744295105567</v>
       </c>
       <c r="K252" t="n">
-        <v>0.142128633721271</v>
+        <v>0.1432333423090136</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0863845673538082</v>
+        <v>0.06339937862346057</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1484985945182091</v>
+        <v>0.1430409661015082</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1245154317736378</v>
+        <v>0.03012737768428279</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1401612952195985</v>
+        <v>0.1443769962886131</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07852692596365179</v>
+        <v>0.02998242477971014</v>
       </c>
       <c r="G253" t="n">
-        <v>0.141985738840266</v>
+        <v>0.1451490657874827</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04195231596933005</v>
+        <v>0.06198473512983152</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1428886798909034</v>
+        <v>0.1439992960112008</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0859667906359933</v>
+        <v>0.06319549980705841</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1492927046493225</v>
+        <v>0.1438058910539227</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1229430244817132</v>
+        <v>0.02998242477971014</v>
       </c>
       <c r="O253" t="n">
-        <v>0.140910820862484</v>
+        <v>0.1451490657874827</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07638182746188796</v>
+        <v>0.02953482585015366</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1427409821319695</v>
+        <v>0.1459211352863522</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04192735976302464</v>
+        <v>0.06105871574226723</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1436487260605359</v>
+        <v>0.1447652497133881</v>
       </c>
       <c r="L254" t="n">
-        <v>0.08615842068385846</v>
+        <v>0.0631152087544361</v>
       </c>
       <c r="M254" t="n">
-        <v>0.150086814780436</v>
+        <v>0.1445708160063371</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1235744720957774</v>
+        <v>0.02953482585015366</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1416603465053696</v>
+        <v>0.1459211352863522</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08423750035923053</v>
+        <v>0.02948458969611063</v>
       </c>
       <c r="G255" t="n">
-        <v>0.143496225423673</v>
+        <v>0.1466932047852219</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04140501450297632</v>
+        <v>0.06073955452314581</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1444087722301683</v>
+        <v>0.1455312034155753</v>
       </c>
       <c r="L255" t="n">
-        <v>0.08515961659540072</v>
+        <v>0.06395904612083542</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1508809249115494</v>
+        <v>0.1453357409587516</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1230098121778306</v>
+        <v>0.02948458969611063</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1424098721482551</v>
+        <v>0.1466932047852219</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07709395140555647</v>
+        <v>0.02893172511807847</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1442514687153766</v>
+        <v>0.1474652742840914</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04168531933704393</v>
+        <v>0.06052742120725024</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1451688183998008</v>
+        <v>0.1462971571177626</v>
       </c>
       <c r="L256" t="n">
-        <v>0.08547053746861738</v>
+        <v>0.06372755256149859</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1516750350426628</v>
+        <v>0.1461006659111661</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1210490822898724</v>
+        <v>0.02893172511807847</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1431593977911407</v>
+        <v>0.1474652742840914</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.07695118735074266</v>
+        <v>0.02877624091655442</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1450067120070802</v>
+        <v>0.148237343782961</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04116831341308627</v>
+        <v>0.06002248552936362</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1459288645694333</v>
+        <v>0.1470631108199498</v>
       </c>
       <c r="L257" t="n">
-        <v>0.08539134240150548</v>
+        <v>0.06332126873166749</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1524691451737762</v>
+        <v>0.1468655908635806</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1213923199939027</v>
+        <v>0.02877624091655442</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1439089234340262</v>
+        <v>0.148237343782961</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.081809214944666</v>
+        <v>0.02821814589203589</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1457619552987837</v>
+        <v>0.1490094132818306</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04125403587896218</v>
+        <v>0.05992491722426893</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1466889107390657</v>
+        <v>0.147829064522137</v>
       </c>
       <c r="L258" t="n">
-        <v>0.08582219049206224</v>
+        <v>0.06254073528658427</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1532632553048896</v>
+        <v>0.1476305158159951</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1209395628519214</v>
+        <v>0.02821814589203589</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1446584490769118</v>
+        <v>0.1490094132818306</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.07766804093720348</v>
+        <v>0.02845744884502019</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1465171985904872</v>
+        <v>0.1497814827807002</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04144252588253042</v>
+        <v>0.06073488602674917</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1474489569086982</v>
+        <v>0.1485950182243243</v>
       </c>
       <c r="L259" t="n">
-        <v>0.08556324083828473</v>
+        <v>0.06328649288149085</v>
       </c>
       <c r="M259" t="n">
-        <v>0.154057365436003</v>
+        <v>0.1483954407684095</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1196908484259284</v>
+        <v>0.02845744884502019</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1454079747197973</v>
+        <v>0.1497814827807002</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07552767207823197</v>
+        <v>0.02799415857600464</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1472724418821908</v>
+        <v>0.1505535522795698</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04123382257164984</v>
+        <v>0.06015256167158736</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1482090030783307</v>
+        <v>0.1493609719265115</v>
       </c>
       <c r="L260" t="n">
-        <v>0.08481465253817014</v>
+        <v>0.06185908217162928</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1548514755671165</v>
+        <v>0.149160365720824</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1198462142779234</v>
+        <v>0.02799415857600464</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1461575003626829</v>
+        <v>0.1505535522795698</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.08438811511762839</v>
+        <v>0.02762828388548662</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1480276851738943</v>
+        <v>0.1513256217784394</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04102796509417925</v>
+        <v>0.06037811389356659</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1489690492479631</v>
+        <v>0.1501269256286987</v>
       </c>
       <c r="L261" t="n">
-        <v>0.08477658468971561</v>
+        <v>0.06305904381224164</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1556455856982299</v>
+        <v>0.1499252906732385</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1181056979699063</v>
+        <v>0.02762828388548662</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1469070260055685</v>
+        <v>0.1513256217784394</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07824937680526967</v>
+        <v>0.0275598335739634</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1487829284655978</v>
+        <v>0.152097691277309</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04112499259797747</v>
+        <v>0.06011171242746985</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1497290954175956</v>
+        <v>0.150892879330886</v>
       </c>
       <c r="L262" t="n">
-        <v>0.08504919639091829</v>
+        <v>0.06228691845856987</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1564396958293433</v>
+        <v>0.150690215625653</v>
       </c>
       <c r="N262" t="n">
-        <v>0.118069337063877</v>
+        <v>0.0275598335739634</v>
       </c>
       <c r="O262" t="n">
-        <v>0.147656551648454</v>
+        <v>0.152097691277309</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.08411146389103269</v>
+        <v>0.02688881644193238</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1495381717573014</v>
+        <v>0.1528697607761785</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04062494423090328</v>
+        <v>0.06005352700808017</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1504891415872281</v>
+        <v>0.1516588330330732</v>
       </c>
       <c r="L263" t="n">
-        <v>0.08543264673977533</v>
+        <v>0.061943246765856</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1572338059604567</v>
+        <v>0.1514551405780675</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1186371691218353</v>
+        <v>0.02688881644193238</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1484060772913396</v>
+        <v>0.1528697607761785</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.08397438312479444</v>
+        <v>0.02681524128989085</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1502934150490049</v>
+        <v>0.1536418302750481</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04082785914081552</v>
+        <v>0.05970372737018051</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1512491877568605</v>
+        <v>0.1524247867352605</v>
       </c>
       <c r="L264" t="n">
-        <v>0.08562709483428385</v>
+        <v>0.061828569389342</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1580279160915701</v>
+        <v>0.152220065530482</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1174092317057811</v>
+        <v>0.02681524128989085</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1491556029342251</v>
+        <v>0.1536418302750481</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.0620039156524908</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.09205301392938942</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02708377771841879</v>
+        <v>0.04205301392938941</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007580802488831926</v>
+        <v>0.01177072105572615</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003898847159808955</v>
+        <v>0.003146620675462376</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007720694988695886</v>
+        <v>0.0005226335460174359</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01099999999999998</v>
+        <v>0.004198847159808956</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007483489923747264</v>
+        <v>0.0007720694988695886</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01987838816876975</v>
+        <v>0.01466615690256293</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007649249524144822</v>
+        <v>0.0007649317381386851</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.003898847159808955</v>
+        <v>0.02418468379865774</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007720694988695886</v>
+        <v>0.0007636835324153831</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.008053132893716862</v>
+        <v>0.00622453913391971</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001544138997739177</v>
+        <v>0.001045267092034872</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0203483917542582</v>
+        <v>0.007953132893716859</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001531907404374477</v>
+        <v>0.001544138997739177</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03784730741109565</v>
+        <v>0.02711119072273707</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001529849904828964</v>
+        <v>0.00152986347627737</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.008053132893716862</v>
+        <v>0.04377286020556381</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001544138997739177</v>
+        <v>0.001527367064830766</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.012</v>
+        <v>0.009208970584774712</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002351176470588235</v>
+        <v>0.001567900638052308</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.029795206205083</v>
+        <v>0.012</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002297861106561715</v>
+        <v>0.002351176470588235</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001917626199415936</v>
+        <v>0.002599736658417411</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.012</v>
+        <v>0.059</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002351176470588235</v>
+        <v>0.002244650675804302</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01466738173856895</v>
+        <v>0.01207513023743009</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003088277995478354</v>
+        <v>0.002090534184069744</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.03739482703215041</v>
+        <v>0.01476738173856895</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003063814808748954</v>
+        <v>0.003088277995478354</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.06274991895967663</v>
+        <v>0.04373634937644921</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003059699809657929</v>
+        <v>0.00305972695255474</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01466738173856895</v>
+        <v>0.06896615912384035</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003088277995478354</v>
+        <v>0.003054734129661532</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002351176470588235</v>
+        <v>0.004555692111452312</v>
       </c>
       <c r="B70" t="n">
-        <v>0.012</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0173271071521206</v>
+        <v>0.01479823330128856</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003860347494347943</v>
+        <v>0.00261316773008718</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.04498629328129541</v>
+        <v>0.01712710715212061</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003829768510936193</v>
+        <v>0.003860347494347943</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.07339672734054042</v>
+        <v>0.05027528681456306</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00382462476207241</v>
+        <v>0.003824658690693426</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0173271071521206</v>
+        <v>0.07845643786212986</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003860347494347943</v>
+        <v>0.003818417662076915</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01979025875473579</v>
+        <v>0.01735349498575282</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004632416993217532</v>
+        <v>0.003135801276104615</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.05180864399835297</v>
+        <v>0.01989025875473578</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00459572221312343</v>
+        <v>0.004632416993217532</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.08150611024337434</v>
+        <v>0.05323422156296312</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004589549714486892</v>
+        <v>0.004589590428832111</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01979025875473579</v>
+        <v>0.08513199663533577</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004632416993217532</v>
+        <v>0.004626915103633803</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02230158840001979</v>
+        <v>0.01971613050022561</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00540448649208712</v>
+        <v>0.003658434822122052</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
+        <v>0.0221015884000198</v>
+      </c>
+      <c r="K72" s="171" t="n">
+        <v>0.00540448649208712</v>
+      </c>
+      <c r="L72" s="172" t="n">
         <v>0.05610788717687729</v>
       </c>
-      <c r="K72" s="171" t="n">
-        <v>0.005453023484817015</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.08513199663533577</v>
-      </c>
       <c r="M72" s="170" t="n">
-        <v>0.005069917613556188</v>
+        <v>0.00508242965575178</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02230158840001979</v>
+        <v>0.08747090194077145</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00540448649208712</v>
+        <v>0.005345784726907682</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02390584794157792</v>
+        <v>0.02186135505410962</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006176555990956708</v>
+        <v>0.004181068368139487</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0579194648548888</v>
+        <v>0.02430584794157792</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006127629617497908</v>
+        <v>0.006176555990956708</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.08857650149053248</v>
+        <v>0.05885140012546516</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006119399619315857</v>
+        <v>0.006119453905109481</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02390584794157792</v>
+        <v>0.0912384342819671</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006176555990956708</v>
+        <v>0.006109468259323065</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02594778923301544</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006948625489826298</v>
+        <v>0.004555692111452312</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.05956227577909881</v>
+        <v>0.02554778923301544</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006893583319685146</v>
+        <v>0.006948625489826298</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0930096872281605</v>
+        <v>0.06107358492094775</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006884324571730338</v>
+        <v>0.006884385643248165</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.02594778923301544</v>
+        <v>0.09413074993956672</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006948625489826298</v>
+        <v>0.006873151791738448</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02708377771841879</v>
+        <v>0.02557360484384934</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007580802488831926</v>
+        <v>0.005226335460174359</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.06274729866018117</v>
+        <v>0.02708377771841879</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007659537021872385</v>
+        <v>0.007580802488831926</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0960609429245925</v>
+        <v>0.06245404929452417</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007649249524144821</v>
+        <v>0.007649317381386851</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.02708377771841879</v>
+        <v>0.09724813749540362</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007580802488831926</v>
+        <v>0.00763683532415383</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02794926779504407</v>
+        <v>0.02731236800879413</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008492764487565474</v>
+        <v>0.005748969006191795</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.06487492186633739</v>
+        <v>0.02804926779504407</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008425490724059624</v>
+        <v>0.008492764487565474</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0984307250129271</v>
+        <v>0.06489269767229522</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008414174476559302</v>
+        <v>0.008414249119525536</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.02794926779504407</v>
+        <v>0.09999088553131097</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008492764487565474</v>
+        <v>0.008400518856569214</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02920092576462967</v>
+        <v>0.02898635698235404</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006271602552209231</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02930092576462967</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009264833986435064</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.06694553376576892</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009191444426246861</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.1028194899262632</v>
+        <v>0.06678943448036176</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009179099428973785</v>
+        <v>0.009179180857664221</v>
       </c>
       <c r="N77" t="n">
-        <v>0.02920092576462967</v>
+        <v>0.1030592826291221</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009264833986435064</v>
+        <v>0.009164202388984598</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03013426004912166</v>
+        <v>0.0305931190620773</v>
       </c>
       <c r="G78" t="n">
+        <v>0.006794236098226667</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.03023426004912165</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01003690348530465</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.06915952272667725</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009957398128434099</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.1050276940976993</v>
+        <v>0.06864416414482466</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009944024381388267</v>
+        <v>0.009944112595802907</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03013426004912166</v>
+        <v>0.10655361737067</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01003690348530465</v>
+        <v>0.00992788592139998</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03114903339434587</v>
+        <v>0.03213020154551201</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007316869644244104</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03144903339434586</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01080897298417424</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.07051727711726383</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01072335183062134</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.1083557939603346</v>
+        <v>0.07075679109178468</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01070894933380275</v>
+        <v>0.01070904433394159</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03114903339434587</v>
+        <v>0.109574178337788</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01080897298417424</v>
+        <v>0.01069156945381536</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03204500854612816</v>
+        <v>0.03359515173020639</v>
       </c>
       <c r="G80" t="n">
+        <v>0.007839503190261539</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.03214500854612816</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01158104248304383</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0732191853057301</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01148930553280858</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.1113042459472677</v>
+        <v>0.07262721974734274</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01147387428621723</v>
+        <v>0.01147397607208028</v>
       </c>
       <c r="N80" t="n">
-        <v>0.03204500854612816</v>
+        <v>0.1131212541123096</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01158104248304383</v>
+        <v>0.01145525298623075</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03292194825029442</v>
+        <v>0.03498551691370857</v>
       </c>
       <c r="G81" t="n">
+        <v>0.008362136736278974</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.03312194825029442</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01235311198191342</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.07486563566027751</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01225525923499582</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.1145735064915974</v>
+        <v>0.0742553545375996</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01223879923863171</v>
+        <v>0.01223890781021896</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03292194825029442</v>
+        <v>0.1147951332760676</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01235311198191342</v>
+        <v>0.01221893651864613</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03417961525267048</v>
+        <v>0.03629884439356672</v>
       </c>
       <c r="G82" t="n">
+        <v>0.00888477028229641</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03427961525267048</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01312518148078301</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.07655701654910754</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01302121293718305</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.1171640320264224</v>
+        <v>0.07604109988865618</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130037241910462</v>
+        <v>0.01300383954835765</v>
       </c>
       <c r="N82" t="n">
-        <v>0.03417961525267048</v>
+        <v>0.1172961044108953</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01312518148078301</v>
+        <v>0.01298262005106151</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03481777229908224</v>
+        <v>0.03753268146732901</v>
       </c>
       <c r="G83" t="n">
+        <v>0.009407403828313846</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03491777229908224</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0138972509796526</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.07899371634042171</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01378716663937029</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.1201762789848417</v>
+        <v>0.07828436022661328</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01376864914346068</v>
+        <v>0.01376877128649633</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03481777229908224</v>
+        <v>0.1202244560986262</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0138972509796526</v>
+        <v>0.0137463035834769</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03583618213535553</v>
+        <v>0.0386845754325436</v>
       </c>
       <c r="G84" t="n">
+        <v>0.009930037374331282</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03573618213535552</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01466932047852219</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.08017612340242133</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01455312034155753</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.122010703799954</v>
+        <v>0.07978503997757172</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01453357409587516</v>
+        <v>0.01453370302463502</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03583618213535553</v>
+        <v>0.1227804769210933</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01466932047852219</v>
+        <v>0.01450998711589228</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.03975207358675868</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01045267092034872</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.03673460750731622</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01544138997739177</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.08210462610330801</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01531907404374477</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.125667762904858</v>
+        <v>0.08104304356763231</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01529849904828964</v>
+        <v>0.0152986347627737</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03673460750731622</v>
+        <v>0.12486445546013</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01544138997739177</v>
+        <v>0.01527367064830766</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03751281116079019</v>
+        <v>0.0407327232275224</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01097530446636615</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03791281116079019</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01621345947626136</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.08427961281128313</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01608502774593201</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.1268479127326526</v>
+        <v>0.08245827542289602</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01606342400070412</v>
+        <v>0.01606356650091239</v>
       </c>
       <c r="N86" t="n">
-        <v>0.03751281116079019</v>
+        <v>0.1279766802975693</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01621345947626136</v>
+        <v>0.01603735418072304</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0388705558416033</v>
+        <v>0.04162407165238288</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01149793801238359</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.03857055584160331</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01698552897513095</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.08530147189454818</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01685098144811925</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1297516097164365</v>
+        <v>0.08493063996946357</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0168283489531186</v>
+        <v>0.01682849823905107</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0388705558416033</v>
+        <v>0.1303174400152444</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01698552897513095</v>
+        <v>0.01680103771313843</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
+        <v>0.04205301392938941</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01177072105572615</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.0392076042955814</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>0.01775759847400054</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.08707059172130455</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01761693515030649</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1320793102893086</v>
+        <v>0.08596004163343582</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01759327390553309</v>
+        <v>0.01759342997718976</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0392076042955814</v>
+        <v>0.1327870231949889</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01775759847400054</v>
+        <v>0.01756472124555381</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04032371926855036</v>
+        <v>0.04320755224594811</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01254320510441846</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.04002371926855036</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01852966797287013</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.08838736065975381</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01838288885249372</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1337314708843676</v>
+        <v>0.08774638484091363</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01835819885794757</v>
+        <v>0.01835836171532844</v>
       </c>
       <c r="N89" t="n">
-        <v>0.04032371926855036</v>
+        <v>0.1343857184186357</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01852966797287013</v>
+        <v>0.0183284047779692</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04111866350633604</v>
+        <v>0.04396088634277278</v>
       </c>
       <c r="G90" t="n">
+        <v>0.0130658386504359</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.04081866350633605</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01930173747173972</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.08975216707809736</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01914884255468096</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1364085479347124</v>
+        <v>0.08928957401799786</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01912312381036205</v>
+        <v>0.01912329345346713</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04111866350633604</v>
+        <v>0.136713814268018</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01930173747173972</v>
+        <v>0.01909208831038458</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0419921997547643</v>
+        <v>0.04469173607980766</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01358847219645333</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.04169219975476431</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.0200738069706093</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.09116539934453666</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0199147962568682</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1385109978734416</v>
+        <v>0.09008951359078923</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01988804876277653</v>
+        <v>0.01988822519160581</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0419921997547643</v>
+        <v>0.1380715993249692</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0200738069706093</v>
+        <v>0.01985577184279996</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04234409075966102</v>
+        <v>0.0454000486480857</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01411110574247077</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.04274409075966101</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02084587646947889</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.09272744582727319</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02068074995905544</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1403392771336541</v>
+        <v>0.09134610798538878</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02065297371519102</v>
+        <v>0.0206531569297445</v>
       </c>
       <c r="N92" t="n">
-        <v>0.04234409075966102</v>
+        <v>0.1402593621713224</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02084587646947889</v>
+        <v>0.02061945537521534</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
+        <v>0.04608577123863979</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.01463373928848821</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.04347409926685203</v>
       </c>
-      <c r="G93" t="n">
+      <c r="K93" t="n">
         <v>0.02161794596834848</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.09433869489450836</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02144670366124268</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1424938421484488</v>
+        <v>0.09345926162789717</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0214178986676055</v>
+        <v>0.02141808866788318</v>
       </c>
       <c r="N93" t="n">
-        <v>0.04347409926685203</v>
+        <v>0.1422773913889109</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02161794596834848</v>
+        <v>0.02138313890763073</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
+        <v>0.04674885104250285</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01515637283450564</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.04428198802216324</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.02239001546721807</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.0955995349144437</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02221265736342991</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1453751493509244</v>
+        <v>0.09442887894441532</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02218282362001998</v>
+        <v>0.02218302040602187</v>
       </c>
       <c r="N94" t="n">
-        <v>0.04428198802216324</v>
+        <v>0.145425975559568</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02239001546721807</v>
+        <v>0.02214682244004611</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04496751977142045</v>
+        <v>0.0473892352507078</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01567900638052308</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.04476751977142045</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02316208496608766</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.09591035425528066</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02297861106561715</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1469836551741796</v>
+        <v>0.09595486436104408</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02294774857243446</v>
+        <v>0.02294795214416055</v>
       </c>
       <c r="N95" t="n">
-        <v>0.04496751977142045</v>
+        <v>0.1457054032651267</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02316208496608766</v>
+        <v>0.02291050597246149</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04513045726044959</v>
+        <v>0.04800687105428756</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01620163992654051</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.04543045726044959</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02393415446495725</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.09717154128522065</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02374456476780439</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1481198160513134</v>
+        <v>0.09663712230388419</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02371267352484895</v>
+        <v>0.02371288388229924</v>
       </c>
       <c r="N96" t="n">
-        <v>0.04513045726044959</v>
+        <v>0.1477159630874204</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02393415446495725</v>
+        <v>0.02367418950487687</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04617056323507647</v>
+        <v>0.04860170564427502</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01672427347255795</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.04577056323507647</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02470622396382683</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.09918348437246519</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02451051846999163</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1491840884154244</v>
+        <v>0.0980755571990366</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02447759847726343</v>
+        <v>0.02447781562043792</v>
       </c>
       <c r="N97" t="n">
-        <v>0.04617056323507647</v>
+        <v>0.1503579436082823</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02470622396382683</v>
+        <v>0.02443787303729226</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04688760044112698</v>
+        <v>0.04917368621170313</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01724690701857539</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.04668760044112698</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02547829346269643</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.09984657188521567</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02527647217217887</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1513769286996113</v>
+        <v>0.09877007347260217</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02524252342967791</v>
+        <v>0.02524274735857661</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04688760044112698</v>
+        <v>0.1509316334095455</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02547829346269643</v>
+        <v>0.02520155656970764</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.047081331624427</v>
+        <v>0.04972275994760477</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01776954056459282</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.047181331624427</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02625036296156601</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.1007611921916736</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02604242587436611</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1527987933369733</v>
+        <v>0.09972057555068162</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02600744838209239</v>
+        <v>0.02600767909671529</v>
       </c>
       <c r="N99" t="n">
-        <v>0.047081331624427</v>
+        <v>0.1532373210730434</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02625036296156601</v>
+        <v>0.02596524010212302</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
+        <v>0.05024887404301288</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01829217411061026</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.04805151953080236</v>
       </c>
-      <c r="G100" t="n">
+      <c r="K100" t="n">
         <v>0.0270224324604356</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.1016277336600404</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02680837957655335</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1536501387606089</v>
+        <v>0.1005269678593758</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02677237333450688</v>
+        <v>0.02677261083485398</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04805151953080236</v>
+        <v>0.1547752951806092</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0270224324604356</v>
+        <v>0.02672892363453841</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04849792690607892</v>
+        <v>0.05075197568896036</v>
       </c>
       <c r="G101" t="n">
+        <v>0.01881480765662769</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04829792690607893</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02779450195930519</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.1021465846585176</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02757433327874059</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1555314214036169</v>
+        <v>0.1021891548247857</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02753729828692135</v>
+        <v>0.02753754257299266</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04849792690607892</v>
+        <v>0.155445844314076</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02779450195930519</v>
+        <v>0.02749260716695379</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04872031649608256</v>
+        <v>0.05123201207648013</v>
       </c>
       <c r="G102" t="n">
+        <v>0.01933744120264513</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04892031649608256</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02856657145817478</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.1038181335553066</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02834028698092782</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1569430976990961</v>
+        <v>0.102407040873012</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02830222323933584</v>
+        <v>0.02830247431113135</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04872031649608256</v>
+        <v>0.1577492570552771</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02856657145817478</v>
+        <v>0.02825629069936917</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04911845104663914</v>
+        <v>0.0516889303966051</v>
       </c>
       <c r="G103" t="n">
+        <v>0.01986007474866256</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.04961845104663914</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02933864095704437</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.1044427687186089</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02910624068311506</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1591856240801453</v>
+        <v>0.1032805304301556</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02906714819175032</v>
+        <v>0.02906740604927003</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04911845104663914</v>
+        <v>0.1574858219860457</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02933864095704437</v>
+        <v>0.02901997423178455</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
+        <v>0.0521226778403682</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.02038270829468</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.05009209330357453</v>
       </c>
-      <c r="G104" t="n">
+      <c r="K104" t="n">
         <v>0.03011071045591395</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.1048208785166258</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0298721943853023</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1590594569798633</v>
+        <v>0.1040095279223173</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02983207314416481</v>
+        <v>0.02983233778740872</v>
       </c>
       <c r="N104" t="n">
-        <v>0.05009209330357453</v>
+        <v>0.1599558276882151</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03011071045591395</v>
+        <v>0.02978365776419994</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05004100601271459</v>
+        <v>0.05253320159880232</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02090534184069744</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.05054100601271459</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03088277995478354</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.105552851317559</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03063814808748954</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.159965052831349</v>
+        <v>0.104893937775598</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03059699809657928</v>
+        <v>0.0305972695255474</v>
       </c>
       <c r="N105" t="n">
-        <v>0.05004100601271459</v>
+        <v>0.1597595627436184</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03088277995478354</v>
+        <v>0.03054734129661532</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05086495191988517</v>
+        <v>0.05292044886294042</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02142797538671487</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.05056495191988518</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03165484945365313</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.1066390754896099</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03140410178967678</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1618028680677011</v>
+        <v>0.1062336644160985</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03136192304899377</v>
+        <v>0.03136220126368609</v>
       </c>
       <c r="N106" t="n">
-        <v>0.05086495191988517</v>
+        <v>0.162097315734089</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03165484945365313</v>
+        <v>0.0313110248290307</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05086369377091214</v>
+        <v>0.05328436682381536</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02195060893273231</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.05136369377091214</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03242691895252272</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.1076799394009799</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03217005549186402</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1625733591220183</v>
+        <v>0.1061286122699197</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03212684800140825</v>
+        <v>0.03212713300182477</v>
       </c>
       <c r="N107" t="n">
-        <v>0.05086369377091214</v>
+        <v>0.1633693752414599</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03242691895252272</v>
+        <v>0.03207470836144609</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05133699431162138</v>
+        <v>0.05362490267246007</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02247324247874974</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.05153699431162137</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03319898845139231</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1076758314198705</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03293600919405126</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1642769824273995</v>
+        <v>0.1069786857631623</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03289177295382274</v>
+        <v>0.03289206473996346</v>
       </c>
       <c r="N108" t="n">
-        <v>0.05133699431162138</v>
+        <v>0.1638760298475646</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03319898845139231</v>
+        <v>0.03283839189386147</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05198461628783871</v>
+        <v>0.05394200359990749</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02299587602476718</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.05158461628783871</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0339710579502619</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.108927139914483</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0337019628962385</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1642141944169435</v>
+        <v>0.1083837893219274</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03365669790623721</v>
+        <v>0.03365699647810214</v>
       </c>
       <c r="N109" t="n">
-        <v>0.05198461628783871</v>
+        <v>0.1650175681342361</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0339710579502619</v>
+        <v>0.03360207542627686</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05240632244539002</v>
+        <v>0.05423561679719052</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02351850957078462</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.05230632244539002</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03474312744913149</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1089342532530191</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03446791659842573</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.164485451523749</v>
+        <v>0.1081438273723155</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0344216228586517</v>
+        <v>0.03442192821624083</v>
       </c>
       <c r="N110" t="n">
-        <v>0.05240632244539002</v>
+        <v>0.1651942786833077</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03474312744913149</v>
+        <v>0.03436575895869224</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05250187553010119</v>
+        <v>0.05450769113007532</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02404114311680205</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0524018755301012</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03551519694800107</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1098975598036802</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03523387030061297</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1662912101809149</v>
+        <v>0.1093587043404276</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03518654781106618</v>
+        <v>0.03518685995437951</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05250187553010119</v>
+        <v>0.1649064500766125</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03551519694800107</v>
+        <v>0.03512944249110762</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05277103828779807</v>
+        <v>0.05477433611535933</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02456377666281949</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.05257103828779808</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03628726644687066</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1100174479346676</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03599982400280021</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.16703192682154</v>
+        <v>0.1094283246523646</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03595147276348067</v>
+        <v>0.0359517916925182</v>
       </c>
       <c r="N112" t="n">
-        <v>0.05277103828779807</v>
+        <v>0.165854370895984</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03628726644687066</v>
+        <v>0.035893126023523</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0532135734643065</v>
+        <v>0.05503897426861953</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02508641020883692</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0528135734643065</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03705933594574026</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.109994306014183</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03676577770498744</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1670080578787229</v>
+        <v>0.1098525927342273</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03671639771589514</v>
+        <v>0.03671672343065688</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0532135734643065</v>
+        <v>0.1661383297232552</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03705933594574026</v>
+        <v>0.03665680955593839</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05312924380545238</v>
+        <v>0.05530148628054461</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02560904375485436</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.05322924380545237</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03783140544460984</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1109285224104277</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03753173140717468</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1679200597855626</v>
+        <v>0.1100314130121164</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03748132266830963</v>
+        <v>0.03748165516879557</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05312924380545238</v>
+        <v>0.1675586151402594</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03783140544460984</v>
+        <v>0.03742049308835377</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05361781205706154</v>
+        <v>0.05556175284182319</v>
       </c>
       <c r="G115" t="n">
+        <v>0.0261316773008718</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.05331781205706154</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03860347494347943</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1108204854916031</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03829768510936192</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1677683889751579</v>
+        <v>0.110864689912133</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03824624762072411</v>
+        <v>0.03824658690693426</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05361781205706154</v>
+        <v>0.1672155157288298</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03860347494347943</v>
+        <v>0.03818417662076915</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
+        <v>0.05581965464314399</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.02665431084688923</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.05337904096495986</v>
       </c>
-      <c r="G116" t="n">
+      <c r="K116" t="n">
         <v>0.03937554444234902</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1107705836259108</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03906363881154916</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1692535018806073</v>
+        <v>0.1112523278603778</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03901117257313859</v>
+        <v>0.03901151864507294</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05337904096495986</v>
+        <v>0.1692093200707996</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03937554444234902</v>
+        <v>0.03894786015318454</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05391269327497321</v>
+        <v>0.05607507237519566</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02717694439290667</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.05361269327497321</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04014761394121861</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1115792051815523</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0398295925137364</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.16887585493501</v>
+        <v>0.1111942312829515</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03977609752555307</v>
+        <v>0.03977645038321163</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05391269327497321</v>
+        <v>0.1692403167480022</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04014761394121861</v>
+        <v>0.03971154368559992</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.05632788672866686</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0276995779389241</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.05391853173292743</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04091968344008819</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1117467385267289</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04059554621592364</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1697359045714645</v>
+        <v>0.1118903046059552</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04054102247796756</v>
+        <v>0.04054138212135031</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05391853173292743</v>
+        <v>0.1696087943422706</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04091968344008819</v>
+        <v>0.0404752272180153</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05409631908464842</v>
+        <v>0.05657797839424625</v>
       </c>
       <c r="G119" t="n">
+        <v>0.02822221148494154</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.05389631908464841</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04169175293895779</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1113735720296422</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04136149991811088</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1693341072230697</v>
+        <v>0.1109404522554896</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04130594743038204</v>
+        <v>0.041306313859489</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05409631908464842</v>
+        <v>0.169615041435438</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04169175293895779</v>
+        <v>0.04123891075043069</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.05682522806262254</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.02874484503095898</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.05416755543683759</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04246382243782737</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1113600940584935</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04212745362029811</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1698709193229245</v>
+        <v>0.1110445786576555</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04207087238279652</v>
+        <v>0.04207124559762768</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05416755543683759</v>
+        <v>0.169359346609338</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04246382243782737</v>
+        <v>0.04200259428284607</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05376679145269406</v>
+        <v>0.05706951642448439</v>
       </c>
       <c r="G121" t="n">
+        <v>0.02926747857697641</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.05366679145269405</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04323589193669696</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.1122157743537546</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.04289340732248535</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04283617733576637</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.1702639932706715</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.042835797335211</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.05376679145269406</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04323589193669696</v>
+        <v>0.04276627781526145</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05406642237013853</v>
+        <v>0.05731072417052042</v>
       </c>
       <c r="G122" t="n">
+        <v>0.02979011212299385</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0536650437711825</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04400796143556655</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1122144781514706</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04365936102467259</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1696628272440709</v>
+        <v>0.111714915092867</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04360072228762548</v>
+        <v>0.04360110907390505</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05406642237013853</v>
+        <v>0.1688631764297308</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04400796143556655</v>
+        <v>0.04352996134767684</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05366157422441784</v>
+        <v>0.05754873199141936</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03031274566901128</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.05405442246437211</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04478003093443614</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1112940060606957</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04442531472685983</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1694340602962822</v>
+        <v>0.1120938498957065</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04436564724003997</v>
+        <v>0.04436604081204373</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05366157422441784</v>
+        <v>0.1701178090576279</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04478003093443614</v>
+        <v>0.04429364488009222</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05365292645173009</v>
+        <v>0.05778342057786984</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03083537921502872</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.05393574253833006</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04555210043330573</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1110492270168841</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04519126842904707</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1688675512349111</v>
+        <v>0.1116453601136125</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04513057219245444</v>
+        <v>0.04513097255018242</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05365292645173009</v>
+        <v>0.1686050472475137</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04555210043330573</v>
+        <v>0.0450573284125076</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05374049613699966</v>
+        <v>0.05801467062056054</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03135801276104615</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.05360928243150434</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04632416993217531</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1117808833560794</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04595722213123431</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1697644017599224</v>
+        <v>0.1113704894706813</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04589549714486893</v>
+        <v>0.0458959042883211</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05374049613699966</v>
+        <v>0.1696277329088036</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04632416993217531</v>
+        <v>0.04582101194492299</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05382430036515093</v>
+        <v>0.05824236281018013</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03188064630706359</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.05357532058234291</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04709623943104491</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1108897174143254</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04672317583342155</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1686257135712808</v>
+        <v>0.1109702816910091</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04666042209728341</v>
+        <v>0.04666083602645979</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05382430036515093</v>
+        <v>0.1679887079509126</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04709623943104491</v>
+        <v>0.04658469547733837</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05390435622110828</v>
+        <v>0.0584663778374173</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03240327985308102</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.05393413542929376</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04786830892991449</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1108764715276657</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04748912953560878</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.169052588368951</v>
+        <v>0.1108457804986921</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0474253470496979</v>
+        <v>0.04742576776459848</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05390435622110828</v>
+        <v>0.1685908142832558</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04786830892991449</v>
+        <v>0.04734837900975375</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05358068078979611</v>
+        <v>0.05868659639296068</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03292591339909846</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.05388600541080492</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04864037842878408</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1117418880321442</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04825508323779602</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1689461278528978</v>
+        <v>0.1111980296178265</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04819027200211237</v>
+        <v>0.04819069950273716</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05358068078979611</v>
+        <v>0.1686368938152486</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04864037842878408</v>
+        <v>0.04811206254216913</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05405329115613877</v>
+        <v>0.05890289916749896</v>
       </c>
       <c r="G129" t="n">
+        <v>0.0334485469451159</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.05353120896532435</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04941244792765367</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1109867092638046</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04902103693998326</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1691074337230857</v>
+        <v>0.1115280727725085</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04895519695452686</v>
+        <v>0.04895563124087585</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05405329115613877</v>
+        <v>0.1683297884563058</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04941244792765367</v>
+        <v>0.04887574607458452</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05382220440506065</v>
+        <v>0.05911516685172082</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03397118049113333</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.05387002453130002</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05018451742652326</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1108116775586905</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0497869906421705</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1683376076794795</v>
+        <v>0.1105369536868345</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04972012190694134</v>
+        <v>0.04972056297901453</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05382220440506065</v>
+        <v>0.1681723401158426</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05018451742652326</v>
+        <v>0.0496394296069999</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05378743762148613</v>
+        <v>0.0593232801363149</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03449381403715077</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.05380273054717995</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05095658692539285</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1105175352528459</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05055294434435774</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.167437751422044</v>
+        <v>0.1109257160849005</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05048504685935582</v>
+        <v>0.05048549471715322</v>
       </c>
       <c r="N131" t="n">
-        <v>0.05378743762148613</v>
+        <v>0.1665673907032743</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05095658692539285</v>
+        <v>0.05040311313941528</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05394900789033959</v>
+        <v>0.0595271197119699</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03501644758316821</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.05352960545141211</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05172865642426244</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1103050246823143</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05131889804654498</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1675089666507439</v>
+        <v>0.1101954036908027</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0512499718117703</v>
+        <v>0.0512504264552919</v>
       </c>
       <c r="N132" t="n">
-        <v>0.05394900789033959</v>
+        <v>0.1656177821280158</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05172865642426244</v>
+        <v>0.05116679667183067</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05350693229654539</v>
+        <v>0.05972656626937447</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03553908112918564</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.05365092768244452</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05250072592313202</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1103748881831396</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05208485174873222</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1669523550655438</v>
+        <v>0.1101470602286375</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05201489676418478</v>
+        <v>0.05201535819343059</v>
       </c>
       <c r="N133" t="n">
-        <v>0.05350693229654539</v>
+        <v>0.1659263562994824</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05250072592313202</v>
+        <v>0.05193048020424604</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05356122792502795</v>
+        <v>0.05992150049921727</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03606171467520308</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.05306697567872512</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05327279542200161</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1105278680913654</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05285080545091945</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1668690183664085</v>
+        <v>0.110181729422501</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05277982171659927</v>
+        <v>0.05278028993156927</v>
       </c>
       <c r="N134" t="n">
-        <v>0.05356122792502795</v>
+        <v>0.1657959551270891</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05327279542200161</v>
+        <v>0.05269416373666143</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05361191186071158</v>
+        <v>0.06011180309218699</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03658434822122052</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.05337802787870193</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.0540448649208712</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1101647067430355</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05361675915310669</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1660600582533027</v>
+        <v>0.1090004549964895</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05354474666901375</v>
+        <v>0.05354522166970796</v>
       </c>
       <c r="N135" t="n">
-        <v>0.05361191186071158</v>
+        <v>0.1651294205202511</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0540448649208712</v>
+        <v>0.05345784726907681</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05375900118852073</v>
+        <v>0.06029735473897232</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03710698176723794</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.05298436272082294</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05481693441974079</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1090861464741937</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05438271285529393</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1655265764261911</v>
+        <v>0.1093042806746991</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05430967162142824</v>
+        <v>0.05431015340784664</v>
       </c>
       <c r="N136" t="n">
-        <v>0.05375900118852073</v>
+        <v>0.1632295943883835</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05481693441974079</v>
+        <v>0.0542215308014922</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05340251299337972</v>
+        <v>0.06047803613026188</v>
       </c>
       <c r="G137" t="n">
+        <v>0.03762961531325539</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0530862586435361</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05558900391861038</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1089929296208838</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05514866655748117</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1661696745850383</v>
+        <v>0.1092942501812261</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05507459657384271</v>
+        <v>0.05507508514598532</v>
       </c>
       <c r="N137" t="n">
-        <v>0.05340251299337972</v>
+        <v>0.1627993186409015</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05558900391861038</v>
+        <v>0.05498521433390759</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05364246436021299</v>
+        <v>0.06065372795674436</v>
       </c>
       <c r="G138" t="n">
+        <v>0.03815224885927282</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.05288399408528946</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05636107341747996</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1091857985191493</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.0559146202596684</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1648904544298093</v>
+        <v>0.1084714072401666</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05583952152625719</v>
+        <v>0.05584001688412401</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05364246436021299</v>
+        <v>0.1617414351872201</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05636107341747996</v>
+        <v>0.05574889786632296</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05337887237394486</v>
+        <v>0.06082431090910843</v>
       </c>
       <c r="G139" t="n">
+        <v>0.03867488240529025</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.05297784748453097</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05713314291634956</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.108965495505034</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05668057396185565</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1638900176604685</v>
+        <v>0.108236795575617</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05660444647867167</v>
+        <v>0.0566049486222627</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05337887237394486</v>
+        <v>0.1605587859367544</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05713314291634956</v>
+        <v>0.05651258139873835</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05321175411949973</v>
+        <v>0.06098966567804275</v>
       </c>
       <c r="G140" t="n">
+        <v>0.03919751595130769</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.05256809727970864</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05790521241521915</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1083327629145818</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05744652766404288</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1644694659769808</v>
+        <v>0.1083914589116735</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05736937143108616</v>
+        <v>0.05736988036040138</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05321175411949973</v>
+        <v>0.1612542127989198</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05790521241521915</v>
+        <v>0.05727626493115373</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.053041126681802</v>
+        <v>0.061149672954236</v>
       </c>
       <c r="G141" t="n">
+        <v>0.03972014949732513</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.05235502190927042</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05867728191408874</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1078883430838363</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05821248136623013</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1629299010793108</v>
+        <v>0.107636440972432</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05813429638350064</v>
+        <v>0.05813481209854007</v>
       </c>
       <c r="N141" t="n">
-        <v>0.053041126681802</v>
+        <v>0.1605305576831311</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05867728191408874</v>
+        <v>0.05803994846356911</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.053167007145776</v>
+        <v>0.06130421342837686</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04024278304334256</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.05243889981166433</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05944935141295832</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1069329783488414</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05897843506841736</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1628724246674234</v>
+        <v>0.1076727854819892</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05889922133591513</v>
+        <v>0.05889974383667875</v>
       </c>
       <c r="N142" t="n">
-        <v>0.053167007145776</v>
+        <v>0.1589906624988036</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05944935141295832</v>
+        <v>0.05880363199598451</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05328941259634616</v>
+        <v>0.06145316779115399</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04076541658936</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.05252000942533835</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.0602214209118279</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1070674110456406</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0597443887706046</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.161798138441283</v>
+        <v>0.1074015361644409</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05966414628832961</v>
+        <v>0.05966467557481743</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05328941259634616</v>
+        <v>0.1589373691553524</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0602214209118279</v>
+        <v>0.05956731552839988</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05280836011843683</v>
+        <v>0.06159641673325605</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04128805013537744</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.05249862918874049</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06099349041069749</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1067923835102778</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06051034247279184</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1610081441008546</v>
+        <v>0.1069237367438837</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06042907124074409</v>
+        <v>0.06042960731295612</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05280836011843683</v>
+        <v>0.1577735195621926</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06099349041069749</v>
+        <v>0.06033099906081527</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0526238667969724</v>
+        <v>0.0617338409453717</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04181068368139487</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.05187503754031871</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06176555990956709</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1067086380787967</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06127629617497908</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1618035433461029</v>
+        <v>0.1057404309444134</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06119399619315857</v>
+        <v>0.06119453905109481</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0526238667969724</v>
+        <v>0.1572019556287395</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06176555990956709</v>
+        <v>0.06109468259323064</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05273594971687724</v>
+        <v>0.06186532111818965</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04233331722741231</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.05184951291852098</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06253762940843667</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.105416917087241</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06204224987716631</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1605854378769923</v>
+        <v>0.1058526624901265</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06195892114557305</v>
+        <v>0.06195947078923349</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05273594971687724</v>
+        <v>0.1549255192644079</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06253762940843667</v>
+        <v>0.06185836612564603</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05294462596307571</v>
+        <v>0.06199073794239852</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04285595077342975</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.05212233376179534</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06330969890730627</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1058179628716545</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06280820357935356</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1593549293934878</v>
+        <v>0.1055614751051192</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06272384609798753</v>
+        <v>0.06272440252737217</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05294462596307571</v>
+        <v>0.1548470523786132</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06330969890730627</v>
+        <v>0.06262204965806141</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05284991262049224</v>
+        <v>0.06210997210868702</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04337858431944718</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.05169377850858975</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06408176840617585</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1056125177680809</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.0635741572815408</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.159913119595554</v>
+        <v>0.1048679125134876</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06348877105040202</v>
+        <v>0.06348933426551086</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05284991262049224</v>
+        <v>0.1532693968807703</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06408176840617585</v>
+        <v>0.0633857331904768</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05275182677405116</v>
+        <v>0.06222290430774379</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04390121786546462</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.05166412559735221</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06485383790504544</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.105001324112564</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06434011098372804</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1579611101831557</v>
+        <v>0.1044730184393279</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0642536960028165</v>
+        <v>0.06425426600364954</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05275182677405116</v>
+        <v>0.1520953946802946</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06485383790504544</v>
+        <v>0.06414941672289218</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05225038550867687</v>
+        <v>0.06232941523025751</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04442385141148205</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0513336534665307</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06562590740391504</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1046851242411475</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06510606468591527</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1581000028562575</v>
+        <v>0.1036778366067365</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06501862095523099</v>
+        <v>0.06501919774178823</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05225038550867687</v>
+        <v>0.151827887686601</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06562590740391504</v>
+        <v>0.06491310025530757</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05244560590929373</v>
+        <v>0.06242938556691684</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04494648495749948</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0513026405545732</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06639797690278462</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.1040646604898751</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06587201838810251</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1572308993148242</v>
+        <v>0.1034834107398094</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06578354590764547</v>
+        <v>0.06578412947992691</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05244560590929373</v>
+        <v>0.1509697178091047</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06639797690278462</v>
+        <v>0.06567678378772294</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05203750506082616</v>
+        <v>0.06252269600841048</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04546911850351693</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.05117136529992772</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06717004640165421</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1038406751947905</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06663797209028975</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1569549012588206</v>
+        <v>0.1027907845626431</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06654847086005994</v>
+        <v>0.0665490612180656</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05203750506082616</v>
+        <v>0.1510237269572209</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06717004640165421</v>
+        <v>0.06644046732013832</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05222610004819847</v>
+        <v>0.06260922724542706</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04599175204953436</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.05114010614104222</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06794211590052379</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1029139106919376</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06740392579247699</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1560731103882111</v>
+        <v>0.1035010017993335</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06731339581247442</v>
+        <v>0.06731399295620429</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05222610004819847</v>
+        <v>0.1501927570403647</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06794211590052379</v>
+        <v>0.06720415085255371</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05221140795633512</v>
+        <v>0.06268885996865528</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04651438559555179</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.05080914151636473</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06871418539939338</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.10238510931736</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06816987949466423</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1550866284029607</v>
+        <v>0.1030151061739771</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06807832076488891</v>
+        <v>0.06807892469434297</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05221140795633512</v>
+        <v>0.148079649967951</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06871418539939338</v>
+        <v>0.0679678343849691</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05199344587016043</v>
+        <v>0.06276147486878378</v>
       </c>
       <c r="G155" t="n">
+        <v>0.04703701914156923</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0505787498643432</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06948625489826298</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1018550134071015</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06893583319685147</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.154396557003034</v>
+        <v>0.1019341414106698</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06884324571730339</v>
+        <v>0.06884385643248166</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05199344587016043</v>
+        <v>0.1486872476493953</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06948625489826298</v>
+        <v>0.06873151791738448</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05197223087459879</v>
+        <v>0.06282695263650129</v>
       </c>
       <c r="G156" t="n">
+        <v>0.04755965268758667</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.05074920962342563</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07025832439713256</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1013243652972058</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06970178689903871</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1535039978883956</v>
+        <v>0.1014591512335081</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06960817066971788</v>
+        <v>0.06960878817062034</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05197223087459879</v>
+        <v>0.1475183919941125</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07025832439713256</v>
+        <v>0.06949520144979986</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05184778005457459</v>
+        <v>0.06288517396249638</v>
       </c>
       <c r="G157" t="n">
+        <v>0.0480822862336041</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.05052079923206003</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07103039389600214</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1008939073237167</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07046774060122594</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1527100527590105</v>
+        <v>0.101191179366588</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07037309562213236</v>
+        <v>0.07037371990875903</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05184778005457459</v>
+        <v>0.1460759249115177</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07103039389600214</v>
+        <v>0.07025888498221525</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0514201104950122</v>
+        <v>0.06293601953745778</v>
       </c>
       <c r="G158" t="n">
+        <v>0.04860491977962154</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.05039088365203416</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07180246339487174</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.101064381822678</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07123369430341318</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1516158233148432</v>
+        <v>0.1010242117676633</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07113802057454684</v>
+        <v>0.07113865164689771</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0514201104950122</v>
+        <v>0.145950533530605</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07180246339487174</v>
+        <v>0.07102256851463062</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05158923928083599</v>
+        <v>0.06297937005207419</v>
       </c>
       <c r="G159" t="n">
+        <v>0.04912755332563898</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.05055481059610921</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07257453289374133</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1009365311301332</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07199964800560042</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1520224112558584</v>
+        <v>0.1001466745404522</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07190294552696133</v>
+        <v>0.0719035833850364</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05158923928083599</v>
+        <v>0.144522102570821</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07257453289374133</v>
+        <v>0.071786252047046</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05125518349697036</v>
+        <v>0.06301510619703421</v>
       </c>
       <c r="G160" t="n">
+        <v>0.04965018687165641</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0499127037117184</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07334660239261093</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.09981109758212622</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07276560170778766</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1510309182820209</v>
+        <v>0.1007587154842381</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0726678704793758</v>
+        <v>0.07266851512317508</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05125518349697036</v>
+        <v>0.1435901360335358</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07334660239261093</v>
+        <v>0.07254993557946139</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05081796022833968</v>
+        <v>0.06304310866302654</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05017282041767385</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04996476344463061</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07411867189148051</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.09908882351470077</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07353155540997489</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1496424460932954</v>
+        <v>0.09966069717526002</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07343279543179028</v>
+        <v>0.07343344686131377</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05081796022833968</v>
+        <v>0.1430545181777352</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07411867189148051</v>
+        <v>0.07331361911187678</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05067758655986833</v>
+        <v>0.06306325814073985</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05069545396369128</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04981119024061474</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07489074139035008</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.09897045126390058</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07429750911216214</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1501580963896466</v>
+        <v>0.09905298218975711</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07419772038420476</v>
+        <v>0.07419837859945246</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05067758655986833</v>
+        <v>0.1424151332624046</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07489074139035008</v>
+        <v>0.07407730264429216</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05083407957648066</v>
+        <v>0.06307543532086282</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05121808750970872</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0494521845454397</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07566281088921968</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.09865672316576937</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07506346281434936</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1493789708710392</v>
+        <v>0.09913593310396832</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07496264533661925</v>
+        <v>0.07496331033759114</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05083407957648066</v>
+        <v>0.1413718655465299</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07566281088921968</v>
+        <v>0.07484098617670754</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0508874563631011</v>
+        <v>0.06307952089408411</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05174072105572616</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04948794680487441</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07643488038808927</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.09844838155635091</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07582941651653662</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1482061712374378</v>
+        <v>0.09900991249413282</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07572757028903374</v>
+        <v>0.07572824207572981</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0508874563631011</v>
+        <v>0.1404245992890965</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07643488038808927</v>
+        <v>0.07560466970912293</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05033773400465399</v>
+        <v>0.06307952089408411</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05174072105572616</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04931867746468772</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07720694988695886</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.09794616877168894</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07659537021872384</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1474407991888074</v>
+        <v>0.09847528293648966</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07649249524144822</v>
+        <v>0.07649317381386851</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05033773400465399</v>
+        <v>0.1405732187490902</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07720694988695886</v>
+        <v>0.0763683532415383</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05028492958606373</v>
+        <v>0.06206237379904233</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05174045252726214</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0491445769706486</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07797901938582845</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.09795082714782713</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07736132392091109</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1472839564251124</v>
+        <v>0.09803240700727794</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0772574201938627</v>
+        <v>0.0772581055520072</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05028492958606373</v>
+        <v>0.1395176081854965</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07797901938582845</v>
+        <v>0.07713203677395369</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05012906019225467</v>
+        <v>0.06105621895475043</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05174018399879812</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0491658457685259</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07875108888469803</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.09736309902080931</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07812727762309832</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1469367446463177</v>
+        <v>0.0969816472827367</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07802234514627718</v>
+        <v>0.07802303729014588</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05012906019225467</v>
+        <v>0.1386576518573012</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07875108888469803</v>
+        <v>0.07789572030636908</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04977014290815121</v>
+        <v>0.06006150573454112</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05173991547033411</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04898268430408854</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07952315838356763</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.09648372672667918</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07889323132528557</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1459002655523881</v>
+        <v>0.09702336633910505</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07878727009869166</v>
+        <v>0.07878796902828455</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04977014290815121</v>
+        <v>0.1379932340234898</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07952315838356763</v>
+        <v>0.07865940383878446</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04990819481867771</v>
+        <v>0.05907868351166003</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05173964694187009</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04859529302310546</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08029522788243722</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09640662661772051</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0796591850274728</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1444756208432879</v>
+        <v>0.09585792675262206</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07955219505110614</v>
+        <v>0.07955290076642325</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04990819481867771</v>
+        <v>0.136624238943048</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08029522788243722</v>
+        <v>0.07942308737119984</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04954323300875858</v>
+        <v>0.05810820165943888</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05173937841340608</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.04860387237134549</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0810672973813068</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09612251383271625</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08042513872966005</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1453639084278663</v>
+        <v>0.09558569109952678</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08031712000352062</v>
+        <v>0.08031783250456194</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04954323300875858</v>
+        <v>0.1373505508749613</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0810672973813068</v>
+        <v>0.08018677090361521</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04927527456331818</v>
+        <v>0.05715050955112436</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05173910988494206</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04800862279457756</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08183936688017639</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09573162772715604</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08119109243184727</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1430622117806246</v>
+        <v>0.09500702195605826</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08108204495593511</v>
+        <v>0.08108276424270061</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04927527456331818</v>
+        <v>0.1352720540782155</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08183936688017639</v>
+        <v>0.08095045443603061</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04910433656728087</v>
+        <v>0.05620605656004705</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05173884135647804</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04810974473857059</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08261143637904597</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.09573428226611638</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08195704613403453</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1434662448950398</v>
+        <v>0.09482228189845565</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0818469699083496</v>
+        <v>0.0818476959808393</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04910433656728087</v>
+        <v>0.1354886328117962</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08261143637904597</v>
+        <v>0.081714137968446</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04903043610557108</v>
+        <v>0.05527529205945484</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05173857282801402</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04790743864909348</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08338350587791557</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.09463079141467379</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08272299983622175</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1421743977788005</v>
+        <v>0.093931833502958</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08261189486076408</v>
+        <v>0.082612627718978</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04903043610557108</v>
+        <v>0.1336001713346889</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08338350587791557</v>
+        <v>0.08247782150086137</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04901367759748815</v>
+        <v>0.05435866542267708</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05173830429955001</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04760190497191513</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08415557537678515</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.09432146913790482</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.083488953538409</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1423850604395953</v>
+        <v>0.09373603934580432</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08337681981317856</v>
+        <v>0.08337755945711667</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04901367759748815</v>
+        <v>0.1331065539058794</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08415557537678515</v>
+        <v>0.08324150503327676</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04859592811045151</v>
+        <v>0.05345662602296288</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05173803577108599</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04739334415280441</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08492764487565474</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09350662940088605</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08425490724059623</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1415966228851125</v>
+        <v>0.09373526200323382</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08414174476559304</v>
+        <v>0.08414249119525535</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04859592811045151</v>
+        <v>0.1322076647843533</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08492764487565474</v>
+        <v>0.08400518856569214</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04828858098686552</v>
+        <v>0.05256962323364039</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05173776724262197</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04748195663753027</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08569971437452434</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.09338658616869394</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08502086094278348</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1416074751230406</v>
+        <v>0.09342986405148543</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08490666971800752</v>
+        <v>0.08490742293339404</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04828858098686552</v>
+        <v>0.1326033882290962</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08569971437452434</v>
+        <v>0.08476887209810752</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04780400396488999</v>
+        <v>0.05169810642795995</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05173749871415795</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.04726794287186158</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08647178387339392</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.09266165340640511</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0857868146449707</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1399160071610679</v>
+        <v>0.09202020806679831</v>
       </c>
       <c r="M177" t="n">
-        <v>0.085671594670422</v>
+        <v>0.08567235467153274</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04780400396488999</v>
+        <v>0.1310936084990936</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08647178387339392</v>
+        <v>0.08553255563052291</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04695456478268462</v>
+        <v>0.0508425249792484</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05173723018569393</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.04705150330156725</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08724385337226352</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.09283214507909601</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08655276834715796</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1401206090068831</v>
+        <v>0.0924066566254115</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08643651962283648</v>
+        <v>0.08643728640967141</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04695456478268462</v>
+        <v>0.1300782098533314</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08724385337226352</v>
+        <v>0.0862962391629383</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04685263117840917</v>
+        <v>0.05000332826075745</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05173696165722991</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0464328383724162</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08801592287113311</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.09229837515184328</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08731872204934518</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1388196706681744</v>
+        <v>0.09138957230356409</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08720144457525096</v>
+        <v>0.0872022181478101</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04685263117840917</v>
+        <v>0.1296570765507949</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08801592287113311</v>
+        <v>0.08705992269535368</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04591057089022339</v>
+        <v>0.04918096564581256</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0517366931287659</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.04611214853017728</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08878799237000268</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0920606575897234</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08808467575153243</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1391115821526304</v>
+        <v>0.09096931767749517</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08796636952766546</v>
+        <v>0.08796714988594878</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04591057089022339</v>
+        <v>0.1277300928504702</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08878799237000268</v>
+        <v>0.08782360622776905</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04524075165628703</v>
+        <v>0.04837588650766683</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05173642460030188</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.04638963422061947</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08956006186887228</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.0911193063578129</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08885062945371966</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1382947334679396</v>
+        <v>0.09034625532344381</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08873129448007994</v>
+        <v>0.08873208162408747</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04524075165628703</v>
+        <v>0.1285971430113424</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08956006186887228</v>
+        <v>0.08858728976018444</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04445554121475982</v>
+        <v>0.04758854021964425</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05173615607183787</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04576549588951162</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09033213136774186</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.09077463542118833</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08961658315590691</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1367675146217904</v>
+        <v>0.08982074781764907</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0894962194324944</v>
+        <v>0.08949701336222615</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04445554121475982</v>
+        <v>0.1261581112923975</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09033213136774186</v>
+        <v>0.08935097329259982</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04366730730380151</v>
+        <v>0.04681937615501603</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05173588754337385</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.04573993398262263</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09110420086661146</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.09062695874492624</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09038253685809414</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1360283156218712</v>
+        <v>0.08969315773634998</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09026114438490888</v>
+        <v>0.09026194510036484</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04366730730380151</v>
+        <v>0.1253128819526211</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09110420086661146</v>
+        <v>0.0901146568250152</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04308841766157184</v>
+        <v>0.04606884368705497</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05173561901490983</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.04531314894572143</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09187627036548104</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.09027659029410318</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09114849056028139</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1351755264758704</v>
+        <v>0.08846384765578574</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09102606933732338</v>
+        <v>0.09102687683850352</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04308841766157184</v>
+        <v>0.1260613392509987</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09187627036548104</v>
+        <v>0.09087834035743059</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04253124002623059</v>
+        <v>0.04533739218908262</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05173535048644582</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.04548534122457691</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09264833986435063</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08982384403379565</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09191444426246861</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1354075371914767</v>
+        <v>0.08833318015219532</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09179099428973786</v>
+        <v>0.09179180857664221</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04253124002623059</v>
+        <v>0.1249033674465159</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09264833986435063</v>
+        <v>0.09164202388984598</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04220814213593747</v>
+        <v>0.04462547103435612</v>
       </c>
       <c r="G186" t="n">
+        <v>0.0517350819579818</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.04475671126495795</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09342040936322023</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08866903392908021</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09268039796465587</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1339227377763783</v>
+        <v>0.08760151780181785</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09255591924215234</v>
+        <v>0.09255674031478089</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04220814213593747</v>
+        <v>0.1239388507981585</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09342040936322023</v>
+        <v>0.09240570742226135</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04163149172885222</v>
+        <v>0.04393352959619534</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05173481342951778</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0447274595126335</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09419247886208981</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.0892124739450334</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09344635166684309</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1334195182382637</v>
+        <v>0.08756922318089236</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09332084419456682</v>
+        <v>0.09332167205291958</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04163149172885222</v>
+        <v>0.1228676735649121</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09419247886208981</v>
+        <v>0.09316939095467673</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04061365654313462</v>
+        <v>0.04326201724785912</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05173454490105376</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.04479778641337241</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.0949645483609594</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.0880544780467318</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09421230536903034</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1326962685848214</v>
+        <v>0.08653665886565798</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0940857691469813</v>
+        <v>0.09408660379105827</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04061365654313462</v>
+        <v>0.1221897200057622</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0949645483609594</v>
+        <v>0.09393307448709212</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04026700431694438</v>
+        <v>0.0426113833626656</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05173427637258975</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.04436789241294362</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09573661785982898</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08839536019925184</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09497825907121757</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1328513788237399</v>
+        <v>0.08570418743235372</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0948506940993958</v>
+        <v>0.09485153552919695</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04026700431694438</v>
+        <v>0.1200048743796945</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09573661785982898</v>
+        <v>0.0946967580195075</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03990390278844128</v>
+        <v>0.0419802423729455</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05173400784412573</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.044237977957116</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09650868735869857</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.08703543436767017</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09574421277340482</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1313832389627076</v>
+        <v>0.08617217145721873</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09561561905181026</v>
+        <v>0.09561646726733564</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03990390278844128</v>
+        <v>0.1201130209456948</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09650868735869857</v>
+        <v>0.09546044155192289</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03973671969578504</v>
+        <v>0.04135803400643662</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05173373931566171</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.04370824349165849</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09728075685756817</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.08637501451706328</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09651016647559205</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.130390239009413</v>
+        <v>0.08524097351649201</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09638054400422474</v>
+        <v>0.09638139900547432</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03973671969578504</v>
+        <v>0.1183140439627484</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09728075685756817</v>
+        <v>0.09622412508433827</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03984829763848539</v>
+        <v>0.04074337269547108</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05173347078719769</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.04337888946233996</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09805282635643775</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.08691441461250771</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.0972761201777793</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1304707689715444</v>
+        <v>0.08501095618641269</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09714546895663922</v>
+        <v>0.09714633074361301</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03984829763848539</v>
+        <v>0.1183078276898413</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09805282635643775</v>
+        <v>0.09698780861675366</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03917679137862806</v>
+        <v>0.04013670781336454</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05173320225873368</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.04314600402657096</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09882489585530733</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.08645394861908001</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09804207387996652</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1287232188567904</v>
+        <v>0.08407250948320735</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09791039390905372</v>
+        <v>0.09791126248175169</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03917679137862806</v>
+        <v>0.1178833541717547</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09882489585530733</v>
+        <v>0.09775149214916903</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03931862761937374</v>
+        <v>0.03953848873337953</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05173293373026966</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.04320482836060263</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09959696535417693</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0859933582764506</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09880802758215376</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1287459786728395</v>
+        <v>0.08331388334669396</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0986753188614682</v>
+        <v>0.09867619421989038</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03931862761937374</v>
+        <v>0.1164279170113251</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09959696535417693</v>
+        <v>0.09851517568158441</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0388727162882978</v>
+        <v>0.03894916482883101</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05173266520180565</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.04315586454678036</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1003690348530465</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.08532389551317149</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.099573981284341</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1282374384273799</v>
+        <v>0.08323649907827027</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09944024381388268</v>
+        <v>0.09944112595802905</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0388727162882978</v>
+        <v>0.1161434837677724</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1003690348530465</v>
+        <v>0.0992788592139998</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03893796731297564</v>
+        <v>0.03836918547298226</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05173239667334163</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.04249963099130159</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1011411043519161</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.08424320847536299</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1003399349865282</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1265959881281002</v>
+        <v>0.08224182729951468</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1002051687662972</v>
+        <v>0.1002060576961677</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03893796731297564</v>
+        <v>0.1149320740860389</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1011411043519161</v>
+        <v>0.1000425427464152</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03891329062098257</v>
+        <v>0.03779900003914746</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05173212814487761</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.04263664610036381</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1019131738507857</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.08375222177882202</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1011058886887155</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.126220017782689</v>
+        <v>0.08203133863200573</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1009700937187116</v>
+        <v>0.1009709894343064</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03891329062098257</v>
+        <v>0.1132957076110663</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1019131738507857</v>
+        <v>0.1008062262788306</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03849759613989405</v>
+        <v>0.03723905790060279</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0517318596164136</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.04236742828016446</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1026852433496553</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.08335186003934553</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1018718423909027</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1244911222989331</v>
+        <v>0.08140650369732189</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1017350186711261</v>
+        <v>0.1017359211724451</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03849759613989405</v>
+        <v>0.112536403987797</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1026852433496553</v>
+        <v>0.101569909811246</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03878979379728541</v>
+        <v>0.03668980843062531</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05173159108794958</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.04209249593690104</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1034573128485249</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.08264304787273033</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.10263779609309</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1229982102707433</v>
+        <v>0.08046879311704166</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1024999436235406</v>
+        <v>0.1025008529105838</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03878979379728541</v>
+        <v>0.1119561828611728</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1034573128485249</v>
+        <v>0.1023335933436613</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03868879352073203</v>
+        <v>0.03615170100252788</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05173132255948556</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.04141236747677098</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1042293823473945</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.08222670989477338</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1034037497952772</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1228345499155467</v>
+        <v>0.07941967751274345</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1032648685759551</v>
+        <v>0.1032657846487225</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03868879352073203</v>
+        <v>0.1106570638761358</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1042293823473945</v>
+        <v>0.1030972768760767</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03869350523780928</v>
+        <v>0.035625184989576</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05173105403102154</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.04112756130597177</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.105001451846264</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.08240377072127156</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1041697034974644</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1196163158181653</v>
+        <v>0.07936062750600584</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1040297935283696</v>
+        <v>0.1040307163868612</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03869350523780928</v>
+        <v>0.1083410666776281</v>
       </c>
       <c r="O201" t="n">
-        <v>0.105001451846264</v>
+        <v>0.1038609604084921</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03840283887609253</v>
+        <v>0.0351107097650815</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05173078550255752</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.04083859583070087</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1057735213451336</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.08107515496802178</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1049356571996517</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1185596825634213</v>
+        <v>0.07879311371840728</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1047947184807841</v>
+        <v>0.1047956481249998</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03840283887609253</v>
+        <v>0.1072102109105917</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1057735213451336</v>
+        <v>0.1046246439409075</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03821570436315719</v>
+        <v>0.03460872470231093</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0517305169740935</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.04054598945715572</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1065455908440032</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.08114178725082097</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1057016109018389</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1168808247361365</v>
+        <v>0.07831860677152624</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1055596434331985</v>
+        <v>0.1055605798631385</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03821570436315719</v>
+        <v>0.1061665162199687</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1065455908440032</v>
+        <v>0.1053883274733229</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03803101162657858</v>
+        <v>0.03411967917457507</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05173024844562949</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.04045026059153384</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1073176603428728</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.08040459218546597</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1064675646040262</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.115595916921133</v>
+        <v>0.07693857728694123</v>
       </c>
       <c r="M204" t="n">
-        <v>0.106324568385613</v>
+        <v>0.1063255116012772</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03803101162657858</v>
+        <v>0.106012002250701</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1073176603428728</v>
+        <v>0.1061520110057382</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03824767059393215</v>
+        <v>0.03364402255514156</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05172997991716547</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.04005192764003265</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1080897298417424</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.08026449438775377</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1072335183062134</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1129211337032326</v>
+        <v>0.07665449588623072</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1070894933380275</v>
+        <v>0.1070904433394159</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03824767059393215</v>
+        <v>0.1037486886477309</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1080897298417424</v>
+        <v>0.1069156945381536</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0379645911927932</v>
+        <v>0.03318220421732004</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05172971138870146</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03995150900884964</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.108861799340612</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.0788224184734812</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1079994720084006</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1105726496672575</v>
+        <v>0.07546783319097319</v>
       </c>
       <c r="M206" t="n">
-        <v>0.107854418290442</v>
+        <v>0.1078553750775546</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0379645911927932</v>
+        <v>0.1028785950560003</v>
       </c>
       <c r="O206" t="n">
-        <v>0.108861799340612</v>
+        <v>0.107679378070569</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03798068335073715</v>
+        <v>0.0327346735343793</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05172944286023744</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03954952310418228</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1096338688394816</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07857928905844525</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1087654257105879</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1084666393980296</v>
+        <v>0.07468005982274711</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1086193432428565</v>
+        <v>0.1086203068156933</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03798068335073715</v>
+        <v>0.1022037411204512</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1096338688394816</v>
+        <v>0.1084430616029844</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03769485699533937</v>
+        <v>0.03230187987962779</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05172917433177342</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03934648833222801</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1104059383383512</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07803603075844273</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1095313794127751</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.107419277480371</v>
+        <v>0.07489264640313106</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1093842681952709</v>
+        <v>0.109385238553832</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03769485699533937</v>
+        <v>0.1010261464860257</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1104059383383512</v>
+        <v>0.1092067451353998</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0378060220541752</v>
+        <v>0.03188427262633555</v>
       </c>
       <c r="G209" t="n">
+        <v>0.0517289058033094</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03894292309918432</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1111780078372208</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07749356818927058</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1102973331149623</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1043467384991036</v>
+        <v>0.07370706355370335</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1101491931476854</v>
+        <v>0.1101501702919706</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0378060220541752</v>
+        <v>0.1001478307976658</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1111780078372208</v>
+        <v>0.1099704286678152</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03791308845482005</v>
+        <v>0.03148230114780975</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05172863727484539</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03863934581124864</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1119500773360904</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07725282596672572</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1110632868171496</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1030651970390493</v>
+        <v>0.07252478189604264</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1109141181000999</v>
+        <v>0.1109151020301093</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03791308845482005</v>
+        <v>0.09817081370031372</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1119500773360904</v>
+        <v>0.1107341122002305</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0376149661248493</v>
+        <v>0.03109641481732178</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05172836874638137</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.0384362748746185</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1127221468349599</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.07651472870660503</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1118292405193368</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1003908276850303</v>
+        <v>0.07284727205172734</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1116790430525144</v>
+        <v>0.111680033768248</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0376149661248493</v>
+        <v>0.09769711483891119</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1127221468349599</v>
+        <v>0.1114977957326459</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03741056499183831</v>
+        <v>0.03072706300817737</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05172810021791735</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03773422869549133</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1134942163338295</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.07618020102470546</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1125951942215241</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.09903980502186838</v>
+        <v>0.0710760046423359</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1124439680049289</v>
+        <v>0.1124449655063867</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03741056499183831</v>
+        <v>0.09652875385840054</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1134942163338295</v>
+        <v>0.1122614792650613</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03729879498336247</v>
+        <v>0.03037469509364937</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05172783168945333</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03783372568006456</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1142662858326991</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.07545016753682385</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1133611479237113</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.0954283036343857</v>
+        <v>0.07051245028944686</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1132088929573433</v>
+        <v>0.1132098972445254</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03729879498336247</v>
+        <v>0.09516775040372377</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1142662858326991</v>
+        <v>0.1130251627974767</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03717856602699712</v>
+        <v>0.03003976044704205</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05172756316098932</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03753528423453573</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1150383553315687</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.07462555285875716</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1141271016258985</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.09347249810740416</v>
+        <v>0.06985807961463869</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1139738179097578</v>
+        <v>0.1139748289826641</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03717856602699712</v>
+        <v>0.0945161241198228</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1150383553315687</v>
+        <v>0.1137888463298921</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03724878805031766</v>
+        <v>0.03003976044704205</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05172756316098932</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.03713942276510224</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1158104248304383</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.07440728160630228</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1148930553280858</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.09188856302574577</v>
+        <v>0.06941436323948988</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1147387428621723</v>
+        <v>0.1147397607208028</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03724878805031766</v>
+        <v>0.09317589465163978</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1158104248304383</v>
+        <v>0.1145525298623075</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03720918861412113</v>
+        <v>0.02930273895219859</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05168556536718116</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.0367466596779616</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1165824943293079</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.07379627839525607</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.115659009030273</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.09049267297423258</v>
+        <v>0.06908277178557887</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1155036678145868</v>
+        <v>0.1155046924589414</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03720918861412113</v>
+        <v>0.09124908164411666</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1165824943293079</v>
+        <v>0.1153162133947229</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03696535374019329</v>
+        <v>0.02857324343045081</v>
       </c>
       <c r="G217" t="n">
+        <v>0.051643567573373</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.03645751337931125</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1173545638281775</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.07379346784141552</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1164249627324603</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.0875010025376865</v>
+        <v>0.06806477587448423</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1162685927670013</v>
+        <v>0.1162696241970801</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03696535374019329</v>
+        <v>0.08963770474219568</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1173545638281775</v>
+        <v>0.1160798969271382</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03671855602337748</v>
+        <v>0.02785153185974976</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05160156977956484</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.03597250227534868</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1181266333270471</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.07299977456057746</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1171909164346475</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.08732972630092961</v>
+        <v>0.06776184612778441</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1170335177194158</v>
+        <v>0.1170345559352188</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03671855602337748</v>
+        <v>0.09014378359081865</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1181266333270471</v>
+        <v>0.1168435804595536</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03666880426417106</v>
+        <v>0.02713786221804646</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05155957198575668</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.03609214477227132</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1188987028259166</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.07261612316853883</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1179568701368347</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.08579501884878377</v>
+        <v>0.06667545316705784</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1177984426718303</v>
+        <v>0.1177994876733575</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03666880426417106</v>
+        <v>0.08816933783492775</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1188987028259166</v>
+        <v>0.117607263991969</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03631610726307134</v>
+        <v>0.02643249248329197</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05151757419194852</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.03551695927627668</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1196707723247862</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.07204343828109649</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.118722823839022</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.08451305476607107</v>
+        <v>0.06630706761388305</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1185633676242447</v>
+        <v>0.1185644194114962</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03631610726307134</v>
+        <v>0.08711638711946501</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1196707723247862</v>
+        <v>0.1183709475243844</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03616047382057566</v>
+        <v>0.02573568063343731</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05147557639814036</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.03544746419356221</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1204428418236558</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.07218264451404741</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1194887775412092</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.08210000863761341</v>
+        <v>0.06645816008983857</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1193282925766592</v>
+        <v>0.1193293511496349</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03616047382057566</v>
+        <v>0.0863869510893725</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1204428418236558</v>
+        <v>0.1191346310567998</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03610191273718136</v>
+        <v>0.02504768464643351</v>
       </c>
       <c r="G222" t="n">
+        <v>0.0514335786043322</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.03498417793032535</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1212149113225254</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.07063466648318847</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1202547312433964</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.08097205504823302</v>
+        <v>0.0650302012165028</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1200932175290737</v>
+        <v>0.1200942828877735</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03610191273718136</v>
+        <v>0.0851830493895922</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1212149113225254</v>
+        <v>0.1198983145892151</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03614043281338578</v>
+        <v>0.0243687625002316</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05139158081052403</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0351276188927636</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.121986980821395</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.07040042880431654</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1210206849455837</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0799422962304388</v>
+        <v>0.06482466161545428</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1208581424814882</v>
+        <v>0.1208592146259122</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03614043281338578</v>
+        <v>0.08460670166506623</v>
       </c>
       <c r="O223" t="n">
-        <v>0.121986980821395</v>
+        <v>0.1206619981216305</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03557604284968624</v>
+        <v>0.02369917217278262</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05134958301671587</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0346783054870744</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1227590503202646</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.07078085609322859</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1217866386477709</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07958955729470202</v>
+        <v>0.06434301190827144</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1216230674339027</v>
+        <v>0.1216241463640509</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03557604284968624</v>
+        <v>0.08335992756073662</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1227590503202646</v>
+        <v>0.1214256816540459</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03570875164658009</v>
+        <v>0.02303917164203761</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05130758522290771</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.03423675611945524</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1235311198191342</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06977687296572141</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1225525923499582</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07994472712072648</v>
+        <v>0.06358672271653279</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1223879923863171</v>
+        <v>0.1223890781021896</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03570875164658009</v>
+        <v>0.08154474672154532</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1235311198191342</v>
+        <v>0.1221893651864613</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03513856800456466</v>
+        <v>0.0223890188859476</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05126558742909955</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.03420348919610355</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1243031893180038</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06948940403759207</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1233185460521454</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07770834636375412</v>
+        <v>0.06355726466181688</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1231529173387316</v>
+        <v>0.1231540098403283</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03513856800456466</v>
+        <v>0.08126317879243439</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1243031893180038</v>
+        <v>0.1229530487188767</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0353655007241373</v>
+        <v>0.02174897188246364</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05122358963529139</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.03377902312321687</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1250752588168733</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06871937392463734</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1240844997543326</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07698095567902707</v>
+        <v>0.06295610836570209</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1239178422911461</v>
+        <v>0.123918941578467</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0353655007241373</v>
+        <v>0.0810172434183461</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1250752588168733</v>
+        <v>0.1237167322512921</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03478955860579536</v>
+        <v>0.02111928860953666</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05118159184148322</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.03346387630699259</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1258473283157429</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06916765032252994</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1248504534565199</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07636309572178723</v>
+        <v>0.06278472444976704</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1246827672435606</v>
+        <v>0.1246838733166057</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03478955860579536</v>
+        <v>0.07950896024422222</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1258473283157429</v>
+        <v>0.1244804157837074</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03461075045003613</v>
+        <v>0.02050022704511787</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05113959404767506</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.03375856715362821</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1266193978146125</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06852534052837628</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1256164071587071</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.07715530714727675</v>
+        <v>0.06274458353559006</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1254476921959751</v>
+        <v>0.1254488050547443</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03461075045003613</v>
+        <v>0.07924034891500492</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1266193978146125</v>
+        <v>0.1252440993161228</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03462908505735698</v>
+        <v>0.01989204516715822</v>
       </c>
       <c r="G230" t="n">
+        <v>0.0510975962538669</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.03306356057044466</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1273914673134821</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06768564553308992</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1263823608608944</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07475813061073755</v>
+        <v>0.06183698358111975</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1262126171483896</v>
+        <v>0.126213736792883</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03462908505735698</v>
+        <v>0.07821319112415048</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1273914673134821</v>
+        <v>0.1260077828485382</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03434457122825524</v>
+        <v>0.01929500095360875</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05105559846005874</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.03317376178918761</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1281635368123517</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06734873507145389</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1271483145630816</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.0752721067674117</v>
+        <v>0.06244329873880752</v>
       </c>
       <c r="M231" t="n">
-        <v>0.126977542100804</v>
+        <v>0.1269786685310217</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03434457122825524</v>
+        <v>0.0772064661589425</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1281635368123517</v>
+        <v>0.1267714663809536</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03405721776322823</v>
+        <v>0.01870935238242048</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05101360066625058</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.03318561840053957</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1289356063112213</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.0674147788782512</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1279142682652688</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07389777627254113</v>
+        <v>0.06145053122103022</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1277424670532185</v>
+        <v>0.1277436002691604</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03405721776322823</v>
+        <v>0.07750583913053893</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1289356063112213</v>
+        <v>0.127535149913369</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03426703346277332</v>
+        <v>0.01813535743154447</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05097160287244242</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.03289921276459111</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1297076758100909</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.06708394668826487</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1286802219674561</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07383567978136796</v>
+        <v>0.06165913812682447</v>
       </c>
       <c r="M233" t="n">
-        <v>0.128507392005633</v>
+        <v>0.1285085320072991</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03426703346277332</v>
+        <v>0.07631168398809923</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1297076758100909</v>
+        <v>0.1282988334457844</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03417402712738783</v>
+        <v>0.01757327407893174</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05092960507863425</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.03241462724143294</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1304797453089605</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.06715640823627794</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1294461756696433</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07378635794913413</v>
+        <v>0.06086957655522696</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1292723169580475</v>
+        <v>0.1292734637454378</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03417402712738783</v>
+        <v>0.07612437468078281</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1304797453089605</v>
+        <v>0.1290625169781997</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03387820755756905</v>
+        <v>0.01702336030253331</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05088760728482609</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0323319441911557</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1312518148078301</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06693233325707348</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1302121293718305</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07315035143108173</v>
+        <v>0.06068230360527435</v>
       </c>
       <c r="M235" t="n">
-        <v>0.130037241910462</v>
+        <v>0.1300383954835765</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03387820755756905</v>
+        <v>0.07494428515774909</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1312518148078301</v>
+        <v>0.1298262005106151</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03347958355381443</v>
+        <v>0.01648587408030024</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05084560949101793</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.03245124597385003</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1320238843066996</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.06561189148543439</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1309780830740178</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07142820088245277</v>
+        <v>0.06069777637600335</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1308021668628764</v>
+        <v>0.1308033272217151</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03347958355381443</v>
+        <v>0.07427178936815748</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1320238843066996</v>
+        <v>0.1305898840430305</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03327816391662118</v>
+        <v>0.01596107339018355</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05080361169720977</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.03227261494960663</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1327959538055692</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.06639525265614377</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.131744036776205</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.07172044695848923</v>
+        <v>0.05981645196645063</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1315670918152909</v>
+        <v>0.1315682589598538</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03327816391662118</v>
+        <v>0.07400726126116741</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1327959538055692</v>
+        <v>0.1313535675754459</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03307395744648672</v>
+        <v>0.01544921621013427</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05076161390340161</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.03179613347851613</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1335680233044388</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.06558258650398471</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1325099904783923</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06982763031443318</v>
+        <v>0.05973878747565292</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1323320167677054</v>
+        <v>0.1323331906979925</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03307395744648672</v>
+        <v>0.07345107478593838</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1335680233044388</v>
+        <v>0.1321172511078613</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03306697294390835</v>
+        <v>0.01495056051810346</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05071961610959345</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.03182188392066922</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1343400928033084</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.06537406276374008</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1332759441805795</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0691502916055266</v>
+        <v>0.05936524000264673</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1330969417201199</v>
+        <v>0.1330981224361312</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03306697294390835</v>
+        <v>0.07170360389162972</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1343400928033084</v>
+        <v>0.1328809346402766</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03285721920938342</v>
+        <v>0.0144643108820754</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05067761831578529</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.03124994863615652</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.135112162302178</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.06446985117019305</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1340418978827667</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06978897148701141</v>
+        <v>0.05989626664646897</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1338618666725344</v>
+        <v>0.1338630541742699</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03285721920938342</v>
+        <v>0.07206522252740077</v>
       </c>
       <c r="O240" t="n">
-        <v>0.135112162302178</v>
+        <v>0.133644618172692</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03244470504340927</v>
+        <v>0.01398440482020079</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05063562052197713</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.03158040998506868</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1358842318010476</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.06417012145812651</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.134807851584954</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06914421061412979</v>
+        <v>0.05953232450615606</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1346267916249488</v>
+        <v>0.1346279859124086</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03244470504340927</v>
+        <v>0.07053630464241117</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1358842318010476</v>
+        <v>0.1344083017051074</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03222943924648324</v>
+        <v>0.01351004690046394</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05059362272816897</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.03121335032749641</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1366563012999172</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.06437504336232358</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1355738052871412</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06831654964212364</v>
+        <v>0.05847387068074489</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1353917165773633</v>
+        <v>0.1353929176505473</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03222943924648324</v>
+        <v>0.07031722418582009</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1366563012999172</v>
+        <v>0.1351719852375228</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03221143061910262</v>
+        <v>0.01304149510081588</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05055162493436081</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.03104885202353033</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1374283707987868</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.06428478661756723</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1363397589893285</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.0677065292262351</v>
+        <v>0.05902136226927202</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1361566415297778</v>
+        <v>0.1361578493886859</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03221143061910262</v>
+        <v>0.06990835510678711</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1374283707987868</v>
+        <v>0.1359356687699382</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0317906879617648</v>
+        <v>0.01257900739920764</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05050962714055265</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.03088699743326112</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1382004402976564</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.06389952095864052</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1371057126915157</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.06741469002170619</v>
+        <v>0.05857525637077415</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1369215664821923</v>
+        <v>0.1369227811268246</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0317906879617648</v>
+        <v>0.06821007135447166</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1382004402976564</v>
+        <v>0.1366993523023536</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0316672200749671</v>
+        <v>0.01212284177359028</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05046762934674449</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.03062786891677945</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.138972509796526</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.06381941612032641</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1378716663937029</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.06754157268377875</v>
+        <v>0.05803601008428802</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1376864914346068</v>
+        <v>0.1376877128649633</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0316672200749671</v>
+        <v>0.06762274687803305</v>
       </c>
       <c r="O245" t="n">
-        <v>0.138972509796526</v>
+        <v>0.137463035834769</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03154103575920683</v>
+        <v>0.0116732562019148</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05042563155293633</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.03077154883417592</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1397445792953955</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.06264464183740798</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1386376200958902</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.06548771786769492</v>
+        <v>0.05850408050885023</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1384514163870213</v>
+        <v>0.138452644603102</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03154103575920683</v>
+        <v>0.0686467556266307</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1397445792953955</v>
+        <v>0.1382267193671843</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03131214381498139</v>
+        <v>0.01123050866213225</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05038363375912817</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.03041811954554123</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1405166487942651</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.06327536784466828</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1394035737980774</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.06555366622869668</v>
+        <v>0.05757992474349746</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1392163413394358</v>
+        <v>0.1392175763412407</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03131214381498139</v>
+        <v>0.06768247154942408</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1405166487942651</v>
+        <v>0.1389904028995997</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03088055304278808</v>
+        <v>0.01079485713219368</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05034163596532001</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.03006766341096605</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1412887182931347</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.06281176387689022</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1401695275002647</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.06473995842202612</v>
+        <v>0.05776399988726641</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1399812662918502</v>
+        <v>0.1399825080793794</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03088055304278808</v>
+        <v>0.06733026859557262</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1412887182931347</v>
+        <v>0.1397540864320151</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03044627224312421</v>
+        <v>0.0103665595900501</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05029963817151185</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.030120262790541</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1420607877920043</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.06205399966885694</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1409354812024519</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.06444713510292516</v>
+        <v>0.05695676303919373</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1407461912442647</v>
+        <v>0.1407474398175181</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03044627224312421</v>
+        <v>0.06549052071423572</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1420607877920043</v>
+        <v>0.1405177699644305</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03030931021648715</v>
+        <v>0.009945874013652559</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05025764037770369</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02987600004435681</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1428328572908739</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.06230224495535139</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1417014349046391</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.06557573692663599</v>
+        <v>0.0576586712983162</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1415111161966792</v>
+        <v>0.1415123715556567</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03030931021648715</v>
+        <v>0.06486360185457291</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1428328572908739</v>
+        <v>0.1412814534968459</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03006967576337423</v>
+        <v>0.009533058380952093</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05021564258389553</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02983495753250405</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1436049267897435</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.06245666947115666</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1424673886068264</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.06352630454840036</v>
+        <v>0.05717018176367034</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1422760411490937</v>
+        <v>0.1422773032937954</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03006967576337423</v>
+        <v>0.06434988596574337</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1436049267897435</v>
+        <v>0.1420451370292612</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03012737768428279</v>
+        <v>0.00912837066989966</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05017364479008736</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02979721761507342</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1443769962886131</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.06161744295105567</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1432333423090136</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.06339937862346057</v>
+        <v>0.05709175153429294</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1430409661015082</v>
+        <v>0.1430422350319341</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03012737768428279</v>
+        <v>0.06444974699690664</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1443769962886131</v>
+        <v>0.1428088205616767</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02998242477971014</v>
+        <v>0.008732068858446428</v>
       </c>
       <c r="G253" t="n">
+        <v>0.0501316469962792</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02966286265215561</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1451490657874827</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.06198473512983152</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1439992960112008</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.06319549980705841</v>
+        <v>0.05682383770922059</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1438058910539227</v>
+        <v>0.1438071667700728</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02998242477971014</v>
+        <v>0.06376355889722218</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1451490657874827</v>
+        <v>0.143572504094092</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02953482585015366</v>
+        <v>0.008344410924543376</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05008964920247103</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02933197500384123</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1459211352863522</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.06105871574226723</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1447652497133881</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.0631152087544361</v>
+        <v>0.05666689738749006</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1445708160063371</v>
+        <v>0.1445720985082115</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02953482585015366</v>
+        <v>0.06379169561584941</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1459211352863522</v>
+        <v>0.1443361876265074</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02948458969611063</v>
+        <v>0.007965654846141521</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05004765140866287</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02950463703022092</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1466932047852219</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.06073955452314581</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1455312034155753</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.06395904612083542</v>
+        <v>0.05682138766813796</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1453357409587516</v>
+        <v>0.1453370302463502</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02948458969611063</v>
+        <v>0.06243453110194769</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1466932047852219</v>
+        <v>0.1450998711589228</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02893172511807847</v>
+        <v>0.007596058601191918</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05000565361485471</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02888093109138543</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1474652742840914</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.06052742120725024</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1462971571177626</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.06372755256149859</v>
+        <v>0.055687765650201</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1461006659111661</v>
+        <v>0.1461019619844889</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02893172511807847</v>
+        <v>0.06319243930467644</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1474652742840914</v>
+        <v>0.1458635546913382</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02877624091655442</v>
+        <v>0.007235880167645599</v>
       </c>
       <c r="G257" t="n">
+        <v>0.04996365582104655</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02896093954742533</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.148237343782961</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.06002248552936362</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1470631108199498</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.06332126873166749</v>
+        <v>0.05616648843271585</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1468655908635806</v>
+        <v>0.1468668937226275</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02877624091655442</v>
+        <v>0.06296579417319514</v>
       </c>
       <c r="O257" t="n">
-        <v>0.148237343782961</v>
+        <v>0.1466272382237536</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02821814589203589</v>
+        <v>0.006885377523453584</v>
       </c>
       <c r="G258" t="n">
+        <v>0.04992165802723839</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02914474475843133</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1490094132818306</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.05992491722426893</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.147829064522137</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.06254073528658427</v>
+        <v>0.05555801311471917</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1476305158159951</v>
+        <v>0.1476318254607662</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02821814589203589</v>
+        <v>0.06185496965666315</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1490094132818306</v>
+        <v>0.1473909217561689</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02845744884502019</v>
+        <v>0.00654480864656691</v>
       </c>
       <c r="G259" t="n">
+        <v>0.04987966023343023</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02903242908449405</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1497814827807002</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.06073488602674917</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1485950182243243</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.06328649288149085</v>
+        <v>0.05566279679524766</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1483954407684095</v>
+        <v>0.1483967571989049</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02845744884502019</v>
+        <v>0.06176033970423989</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1497814827807002</v>
+        <v>0.1481546052885843</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02799415857600464</v>
+        <v>0.006214431514936634</v>
       </c>
       <c r="G260" t="n">
+        <v>0.04983766243962207</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02862407488570418</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1505535522795698</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.06015256167158736</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1493609719265115</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.06185908217162928</v>
+        <v>0.05528129657333797</v>
       </c>
       <c r="M260" t="n">
-        <v>0.149160365720824</v>
+        <v>0.1491616889370436</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02799415857600464</v>
+        <v>0.06038227826508485</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1505535522795698</v>
+        <v>0.1489182888209997</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02762828388548662</v>
+        <v>0.005894504106513758</v>
       </c>
       <c r="G261" t="n">
+        <v>0.04979566464581391</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02831976452215237</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1513256217784394</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.06037811389356659</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1501269256286987</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.06305904381224164</v>
+        <v>0.05621396954802679</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1499252906732385</v>
+        <v>0.1499266206751823</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02762828388548662</v>
+        <v>0.06172115928835736</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1513256217784394</v>
+        <v>0.1496819723534151</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0275598335739634</v>
+        <v>0.005585284399249345</v>
       </c>
       <c r="G262" t="n">
+        <v>0.04975366685200575</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02851958035392926</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.152097691277309</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.06011171242746985</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.150892879330886</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.06228691845856987</v>
+        <v>0.05526127281835078</v>
       </c>
       <c r="M262" t="n">
-        <v>0.150690215625653</v>
+        <v>0.150691552413321</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0275598335739634</v>
+        <v>0.05977735672321682</v>
       </c>
       <c r="O262" t="n">
-        <v>0.152097691277309</v>
+        <v>0.1504456558858305</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02688881644193238</v>
+        <v>0.005287030371094403</v>
       </c>
       <c r="G263" t="n">
+        <v>0.04971166905819759</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02862360474112556</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1528697607761785</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.06005352700808017</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1516588330330732</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.061943246765856</v>
+        <v>0.05512366348334669</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1514551405780675</v>
+        <v>0.1514564841514596</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02688881644193238</v>
+        <v>0.06075124451882274</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1528697607761785</v>
+        <v>0.1512093394182459</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02681524128989085</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.04966967126438943</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02833192004383185</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1536418302750481</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.05970372737018051</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1524247867352605</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.061828569389342</v>
+        <v>0.05550159864205115</v>
       </c>
       <c r="M264" t="n">
-        <v>0.152220065530482</v>
+        <v>0.1522214158895983</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02681524128989085</v>
+        <v>0.05934319662433446</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1536418302750481</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1519730229506612</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04965651336965259</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005770816943626467</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0496567818981166</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006537874598684483</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04965705042658062</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007301137077738627</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04965731895504464</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008060568493420107</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04965758748350866</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008816132958293817</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04965785601197267</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009567794584990637</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04965812454043669</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01031551748607582</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04965839306890071</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01105926577417987</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04965866159736473</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01179900356186839</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04965893012582874</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01253469496177156</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04965919865429276</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01326630408645531</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04965946718275677</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01399379504854949</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04965973571122079</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01471713196062037</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04966000423968481</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01543627893529742</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04966027276814883</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01615120008514732</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04966054129661285</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01686185952279914</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04966080982507687</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01756822136081995</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04966107835354088</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0182702497118232</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04966134688200489</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01896790868842201</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04966161541046892</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01966116240318399</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04966188393893293</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02034997496873729</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04966215246739695</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0210343104976499</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04966242099586096</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02171413310254958</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04966268952432498</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0223894068960047</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.049662958052789</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02306024253086757</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04966322658125302</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02372748336105666</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04966349510971704</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02439124003942394</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04966376363818106</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02505147667853846</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04966403216664507</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02570815739102694</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04966430069510909</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02636124628945882</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0496645692235731</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02701070748646043</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04966483775203712</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02765650509460151</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04966510628050114</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0282986032264942</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04966537480896515</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02893696599475033</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04966564333742917</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02957155751194007</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04966591186589318</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03020234189068901</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0496661803943572</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03082928324356771</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04966644892282122</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03145234568320137</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04966671745128524</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03207149332216088</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04966698597974926</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03268669027307116</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04966725450821328</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03329790064850339</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04966752303667729</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03390508856108215</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04966779156514131</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03450821812337896</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04966806009360532</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03510725344801811</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04966832862206935</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03570215864757143</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04966859715053336</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03629289783466282</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04966886567899738</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03687943512186454</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04966913420746139</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03746173462180007</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04966940273592541</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03803976044704206</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04966967126438943</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03803976044704206</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04965651336965259</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03867282740407799</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04969904822038879</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03930074351385666</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04974158307112498</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03992340168438296</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04978411792186117</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04054069482366184</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04982665277259737</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04115251583969822</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04986918762333357</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04175875764049706</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04991172247406976</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04235931313406328</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04995425732480595</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04295407522840178</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04999679217554215</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04354293683151755</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05003932702627835</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04412579085141548</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05008186187701454</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04470253019610051</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05012439672775074</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04527304777357759</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05016693157848693</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04583723649185163</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05020946642922313</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04639498925892756</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05025200127995932</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04694619898281035</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05029453613069552</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.0474907585715049</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05033707098143172</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04802856093301613</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05037960583216791</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04855949897534901</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05042214068290411</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04908346560650843</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0504646755336403</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04960035373449937</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0505072103843765</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05011005626732672</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05054974523511269</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05061246611299545</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05059228008584889</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05110747617951044</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05063481493658508</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05159497937487662</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05067734978732127</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05207530589941221</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05071988463805747</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05255097241500122</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05076241948879366</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05302230912196183</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05080495433952986</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05348920892829891</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05084748919026606</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05395156474201743</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05089002404100225</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05440926947112232</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05093255889173844</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05486221602361851</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05097509374247464</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05531029730751092</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05101762859321084</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05575340623080449</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05106016344394703</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05619143570150415</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05110269829468322</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05662427862761483</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05114523314541942</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05705182791714148</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05118776799615562</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.057473976478089</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05123030284689181</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05789061721846234</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05127283769762801</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05830164304626646</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05131537254836421</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05870694686950626</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0513579073991004</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05910642159618667</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05140044224983659</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05949996013431264</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05144297710057279</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05988745539188908</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05148551195130899</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06026880027692093</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05152804680204518</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.06064388769741314</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05157058165278137</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06101261056137065</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05161311650351758</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06137486177679833</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05165565135425377</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.06173053425170118</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05169818620498996</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06207952089408409</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05174072105572616</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.0620795208940841</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05174072105572616</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06354798247359345</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05326862963393973</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06497290482185247</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0547965382121533</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06635348320102</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05632444679036688</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06768891287325485</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05785235536858045</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06897838910071591</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05938026394679402</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07022110714556198</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06090817252500759</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07141626226995196</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06243608110322117</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07256304973604463</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06396398968143474</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07366066480599884</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0654918982596483</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07470830274197349</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06701980683786188</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07570515880612735</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06854771541607545</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0766504282606193</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07007562399428903</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07754330636760817</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07160353257250258</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.07838298838925284</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07313144115071617</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.07916866958771207</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07465934972892974</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.07989954522514481</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0761872583071433</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0805748105637098</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07771516688535689</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08119366086556595</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07924307546357046</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08175529139287205</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08077098404178402</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.082258897407787</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08229889261999759</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0827036741724696</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08382680119821118</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08308881694907869</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08535470977642473</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08341352099977317</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08688261835463831</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08367698158671183</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08841052693285188</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08387839397205349</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08993843551106546</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.08401695341795704</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09146634408927903</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08410602785877883</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.0929942526674926</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08410158896931741</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09452216124570616</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.08403809093628375</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09605006982391974</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08390297709540562</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09757797840213331</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08370095482696829</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09910588698034689</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08343673151125713</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1006337955585605</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08311501452855746</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.102161704136774</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.08274051125915455</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1036896127149876</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.08231792908333377</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1052175212932012</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.08185197538138042</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1067454298714147</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0813473575335798</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1082733384496283</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0808087829202172</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1098012470278419</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.08024095892157801</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1113291556060555</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07964859291794751</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.112857064184269</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07903639228961101</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1143849727624826</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.07840906441685386</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1159128813406962</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07777131667996132</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1174407899189097</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.07712785645921874</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1189686984971233</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07648339113491143</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1204966070753369</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07584262808732473</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1220245156535505</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07521027469674396</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.123552424231764</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07459103834345437</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1250803328099776</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07398962640774137</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1266082413881912</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07341074626989019</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1281361499664047</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07285905582502161</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1296640585446183</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07229089326092944</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1311919671228319</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07166960574973352</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1327198757010455</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07100160870369301</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.134247784279259</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.07029331753506704</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1357756928574726</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.06955114765611473</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1373036014356862</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.06878151447909522</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1388315100138998</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.06799083341626766</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1403594185921133</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.06718551987989119</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1418873271703269</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.06637198928222487</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1434152357485405</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.06555665703552799</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.144943144326754</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.06474593855205951</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1464710529049676</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.06394624924407871</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1479989614831812</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06316400452384466</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.06240561980361647</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1510547786396083</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.06167751049565332</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1525826872178219</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.06098609201221435</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1541105957960355</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.06033777976555867</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.155638504374249</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.05973898916794543</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1571664129524626</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.05919613563163375</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1586943215306762</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.05871563456888281</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1602222301088897</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.05830390139195168</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1617501386871033</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.05796735151309956</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1632780472653169</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.05771240034458553</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1648059558435305</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.05754546329866877</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.166333864421744</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.05747295578760838</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1678617729999576</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.05747035305942074</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1693896815781712</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.05747082569656003</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1709175901563847</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.05747228283428781</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1724454987345983</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.05747528004413944</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1739734073128119</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.05748037289765025</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1755013158910255</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.05748811696635558</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.177029224469239</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.05749906782179074</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1785571330474526</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.05751378103549109</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1800850416256662</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.05753281217899193</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1816129502038797</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.05755671682382862</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1831408587820934</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.05758605054153648</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1846687673603069</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.05762136890365085</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1861966759385205</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.05766322748170704</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.187724584516734</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.05771218184724041</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1892524930949477</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.05776878757178629</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1907804016731612</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.05783360022687999</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1923083102513747</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.05790717538405687</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1938362188295883</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.05799006861485224</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1953641274078019</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.05808283549080143</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1968920359860155</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0581860315834398</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.198419944564229</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.05830021246430266</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.1999478531424426</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.05842593370492535</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2014757617206562</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.05856375087684319</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2030036702988698</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.09205301392938942</v>
+        <v>0.09882808357633652</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04205301392938941</v>
+        <v>0.04882808357633652</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01177072105572615</v>
+        <v>0.01366707633435693</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003146620675462376</v>
+        <v>0.003458929963093514</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005226335460174359</v>
+        <v>0.00165090092890255</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004198847159808956</v>
+        <v>0.009446032553520924</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007720694988695886</v>
+        <v>0.001626528242622896</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01466615690256293</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007649317381386851</v>
+        <v>0.00159726662404092</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02418468379865774</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007636835324153831</v>
+        <v>0.001484328579916814</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00622453913391971</v>
+        <v>0.01493975188863735</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001045267092034872</v>
+        <v>0.0033018018578051</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007953132893716859</v>
+        <v>0.015</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001544138997739177</v>
+        <v>0.002938970588235294</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02711119072273707</v>
+        <v>0.04273531230247743</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00152986347627737</v>
+        <v>0.003212603099390686</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.04377286020556381</v>
+        <v>0.0696720520508155</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001527367064830766</v>
+        <v>0.003209197932231166</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.009208970584774712</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001567900638052308</v>
+        <v>0.004555692111452312</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.012</v>
+        <v>0.02003933302972263</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002351176470588235</v>
+        <v>0.004879584727868689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04099999999999998</v>
+        <v>0.05610788717687729</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002599736658417411</v>
+        <v>0.00479179987212276</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.059</v>
+        <v>0.08513199663533577</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002244650675804302</v>
+        <v>0.004452985739750444</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01207513023743009</v>
+        <v>0.02534231845778786</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002090534184069744</v>
+        <v>0.0066036037156102</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01476738173856895</v>
+        <v>0.02301367554297168</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003088277995478354</v>
+        <v>0.006506112970491585</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04373634937644921</v>
+        <v>0.06146966515314065</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00305972695255474</v>
+        <v>0.006425206198781372</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06896615912384035</v>
+        <v>0.09675714309139616</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003054734129661532</v>
+        <v>0.006418395864462331</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01479823330128856</v>
+        <v>0.02833198041233195</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00261316773008718</v>
+        <v>0.00825450464451275</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01712710715212061</v>
+        <v>0.02708377771841879</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003860347494347943</v>
+        <v>0.008816911764705882</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05027528681456306</v>
+        <v>0.06765313111211591</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003824658690693426</v>
+        <v>0.008031507748476715</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07845643786212986</v>
+        <v>0.1049026111606217</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003818417662076915</v>
+        <v>0.008022994830577912</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01735349498575282</v>
+        <v>0.03581422624428888</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003135801276104615</v>
+        <v>0.009905405573415299</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01989025875473578</v>
+        <v>0.02833624915843654</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004632416993217532</v>
+        <v>0.009759169455737378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05323422156296312</v>
+        <v>0.07301740338092347</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004589590428832111</v>
+        <v>0.009637809298172057</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.08513199663533577</v>
+        <v>0.1120118085717529</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004626915103633803</v>
+        <v>0.009627593796693496</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01971613050022561</v>
+        <v>0.04391972855956292</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003658434822122052</v>
+        <v>0.01155630650231785</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0221015884000198</v>
+        <v>0.03051274275541051</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00540448649208712</v>
+        <v>0.01138569769836027</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05610788717687729</v>
+        <v>0.07770849999395946</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00508242965575178</v>
+        <v>0.0112441108478674</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08747090194077145</v>
+        <v>0.1186563462803735</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005345784726907682</v>
+        <v>0.01123219276280908</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02186135505410962</v>
+        <v>0.04882808357633652</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004181068368139487</v>
+        <v>0.01366707633435693</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02430584794157792</v>
+        <v>0.03250689897364414</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006176555990956708</v>
+        <v>0.01301222594098317</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05885140012546516</v>
+        <v>0.08127243898561992</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006119453905109481</v>
+        <v>0.01285041239756274</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0912384342819671</v>
+        <v>0.1252078352420674</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006109468259323065</v>
+        <v>0.01283679172892466</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.04354640715913276</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.004555692111452312</v>
+        <v>0.01485810836012295</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02554778923301544</v>
+        <v>0.03470859726961753</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006948625489826298</v>
+        <v>0.01463875418360606</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06107358492094775</v>
+        <v>0.08515523839030106</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006884385643248165</v>
+        <v>0.01445671394725809</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09413074993956672</v>
+        <v>0.1299378864124178</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006873151791738448</v>
+        <v>0.01444139069504024</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02557360484384934</v>
+        <v>0.04733056751491046</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005226335460174359</v>
+        <v>0.0165090092890255</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02708377771841879</v>
+        <v>0.03660771709981071</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007580802488831926</v>
+        <v>0.01626528242622896</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06245404929452417</v>
+        <v>0.08740291624239899</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007649317381386851</v>
+        <v>0.01606301549695343</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09724813749540362</v>
+        <v>0.1333181107470088</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00763683532415383</v>
+        <v>0.01604598966115582</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02731236800879413</v>
+        <v>0.05109769161751284</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.005748969006191795</v>
+        <v>0.01815991021792805</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02804926779504407</v>
+        <v>0.03869413792070379</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008492764487565474</v>
+        <v>0.01789181066885186</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06489269767229522</v>
+        <v>0.09096149057630978</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008414249119525536</v>
+        <v>0.01766931704664877</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.09999088553131097</v>
+        <v>0.138420119201424</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008400518856569214</v>
+        <v>0.01765058862727141</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02898635698235404</v>
+        <v>0.06180816710981654</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006271602552209231</v>
+        <v>0.0198108111468306</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02930092576462967</v>
+        <v>0.04035773918877689</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009264833986435064</v>
+        <v>0.01951833891147476</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06678943448036176</v>
+        <v>0.09247697942642955</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009179180857664221</v>
+        <v>0.01927561859634411</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1030592826291221</v>
+        <v>0.1420155227312471</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009164202388984598</v>
+        <v>0.01925518759338699</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0305931190620773</v>
+        <v>0.06042238163469815</v>
       </c>
       <c r="G78" t="n">
-        <v>0.006794236098226667</v>
+        <v>0.02146171207573315</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03023426004912165</v>
+        <v>0.04228840036051</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01003690348530465</v>
+        <v>0.02114486715409765</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06864416414482466</v>
+        <v>0.09529540082715443</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009944112595802907</v>
+        <v>0.02088192014603946</v>
       </c>
       <c r="N78" t="n">
-        <v>0.10655361737067</v>
+        <v>0.1436759322920618</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00992788592139998</v>
+        <v>0.02085978655950257</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03213020154551201</v>
+        <v>0.06190072283503425</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007316869644244104</v>
+        <v>0.0231126130046357</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03144903339434586</v>
+        <v>0.04367600089238324</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01080897298417424</v>
+        <v>0.02277139539672055</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07075679109178468</v>
+        <v>0.09606277281288059</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01070904433394159</v>
+        <v>0.0224882216957348</v>
       </c>
       <c r="N79" t="n">
-        <v>0.109574178337788</v>
+        <v>0.1471729588394518</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01069156945381536</v>
+        <v>0.02246438552561816</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03359515173020639</v>
+        <v>0.06420357835370147</v>
       </c>
       <c r="G80" t="n">
-        <v>0.007839503190261539</v>
+        <v>0.02476351393353825</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03214500854612816</v>
+        <v>0.04461042024087671</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01158104248304383</v>
+        <v>0.02439792363934344</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07262721974734274</v>
+        <v>0.09812511341800406</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01147397607208028</v>
+        <v>0.02409452324543014</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1131212541123096</v>
+        <v>0.1487782133290007</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01145525298623075</v>
+        <v>0.02406898449173374</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03498551691370857</v>
+        <v>0.06729133583357638</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008362136736278974</v>
+        <v>0.0264144148624408</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03312194825029442</v>
+        <v>0.04578153786247045</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01235311198191342</v>
+        <v>0.02602445188196634</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0742553545375996</v>
+        <v>0.09902844067692107</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01223890781021896</v>
+        <v>0.02570082479512549</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1147951332760676</v>
+        <v>0.1509640745054037</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01221893651864613</v>
+        <v>0.02567358345784932</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03629884439356672</v>
+        <v>0.07712438291753557</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00888477028229641</v>
+        <v>0.02806531579134335</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03427961525267048</v>
+        <v>0.04697923321364457</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01312518148078301</v>
+        <v>0.02765098012458924</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07604109988865618</v>
+        <v>0.101246170846505</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01300383954835765</v>
+        <v>0.02730712634482083</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1172961044108953</v>
+        <v>0.1539513357852432</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01298262005106151</v>
+        <v>0.02727818242396491</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03753268146732901</v>
+        <v>0.07766310724845563</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009407403828313846</v>
+        <v>0.0297162167202459</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03491777229908224</v>
+        <v>0.04759338575087912</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0138972509796526</v>
+        <v>0.02927750836721213</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07828436022661328</v>
+        <v>0.1016274422943723</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01376877128649633</v>
+        <v>0.02891342789451617</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1202244560986262</v>
+        <v>0.1556813351592363</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0137463035834769</v>
+        <v>0.02888278139008049</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0386845754325436</v>
+        <v>0.08286789646921316</v>
       </c>
       <c r="G84" t="n">
-        <v>0.009930037374331282</v>
+        <v>0.03136711764914845</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03573618213535552</v>
+        <v>0.04875271174267441</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01466932047852219</v>
+        <v>0.03090403660983503</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07978503997757172</v>
+        <v>0.1027642007236304</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01453370302463502</v>
+        <v>0.03051972944421152</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1227804769210933</v>
+        <v>0.1575415294806975</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01450998711589228</v>
+        <v>0.03048738035619607</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03975207358675868</v>
+        <v>0.08069913822268482</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01045267092034872</v>
+        <v>0.033018018578051</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03673460750731622</v>
+        <v>0.04938397476781935</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01544138997739177</v>
+        <v>0.03253056485245792</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08104304356763231</v>
+        <v>0.1042481529883413</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0152986347627737</v>
+        <v>0.03212603099390686</v>
       </c>
       <c r="N85" t="n">
-        <v>0.12486445546013</v>
+        <v>0.1597193756029411</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01527367064830766</v>
+        <v>0.03209197932231165</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0407327232275224</v>
+        <v>0.08311722015174708</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01097530446636615</v>
+        <v>0.03466891950695355</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03791281116079019</v>
+        <v>0.04979424893626036</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01621345947626136</v>
+        <v>0.03415709309508082</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08245827542289602</v>
+        <v>0.1051710059425671</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01606356650091239</v>
+        <v>0.0337323325436022</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1279766802975693</v>
+        <v>0.1604023303792815</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01603735418072304</v>
+        <v>0.03369657828842724</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.04162407165238288</v>
+        <v>0.08529358192646366</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01149793801238359</v>
+        <v>0.0363198204358561</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03857055584160331</v>
+        <v>0.05027937793519809</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01698552897513095</v>
+        <v>0.03578362133770372</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08493063996946357</v>
+        <v>0.1067244664403699</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01682849823905107</v>
+        <v>0.03533863409329754</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1303174400152444</v>
+        <v>0.1622778506630332</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01680103771313843</v>
+        <v>0.03530117725454282</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04205301392938941</v>
+        <v>0.08143592798330676</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01177072105572615</v>
+        <v>0.03797072136475865</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0392076042955814</v>
+        <v>0.05093520545183307</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01775759847400054</v>
+        <v>0.03741014958032661</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08596004163343582</v>
+        <v>0.1073002413358116</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01759342997718976</v>
+        <v>0.03694493564299289</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1327870231949889</v>
+        <v>0.1628333933075104</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01756472124555381</v>
+        <v>0.0369057762206584</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04320755224594811</v>
+        <v>0.08953649159947946</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01254320510441846</v>
+        <v>0.03962162229366119</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04002371926855036</v>
+        <v>0.05155757517336594</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01852966797287013</v>
+        <v>0.03903667782294951</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08774638484091363</v>
+        <v>0.1088900374829544</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01835836171532844</v>
+        <v>0.03855123719268823</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1343857184186357</v>
+        <v>0.1642564151660275</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0183284047779692</v>
+        <v>0.03851037518677398</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04396088634277278</v>
+        <v>0.09058743763296428</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0130658386504359</v>
+        <v>0.04127252322256375</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04081866350633605</v>
+        <v>0.05164233078699734</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01930173747173972</v>
+        <v>0.04066320606557241</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08928957401799786</v>
+        <v>0.1094855617358602</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01912329345346713</v>
+        <v>0.04015753874238357</v>
       </c>
       <c r="N90" t="n">
-        <v>0.136713814268018</v>
+        <v>0.166734373091899</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01909208831038458</v>
+        <v>0.04011497415288957</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04469173607980766</v>
+        <v>0.09258093094174372</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01358847219645333</v>
+        <v>0.0429234241514663</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04169219975476431</v>
+        <v>0.05248531597992784</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0200738069706093</v>
+        <v>0.04228973430819531</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09008951359078923</v>
+        <v>0.1097785209485912</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01988822519160581</v>
+        <v>0.04176384029207892</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1380715993249692</v>
+        <v>0.1673547239384393</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01985577184279996</v>
+        <v>0.04171957311900515</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0454000486480857</v>
+        <v>0.08850913638380023</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01411110574247077</v>
+        <v>0.04457432508036885</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04274409075966101</v>
+        <v>0.0526823744393581</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02084587646947889</v>
+        <v>0.0439162625508182</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09134610798538878</v>
+        <v>0.1108606219752093</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0206531569297445</v>
+        <v>0.04337014184177426</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1402593621713224</v>
+        <v>0.1674049245589626</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02061945537521534</v>
+        <v>0.04332417208512073</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04608577123863979</v>
+        <v>0.08936421881711631</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01463373928848821</v>
+        <v>0.0462252260092714</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04347409926685203</v>
+        <v>0.05322934985248863</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02161794596834848</v>
+        <v>0.04554279079344109</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09345926162789717</v>
+        <v>0.1116235716697768</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02141808866788318</v>
+        <v>0.0449764433914696</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1422773913889109</v>
+        <v>0.1677724318067834</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02138313890763073</v>
+        <v>0.04492877105123631</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04674885104250285</v>
+        <v>0.09013834309967445</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01515637283450564</v>
+        <v>0.04787612693817395</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04428198802216324</v>
+        <v>0.05312208590652015</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02239001546721807</v>
+        <v>0.04716931903606399</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09442887894441532</v>
+        <v>0.1116590768863553</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02218302040602187</v>
+        <v>0.04658274494116495</v>
       </c>
       <c r="N94" t="n">
-        <v>0.145425975559568</v>
+        <v>0.168544702535216</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02214682244004611</v>
+        <v>0.0465333700173519</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0473892352507078</v>
+        <v>0.09182367408945716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01567900638052308</v>
+        <v>0.0495270278670765</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04476751977142045</v>
+        <v>0.05345642628865319</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02316208496608766</v>
+        <v>0.04879584727868689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09595486436104408</v>
+        <v>0.1122157743537546</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02294795214416055</v>
+        <v>0.04818904649086029</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1457054032651267</v>
+        <v>0.1702639932706715</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02291050597246149</v>
+        <v>0.04813796898346748</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04800687105428756</v>
+        <v>0.0874123766444469</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01620163992654051</v>
+        <v>0.05117792879597905</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04543045726044959</v>
+        <v>0.05362821468608839</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02393415446495725</v>
+        <v>0.05042237552130979</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09663712230388419</v>
+        <v>0.1122151923757709</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02371288388229924</v>
+        <v>0.04979534804055563</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1477159630874204</v>
+        <v>0.1699588421103567</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02367418950487687</v>
+        <v>0.04974256794958307</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04860170564427502</v>
+        <v>0.08789661562262618</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01672427347255795</v>
+        <v>0.0528288297248816</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04577056323507647</v>
+        <v>0.05416755543683759</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02470622396382683</v>
+        <v>0.05204890376393268</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0980755571990366</v>
+        <v>0.1112698532956664</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02447781562043792</v>
+        <v>0.05140164959025097</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1503579436082823</v>
+        <v>0.1701710088082874</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02443787303729226</v>
+        <v>0.05134716691569865</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04917368621170313</v>
+        <v>0.09126855588197749</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01724690701857539</v>
+        <v>0.05447973065378414</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04668760044112698</v>
+        <v>0.05366753333138137</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02547829346269643</v>
+        <v>0.05367543200655558</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09877007347260217</v>
+        <v>0.1112552842541993</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02524274735857661</v>
+        <v>0.05300795113994632</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1509316334095455</v>
+        <v>0.1688795274459546</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02520155656970764</v>
+        <v>0.05295176588181423</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04972275994760477</v>
+        <v>0.09452036228048324</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01776954056459282</v>
+        <v>0.0561306315826867</v>
       </c>
       <c r="J99" t="n">
-        <v>0.047181331624427</v>
+        <v>0.05394831381804303</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02625036296156601</v>
+        <v>0.05530196024917847</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09972057555068162</v>
+        <v>0.1116758559784402</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02600767909671529</v>
+        <v>0.05461425268964167</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1532373210730434</v>
+        <v>0.1692910086233859</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02596524010212302</v>
+        <v>0.05455636484792981</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05024887404301288</v>
+        <v>0.09765616715267306</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01829217411061026</v>
+        <v>0.05778153251158925</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04805151953080236</v>
+        <v>0.05409466140931109</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0270224324604356</v>
+        <v>0.05692848849180137</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1005269678593758</v>
+        <v>0.1114359391954591</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02677261083485398</v>
+        <v>0.05622055423933701</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1547752951806092</v>
+        <v>0.1677120629406088</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02672892363453841</v>
+        <v>0.05616096381404539</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05075197568896036</v>
+        <v>0.09564470010461013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01881480765662769</v>
+        <v>0.0594324334404918</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04829792690607893</v>
+        <v>0.05380876660189224</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02779450195930519</v>
+        <v>0.05855501673442426</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1021891548247857</v>
+        <v>0.1112399046323267</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02753754257299266</v>
+        <v>0.05782685578903234</v>
       </c>
       <c r="N101" t="n">
-        <v>0.155445844314076</v>
+        <v>0.168749300997651</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02749260716695379</v>
+        <v>0.05776556278016097</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05123201207648013</v>
+        <v>0.09557344272472781</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01933744120264513</v>
+        <v>0.06108333436939434</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04892031649608256</v>
+        <v>0.0533928198924932</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02856657145817478</v>
+        <v>0.06018154497704717</v>
       </c>
       <c r="L102" t="n">
-        <v>0.102407040873012</v>
+        <v>0.1106921230161132</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02830247431113135</v>
+        <v>0.05943315733872769</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1577492570552771</v>
+        <v>0.16670933339454</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02825629069936917</v>
+        <v>0.05937016174627657</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0516889303966051</v>
+        <v>0.09644056274730381</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01986007474866256</v>
+        <v>0.0627342352982969</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04961845104663914</v>
+        <v>0.05374901177782064</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02933864095704437</v>
+        <v>0.06180807321967006</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1032805304301556</v>
+        <v>0.109696965073889</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02906740604927003</v>
+        <v>0.06103945888842303</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1574858219860457</v>
+        <v>0.1672987707313035</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02901997423178455</v>
+        <v>0.06097476071239214</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0521226778403682</v>
+        <v>0.09525018951813422</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02038270829468</v>
+        <v>0.06438513622719945</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05009209330357453</v>
+        <v>0.05357953275458127</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03011071045591395</v>
+        <v>0.06343460146229296</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1040095279223173</v>
+        <v>0.1098588015327246</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02983233778740872</v>
+        <v>0.06264576043811837</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1599558276882151</v>
+        <v>0.1653242236079692</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02978365776419994</v>
+        <v>0.06257935967850772</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05253320159880232</v>
+        <v>0.0940064523830153</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02090534184069744</v>
+        <v>0.066036037156102</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05054100601271459</v>
+        <v>0.05318657331948176</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03088277995478354</v>
+        <v>0.06506112970491584</v>
       </c>
       <c r="L105" t="n">
-        <v>0.104893937775598</v>
+        <v>0.1094820031196903</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0305972695255474</v>
+        <v>0.06425206198781372</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1597595627436184</v>
+        <v>0.1656923026245647</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03054734129661532</v>
+        <v>0.0641839586446233</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05292044886294042</v>
+        <v>0.09671348068774321</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02142797538671487</v>
+        <v>0.06768693808500455</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05056495191988518</v>
+        <v>0.05287232396922883</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03165484945365313</v>
+        <v>0.06668765794753874</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1062336644160985</v>
+        <v>0.1081709405618563</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03136220126368609</v>
+        <v>0.06585836353750907</v>
       </c>
       <c r="N106" t="n">
-        <v>0.162097315734089</v>
+        <v>0.1654096183811175</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0313110248290307</v>
+        <v>0.06578855761073889</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05328436682381536</v>
+        <v>0.09037540377811421</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02195060893273231</v>
+        <v>0.06933783901390711</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05136369377091214</v>
+        <v>0.05243897520052916</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03242691895252272</v>
+        <v>0.06831418619016165</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1061286122699197</v>
+        <v>0.1077299845862931</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03212713300182477</v>
+        <v>0.0674646650872044</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1633693752414599</v>
+        <v>0.1645827814776553</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03207470836144609</v>
+        <v>0.06739315657685448</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05362490267246007</v>
+        <v>0.08699635099992439</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02247324247874974</v>
+        <v>0.07098873994280964</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05153699431162137</v>
+        <v>0.05218871751008947</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03319898845139231</v>
+        <v>0.06994071443278455</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1069786857631623</v>
+        <v>0.1069635059200711</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03289206473996346</v>
+        <v>0.06907096663689975</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1638760298475646</v>
+        <v>0.1628184025142056</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03283839189386147</v>
+        <v>0.06899775554297005</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05394200359990749</v>
+        <v>0.09558045169897009</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02299587602476718</v>
+        <v>0.07263964087171221</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05158461628783871</v>
+        <v>0.05232374139461642</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0339710579502619</v>
+        <v>0.07156724267540744</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1083837893219274</v>
+        <v>0.1071758752902606</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03365699647810214</v>
+        <v>0.07067726818659509</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1650175681342361</v>
+        <v>0.1627230920907962</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03360207542627686</v>
+        <v>0.07060235450908564</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05423561679719052</v>
+        <v>0.08713183522104737</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02351850957078462</v>
+        <v>0.07429054180061474</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05230632244539002</v>
+        <v>0.05184623735081673</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03474312744913149</v>
+        <v>0.07319377091803032</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1081438273723155</v>
+        <v>0.1063714634239321</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03442192821624083</v>
+        <v>0.07228356973629042</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1651942786833077</v>
+        <v>0.1607034608074546</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03436575895869224</v>
+        <v>0.07220695347520122</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05450769113007532</v>
+        <v>0.0906546309119525</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02404114311680205</v>
+        <v>0.07594144272951731</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0524018755301012</v>
+        <v>0.05135839587539708</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03551519694800107</v>
+        <v>0.07482029916065322</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1093587043404276</v>
+        <v>0.1052546410481559</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03518685995437951</v>
+        <v>0.07388987128598579</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1649064500766125</v>
+        <v>0.1600661192642084</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03512944249110762</v>
+        <v>0.07381155244131681</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05477433611535933</v>
+        <v>0.08715296811748166</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02456377666281949</v>
+        <v>0.07759234365841985</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05257103828779808</v>
+        <v>0.05126240746506418</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03628726644687066</v>
+        <v>0.07644682740327613</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1094283246523646</v>
+        <v>0.1047297788900022</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0359517916925182</v>
+        <v>0.07549617283568112</v>
       </c>
       <c r="N112" t="n">
-        <v>0.165854370895984</v>
+        <v>0.1593176780610853</v>
       </c>
       <c r="O112" t="n">
-        <v>0.035893126023523</v>
+        <v>0.07541615140743239</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05503897426861953</v>
+        <v>0.09263097618343108</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02508641020883692</v>
+        <v>0.07924324458732239</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0528135734643065</v>
+        <v>0.05086046261652473</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03705933594574026</v>
+        <v>0.07807335564589903</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1098525927342273</v>
+        <v>0.1041012476765416</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03671672343065688</v>
+        <v>0.07710247438537646</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1661383297232552</v>
+        <v>0.1588647477981128</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03665680955593839</v>
+        <v>0.07702075037354797</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05530148628054461</v>
+        <v>0.08409278445559687</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02560904375485436</v>
+        <v>0.08089414551622495</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05322924380545237</v>
+        <v>0.05095475182648539</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03783140544460984</v>
+        <v>0.07969988388852192</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1100314130121164</v>
+        <v>0.1043734181348444</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03748165516879557</v>
+        <v>0.07870877593507181</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1675586151402594</v>
+        <v>0.1582139390753187</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03742049308835377</v>
+        <v>0.07862534933966354</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05556175284182319</v>
+        <v>0.09154252227977533</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0261316773008718</v>
+        <v>0.0825450464451275</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05331781205706154</v>
+        <v>0.0502474655916529</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03860347494347943</v>
+        <v>0.08132641213114482</v>
       </c>
       <c r="L115" t="n">
-        <v>0.110864689912133</v>
+        <v>0.1027506609919809</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03824658690693426</v>
+        <v>0.08031507748476714</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1672155157288298</v>
+        <v>0.1559718624927304</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03818417662076915</v>
+        <v>0.08022994830577913</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05581965464314399</v>
+        <v>0.09098431900176257</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02665431084688923</v>
+        <v>0.08419594737403005</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05337904096495986</v>
+        <v>0.0498407944087339</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03937554444234902</v>
+        <v>0.0829529403737677</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1112523278603778</v>
+        <v>0.1026213205677421</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03901151864507294</v>
+        <v>0.0819213790344625</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1692093200707996</v>
+        <v>0.1555045863662067</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03894786015318454</v>
+        <v>0.08183454727189471</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05607507237519566</v>
+        <v>0.08742230396735484</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02717694439290667</v>
+        <v>0.0858468483029326</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05361269327497321</v>
+        <v>0.04953692877443515</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04014761394121861</v>
+        <v>0.08457946861639061</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1111942312829515</v>
+        <v>0.1024092123169105</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03977645038321163</v>
+        <v>0.08352768058415784</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1692403167480022</v>
+        <v>0.1540045973333454</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03971154368559992</v>
+        <v>0.0834391462380103</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05632788672866686</v>
+        <v>0.09086060652234834</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0276995779389241</v>
+        <v>0.08749774923183515</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05391853173292743</v>
+        <v>0.04962498723897202</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04091968344008819</v>
+        <v>0.08620599685901351</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1118903046059552</v>
+        <v>0.1009159378984926</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04054138212135031</v>
+        <v>0.08513398213385318</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1696087943422706</v>
+        <v>0.1523850759712997</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0404752272180153</v>
+        <v>0.08504374520412589</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05657797839424625</v>
+        <v>0.08230335601253924</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02822221148494154</v>
+        <v>0.0891486501607377</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05389631908464841</v>
+        <v>0.04916977990495371</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04169175293895779</v>
+        <v>0.0878325251016364</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1109404522554896</v>
+        <v>0.1007557376637395</v>
       </c>
       <c r="M119" t="n">
-        <v>0.041306313859489</v>
+        <v>0.08674028368354852</v>
       </c>
       <c r="N119" t="n">
-        <v>0.169615041435438</v>
+        <v>0.1525675604051592</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04123891075043069</v>
+        <v>0.08664834417024146</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05682522806262254</v>
+        <v>0.0857406410275017</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02874484503095898</v>
+        <v>0.09079955108964026</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05416755543683759</v>
+        <v>0.0487756274326142</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04246382243782737</v>
+        <v>0.0894590533442593</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1110445786576555</v>
+        <v>0.09964285196390241</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04207124559762768</v>
+        <v>0.08834658523324386</v>
       </c>
       <c r="N120" t="n">
-        <v>0.169359346609338</v>
+        <v>0.1496735887600132</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04200259428284607</v>
+        <v>0.08825294313635705</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05706951642448439</v>
+        <v>0.08610251267380872</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02926747857697641</v>
+        <v>0.09245045201854279</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05366679145269405</v>
+        <v>0.04824966672206545</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04323589193669696</v>
+        <v>0.09108558158688218</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1122157743537546</v>
+        <v>0.09849152115023233</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04283617733576637</v>
+        <v>0.08995288678293921</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1702639932706715</v>
+        <v>0.1481246991609517</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04276627781526145</v>
+        <v>0.08985754210247263</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05731072417052042</v>
+        <v>0.08039015937877259</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02979011212299385</v>
+        <v>0.09410135294744536</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0536650437711825</v>
+        <v>0.04809903467341933</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04400796143556655</v>
+        <v>0.09271210982950509</v>
       </c>
       <c r="L122" t="n">
-        <v>0.111714915092867</v>
+        <v>0.09781598557398044</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04360110907390505</v>
+        <v>0.09155918833263456</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1688631764297308</v>
+        <v>0.1476424297330639</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04352996134767684</v>
+        <v>0.09146214106858822</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05754873199141936</v>
+        <v>0.0796170350445996</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03031274566901128</v>
+        <v>0.09575225387634789</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05405442246437211</v>
+        <v>0.04733086818678782</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04478003093443614</v>
+        <v>0.09433863807212799</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1120938498957065</v>
+        <v>0.0964304855863978</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04436604081204373</v>
+        <v>0.09316548988232989</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1701178090576279</v>
+        <v>0.1453483186014393</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04429364488009222</v>
+        <v>0.09306674003470379</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05778342057786984</v>
+        <v>0.07879659357349608</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03083537921502872</v>
+        <v>0.09740315480525046</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05393574253833006</v>
+        <v>0.04695230416228284</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04555210043330573</v>
+        <v>0.09596516631475088</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1116453601136125</v>
+        <v>0.09494926153873556</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04513097255018242</v>
+        <v>0.09477179143202523</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1686050472475137</v>
+        <v>0.1436639038911676</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0450573284125076</v>
+        <v>0.09467133900081938</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05801467062056054</v>
+        <v>0.07794228886766835</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03135801276104615</v>
+        <v>0.099054055734153</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05360928243150434</v>
+        <v>0.04657047950001632</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04632416993217531</v>
+        <v>0.09759169455737378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1113704894706813</v>
+        <v>0.09388655378224478</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0458959042883211</v>
+        <v>0.09637809298172058</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1696277329088036</v>
+        <v>0.1422107237273382</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04582101194492299</v>
+        <v>0.09627593796693495</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05824236281018013</v>
+        <v>0.08206757482932259</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03188064630706359</v>
+        <v>0.1007049566630556</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05357532058234291</v>
+        <v>0.04609253110010017</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04709623943104491</v>
+        <v>0.09921822279999666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1109702816910091</v>
+        <v>0.09335660266817655</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04666083602645979</v>
+        <v>0.09798439453141593</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1679887079509126</v>
+        <v>0.1417103162350408</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04658469547733837</v>
+        <v>0.09788053693305054</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0584663778374173</v>
+        <v>0.08218590536066514</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03240327985308102</v>
+        <v>0.1023558575919581</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05393413542929376</v>
+        <v>0.04552559586264633</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04786830892991449</v>
+        <v>0.1008447510426196</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1108457804986921</v>
+        <v>0.0920682865838405</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04742576776459848</v>
+        <v>0.09959069608111126</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1685908142832558</v>
+        <v>0.140064450639953</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04734837900975375</v>
+        <v>0.09948513589916613</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05868659639296068</v>
+        <v>0.07731073436390229</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03292591339909846</v>
+        <v>0.1040067585208607</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05388600541080492</v>
+        <v>0.04497681068776675</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04864037842878408</v>
+        <v>0.1024712792852425</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1111980296178265</v>
+        <v>0.09152699690437263</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04819069950273716</v>
+        <v>0.1011969976308066</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1686368938152486</v>
+        <v>0.1385189634941871</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04811206254216913</v>
+        <v>0.1010897348652817</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05890289916749896</v>
+        <v>0.07645551574124032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0334485469451159</v>
+        <v>0.1056576594497632</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05353120896532435</v>
+        <v>0.04454130818336295</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04941244792765367</v>
+        <v>0.1040978075278654</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1115280727725085</v>
+        <v>0.09090875017521657</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04895563124087585</v>
+        <v>0.1028032991805019</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1683297884563058</v>
+        <v>0.137761406684864</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04887574607458452</v>
+        <v>0.1026943338313973</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05911516685172082</v>
+        <v>0.07763370339488554</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03397118049113333</v>
+        <v>0.1073085603786658</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05387002453130002</v>
+        <v>0.04416864555693474</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05018451742652326</v>
+        <v>0.1057243357704883</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1105369536868345</v>
+        <v>0.08973393146336001</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04972056297901453</v>
+        <v>0.1044096007301973</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1681723401158426</v>
+        <v>0.135322612044359</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0496394296069999</v>
+        <v>0.1042989327975129</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0593232801363149</v>
+        <v>0.07883655416674504</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03449381403715077</v>
+        <v>0.1089594613075683</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05380273054717995</v>
+        <v>0.04366104820809441</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05095658692539285</v>
+        <v>0.1073508640131112</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1109257160849005</v>
+        <v>0.08802292583579058</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05048549471715322</v>
+        <v>0.1060159022798926</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1665673907032743</v>
+        <v>0.1339334114050472</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05040311313941528</v>
+        <v>0.1059035317636285</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0595271197119699</v>
+        <v>0.07697060273558354</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03501644758316821</v>
+        <v>0.1106103622364708</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05352960545141211</v>
+        <v>0.04312873261144298</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05172865642426244</v>
+        <v>0.108977392255734</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1101954036908027</v>
+        <v>0.087496118359496</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0512504264552919</v>
+        <v>0.107622203829588</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1656177821280158</v>
+        <v>0.1329246365993043</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05116679667183067</v>
+        <v>0.107508130729744</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05972656626937447</v>
+        <v>0.07904018582659977</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03553908112918564</v>
+        <v>0.1122612631653734</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05365092768244452</v>
+        <v>0.04248191524158137</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05250072592313202</v>
+        <v>0.1106039204983569</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1101470602286375</v>
+        <v>0.08607389410146399</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05201535819343059</v>
+        <v>0.1092285053792833</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1659263562994824</v>
+        <v>0.1312271194595051</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05193048020424604</v>
+        <v>0.1091127296958596</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05992150049921727</v>
+        <v>0.0740645627047434</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03606171467520308</v>
+        <v>0.113912164094276</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05306697567872512</v>
+        <v>0.04183081257311062</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05327279542200161</v>
+        <v>0.1122304487409799</v>
       </c>
       <c r="L134" t="n">
-        <v>0.110181729422501</v>
+        <v>0.08497663812868222</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05278028993156927</v>
+        <v>0.1108348069289787</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1657959551270891</v>
+        <v>0.1287716918180251</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05269416373666143</v>
+        <v>0.1107173286619752</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06011180309218699</v>
+        <v>0.07106299263496407</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03658434822122052</v>
+        <v>0.1155630650231785</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05337802787870193</v>
+        <v>0.04118564108063168</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0540448649208712</v>
+        <v>0.1138569769836027</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1090004549964895</v>
+        <v>0.08382473550813838</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05354522166970796</v>
+        <v>0.112441108478674</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1651294205202511</v>
+        <v>0.1276891855072397</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05345784726907681</v>
+        <v>0.1123219276280908</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06029735473897232</v>
+        <v>0.06705473488221136</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03710698176723794</v>
+        <v>0.117213965952081</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05298436272082294</v>
+        <v>0.04115661723874557</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05481693441974079</v>
+        <v>0.1154835052262256</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1093042806746991</v>
+        <v>0.08293857130682009</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05431015340784664</v>
+        <v>0.1140474100283694</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1632295943883835</v>
+        <v>0.126310432359524</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0542215308014922</v>
+        <v>0.1139265265942064</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06047803613026188</v>
+        <v>0.06705904871143492</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03762961531325539</v>
+        <v>0.1188648668809836</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0530862586435361</v>
+        <v>0.04015395752205325</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05558900391861038</v>
+        <v>0.1171100334688485</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1092942501812261</v>
+        <v>0.08273853059171515</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05507508514598532</v>
+        <v>0.1156537115780647</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1627993186409015</v>
+        <v>0.1251662642072534</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05498521433390759</v>
+        <v>0.1155311255603219</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06065372795674436</v>
+        <v>0.07009519338758444</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03815224885927282</v>
+        <v>0.1205157678098862</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05288399408528946</v>
+        <v>0.03978787840515575</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05636107341747996</v>
+        <v>0.1187365617114714</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1084714072401666</v>
+        <v>0.08094499842981112</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05584001688412401</v>
+        <v>0.11726001312776</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1617414351872201</v>
+        <v>0.1230875128828031</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05574889786632296</v>
+        <v>0.1171357245264375</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06082431090910843</v>
+        <v>0.06618242817560949</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03867488240529025</v>
+        <v>0.1221666687387887</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05297784748453097</v>
+        <v>0.039568596362654</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05713314291634956</v>
+        <v>0.1203630899540943</v>
       </c>
       <c r="L139" t="n">
-        <v>0.108236795575617</v>
+        <v>0.08097835988809576</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0566049486222627</v>
+        <v>0.1188663146774554</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1605587859367544</v>
+        <v>0.1220050102185484</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05651258139873835</v>
+        <v>0.1187403234925531</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06098966567804275</v>
+        <v>0.07034001234045975</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03919751595130769</v>
+        <v>0.1238175696676913</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05256809727970864</v>
+        <v>0.03900632786914905</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05790521241521915</v>
+        <v>0.1219896181967172</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1083914589116735</v>
+        <v>0.0806590000335568</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05736988036040138</v>
+        <v>0.1204726162271507</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1612542127989198</v>
+        <v>0.1208495880468646</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05727626493115373</v>
+        <v>0.1203449224586687</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.061149672954236</v>
+        <v>0.07158720514708483</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03972014949732513</v>
+        <v>0.1254684705965938</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05235502190927042</v>
+        <v>0.03861128939924185</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05867728191408874</v>
+        <v>0.1236161464393401</v>
       </c>
       <c r="L141" t="n">
-        <v>0.107636440972432</v>
+        <v>0.08030730393318181</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05813481209854007</v>
+        <v>0.1220789177768461</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1605305576831311</v>
+        <v>0.121552078200127</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05803994846356911</v>
+        <v>0.1219495214247843</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06130421342837686</v>
+        <v>0.06994326586043437</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04024278304334256</v>
+        <v>0.1271193715254963</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05243889981166433</v>
+        <v>0.03859369742753341</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05944935141295832</v>
+        <v>0.125242674681963</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1076727854819892</v>
+        <v>0.07974365665395858</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05889974383667875</v>
+        <v>0.1236852193265414</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1589906624988036</v>
+        <v>0.1212433125107109</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05880363199598451</v>
+        <v>0.1235541203908999</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06145316779115399</v>
+        <v>0.06442745374545802</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04076541658936</v>
+        <v>0.1287702724543989</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05252000942533835</v>
+        <v>0.03826376842862469</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0602214209118279</v>
+        <v>0.1268692029245859</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1074015361644409</v>
+        <v>0.07974191817752452</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05966467557481743</v>
+        <v>0.1252915208762367</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1589373691553524</v>
+        <v>0.1215549289592157</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05956731552839988</v>
+        <v>0.1251587193570154</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06159641673325605</v>
+        <v>0.0660590280671054</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04128805013537744</v>
+        <v>0.1304211733833014</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05249862918874049</v>
+        <v>0.03863007909609363</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06099349041069749</v>
+        <v>0.1284957311672088</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1069237367438837</v>
+        <v>0.08007839469423567</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06042960731295612</v>
+        <v>0.1268978224259321</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1577735195621926</v>
+        <v>0.1201159034742162</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06033099906081527</v>
+        <v>0.126763318323131</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0617338409453717</v>
+        <v>0.06085724809032615</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04181068368139487</v>
+        <v>0.132072074312204</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05187503754031871</v>
+        <v>0.03834054228555588</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06176555990956709</v>
+        <v>0.1301222594098317</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1057404309444134</v>
+        <v>0.08014359736041871</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06119453905109481</v>
+        <v>0.1285041239756274</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1572019556287395</v>
+        <v>0.1210200831089357</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06109468259323064</v>
+        <v>0.1283679172892466</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06186532111818965</v>
+        <v>0.06082661925151815</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04233331722741231</v>
+        <v>0.1337229752411065</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05184951291852098</v>
+        <v>0.03876559279645622</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06253762940843667</v>
+        <v>0.1317487876524546</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1058526624901265</v>
+        <v>0.07943602828877711</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06195947078923349</v>
+        <v>0.1301104255253228</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1549255192644079</v>
+        <v>0.1213652023515621</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06185836612564603</v>
+        <v>0.1299725162553622</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06199073794239852</v>
+        <v>0.06885227704392102</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04285595077342975</v>
+        <v>0.1353738761700091</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05212233376179534</v>
+        <v>0.03870447992596256</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06330969890730627</v>
+        <v>0.1333753158950775</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1055614751051192</v>
+        <v>0.07945418959201411</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06272440252737217</v>
+        <v>0.1317167270750181</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1548470523786132</v>
+        <v>0.1222489956902835</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06262204965806141</v>
+        <v>0.1315771152214778</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06210997210868702</v>
+        <v>0.06190468356528091</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04337858431944718</v>
+        <v>0.1370247770989116</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05169377850858975</v>
+        <v>0.03865645297124271</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06408176840617585</v>
+        <v>0.1350018441377004</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1048679125134876</v>
+        <v>0.08019658338283317</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06348933426551086</v>
+        <v>0.1333230286247135</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1532693968807703</v>
+        <v>0.1220691976132879</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0633857331904768</v>
+        <v>0.1331817141875934</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06222290430774379</v>
+        <v>0.06398242365182483</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04390121786546462</v>
+        <v>0.1386756780278142</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05166412559735221</v>
+        <v>0.03882076122946455</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06485383790504544</v>
+        <v>0.1366283723803233</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1044730184393279</v>
+        <v>0.07996171177393763</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06425426600364954</v>
+        <v>0.1349293301744088</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1520953946802946</v>
+        <v>0.1211235426087638</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06414941672289218</v>
+        <v>0.134786313153709</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06232941523025751</v>
+        <v>0.06608408213977982</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04442385141148205</v>
+        <v>0.1403265789567167</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0513336534665307</v>
+        <v>0.03889665399779593</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06562590740391504</v>
+        <v>0.1382549006229462</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1036778366067365</v>
+        <v>0.08044807687803091</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06501919774178823</v>
+        <v>0.1365356317241042</v>
       </c>
       <c r="N150" t="n">
-        <v>0.151827887686601</v>
+        <v>0.1228097651648989</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06491310025530757</v>
+        <v>0.1363909121198245</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06242938556691684</v>
+        <v>0.06920824386537297</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04494648495749948</v>
+        <v>0.1419774798856193</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0513026405545732</v>
+        <v>0.03878338057340472</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06639797690278462</v>
+        <v>0.1398814288655691</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1034834107398094</v>
+        <v>0.08105418080781632</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06578412947992691</v>
+        <v>0.1381419332737995</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1509697178091047</v>
+        <v>0.1226255997698816</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06567678378772294</v>
+        <v>0.1379955110859401</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06252269600841048</v>
+        <v>0.07035349366483123</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04546911850351693</v>
+        <v>0.1436283808145219</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05117136529992772</v>
+        <v>0.03888019025345875</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06717004640165421</v>
+        <v>0.141507957108192</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1027907845626431</v>
+        <v>0.08047852567599728</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0665490612180656</v>
+        <v>0.1397482348234948</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1510237269572209</v>
+        <v>0.1226687809118998</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06644046732013832</v>
+        <v>0.1396001100520557</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06260922724542706</v>
+        <v>0.06651841637438169</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04599175204953436</v>
+        <v>0.1452792817434244</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05114010614104222</v>
+        <v>0.03908633233512587</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06794211590052379</v>
+        <v>0.1431344853508149</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1035010017993335</v>
+        <v>0.08161961359527717</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06731399295620429</v>
+        <v>0.1413545363731902</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1501927570403647</v>
+        <v>0.1238370430791419</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06720415085255371</v>
+        <v>0.1412047090181713</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06268885996865528</v>
+        <v>0.06170159683025137</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04651438559555179</v>
+        <v>0.1469301826723269</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05080914151636473</v>
+        <v>0.03900105611557399</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06871418539939338</v>
+        <v>0.1447610135934378</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1030151061739771</v>
+        <v>0.08157594667835927</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06807892469434297</v>
+        <v>0.1429608379228855</v>
       </c>
       <c r="N154" t="n">
-        <v>0.148079649967951</v>
+        <v>0.1244281207597957</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0679678343849691</v>
+        <v>0.1428093079842869</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06276147486878378</v>
+        <v>0.0669016198686673</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04703701914156923</v>
+        <v>0.1485810836012295</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0505787498643432</v>
+        <v>0.03912361089197089</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06948625489826298</v>
+        <v>0.1463875418360606</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1019341414106698</v>
+        <v>0.08187442491976685</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06884385643248166</v>
+        <v>0.1445671394725808</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1486872476493953</v>
+        <v>0.1234066255820249</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06873151791738448</v>
+        <v>0.1444139069504024</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06282695263650129</v>
+        <v>0.07111707032585657</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04755965268758667</v>
+        <v>0.1502319845301321</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05074920962342563</v>
+        <v>0.03945393318823175</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07025832439713256</v>
+        <v>0.1480140700786836</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1014591512335081</v>
+        <v>0.08259673622732921</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06960878817062034</v>
+        <v>0.1461734410222762</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1475183919941125</v>
+        <v>0.1252399648253247</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06949520144979986</v>
+        <v>0.146018505916518</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06288517396249638</v>
+        <v>0.06634653303804613</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0480822862336041</v>
+        <v>0.1518828854590346</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05052079923206003</v>
+        <v>0.03986604901776325</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07103039389600214</v>
+        <v>0.1496405983213064</v>
       </c>
       <c r="L157" t="n">
-        <v>0.101191179366588</v>
+        <v>0.08263812540599927</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07037371990875903</v>
+        <v>0.1477797425719716</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1460759249115177</v>
+        <v>0.1252971674921045</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07025888498221525</v>
+        <v>0.1476231048826336</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06293601953745778</v>
+        <v>0.07061966178685247</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04860491977962154</v>
+        <v>0.1535337863879371</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05039088365203416</v>
+        <v>0.03969436951224957</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07180246339487174</v>
+        <v>0.1512671265639293</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1010242117676633</v>
+        <v>0.08445337485357188</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07113865164689771</v>
+        <v>0.1493860441216669</v>
       </c>
       <c r="N158" t="n">
-        <v>0.145950533530605</v>
+        <v>0.1283098432487708</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07102256851463062</v>
+        <v>0.1492277038487492</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06297937005207419</v>
+        <v>0.0691019265782831</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04912755332563898</v>
+        <v>0.1551846873168397</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05055481059610921</v>
+        <v>0.04051623276507421</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07257453289374133</v>
+        <v>0.1528936548065523</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1001466745404522</v>
+        <v>0.08519726696784163</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0719035833850364</v>
+        <v>0.1509923456713622</v>
       </c>
       <c r="N159" t="n">
-        <v>0.144522102570821</v>
+        <v>0.1297096017617311</v>
       </c>
       <c r="O159" t="n">
-        <v>0.071786252047046</v>
+        <v>0.1508323028148648</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06301510619703421</v>
+        <v>0.07078206020676461</v>
       </c>
       <c r="G160" t="n">
-        <v>0.04965018687165641</v>
+        <v>0.1568355882457423</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0499127037117184</v>
+        <v>0.0410089768696205</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07334660239261093</v>
+        <v>0.1545201830491751</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1007587154842381</v>
+        <v>0.08572458414660336</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07266851512317508</v>
+        <v>0.1525986472210576</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1435901360335358</v>
+        <v>0.1314280526973918</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07254993557946139</v>
+        <v>0.1524369017809803</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06304310866302654</v>
+        <v>0.06861734229361072</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05017282041767385</v>
+        <v>0.1584864891746448</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04996476344463061</v>
+        <v>0.04154993991927197</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07411867189148051</v>
+        <v>0.1561467112917981</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09966069717526002</v>
+        <v>0.08699010878765187</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07343344686131377</v>
+        <v>0.1542049487707529</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1430545181777352</v>
+        <v>0.1320968057221601</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07331361911187678</v>
+        <v>0.1540415007470959</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06306325814073985</v>
+        <v>0.07256505246013531</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05069545396369128</v>
+        <v>0.1601373901035474</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04981119024061474</v>
+        <v>0.04191646000741198</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07489074139035008</v>
+        <v>0.1577732395344209</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09905298218975711</v>
+        <v>0.08894862328878181</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07419837859945246</v>
+        <v>0.1558112503204483</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1424151332624046</v>
+        <v>0.1334474705024432</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07407730264429216</v>
+        <v>0.1556460997132115</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06307543532086282</v>
+        <v>0.07258247032765205</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05121808750970872</v>
+        <v>0.1617882910324499</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0494521845454397</v>
+        <v>0.04258587522742395</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07566281088921968</v>
+        <v>0.1593997677770438</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09913593310396832</v>
+        <v>0.08945491004778802</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07496331033759114</v>
+        <v>0.1574175518701436</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1413718655465299</v>
+        <v>0.1368116567046477</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07484098617670754</v>
+        <v>0.1572506986793271</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06307952089408411</v>
+        <v>0.07262687551747476</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05174072105572616</v>
+        <v>0.1634391919613525</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04948794680487441</v>
+        <v>0.04323552367269134</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07643488038808927</v>
+        <v>0.1610262960196668</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09900991249413282</v>
+        <v>0.09056375146246515</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07572824207572981</v>
+        <v>0.159023853419839</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1404245992890965</v>
+        <v>0.1377209739951807</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07560466970912293</v>
+        <v>0.1588552976454427</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06307952089408411</v>
+        <v>0.07465554765091717</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05174072105572616</v>
+        <v>0.165090092890255</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04931867746468772</v>
+        <v>0.04364274343659756</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07720694988695886</v>
+        <v>0.1626528242622896</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09847528293648966</v>
+        <v>0.09183564049293103</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07649317381386851</v>
+        <v>0.1606301549695343</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1405732187490902</v>
+        <v>0.1386239659396344</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0763683532415383</v>
+        <v>0.1604598966115583</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.06206237379904233</v>
+        <v>0.07562576634929308</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05174045252726214</v>
+        <v>0.1667409938191576</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0491445769706486</v>
+        <v>0.04418491696434854</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07797901938582845</v>
+        <v>0.1642793525049125</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09803240700727794</v>
+        <v>0.09224821447061171</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0772581055520072</v>
+        <v>0.1622364565192297</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1395176081854965</v>
+        <v>0.1394523596596877</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07713203677395369</v>
+        <v>0.1620644955776739</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.06105621895475043</v>
+        <v>0.07949481123391625</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05174018399879812</v>
+        <v>0.1683918947480601</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0491658457685259</v>
+        <v>0.0442843783390541</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07875108888469803</v>
+        <v>0.1659058807475354</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0969816472827367</v>
+        <v>0.09344114229310971</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07802303729014588</v>
+        <v>0.163842758068925</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1386576518573012</v>
+        <v>0.1403512332006204</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07789572030636908</v>
+        <v>0.1636690945437894</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06006150573454112</v>
+        <v>0.0762458554278371</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05173991547033411</v>
+        <v>0.1700427956769626</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04898268430408854</v>
+        <v>0.04467395879546188</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07952315838356763</v>
+        <v>0.1675324089901583</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09702336633910505</v>
+        <v>0.09351585839886206</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07878796902828455</v>
+        <v>0.1654490596186203</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1379932340234898</v>
+        <v>0.1420227561096542</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07865940383878446</v>
+        <v>0.165273693509905</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05907868351166003</v>
+        <v>0.07696636986123892</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05173964694187009</v>
+        <v>0.1716936966058652</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04859529302310546</v>
+        <v>0.04525437723745714</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08029522788243722</v>
+        <v>0.1691589372327812</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09585792675262206</v>
+        <v>0.093973797226306</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07955290076642325</v>
+        <v>0.1670553611683157</v>
       </c>
       <c r="N169" t="n">
-        <v>0.136624238943048</v>
+        <v>0.1434690979340107</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07942308737119984</v>
+        <v>0.1668782924760206</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05810820165943888</v>
+        <v>0.0816693022987611</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05173937841340608</v>
+        <v>0.1733445975347677</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04860387237134549</v>
+        <v>0.04562635256892521</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0810672973813068</v>
+        <v>0.1707854654754041</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09558569109952678</v>
+        <v>0.09471639321387859</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08031783250456194</v>
+        <v>0.168661662718011</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1373505508749613</v>
+        <v>0.1441924282209118</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08018677090361521</v>
+        <v>0.1684828914421362</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05715050955112436</v>
+        <v>0.07735600795939465</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05173910988494206</v>
+        <v>0.1749954984636703</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04800862279457756</v>
+        <v>0.04619060369375144</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08183936688017639</v>
+        <v>0.172411993718027</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09500702195605826</v>
+        <v>0.09584508080001705</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08108276424270061</v>
+        <v>0.1702679642677064</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1352720540782155</v>
+        <v>0.146494916517579</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08095045443603061</v>
+        <v>0.1700874904082518</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05620605656004705</v>
+        <v>0.07502784206213062</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05173884135647804</v>
+        <v>0.1766463993925729</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04810974473857059</v>
+        <v>0.04624784951582109</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08261143637904597</v>
+        <v>0.1740385219606499</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09482228189845565</v>
+        <v>0.09626129442315853</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0818476959808393</v>
+        <v>0.1718742658174017</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1354886328117962</v>
+        <v>0.1475787323712339</v>
       </c>
       <c r="O172" t="n">
-        <v>0.081714137968446</v>
+        <v>0.1716920893743673</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05527529205945484</v>
+        <v>0.08368615982595995</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05173857282801402</v>
+        <v>0.1782973003214754</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04790743864909348</v>
+        <v>0.0467988089390195</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08338350587791557</v>
+        <v>0.1756650502032728</v>
       </c>
       <c r="L173" t="n">
-        <v>0.093931833502958</v>
+        <v>0.09776646852174012</v>
       </c>
       <c r="M173" t="n">
-        <v>0.082612627718978</v>
+        <v>0.173480567367097</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1336001713346889</v>
+        <v>0.1487460453290982</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08247782150086137</v>
+        <v>0.1732966883404829</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05435866542267708</v>
+        <v>0.08433231646987374</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05173830429955001</v>
+        <v>0.1799482012503779</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04760190497191513</v>
+        <v>0.04684420086723198</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08415557537678515</v>
+        <v>0.1772915784458957</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09373603934580432</v>
+        <v>0.09766203753419905</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08337755945711667</v>
+        <v>0.1750868689167924</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1331065539058794</v>
+        <v>0.1483990249383938</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08324150503327676</v>
+        <v>0.1749012873065985</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05345662602296288</v>
+        <v>0.07896766721286302</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05173803577108599</v>
+        <v>0.1815991021792805</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04739334415280441</v>
+        <v>0.04758474420434385</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08492764487565474</v>
+        <v>0.1789181066885186</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09373526200323382</v>
+        <v>0.0986494358989724</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08414249119525535</v>
+        <v>0.1766931704664877</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1322076647843533</v>
+        <v>0.1493398407463422</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08400518856569214</v>
+        <v>0.1765058862727141</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05256962323364039</v>
+        <v>0.08559356727391881</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05173776724262197</v>
+        <v>0.1832500031081831</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04748195663753027</v>
+        <v>0.0477211578542404</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08569971437452434</v>
+        <v>0.1805446349311415</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09342986405148543</v>
+        <v>0.09893009805449737</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08490742293339404</v>
+        <v>0.1782994720161831</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1326033882290962</v>
+        <v>0.1511706623001652</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08476887209810752</v>
+        <v>0.1781104852388297</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05169810642795995</v>
+        <v>0.08221137187203209</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05173749871415795</v>
+        <v>0.1849009040370856</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04726794287186158</v>
+        <v>0.04805416072080697</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08647178387339392</v>
+        <v>0.1821711631737644</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09202020806679831</v>
+        <v>0.09992351807277897</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08567235467153274</v>
+        <v>0.1799057735658784</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1310936084990936</v>
+        <v>0.152127398677751</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08553255563052291</v>
+        <v>0.1797150842049453</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0508425249792484</v>
+        <v>0.07982243622619395</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05173723018569393</v>
+        <v>0.1865518049659881</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04705150330156725</v>
+        <v>0.04859153293503472</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08724385337226352</v>
+        <v>0.1837976914163873</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0924066566254115</v>
+        <v>0.1008563340230995</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08643728640967141</v>
+        <v>0.1815120751155738</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1300782098533314</v>
+        <v>0.1529419377839928</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0862962391629383</v>
+        <v>0.1813196831710608</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05000332826075745</v>
+        <v>0.08543297827798185</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05173696165722991</v>
+        <v>0.1882027058948907</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0464328383724162</v>
+        <v>0.0484486043052962</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08801592287113311</v>
+        <v>0.1854242196590102</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09138957230356409</v>
+        <v>0.1018054425215123</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0872022181478101</v>
+        <v>0.1831183766652691</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1296570765507949</v>
+        <v>0.1550777441966999</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08705992269535368</v>
+        <v>0.1829242821371764</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04918096564581256</v>
+        <v>0.08107818955511539</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0517366931287659</v>
+        <v>0.1898536068237932</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04611214853017728</v>
+        <v>0.0488145972538442</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08878799237000268</v>
+        <v>0.1870507479016331</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09096931767749517</v>
+        <v>0.1024462024456269</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08796714988594878</v>
+        <v>0.1847246782149644</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1277300928504702</v>
+        <v>0.1558975489210956</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08782360622776905</v>
+        <v>0.184528881103292</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04837588650766683</v>
+        <v>0.0877459043884137</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05173642460030188</v>
+        <v>0.1915045077526958</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04638963422061947</v>
+        <v>0.04937716227988019</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08956006186887228</v>
+        <v>0.188677276144256</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09034625532344381</v>
+        <v>0.1031539726730527</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08873208162408747</v>
+        <v>0.1863309797646598</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1285971430113424</v>
+        <v>0.1570640829624034</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08858728976018444</v>
+        <v>0.1861334800694076</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04758854021964425</v>
+        <v>0.08341284250584899</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05173615607183787</v>
+        <v>0.1931554086815984</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04576549588951162</v>
+        <v>0.04962394988260557</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09033213136774186</v>
+        <v>0.1903038043868789</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08982074781764907</v>
+        <v>0.1037041120813991</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08949701336222615</v>
+        <v>0.1879372813143551</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1261581112923975</v>
+        <v>0.1582400773258467</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08935097329259982</v>
+        <v>0.1877380790355232</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04681937615501603</v>
+        <v>0.08805572363539355</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05173588754337385</v>
+        <v>0.1948063096105009</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04573993398262263</v>
+        <v>0.0501426105612218</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09110420086661146</v>
+        <v>0.1919303326295018</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08969315773634998</v>
+        <v>0.1042719795482754</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09026194510036484</v>
+        <v>0.1895435828640505</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1253128819526211</v>
+        <v>0.1587882630166488</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0901146568250152</v>
+        <v>0.1893426780016388</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04606884368705497</v>
+        <v>0.08565126750501967</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05173561901490983</v>
+        <v>0.1964572105394034</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04531314894572143</v>
+        <v>0.05012079481493031</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09187627036548104</v>
+        <v>0.1935568608721247</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08846384765578574</v>
+        <v>0.1049329339512912</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09102687683850352</v>
+        <v>0.1911498844137458</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1260613392509987</v>
+        <v>0.1596713710400331</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09087834035743059</v>
+        <v>0.1909472769677543</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04533739218908262</v>
+        <v>0.08717619384269967</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05173535048644582</v>
+        <v>0.198108111468306</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04548534122457691</v>
+        <v>0.05054615314293255</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09264833986435063</v>
+        <v>0.1951833891147476</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08833318015219532</v>
+        <v>0.1055635267509111</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09179180857664221</v>
+        <v>0.1927561859634412</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1249033674465159</v>
+        <v>0.1590571447708926</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09164202388984598</v>
+        <v>0.1925518759338699</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04462547103435612</v>
+        <v>0.08860722237640575</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0517350819579818</v>
+        <v>0.1997590123972086</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04475671126495795</v>
+        <v>0.05060708563391868</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09342040936322023</v>
+        <v>0.1968099173573704</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08760151780181785</v>
+        <v>0.1058349464761801</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09255674031478089</v>
+        <v>0.1943624875131365</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1239388507981585</v>
+        <v>0.1591678047530475</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09240570742226135</v>
+        <v>0.1941564748999855</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04393352959619534</v>
+        <v>0.08292107283411024</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05173481342951778</v>
+        <v>0.2014099133261111</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0447274595126335</v>
+        <v>0.05113968424259441</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09419247886208981</v>
+        <v>0.1984364455999933</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08756922318089236</v>
+        <v>0.1058005659006465</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09332167205291958</v>
+        <v>0.1959687890628319</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1228676735649121</v>
+        <v>0.1610696712858192</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09316939095467673</v>
+        <v>0.1957610738661011</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04326201724785912</v>
+        <v>0.08416448069920229</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05173454490105376</v>
+        <v>0.2030608142550137</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04479778641337241</v>
+        <v>0.05106941067343634</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0949645483609594</v>
+        <v>0.2000629738426162</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08653665886565798</v>
+        <v>0.1064602943416457</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09408660379105827</v>
+        <v>0.1975750906125272</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1221897200057622</v>
+        <v>0.1599626072142638</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09393307448709212</v>
+        <v>0.1973656728322167</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0426113833626656</v>
+        <v>0.08340255785048523</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05173427637258975</v>
+        <v>0.2047117151839162</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04436789241294362</v>
+        <v>0.05139621947861049</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09573661785982898</v>
+        <v>0.2016895020852391</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08570418743235372</v>
+        <v>0.1063140411165128</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09485153552919695</v>
+        <v>0.1991813921622225</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1200048743796945</v>
+        <v>0.1606464753834373</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0946967580195075</v>
+        <v>0.1989702717983323</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0419802423729455</v>
+        <v>0.08963522658371084</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05173400784412573</v>
+        <v>0.2063626161128188</v>
       </c>
       <c r="J190" t="n">
-        <v>0.044237977957116</v>
+        <v>0.05142006521028278</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09650868735869857</v>
+        <v>0.203316030327862</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08617217145721873</v>
+        <v>0.106861715542583</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09561646726733564</v>
+        <v>0.2007876937119179</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1201130209456948</v>
+        <v>0.1622211386383959</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09546044155192289</v>
+        <v>0.2005748707644478</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04135803400643662</v>
+        <v>0.08586240122432789</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05173373931566171</v>
+        <v>0.2080135170417213</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04370824349165849</v>
+        <v>0.0513409024206192</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09728075685756817</v>
+        <v>0.2049425585704849</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08524097351649201</v>
+        <v>0.1070032269371917</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09638139900547432</v>
+        <v>0.2023939952616132</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1183140439627484</v>
+        <v>0.1618864598241957</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09622412508433827</v>
+        <v>0.2021794697305634</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04074337269547108</v>
+        <v>0.090083996097785</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05173347078719769</v>
+        <v>0.2096644179706239</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04337888946233996</v>
+        <v>0.05175868566178565</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09805282635643775</v>
+        <v>0.2065690868131078</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08501095618641269</v>
+        <v>0.107238484617674</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09714633074361301</v>
+        <v>0.2040002968113085</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1183078276898413</v>
+        <v>0.1614423017858927</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09698780861675366</v>
+        <v>0.203784068696679</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04013670781336454</v>
+        <v>0.09029992552953101</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05173320225873368</v>
+        <v>0.2113153188995264</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04314600402657096</v>
+        <v>0.05137336948594817</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09882489585530733</v>
+        <v>0.2081956150557307</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08407250948320735</v>
+        <v>0.1066673979013652</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09791126248175169</v>
+        <v>0.2056065983610039</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1178833541717547</v>
+        <v>0.162888527368543</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09775149214916903</v>
+        <v>0.2053886676627946</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03953848873337953</v>
+        <v>0.08551010384501456</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05173293373026966</v>
+        <v>0.2129662198284289</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04320482836060263</v>
+        <v>0.05148490844527273</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09959696535417693</v>
+        <v>0.2098221432983536</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08331388334669396</v>
+        <v>0.1076898761056007</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09867619421989038</v>
+        <v>0.2072128999106992</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1164279170113251</v>
+        <v>0.1628249994172028</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09851517568158441</v>
+        <v>0.2069932666289102</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03894916482883101</v>
+        <v>0.08771444536968442</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05173266520180565</v>
+        <v>0.2146171207573315</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04315586454678036</v>
+        <v>0.0518932570919252</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1003690348530465</v>
+        <v>0.2114486715409765</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08323649907827027</v>
+        <v>0.1073058285477153</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09944112595802905</v>
+        <v>0.2088192014603946</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1161434837677724</v>
+        <v>0.1639515807769281</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0992788592139998</v>
+        <v>0.2085978655950257</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03836918547298226</v>
+        <v>0.0939128644289893</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05173239667334163</v>
+        <v>0.2162680216862341</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04249963099130159</v>
+        <v>0.05209836997807163</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1011411043519161</v>
+        <v>0.2130751997835994</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08224182729951468</v>
+        <v>0.1083151645450446</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1002060576961677</v>
+        <v>0.2104255030100899</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1149320740860389</v>
+        <v>0.164268134292775</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1000425427464152</v>
+        <v>0.2102024645611413</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03779900003914746</v>
+        <v>0.09310527534837787</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05173212814487761</v>
+        <v>0.2179189226151366</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04263664610036381</v>
+        <v>0.05190020165587797</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1019131738507857</v>
+        <v>0.2147017280262223</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08203133863200573</v>
+        <v>0.1078177934149238</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1009709894343064</v>
+        <v>0.2120318045597853</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1132957076110663</v>
+        <v>0.1633745228097996</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1008062262788306</v>
+        <v>0.2118070635272569</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03723905790060279</v>
+        <v>0.08729159245329893</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0517318596164136</v>
+        <v>0.2195698235440391</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04236742828016446</v>
+        <v>0.05209870667751017</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1026852433496553</v>
+        <v>0.2163282562688452</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08140650369732189</v>
+        <v>0.1084136244746881</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1017359211724451</v>
+        <v>0.2136381061094806</v>
       </c>
       <c r="N198" t="n">
-        <v>0.112536403987797</v>
+        <v>0.1633706091730581</v>
       </c>
       <c r="O198" t="n">
-        <v>0.101569909811246</v>
+        <v>0.2134116624933725</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03668980843062531</v>
+        <v>0.08647173006920117</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05173159108794958</v>
+        <v>0.2212207244729417</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04209249593690104</v>
+        <v>0.05239383959513415</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1034573128485249</v>
+        <v>0.2179547845114681</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08046879311704166</v>
+        <v>0.1082025670416727</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1025008529105838</v>
+        <v>0.215244407659176</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1119561828611728</v>
+        <v>0.1635562562276065</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1023335933436613</v>
+        <v>0.2150162614594881</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03615170100252788</v>
+        <v>0.08664560252153325</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05173132255948556</v>
+        <v>0.2228716254018442</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04141236747677098</v>
+        <v>0.05248555496091596</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1042293823473945</v>
+        <v>0.219581312754091</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07941967751274345</v>
+        <v>0.1079845304332129</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1032657846487225</v>
+        <v>0.2168507092088713</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1106570638761358</v>
+        <v>0.1652313268185007</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1030972768760767</v>
+        <v>0.2166208604256037</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.035625184989576</v>
+        <v>0.08681312413574402</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05173105403102154</v>
+        <v>0.2245225263307468</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04112756130597177</v>
+        <v>0.05247380732702149</v>
       </c>
       <c r="K201" t="n">
-        <v>0.105001451846264</v>
+        <v>0.2212078409967139</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07936062750600584</v>
+        <v>0.1089594239666438</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1040307163868612</v>
+        <v>0.2184570107585667</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1083410666776281</v>
+        <v>0.1643956837907971</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1038609604084921</v>
+        <v>0.2182254593917193</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0351107097650815</v>
+        <v>0.09297420923728208</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05173078550255752</v>
+        <v>0.2261734272596494</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04083859583070087</v>
+        <v>0.05265855124561676</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1057735213451336</v>
+        <v>0.2228343692393368</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07879311371840728</v>
+        <v>0.1084271569593009</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1047956481249998</v>
+        <v>0.220063312308262</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1072102109105917</v>
+        <v>0.1649491899895518</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1046246439409075</v>
+        <v>0.2198300583578348</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03460872470231093</v>
+        <v>0.0911287721515962</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0517305169740935</v>
+        <v>0.2278243281885519</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04054598945715572</v>
+        <v>0.0528397412688677</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1065455908440032</v>
+        <v>0.2244608974819597</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07831860677152624</v>
+        <v>0.1086876387285192</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1055605798631385</v>
+        <v>0.2216696138579573</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1061665162199687</v>
+        <v>0.1646917082598205</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1053883274733229</v>
+        <v>0.2214346573239504</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03411967917457507</v>
+        <v>0.09527672720413513</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05173024844562949</v>
+        <v>0.2294752291174545</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04045026059153384</v>
+        <v>0.05261733194894029</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1073176603428728</v>
+        <v>0.2260874257245826</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07693857728694123</v>
+        <v>0.1092407785916339</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1063255116012772</v>
+        <v>0.2232759154076527</v>
       </c>
       <c r="N204" t="n">
-        <v>0.106012002250701</v>
+        <v>0.1665231014466598</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1061520110057382</v>
+        <v>0.223039256290066</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03364402255514156</v>
+        <v>0.09441798872034754</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05172997991716547</v>
+        <v>0.231126130046357</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04005192764003265</v>
+        <v>0.05259127783800047</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1080897298417424</v>
+        <v>0.2277139539672055</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07665449588623072</v>
+        <v>0.1091864858659806</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1070904433394159</v>
+        <v>0.224882216957348</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1037486886477309</v>
+        <v>0.1663432323951254</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1069156945381536</v>
+        <v>0.2246438552561816</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03318220421732004</v>
+        <v>0.08955247102568215</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05172971138870146</v>
+        <v>0.2327770309752595</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03995150900884964</v>
+        <v>0.05276153348821423</v>
       </c>
       <c r="K206" t="n">
-        <v>0.108861799340612</v>
+        <v>0.2293404822098284</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07546783319097319</v>
+        <v>0.1097246698688941</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1078553750775546</v>
+        <v>0.2264885185070434</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1028785950560003</v>
+        <v>0.1661519639502735</v>
       </c>
       <c r="O206" t="n">
-        <v>0.107679378070569</v>
+        <v>0.2262484542222972</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0327346735343793</v>
+        <v>0.0886800884455877</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05172944286023744</v>
+        <v>0.2344279319041621</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03954952310418228</v>
+        <v>0.0529280534517475</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1096338688394816</v>
+        <v>0.2309670104524513</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07468005982274711</v>
+        <v>0.10935523991771</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1086203068156933</v>
+        <v>0.2280948200567387</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1022037411204512</v>
+        <v>0.1665491589571604</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1084430616029844</v>
+        <v>0.2278530531884128</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03230187987962779</v>
+        <v>0.08780075530551293</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05172917433177342</v>
+        <v>0.2360788328330647</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03934648833222801</v>
+        <v>0.05289079228076629</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1104059383383512</v>
+        <v>0.2325935386950742</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07489264640313106</v>
+        <v>0.1095781053297633</v>
       </c>
       <c r="M208" t="n">
-        <v>0.109385238553832</v>
+        <v>0.2297011216064341</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1010261464860257</v>
+        <v>0.166434680260842</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1092067451353998</v>
+        <v>0.2294576521545283</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03188427262633555</v>
+        <v>0.09091438593090653</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0517289058033094</v>
+        <v>0.2377297337619672</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03894292309918432</v>
+        <v>0.05314970452743652</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1111780078372208</v>
+        <v>0.234220066937697</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07370706355370335</v>
+        <v>0.1094931754223893</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1101501702919706</v>
+        <v>0.2313074231561294</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1001478307976658</v>
+        <v>0.1658083907063744</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1099704286678152</v>
+        <v>0.2310622511206439</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03148230114780975</v>
+        <v>0.09302089464721727</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05172863727484539</v>
+        <v>0.2393806346908698</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03863934581124864</v>
+        <v>0.05280474474392419</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1119500773360904</v>
+        <v>0.23584659518032</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07252478189604264</v>
+        <v>0.1101003595129234</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1109151020301093</v>
+        <v>0.2329137247058247</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09817081370031372</v>
+        <v>0.1674701531388136</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1107341122002305</v>
+        <v>0.2326668500867595</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03109641481732178</v>
+        <v>0.0871201957798938</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05172836874638137</v>
+        <v>0.2410315356197723</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0384362748746185</v>
+        <v>0.05335586748239522</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1127221468349599</v>
+        <v>0.2374731234229429</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07284727205172734</v>
+        <v>0.1103995669187006</v>
       </c>
       <c r="M211" t="n">
-        <v>0.111680033768248</v>
+        <v>0.2345200262555201</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09769711483891119</v>
+        <v>0.1677198304032159</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1114977957326459</v>
+        <v>0.2342714490528751</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03072706300817737</v>
+        <v>0.08721220365438484</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05172810021791735</v>
+        <v>0.2426824365486748</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03773422869549133</v>
+        <v>0.05340302729501564</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1134942163338295</v>
+        <v>0.2390996516655657</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0710760046423359</v>
+        <v>0.1104907069570562</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1124449655063867</v>
+        <v>0.2361263278052154</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09652875385840054</v>
+        <v>0.1670572853446373</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1122614792650613</v>
+        <v>0.2358760480189907</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03037469509364937</v>
+        <v>0.09229683259613922</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05172783168945333</v>
+        <v>0.2443333374775774</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03783372568006456</v>
+        <v>0.05344617873395135</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1142662858326991</v>
+        <v>0.2407261799081887</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07051245028944686</v>
+        <v>0.1101736889453255</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1132098972445254</v>
+        <v>0.2377326293549108</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09516775040372377</v>
+        <v>0.1674823808081339</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1130251627974767</v>
+        <v>0.2374806469851063</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03003976044704205</v>
+        <v>0.09637399693060555</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05172756316098932</v>
+        <v>0.24598423840648</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03753528423453573</v>
+        <v>0.05328527635136833</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1150383553315687</v>
+        <v>0.2423527081508116</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06985807961463869</v>
+        <v>0.1106484222008438</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1139748289826641</v>
+        <v>0.2393389309046061</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0945161241198228</v>
+        <v>0.1668949796387617</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1137888463298921</v>
+        <v>0.2390852459512218</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03003976044704205</v>
+        <v>0.08944361098323259</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05172756316098932</v>
+        <v>0.2476351393353825</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03713942276510224</v>
+        <v>0.05352027469943256</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1158104248304383</v>
+        <v>0.2439792363934344</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06941436323948988</v>
+        <v>0.1099148160409461</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1147397607208028</v>
+        <v>0.2409452324543014</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09317589465163978</v>
+        <v>0.167594944681577</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1145525298623075</v>
+        <v>0.2406898449173374</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02930273895219859</v>
+        <v>0.09050558907946907</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05168556536718116</v>
+        <v>0.2492860402642851</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0367466596779616</v>
+        <v>0.05315112833031001</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1165824943293079</v>
+        <v>0.2456057646360573</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06908277178557887</v>
+        <v>0.1099727797829679</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1155046924589414</v>
+        <v>0.2425515340039968</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09124908164411666</v>
+        <v>0.1667821387816357</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1153162133947229</v>
+        <v>0.242294443883453</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02857324343045081</v>
+        <v>0.09355984554476368</v>
       </c>
       <c r="G217" t="n">
-        <v>0.051643567573373</v>
+        <v>0.2509369411931876</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03645751337931125</v>
+        <v>0.05327779179616661</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1173545638281775</v>
+        <v>0.2472322928786802</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06806477587448423</v>
+        <v>0.1101222227442443</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1162696241970801</v>
+        <v>0.2441578355536921</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08963770474219568</v>
+        <v>0.167456424783994</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1160798969271382</v>
+        <v>0.2438990428495686</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02785153185974976</v>
+        <v>0.09060629470456516</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05160156977956484</v>
+        <v>0.2525878421220902</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03597250227534868</v>
+        <v>0.05340021964916832</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1181266333270471</v>
+        <v>0.2488588211213031</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06776184612778441</v>
+        <v>0.1106630542421106</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1170345559352188</v>
+        <v>0.2457641371033875</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09014378359081865</v>
+        <v>0.1675176655337078</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1168435804595536</v>
+        <v>0.2455036418156842</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02713786221804646</v>
+        <v>0.08864485088432228</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05155957198575668</v>
+        <v>0.2542387430509927</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03609214477227132</v>
+        <v>0.05331836644148115</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1188987028259166</v>
+        <v>0.250485349363926</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06667545316705784</v>
+        <v>0.110095183593902</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1177994876733575</v>
+        <v>0.2473704386530828</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08816933783492775</v>
+        <v>0.1674657238758336</v>
       </c>
       <c r="O219" t="n">
-        <v>0.117607263991969</v>
+        <v>0.2471082407817997</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02643249248329197</v>
+        <v>0.09067542840948364</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05151757419194852</v>
+        <v>0.2558896439798952</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03551695927627668</v>
+        <v>0.05353218672527103</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1196707723247862</v>
+        <v>0.252111877606549</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06630706761388305</v>
+        <v>0.1101185201169538</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1185644194114962</v>
+        <v>0.2489767402027782</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08711638711946501</v>
+        <v>0.1674004626554271</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1183709475243844</v>
+        <v>0.2487128397479153</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02573568063343731</v>
+        <v>0.08969794160549804</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05147557639814036</v>
+        <v>0.2575405449087978</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03544746419356221</v>
+        <v>0.05354163505270396</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1204428418236558</v>
+        <v>0.2537384058491718</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06645816008983857</v>
+        <v>0.1100329731286012</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1193293511496349</v>
+        <v>0.2505830417524735</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0863869510893725</v>
+        <v>0.1672217447175445</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1191346310567998</v>
+        <v>0.2503174387140309</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02504768464643351</v>
+        <v>0.09471230479781426</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0514335786043322</v>
+        <v>0.2591914458377003</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03498417793032535</v>
+        <v>0.05334666597594585</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1212149113225254</v>
+        <v>0.2553649340917947</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0650302012165028</v>
+        <v>0.1107384519461793</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1200942828877735</v>
+        <v>0.2521893433021689</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0851830493895922</v>
+        <v>0.168529432907242</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1198983145892151</v>
+        <v>0.2519220376801465</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0243687625002316</v>
+        <v>0.0907184323118809</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05139158081052403</v>
+        <v>0.2608423467666029</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0351276188927636</v>
+        <v>0.05333778161455831</v>
       </c>
       <c r="K223" t="n">
-        <v>0.121986980821395</v>
+        <v>0.2569914623344176</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06482466161545428</v>
+        <v>0.1101271181402101</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1208592146259122</v>
+        <v>0.2537956448518642</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08460670166506623</v>
+        <v>0.168043898687773</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1206619981216305</v>
+        <v>0.2535266366462621</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02369917217278262</v>
+        <v>0.09464395917998705</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05134958301671587</v>
+        <v>0.2624932476955055</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0346783054870744</v>
+        <v>0.05321969162941448</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1227590503202646</v>
+        <v>0.2586179905770405</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06434301190827144</v>
+        <v>0.1102554656671142</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1216241463640509</v>
+        <v>0.2554019464015596</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08335992756073662</v>
+        <v>0.1665645072210827</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1214256816540459</v>
+        <v>0.2551312356123776</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02303917164203761</v>
+        <v>0.09433315899581765</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05130758522290771</v>
+        <v>0.264144148624408</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03423675611945524</v>
+        <v>0.05307892717842637</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1235311198191342</v>
+        <v>0.2602445188196634</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06358672271653279</v>
+        <v>0.1096501959869055</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1223890781021896</v>
+        <v>0.2570082479512549</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08154474672154532</v>
+        <v>0.1653332162003341</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1221893651864613</v>
+        <v>0.2567358345784932</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0223890188859476</v>
+        <v>0.08880545330648135</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05126558742909955</v>
+        <v>0.2657950495533106</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03420348919610355</v>
+        <v>0.05262965632310412</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1243031893180038</v>
+        <v>0.2618710470622863</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06355726466181688</v>
+        <v>0.1092395788202312</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1231540098403283</v>
+        <v>0.2586145495009503</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08126317879243439</v>
+        <v>0.1642927827716684</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1229530487188767</v>
+        <v>0.2583404335446088</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02174897188246364</v>
+        <v>0.08608755058638873</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05122358963529139</v>
+        <v>0.2674459504822131</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03377902312321687</v>
+        <v>0.05208604712495785</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1250752588168733</v>
+        <v>0.2634975753049092</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06295610836570209</v>
+        <v>0.1074518838877387</v>
       </c>
       <c r="M227" t="n">
-        <v>0.123918941578467</v>
+        <v>0.2602208510506456</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0810172434183461</v>
+        <v>0.1637859640812271</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1237167322512921</v>
+        <v>0.2599450325107244</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02111928860953666</v>
+        <v>0.08820615930995029</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05118159184148322</v>
+        <v>0.2690968514111156</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03346387630699259</v>
+        <v>0.05146226764549773</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1258473283157429</v>
+        <v>0.2651241035475321</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06278472444976704</v>
+        <v>0.1068153809100752</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1246838733166057</v>
+        <v>0.2618271526003409</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07950896024422222</v>
+        <v>0.1609555172751513</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1244804157837074</v>
+        <v>0.26154963147684</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02050022704511787</v>
+        <v>0.09218798795157662</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05113959404767506</v>
+        <v>0.2707477523400182</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03375856715362821</v>
+        <v>0.05117248594623389</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1266193978146125</v>
+        <v>0.266750631790155</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06274458353559006</v>
+        <v>0.105058339607888</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1254488050547443</v>
+        <v>0.2634334541500363</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07924034891500492</v>
+        <v>0.1599441994995824</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1252440993161228</v>
+        <v>0.2631542304429556</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01989204516715822</v>
+        <v>0.08805974498567817</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0510975962538669</v>
+        <v>0.2723986532689208</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03306356057044466</v>
+        <v>0.05033087008867645</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1273914673134821</v>
+        <v>0.2683771600327779</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06183698358111975</v>
+        <v>0.1042090297018243</v>
       </c>
       <c r="M230" t="n">
-        <v>0.126213736792883</v>
+        <v>0.2650397556997316</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07821319112415048</v>
+        <v>0.1581947679006617</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1260077828485382</v>
+        <v>0.2647588294090711</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01929500095360875</v>
+        <v>0.08984813888666562</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05105559846005874</v>
+        <v>0.2740495541978233</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03317376178918761</v>
+        <v>0.04955158813433559</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1281635368123517</v>
+        <v>0.2700036882754008</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06244329873880752</v>
+        <v>0.1022957209125315</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1269786685310217</v>
+        <v>0.266646057249427</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0772064661589425</v>
+        <v>0.1562499796245305</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1267714663809536</v>
+        <v>0.2663634283751867</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01870935238242048</v>
+        <v>0.08657987812894943</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05101360066625058</v>
+        <v>0.2757004551267259</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03318561840053957</v>
+        <v>0.04894880814472143</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1289356063112213</v>
+        <v>0.2716302165180237</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06145053122103022</v>
+        <v>0.1010466829606568</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1277436002691604</v>
+        <v>0.2682523587991223</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07750583913053893</v>
+        <v>0.1530525918173299</v>
       </c>
       <c r="O232" t="n">
-        <v>0.127535149913369</v>
+        <v>0.2679680273413023</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01813535743154447</v>
+        <v>0.08428167118694019</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05097160287244242</v>
+        <v>0.2773513560556284</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03289921276459111</v>
+        <v>0.04853669818134404</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1297076758100909</v>
+        <v>0.2732567447606466</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06165913812682447</v>
+        <v>0.09939018556684739</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1285085320072991</v>
+        <v>0.2698586603488176</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07631168398809923</v>
+        <v>0.1505453616252015</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1282988334457844</v>
+        <v>0.2695726263074179</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01757327407893174</v>
+        <v>0.07898022653504841</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05092960507863425</v>
+        <v>0.279002256984531</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03241462724143294</v>
+        <v>0.04782942630571368</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1304797453089605</v>
+        <v>0.2748832730032695</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06086957655522696</v>
+        <v>0.0980544984517506</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1292734637454378</v>
+        <v>0.2714649618985129</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07612437468078281</v>
+        <v>0.1491710461942865</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1290625169781997</v>
+        <v>0.2711772252735334</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01702336030253331</v>
+        <v>0.08370225264768466</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05088760728482609</v>
+        <v>0.2806531579134335</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0323319441911557</v>
+        <v>0.04694116057934043</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1312518148078301</v>
+        <v>0.2765098012458924</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06068230360527435</v>
+        <v>0.09676789133601366</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1300383954835765</v>
+        <v>0.2730712634482083</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07494428515774909</v>
+        <v>0.1461724026707261</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1298262005106151</v>
+        <v>0.272781824239649</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01648587408030024</v>
+        <v>0.07547445799925948</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05084560949101793</v>
+        <v>0.2823040588423361</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03245124597385003</v>
+        <v>0.04628606906373443</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1320238843066996</v>
+        <v>0.2781363294885152</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06069777637600335</v>
+        <v>0.09575863394028386</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1308033272217151</v>
+        <v>0.2746775649979036</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07427178936815748</v>
+        <v>0.1445921882006617</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1305898840430305</v>
+        <v>0.2743864232057646</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01596107339018355</v>
+        <v>0.0803235510641834</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05080361169720977</v>
+        <v>0.2839549597712386</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03227261494960663</v>
+        <v>0.04587831982040579</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1327959538055692</v>
+        <v>0.2797628577311382</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05981645196645063</v>
+        <v>0.09445499593243528</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1315682589598538</v>
+        <v>0.276283866547599</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07400726126116741</v>
+        <v>0.1438730686535061</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1313535675754459</v>
+        <v>0.2759910221718802</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01544921621013427</v>
+        <v>0.08227147621314501</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05076161390340161</v>
+        <v>0.2856058607001412</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03179613347851613</v>
+        <v>0.04491627260310635</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1335680233044388</v>
+        <v>0.2813893859737611</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05973878747565292</v>
+        <v>0.09331136972957801</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1323331906979925</v>
+        <v>0.2778901680972943</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07345107478593838</v>
+        <v>0.1410395146863266</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1321172511078613</v>
+        <v>0.2775956211379958</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01495056051810346</v>
+        <v>0.07824749558719341</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05071961610959345</v>
+        <v>0.2872567616290437</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03182188392066922</v>
+        <v>0.04485587738009446</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1343400928033084</v>
+        <v>0.2830159142163839</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05936524000264673</v>
+        <v>0.09166349788864928</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1330981224361312</v>
+        <v>0.2794964696469897</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07170360389162972</v>
+        <v>0.1393995297046868</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1328809346402766</v>
+        <v>0.2792002201041114</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0144643108820754</v>
+        <v>0.07621959332801254</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05067761831578529</v>
+        <v>0.2889076625579463</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03124994863615652</v>
+        <v>0.04389335809967425</v>
       </c>
       <c r="K240" t="n">
-        <v>0.135112162302178</v>
+        <v>0.2846424424590069</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05989626664646897</v>
+        <v>0.09071131343763239</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1338630541742699</v>
+        <v>0.281102771196685</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07206522252740077</v>
+        <v>0.1373530124153217</v>
       </c>
       <c r="O240" t="n">
-        <v>0.133644618172692</v>
+        <v>0.280804819070227</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01398440482020079</v>
+        <v>0.07918770616223605</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05063562052197713</v>
+        <v>0.2905585634868488</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03158040998506868</v>
+        <v>0.04352868119718262</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1358842318010476</v>
+        <v>0.2862689707016298</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05953232450615606</v>
+        <v>0.08915474940451093</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1346279859124086</v>
+        <v>0.2827090727463804</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07053630464241117</v>
+        <v>0.1352998615249666</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1344083017051074</v>
+        <v>0.2824094180363426</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01351004690046394</v>
+        <v>0.07315177081649765</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05059362272816897</v>
+        <v>0.2922094644157514</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03121335032749641</v>
+        <v>0.04306181310795645</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1366563012999172</v>
+        <v>0.2878954989442526</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05847387068074489</v>
+        <v>0.08829373881726829</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1353929176505473</v>
+        <v>0.2843153742960757</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07031722418582009</v>
+        <v>0.1341399757403569</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1351719852375228</v>
+        <v>0.2840140170024582</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01304149510081588</v>
+        <v>0.06811172401743101</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05055162493436081</v>
+        <v>0.2938603653446539</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03104885202353033</v>
+        <v>0.04249272026733261</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1374283707987868</v>
+        <v>0.2895220271868755</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05902136226927202</v>
+        <v>0.08752821470388789</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1361578493886859</v>
+        <v>0.2859216758457711</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06990835510678711</v>
+        <v>0.1333732537682276</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1359356687699382</v>
+        <v>0.2856186159685737</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01257900739920764</v>
+        <v>0.07006750249166976</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05050962714055265</v>
+        <v>0.2955112662735564</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03088699743326112</v>
+        <v>0.04152136911064799</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1382004402976564</v>
+        <v>0.2911485554294984</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05857525637077415</v>
+        <v>0.08565811009235322</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1369227811268246</v>
+        <v>0.2875279773954664</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06821007135447166</v>
+        <v>0.1300995943153139</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1366993523023536</v>
+        <v>0.2872232149346893</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01212284177359028</v>
+        <v>0.06701904296584762</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05046762934674449</v>
+        <v>0.297162167202459</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03062786891677945</v>
+        <v>0.04114772607323948</v>
       </c>
       <c r="K245" t="n">
-        <v>0.138972509796526</v>
+        <v>0.2927750836721213</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05803601008428802</v>
+        <v>0.08508335801064779</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1376877128649633</v>
+        <v>0.2891342789451617</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06762274687803305</v>
+        <v>0.1281188960883511</v>
       </c>
       <c r="O245" t="n">
-        <v>0.137463035834769</v>
+        <v>0.2888278139008049</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0116732562019148</v>
+        <v>0.06796628216659825</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05042563155293633</v>
+        <v>0.2988130681313615</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03077154883417592</v>
+        <v>0.04047175759044394</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1397445792953955</v>
+        <v>0.2944016119147442</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05850408050885023</v>
+        <v>0.08330389148675488</v>
       </c>
       <c r="M246" t="n">
-        <v>0.138452644603102</v>
+        <v>0.2907405804948571</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0686467556266307</v>
+        <v>0.1264310577940744</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1382267193671843</v>
+        <v>0.2904324128669205</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01123050866213225</v>
+        <v>0.07290915682055538</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05038363375912817</v>
+        <v>0.3004639690602641</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03041811954554123</v>
+        <v>0.04009343009759823</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1405166487942651</v>
+        <v>0.2960281401573671</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05757992474349746</v>
+        <v>0.08291964354865808</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1392175763412407</v>
+        <v>0.2923468820445524</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06768247154942408</v>
+        <v>0.124935978139219</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1389904028995997</v>
+        <v>0.292037011833036</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01079485713219368</v>
+        <v>0.07084760365435261</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05034163596532001</v>
+        <v>0.3021148699891666</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03006766341096605</v>
+        <v>0.03961271003003929</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1412887182931347</v>
+        <v>0.29765466839999</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05776399988726641</v>
+        <v>0.08203054722434075</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1399825080793794</v>
+        <v>0.2939531835942478</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06733026859557262</v>
+        <v>0.12273355583052</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1397540864320151</v>
+        <v>0.2936416107991516</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0103665595900501</v>
+        <v>0.06278155939462368</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05029963817151185</v>
+        <v>0.3037657709180692</v>
       </c>
       <c r="J249" t="n">
-        <v>0.030120262790541</v>
+        <v>0.03902956382310399</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1420607877920043</v>
+        <v>0.2992811966426129</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05695676303919373</v>
+        <v>0.08023653554178639</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1407474398175181</v>
+        <v>0.2955594851439431</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06549052071423572</v>
+        <v>0.1223236895747128</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1405177699644305</v>
+        <v>0.2952462097652672</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009945874013652559</v>
+        <v>0.06071096076800226</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05025764037770369</v>
+        <v>0.3054166718469717</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02987600004435681</v>
+        <v>0.03824395791212917</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1428328572908739</v>
+        <v>0.3009077248852358</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0576586712983162</v>
+        <v>0.07873754152897838</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1415123715556567</v>
+        <v>0.2971657866936385</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06486360185457291</v>
+        <v>0.1203062780785326</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1412814534968459</v>
+        <v>0.2968508087313828</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009533058380952093</v>
+        <v>0.05963574450112199</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05021564258389553</v>
+        <v>0.3070675727758743</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02983495753250405</v>
+        <v>0.03745585873245176</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1436049267897435</v>
+        <v>0.3025342531278587</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05717018176367034</v>
+        <v>0.0774334982139003</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1422773032937954</v>
+        <v>0.2987720882433338</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06434988596574337</v>
+        <v>0.1179812200487143</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1420451370292612</v>
+        <v>0.2984554076974984</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00912837066989966</v>
+        <v>0.06055584732061656</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05017364479008736</v>
+        <v>0.3087184737047768</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02979721761507342</v>
+        <v>0.03706523271940862</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1443769962886131</v>
+        <v>0.3041607813704816</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05709175153429294</v>
+        <v>0.07682433862453547</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1430422350319341</v>
+        <v>0.3003783897930291</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06444974699690664</v>
+        <v>0.1165484141919935</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1428088205616767</v>
+        <v>0.300060006663614</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008732068858446428</v>
+        <v>0.05847120595311969</v>
       </c>
       <c r="G253" t="n">
-        <v>0.0501316469962792</v>
+        <v>0.3103693746336794</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02966286265215561</v>
+        <v>0.03667204630833661</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1451490657874827</v>
+        <v>0.3057873096131045</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05682383770922059</v>
+        <v>0.07500999578886741</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1438071667700728</v>
+        <v>0.3019846913427245</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06376355889722218</v>
+        <v>0.1141077592151051</v>
       </c>
       <c r="O253" t="n">
-        <v>0.143572504094092</v>
+        <v>0.3016646056297296</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008344410924543376</v>
+        <v>0.056381757125265</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05008964920247103</v>
+        <v>0.3120202755625819</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02933197500384123</v>
+        <v>0.03587626593457263</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1459211352863522</v>
+        <v>0.3074138378557274</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05666689738749006</v>
+        <v>0.07409040273487949</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1445720985082115</v>
+        <v>0.3035909928924198</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06379169561584941</v>
+        <v>0.1130591538247845</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1443361876265074</v>
+        <v>0.3032692045958451</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007965654846141521</v>
+        <v>0.05928743756368619</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05004765140866287</v>
+        <v>0.3136711764914845</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02950463703022092</v>
+        <v>0.03537785803345357</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1466932047852219</v>
+        <v>0.3090403660983503</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05682138766813796</v>
+        <v>0.07266549249055521</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1453370302463502</v>
+        <v>0.3051972944421152</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06243453110194769</v>
+        <v>0.1109024967277669</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1450998711589228</v>
+        <v>0.3048738035619607</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007596058601191918</v>
+        <v>0.06218818399501696</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05000565361485471</v>
+        <v>0.3153220774203871</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02888093109138543</v>
+        <v>0.03447678904031631</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1474652742840914</v>
+        <v>0.3106668943409732</v>
       </c>
       <c r="L256" t="n">
-        <v>0.055687765650201</v>
+        <v>0.07143519808387802</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1461019619844889</v>
+        <v>0.3068035959918105</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06319243930467644</v>
+        <v>0.1096376866307874</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1458635546913382</v>
+        <v>0.3064784025280763</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.007235880167645599</v>
+        <v>0.06008393314589099</v>
       </c>
       <c r="G257" t="n">
-        <v>0.04996365582104655</v>
+        <v>0.3169729783492896</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02896093954742533</v>
+        <v>0.03397302539049772</v>
       </c>
       <c r="K257" t="n">
-        <v>0.148237343782961</v>
+        <v>0.3122934225835961</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05616648843271585</v>
+        <v>0.07029945254283143</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1468668937226275</v>
+        <v>0.3084098975415058</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06296579417319514</v>
+        <v>0.1071646222405812</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1466272382237536</v>
+        <v>0.3080830014941919</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006885377523453584</v>
+        <v>0.05397462174294191</v>
       </c>
       <c r="G258" t="n">
-        <v>0.04992165802723839</v>
+        <v>0.3186238792781921</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02914474475843133</v>
+        <v>0.03336653351933469</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1490094132818306</v>
+        <v>0.313919950826219</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05555801311471917</v>
+        <v>0.06985818889539874</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1476318254607662</v>
+        <v>0.3100161990912012</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06185496965666315</v>
+        <v>0.1054832022638836</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1473909217561689</v>
+        <v>0.3096876004603075</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00654480864656691</v>
+        <v>0.05586018651280345</v>
       </c>
       <c r="G259" t="n">
-        <v>0.04987966023343023</v>
+        <v>0.3202747802070947</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02903242908449405</v>
+        <v>0.0330572798621641</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1497814827807002</v>
+        <v>0.3155464790688419</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05566279679524766</v>
+        <v>0.06851134016956351</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1483967571989049</v>
+        <v>0.3116225006408965</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06176033970423989</v>
+        <v>0.1029933254074298</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1481546052885843</v>
+        <v>0.311292199426423</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006214431514936634</v>
+        <v>0.05574056418210926</v>
       </c>
       <c r="G260" t="n">
-        <v>0.04983766243962207</v>
+        <v>0.3219256811359972</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02862407488570418</v>
+        <v>0.03234523085432281</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1505535522795698</v>
+        <v>0.3171730073114648</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05528129657333797</v>
+        <v>0.06675883939330909</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1491616889370436</v>
+        <v>0.3132288021905919</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06038227826508485</v>
+        <v>0.1009948903779551</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1489182888209997</v>
+        <v>0.3128967983925386</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005894504106513758</v>
+        <v>0.05761569147749301</v>
       </c>
       <c r="G261" t="n">
-        <v>0.04979566464581391</v>
+        <v>0.3235765820648998</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02831976452215237</v>
+        <v>0.03193035293114774</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1513256217784394</v>
+        <v>0.3187995355540877</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05621396954802679</v>
+        <v>0.066000619594619</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1499266206751823</v>
+        <v>0.3148351037402872</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06172115928835736</v>
+        <v>0.09938779588219437</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1496819723534151</v>
+        <v>0.3145013973586542</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005585284399249345</v>
+        <v>0.0524855051255884</v>
       </c>
       <c r="G262" t="n">
-        <v>0.04975366685200575</v>
+        <v>0.3252274829938024</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02851958035392926</v>
+        <v>0.03091261252797575</v>
       </c>
       <c r="K262" t="n">
-        <v>0.152097691277309</v>
+        <v>0.3204260637967106</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05526127281835078</v>
+        <v>0.06483661380147668</v>
       </c>
       <c r="M262" t="n">
-        <v>0.150691552413321</v>
+        <v>0.3164414052899826</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05977735672321682</v>
+        <v>0.09797194062688319</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1504456558858305</v>
+        <v>0.3161059963247698</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005287030371094403</v>
+        <v>0.0463499418530291</v>
       </c>
       <c r="G263" t="n">
-        <v>0.04971166905819759</v>
+        <v>0.3268783839227049</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02862360474112556</v>
+        <v>0.03069197608014372</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1528697607761785</v>
+        <v>0.3220525920393335</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05512366348334669</v>
+        <v>0.06316675504186559</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1514564841514596</v>
+        <v>0.3180477068396779</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06075124451882274</v>
+        <v>0.09514722331875652</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1512093394182459</v>
+        <v>0.3177105952908854</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.04920893838644882</v>
       </c>
       <c r="G264" t="n">
-        <v>0.04966967126438943</v>
+        <v>0.3285292848516074</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02833192004383185</v>
+        <v>0.03006841002298856</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1536418302750481</v>
+        <v>0.3236791202819564</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05550159864205115</v>
+        <v>0.06129097634376918</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1522214158895983</v>
+        <v>0.3196540083893732</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05934319662433446</v>
+        <v>0.09361354266454969</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1519730229506612</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.04965651336965259</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005770816943626467</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0496567818981166</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006537874598684483</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.04965705042658062</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007301137077738627</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.04965731895504464</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008060568493420107</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.04965758748350866</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008816132958293817</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.04965785601197267</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009567794584990637</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.04965812454043669</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01031551748607582</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.04965839306890071</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01105926577417987</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.04965866159736473</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01179900356186839</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.04965893012582874</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01253469496177156</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.04965919865429276</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01326630408645531</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.04965946718275677</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01399379504854949</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.04965973571122079</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01471713196062037</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.04966000423968481</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01543627893529742</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.04966027276814883</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01615120008514732</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.04966054129661285</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01686185952279914</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.04966080982507687</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01756822136081995</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.04966107835354088</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0182702497118232</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.04966134688200489</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01896790868842201</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.04966161541046892</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01966116240318399</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.04966188393893293</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02034997496873729</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.04966215246739695</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0210343104976499</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.04966242099586096</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02171413310254958</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.04966268952432498</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0223894068960047</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.049662958052789</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02306024253086757</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.04966322658125302</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02372748336105666</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.04966349510971704</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02439124003942394</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.04966376363818106</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02505147667853846</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.04966403216664507</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02570815739102694</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.04966430069510909</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02636124628945882</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0496645692235731</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02701070748646043</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.04966483775203712</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02765650509460151</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.04966510628050114</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.0282986032264942</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.04966537480896515</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02893696599475033</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.04966564333742917</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02957155751194007</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.04966591186589318</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.03020234189068901</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0496661803943572</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03082928324356771</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.04966644892282122</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03145234568320137</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.04966671745128524</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03207149332216088</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.04966698597974926</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03268669027307116</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.04966725450821328</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03329790064850339</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.04966752303667729</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03390508856108215</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.04966779156514131</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03450821812337896</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.04966806009360532</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03510725344801811</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.04966832862206935</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03570215864757143</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.04966859715053336</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03629289783466282</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.04966886567899738</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03687943512186454</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.04966913420746139</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03746173462180007</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.04966940273592541</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03803976044704206</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.04966967126438943</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03803976044704206</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.04965651336965259</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03867282740407799</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.04969904822038879</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03930074351385666</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.04974158307112498</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03992340168438296</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.04978411792186117</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.04054069482366184</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.04982665277259737</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04115251583969822</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.04986918762333357</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04175875764049706</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.04991172247406976</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04235931313406328</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.04995425732480595</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04295407522840178</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.04999679217554215</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04354293683151755</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05003932702627835</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04412579085141548</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05008186187701454</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04470253019610051</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05012439672775074</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04527304777357759</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05016693157848693</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04583723649185163</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05020946642922313</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04639498925892756</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05025200127995932</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04694619898281035</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05029453613069552</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.0474907585715049</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05033707098143172</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04802856093301613</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05037960583216791</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04855949897534901</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05042214068290411</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04908346560650843</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0504646755336403</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04960035373449937</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.0505072103843765</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.05011005626732672</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05054974523511269</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.05061246611299545</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05059228008584889</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.05110747617951044</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05063481493658508</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.05159497937487662</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05067734978732127</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.05207530589941221</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05071988463805747</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.05255097241500122</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05076241948879366</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05302230912196183</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05080495433952986</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05348920892829891</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05084748919026606</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05395156474201743</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05089002404100225</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05440926947112232</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05093255889173844</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05486221602361851</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05097509374247464</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05531029730751092</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05101762859321084</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05575340623080449</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05106016344394703</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05619143570150415</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05110269829468322</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05662427862761483</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05114523314541942</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05705182791714148</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05118776799615562</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.057473976478089</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05123030284689181</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05789061721846234</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05127283769762801</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05830164304626646</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05131537254836421</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05870694686950626</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0513579073991004</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05910642159618667</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05140044224983659</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05949996013431264</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05144297710057279</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05988745539188908</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05148551195130899</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.06026880027692093</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05152804680204518</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.06064388769741314</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05157058165278137</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.06101261056137065</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05161311650351758</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.06137486177679833</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05165565135425377</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.06173053425170118</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05169818620498996</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06207952089408409</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05174072105572616</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.0620795208940841</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05174072105572616</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06354798247359345</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05326862963393973</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06497290482185247</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0547965382121533</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.06635348320102</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.05632444679036688</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.06768891287325485</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.05785235536858045</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.06897838910071591</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.05938026394679402</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.07022110714556198</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06090817252500759</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.07141626226995196</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06243608110322117</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.07256304973604463</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06396398968143474</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.07366066480599884</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.0654918982596483</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.07470830274197349</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.06701980683786188</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.07570515880612735</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.06854771541607545</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0766504282606193</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07007562399428903</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.07754330636760817</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07160353257250258</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.07838298838925284</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07313144115071617</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.07916866958771207</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07465934972892974</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.07989954522514481</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0761872583071433</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0805748105637098</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.07771516688535689</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.08119366086556595</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.07924307546357046</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.08175529139287205</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08077098404178402</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.082258897407787</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08229889261999759</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0827036741724696</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.08382680119821118</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.08308881694907869</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.08535470977642473</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.08341352099977317</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.08688261835463831</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.08367698158671183</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.08841052693285188</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.08387839397205349</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.08993843551106546</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.08401695341795704</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09146634408927903</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.08410602785877883</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.0929942526674926</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.08410158896931741</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.09452216124570616</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.08403809093628375</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.09605006982391974</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.08390297709540562</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.09757797840213331</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.08370095482696829</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.09910588698034689</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.08343673151125713</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1006337955585605</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.08311501452855746</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.102161704136774</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.08274051125915455</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1036896127149876</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.08231792908333377</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1052175212932012</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.08185197538138042</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1067454298714147</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0813473575335798</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1082733384496283</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.0808087829202172</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1098012470278419</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.08024095892157801</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1113291556060555</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.07964859291794751</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.112857064184269</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.07903639228961101</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1143849727624826</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.07840906441685386</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1159128813406962</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.07777131667996132</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1174407899189097</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.07712785645921874</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1189686984971233</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.07648339113491143</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1204966070753369</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.07584262808732473</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1220245156535505</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.07521027469674396</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.123552424231764</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.07459103834345437</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1250803328099776</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.07398962640774137</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1266082413881912</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.07341074626989019</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1281361499664047</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.07285905582502161</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1296640585446183</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.07229089326092944</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1311919671228319</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.07166960574973352</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1327198757010455</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.07100160870369301</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.134247784279259</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.07029331753506704</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1357756928574726</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.06955114765611473</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1373036014356862</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.06878151447909522</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1388315100138998</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.06799083341626766</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1403594185921133</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.06718551987989119</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1418873271703269</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.06637198928222487</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1434152357485405</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.06555665703552799</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.144943144326754</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.06474593855205951</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1464710529049676</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.06394624924407871</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1479989614831812</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.06316400452384466</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.06240561980361647</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1510547786396083</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.06167751049565332</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1525826872178219</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.06098609201221435</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1541105957960355</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.06033777976555867</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.155638504374249</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.05973898916794543</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1571664129524626</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.05919613563163375</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1586943215306762</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.05871563456888281</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1602222301088897</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.05830390139195168</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1617501386871033</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.05796735151309956</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1632780472653169</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.05771240034458553</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1648059558435305</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.05754546329866877</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.166333864421744</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.05747295578760838</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1678617729999576</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.05747035305942074</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1693896815781712</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.05747082569656003</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1709175901563847</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.05747228283428781</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1724454987345983</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.05747528004413944</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1739734073128119</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.05748037289765025</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1755013158910255</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.05748811696635558</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.177029224469239</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.05749906782179074</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1785571330474526</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.05751378103549109</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1800850416256662</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.05753281217899193</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1816129502038797</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.05755671682382862</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1831408587820934</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.05758605054153648</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1846687673603069</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.05762136890365085</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1861966759385205</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.05766322748170704</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.187724584516734</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.05771218184724041</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1892524930949477</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.05776878757178629</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1907804016731612</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.05783360022687999</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1923083102513747</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.05790717538405687</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.1938362188295883</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.05799006861485224</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.1953641274078019</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.05808283549080143</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.1968920359860155</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.0581860315834398</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.198419944564229</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.05830021246430266</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.1999478531424426</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.05842593370492535</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2014757617206562</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.05856375087684319</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2030036702988698</v>
-      </c>
-    </row>
+        <v>0.3193151942570009</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003458929963093514</v>
+        <v>0.003749355752090913</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00165090092890255</v>
+        <v>0.0006427229932763328</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009446032553520924</v>
+        <v>0.015</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001626528242622896</v>
+        <v>0.002938970588235294</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.02749286471666987</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00159726662404092</v>
+        <v>0.001995079525645052</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.04937655804849472</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001484328579916814</v>
+        <v>0.00177512234682347</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01493975188863735</v>
+        <v>0.007422154180015232</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0033018018578051</v>
+        <v>0.001285445986552666</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.015</v>
+        <v>0.01880679051382755</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002938970588235294</v>
+        <v>0.004029651189017224</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.04273531230247743</v>
+        <v>0.04602281404598468</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003212603099390686</v>
+        <v>0.004011920092484288</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0696720520508155</v>
+        <v>0.08513199663533577</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003209197932231166</v>
+        <v>0.00437222252912185</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.01097269100717185</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004555692111452312</v>
+        <v>0.001928168979828998</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.02003933302972263</v>
+        <v>0.02451099262286707</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004879584727868689</v>
+        <v>0.006044476783525836</v>
       </c>
       <c r="L68" s="172" t="n">
         <v>0.05610788717687729</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00479179987212276</v>
+        <v>0.005816558383804816</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.08513199663533577</v>
+        <v>0.08885151156997012</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004452985739750444</v>
+        <v>0.005996106231369403</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02534231845778786</v>
+        <v>0.01435526195695962</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.0066036037156102</v>
+        <v>0.002570891973105331</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02301367554297168</v>
+        <v>0.02708377771841879</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006506112970491585</v>
+        <v>0.007580802488831926</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.06146966515314065</v>
+        <v>0.0589613647653979</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006425206198781372</v>
+        <v>0.008023840184968576</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.09675714309139616</v>
+        <v>0.09202427733455826</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006418395864462331</v>
+        <v>0.007994808308492536</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02833198041233195</v>
+        <v>0.01752416275277749</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00825450464451275</v>
+        <v>0.003213614966381664</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02708377771841879</v>
+        <v>0.0282522823318573</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008816911764705882</v>
+        <v>0.01007412797254306</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.06765313111211591</v>
+        <v>0.06198971402412792</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008031507748476715</v>
+        <v>0.01002980023121072</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1049026111606217</v>
+        <v>0.09624962966981299</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008022994830577912</v>
+        <v>0.00999351038561567</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03581422624428888</v>
+        <v>0.0204336891180243</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009905405573415299</v>
+        <v>0.003856337959657997</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02833624915843654</v>
+        <v>0.02949826253196967</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009759169455737378</v>
+        <v>0.01208895356705167</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.07301740338092347</v>
+        <v>0.06421002334289697</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009637809298172057</v>
+        <v>0.01203576027745286</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1120118085717529</v>
+        <v>0.1005434779265937</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009627593796693496</v>
+        <v>0.01199221246273881</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04391972855956292</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01155630650231785</v>
+        <v>0.004555692111452312</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03051274275541051</v>
+        <v>0.03095652941422722</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01138569769836027</v>
+        <v>0.01410377916156028</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.07770849999395946</v>
+        <v>0.06613141965084401</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0112441108478674</v>
+        <v>0.01404172032369501</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1186563462803735</v>
+        <v>0.1040217314557597</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01123219276280908</v>
+        <v>0.01399091453986194</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.04882808357633652</v>
+        <v>0.02544078916880121</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01366707633435693</v>
+        <v>0.005141783946210662</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03250689897364414</v>
+        <v>0.03223055268237583</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01301222594098317</v>
+        <v>0.0161186047560689</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.08127243898561992</v>
+        <v>0.06796302987710812</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01285041239756274</v>
+        <v>0.01604768036993715</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1252078352420674</v>
+        <v>0.1075002996081706</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01283679172892466</v>
+        <v>0.01598961661698507</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04354640715913276</v>
+        <v>0.02782148542735807</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01485810836012295</v>
+        <v>0.005784506939486995</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03470859726961753</v>
+        <v>0.03302380204016143</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01463875418360606</v>
+        <v>0.01813343035057751</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.08515523839030106</v>
+        <v>0.07091398095082815</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01445671394725809</v>
+        <v>0.0180536404161793</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1299378864124178</v>
+        <v>0.1094950917346857</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01444139069504024</v>
+        <v>0.01798831869410821</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04733056751491046</v>
+        <v>0.0301647329905935</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0165090092890255</v>
+        <v>0.006427229932763328</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03660771709981071</v>
+        <v>0.03373974719132992</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01626528242622896</v>
+        <v>0.02014825594508612</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.08740291624239899</v>
+        <v>0.07209339980114324</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01606301549695343</v>
+        <v>0.02005960046242144</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1333181107470088</v>
+        <v>0.1115220171861645</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01604598966115582</v>
+        <v>0.01998702077123134</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.05109769161751284</v>
+        <v>0.03245368562846981</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01815991021792805</v>
+        <v>0.007069952926039661</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03869413792070379</v>
+        <v>0.03468185783962723</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01789181066885186</v>
+        <v>0.02216308153959473</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.09096149057630978</v>
+        <v>0.07391041335719237</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01766931704664877</v>
+        <v>0.02206556050866358</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.138420119201424</v>
+        <v>0.1135969853134664</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01765058862727141</v>
+        <v>0.02198572284835447</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.06180816710981654</v>
+        <v>0.03467149711094918</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0198108111468306</v>
+        <v>0.007712675919315994</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04035773918877689</v>
+        <v>0.03565360368879922</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01951833891147476</v>
+        <v>0.02417790713410334</v>
       </c>
       <c r="L77" t="n">
-        <v>0.09247697942642955</v>
+        <v>0.07577414854811457</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01927561859634411</v>
+        <v>0.02407152055490572</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1420155227312471</v>
+        <v>0.1167359054674508</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01925518759338699</v>
+        <v>0.02398442492547761</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.06042238163469815</v>
+        <v>0.03680132120799389</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02146171207573315</v>
+        <v>0.008355398912592326</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04228840036051</v>
+        <v>0.03595845444259184</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02114486715409765</v>
+        <v>0.02619273272861196</v>
       </c>
       <c r="L78" t="n">
-        <v>0.09529540082715443</v>
+        <v>0.07609373230304872</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02088192014603946</v>
+        <v>0.02607748060114787</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1436759322920618</v>
+        <v>0.1173546869989771</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02085978655950257</v>
+        <v>0.02598312700260074</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.06190072283503425</v>
+        <v>0.03882631168956614</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0231126130046357</v>
+        <v>0.008998121905868659</v>
       </c>
       <c r="J79" t="n">
-        <v>0.04367600089238324</v>
+        <v>0.03669987980475099</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02277139539672055</v>
+        <v>0.02820755832312057</v>
       </c>
       <c r="L79" t="n">
-        <v>0.09606277281288059</v>
+        <v>0.07757829155113391</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0224882216957348</v>
+        <v>0.02808344064739001</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1471729588394518</v>
+        <v>0.1202692392589046</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02246438552561816</v>
+        <v>0.02798182907972388</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.06420357835370147</v>
+        <v>0.04072962232562818</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02476351393353825</v>
+        <v>0.009640844899144992</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04461042024087671</v>
+        <v>0.03748134947902257</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02439792363934344</v>
+        <v>0.03022238391762918</v>
       </c>
       <c r="L80" t="n">
-        <v>0.09812511341800406</v>
+        <v>0.07873695322150906</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02409452324543014</v>
+        <v>0.03008940069363216</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1487782133290007</v>
+        <v>0.120495471598093</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02406898449173374</v>
+        <v>0.02998053115684701</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.06729133583357638</v>
+        <v>0.04249440688614226</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0264144148624408</v>
+        <v>0.01028356789242132</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04578153786247045</v>
+        <v>0.03790633316915251</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02602445188196634</v>
+        <v>0.03223720951213779</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09902844067692107</v>
+        <v>0.07987884424331332</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02570082479512549</v>
+        <v>0.0320953607398743</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1509640745054037</v>
+        <v>0.1216492933674017</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02567358345784932</v>
+        <v>0.03197923323397014</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.07712438291753557</v>
+        <v>0.0441038191410706</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02806531579134335</v>
+        <v>0.01092629088569766</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04697923321364457</v>
+        <v>0.0385783005788867</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02765098012458924</v>
+        <v>0.03425203510664641</v>
       </c>
       <c r="L82" t="n">
-        <v>0.101246170846505</v>
+        <v>0.0812130915456856</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02730712634482083</v>
+        <v>0.03410132078611644</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1539513357852432</v>
+        <v>0.1241466139176898</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02727818242396491</v>
+        <v>0.03397793531109328</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.07766310724845563</v>
+        <v>0.04554101286037544</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0297162167202459</v>
+        <v>0.01156901387897399</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04759338575087912</v>
+        <v>0.03890072141197105</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02927750836721213</v>
+        <v>0.03626686070115501</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1016274422943723</v>
+        <v>0.08094882205776488</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02891342789451617</v>
+        <v>0.03610728083235859</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1556813351592363</v>
+        <v>0.1244033425998169</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02888278139008049</v>
+        <v>0.03597663738821642</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.08286789646921316</v>
+        <v>0.046789141814019</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03136711764914845</v>
+        <v>0.01221173687225032</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04875271174267441</v>
+        <v>0.03917706537215149</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03090403660983503</v>
+        <v>0.03828168629566363</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1027642007236304</v>
+        <v>0.08209516270869016</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03051972944421152</v>
+        <v>0.03811324087860073</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1575415294806975</v>
+        <v>0.1244353887646426</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03048738035619607</v>
+        <v>0.03797533946533955</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.08069913822268482</v>
+        <v>0.04783135977196356</v>
       </c>
       <c r="G85" t="n">
-        <v>0.033018018578051</v>
+        <v>0.01285445986552666</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04938397476781935</v>
+        <v>0.0398108021631739</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03253056485245792</v>
+        <v>0.04029651189017224</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1042481529883413</v>
+        <v>0.08316124042760045</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03212603099390686</v>
+        <v>0.04011920092484288</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1597193756029411</v>
+        <v>0.125158661763026</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03209197932231165</v>
+        <v>0.03997404154246268</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.08311722015174708</v>
+        <v>0.04882808357633652</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03466891950695355</v>
+        <v>0.01366707633435693</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04979424893626036</v>
+        <v>0.04000540148878419</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03415709309508082</v>
+        <v>0.04231133748468085</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1051710059425671</v>
+        <v>0.0830561821436348</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0337323325436022</v>
+        <v>0.04212516097108502</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1604023303792815</v>
+        <v>0.1258890709458267</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03369657828842724</v>
+        <v>0.04197274361958582</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.08529358192646366</v>
+        <v>0.04929550704031236</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0363198204358561</v>
+        <v>0.01413990585207932</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05027937793519809</v>
+        <v>0.0403643330527283</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03578362133770372</v>
+        <v>0.04432616307918946</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1067244664403699</v>
+        <v>0.08338911478593214</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03533863409329754</v>
+        <v>0.04413112101732717</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1622778506630332</v>
+        <v>0.1268425256639042</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03530117725454282</v>
+        <v>0.04397144569670895</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.08143592798330676</v>
+        <v>0.0499234115296233</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03797072136475865</v>
+        <v>0.01478262884535565</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05093520545183307</v>
+        <v>0.0402910665587521</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03741014958032661</v>
+        <v>0.04634098867369808</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1073002413358116</v>
+        <v>0.08416916528363153</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03694493564299289</v>
+        <v>0.04613708106356931</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1628333933075104</v>
+        <v>0.1277349352681177</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0369057762206584</v>
+        <v>0.04597014777383208</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.08953649159947946</v>
+        <v>0.05054271781416312</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03962162229366119</v>
+        <v>0.01542535183863199</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05155757517336594</v>
+        <v>0.04048907171060152</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03903667782294951</v>
+        <v>0.04835581426820669</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1088900374829544</v>
+        <v>0.08400546056587194</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03855123719268823</v>
+        <v>0.04814304110981145</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1642564151660275</v>
+        <v>0.1287822091093268</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03851037518677398</v>
+        <v>0.04796884985095522</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.09058743763296428</v>
+        <v>0.05115343623323197</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04127252322256375</v>
+        <v>0.01606807483190832</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05164233078699734</v>
+        <v>0.04096181821202247</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04066320606557241</v>
+        <v>0.0503706398627153</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1094855617358602</v>
+        <v>0.08410712756179234</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04015753874238357</v>
+        <v>0.0501490011560536</v>
       </c>
       <c r="N90" t="n">
-        <v>0.166734373091899</v>
+        <v>0.1292002565383908</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04011497415288957</v>
+        <v>0.04996755192807836</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.09258093094174372</v>
+        <v>0.05175557712612999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0429234241514663</v>
+        <v>0.01671079782518465</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05248531597992784</v>
+        <v>0.04071277576676088</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04228973430819531</v>
+        <v>0.05238546545722391</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1097785209485912</v>
+        <v>0.08478336516945145</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04176384029207892</v>
+        <v>0.05215496120229574</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1673547239384393</v>
+        <v>0.1287035049533418</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04171957311900515</v>
+        <v>0.05196625400520149</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.08850913638380023</v>
+        <v>0.05234915083215739</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04457432508036885</v>
+        <v>0.01735352081846099</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0526823744393581</v>
+        <v>0.04094619803212717</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0439162625508182</v>
+        <v>0.05440029105173252</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1108606219752093</v>
+        <v>0.08504745816109394</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04337014184177426</v>
+        <v>0.05416092124853789</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1674049245589626</v>
+        <v>0.1298960021444768</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04332417208512073</v>
+        <v>0.05396495608232463</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08936421881711631</v>
+        <v>0.05293416769061433</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0462252260092714</v>
+        <v>0.01799624381173732</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05322934985248863</v>
+        <v>0.0412734041793765</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04554279079344109</v>
+        <v>0.05641511664624113</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1116235716697768</v>
+        <v>0.08530436018272852</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0449764433914696</v>
+        <v>0.05616688129478003</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1677724318067834</v>
+        <v>0.1296775286270388</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04492877105123631</v>
+        <v>0.05596365815944776</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.09013834309967445</v>
+        <v>0.05351063804080099</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04787612693817395</v>
+        <v>0.01863896680501365</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05312208590652015</v>
+        <v>0.04149709082925337</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04716931903606399</v>
+        <v>0.05842994224074975</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1116590768863553</v>
+        <v>0.08545392324987475</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04658274494116495</v>
+        <v>0.05817284134102216</v>
       </c>
       <c r="N94" t="n">
-        <v>0.168544702535216</v>
+        <v>0.1304478622939332</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0465333700173519</v>
+        <v>0.05796236023657089</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.09182367408945716</v>
+        <v>0.05407857222201753</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0495270278670765</v>
+        <v>0.01928168979828998</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05345642628865319</v>
+        <v>0.04151718559701439</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04879584727868689</v>
+        <v>0.06044476783525836</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1122157743537546</v>
+        <v>0.08629599937805224</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04818904649086029</v>
+        <v>0.06017880138726432</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1702639932706715</v>
+        <v>0.1310067810380651</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04813796898346748</v>
+        <v>0.05996106231369402</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0874123766444469</v>
+        <v>0.05463798057356414</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05117792879597905</v>
+        <v>0.01992441279156632</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05362821468608839</v>
+        <v>0.04153361609791621</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05042237552130979</v>
+        <v>0.06245959342976697</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1122151923757709</v>
+        <v>0.08553044058278059</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04979534804055563</v>
+        <v>0.06218476143350646</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1699588421103567</v>
+        <v>0.1304540627523397</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04974256794958307</v>
+        <v>0.06195976439081716</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.08789661562262618</v>
+        <v>0.05518887343474097</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0528288297248816</v>
+        <v>0.02056713578484265</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05416755543683759</v>
+        <v>0.04154630994721549</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05204890376393268</v>
+        <v>0.06447441902427559</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1112698532956664</v>
+        <v>0.08575709887957936</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05140164959025097</v>
+        <v>0.06419072147974861</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1701710088082874</v>
+        <v>0.1305894853296623</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05134716691569865</v>
+        <v>0.06395846646794029</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.09126855588197749</v>
+        <v>0.05573126114484821</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05447973065378414</v>
+        <v>0.02120985877811898</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05366753333138137</v>
+        <v>0.04145519476016882</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05367543200655558</v>
+        <v>0.06648924461878419</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1112552842541993</v>
+        <v>0.08687582628396814</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05300795113994632</v>
+        <v>0.06619668152599074</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1688795274459546</v>
+        <v>0.1310128266629381</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05295176588181423</v>
+        <v>0.06595716854506342</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.09452036228048324</v>
+        <v>0.05626515404318603</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0561306315826867</v>
+        <v>0.02185258177139532</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05394831381804303</v>
+        <v>0.04196019815203289</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05530196024917847</v>
+        <v>0.06850407021329281</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1116758559784402</v>
+        <v>0.08658647481146656</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05461425268964167</v>
+        <v>0.06820264157223288</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1692910086233859</v>
+        <v>0.1324238646450724</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05455636484792981</v>
+        <v>0.06795587062218657</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.09765616715267306</v>
+        <v>0.05679056246905461</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05778153251158925</v>
+        <v>0.02249530476467165</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05409466140931109</v>
+        <v>0.04186124773806431</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05692848849180137</v>
+        <v>0.07051889580780142</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1114359391954591</v>
+        <v>0.08738889647759426</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05622055423933701</v>
+        <v>0.07020860161847504</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1677120629406088</v>
+        <v>0.1318223771689704</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05616096381404539</v>
+        <v>0.0699545726993097</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09564470010461013</v>
+        <v>0.0573074967617541</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0594324334404918</v>
+        <v>0.02313802775794798</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05380876660189224</v>
+        <v>0.04215827113351973</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05855501673442426</v>
+        <v>0.07253372140231003</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1112399046323267</v>
+        <v>0.08748294329787071</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05782685578903234</v>
+        <v>0.07221456166471718</v>
       </c>
       <c r="N101" t="n">
-        <v>0.168749300997651</v>
+        <v>0.1320081421275373</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05776556278016097</v>
+        <v>0.07195327477643283</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09557344272472781</v>
+        <v>0.0578159672605847</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06108333436939434</v>
+        <v>0.02378075075122431</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0533928198924932</v>
+        <v>0.04215119595365578</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06018154497704717</v>
+        <v>0.07454854699681865</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1106921230161132</v>
+        <v>0.08726846728781559</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05943315733872769</v>
+        <v>0.07422052171095932</v>
       </c>
       <c r="N102" t="n">
-        <v>0.16670933339454</v>
+        <v>0.1333809374136782</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05937016174627657</v>
+        <v>0.07395197685355596</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09644056274730381</v>
+        <v>0.05831598430484656</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0627342352982969</v>
+        <v>0.02442347374450065</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05374901177782064</v>
+        <v>0.04213994981372912</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06180807321967006</v>
+        <v>0.07656337259132726</v>
       </c>
       <c r="L103" t="n">
-        <v>0.109696965073889</v>
+        <v>0.0880453204629485</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06103945888842303</v>
+        <v>0.07622648175720147</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1672987707313035</v>
+        <v>0.1332405409202987</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06097476071239214</v>
+        <v>0.0759506789306791</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.09525018951813422</v>
+        <v>0.05880755823383985</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06438513622719945</v>
+        <v>0.02506619673777698</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05357953275458127</v>
+        <v>0.0421244603289964</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06343460146229296</v>
+        <v>0.07857819818583588</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1098588015327246</v>
+        <v>0.08711335483878899</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06264576043811837</v>
+        <v>0.07823244180344362</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1653242236079692</v>
+        <v>0.1323867305403037</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06257935967850772</v>
+        <v>0.07794938100780223</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0940064523830153</v>
+        <v>0.05929069938686477</v>
       </c>
       <c r="G105" t="n">
-        <v>0.066036037156102</v>
+        <v>0.02570891973105331</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05318657331948176</v>
+        <v>0.0425046551147142</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06506112970491584</v>
+        <v>0.08059302378034448</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1094820031196903</v>
+        <v>0.08817242243085666</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06425206198781372</v>
+        <v>0.08023840184968575</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1656923026245647</v>
+        <v>0.1339192841665986</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0641839586446233</v>
+        <v>0.07994808308492536</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.09671348068774321</v>
+        <v>0.05976541810322147</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06768693808500455</v>
+        <v>0.02635164272432964</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05287232396922883</v>
+        <v>0.04268046178613921</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06668765794753874</v>
+        <v>0.08260784937485309</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1081709405618563</v>
+        <v>0.08802237525467113</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06585836353750907</v>
+        <v>0.0822443618959279</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1654096183811175</v>
+        <v>0.1336379796920886</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06578855761073889</v>
+        <v>0.08194678516204851</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09037540377811421</v>
+        <v>0.06023172472221012</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06933783901390711</v>
+        <v>0.02699436571760598</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05243897520052916</v>
+        <v>0.04235180795852808</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06831418619016165</v>
+        <v>0.0846226749693617</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1077299845862931</v>
+        <v>0.08866306532575202</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0674646650872044</v>
+        <v>0.08425032194217004</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1645827814776553</v>
+        <v>0.1344425950096789</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06739315657685448</v>
+        <v>0.08394548723917164</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.08699635099992439</v>
+        <v>0.06068962958313092</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07098873994280964</v>
+        <v>0.02763708871088231</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05218871751008947</v>
+        <v>0.04251862124713743</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06994071443278455</v>
+        <v>0.08663750056387032</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1069635059200711</v>
+        <v>0.08819434465961887</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06907096663689975</v>
+        <v>0.08625628198841218</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1628184025142056</v>
+        <v>0.1346329080122748</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06899775554297005</v>
+        <v>0.08594418931629477</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.09558045169897009</v>
+        <v>0.06113914302528401</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07263964087171221</v>
+        <v>0.02827981170415864</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05232374139461642</v>
+        <v>0.04238082926722388</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07156724267540744</v>
+        <v>0.08865232615837892</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1071758752902606</v>
+        <v>0.08841606527179124</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07067726818659509</v>
+        <v>0.08826224203465434</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1627230920907962</v>
+        <v>0.1344086965927815</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07060235450908564</v>
+        <v>0.08794289139341789</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.08713183522104737</v>
+        <v>0.06158027538796961</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07429054180061474</v>
+        <v>0.02892253469743497</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05184623735081673</v>
+        <v>0.04273835963404408</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07319377091803032</v>
+        <v>0.09066715175288753</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1063714634239321</v>
+        <v>0.08792807917778889</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07228356973629042</v>
+        <v>0.09026820208089648</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1607034608074546</v>
+        <v>0.1348697386441041</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07220695347520122</v>
+        <v>0.08994159347054104</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0906546309119525</v>
+        <v>0.06201303701048782</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07594144272951731</v>
+        <v>0.02956525769071131</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05135839587539708</v>
+        <v>0.04279113996285469</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07482029916065322</v>
+        <v>0.09268197734739615</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1052546410481559</v>
+        <v>0.0888302383931312</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07388987128598579</v>
+        <v>0.09227416212713861</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1600661192642084</v>
+        <v>0.1344158120591481</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07381155244131681</v>
+        <v>0.09194029554766417</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.08715296811748166</v>
+        <v>0.06243743823213887</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07759234365841985</v>
+        <v>0.03020798068398764</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05126240746506418</v>
+        <v>0.04283909786891237</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07644682740327613</v>
+        <v>0.09469680294190476</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1047297788900022</v>
+        <v>0.08892239493333792</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07549617283568112</v>
+        <v>0.09428012217338076</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1593176780610853</v>
+        <v>0.1338466947308186</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07541615140743239</v>
+        <v>0.0939389976247873</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09263097618343108</v>
+        <v>0.06285348939222291</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07924324458732239</v>
+        <v>0.03085070367726397</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05086046261652473</v>
+        <v>0.04268216096747371</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07807335564589903</v>
+        <v>0.09671162853641338</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1041012476765416</v>
+        <v>0.0885044008139286</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07710247438537646</v>
+        <v>0.0962860822196229</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1588647477981128</v>
+        <v>0.1339621645520207</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07702075037354797</v>
+        <v>0.09593769970191045</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08409278445559687</v>
+        <v>0.06326120083004014</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08089414551622495</v>
+        <v>0.03149342667054031</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05095475182648539</v>
+        <v>0.04312025687379537</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07969988388852192</v>
+        <v>0.09872645413092199</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1043734181348444</v>
+        <v>0.08907610805042282</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07870877593507181</v>
+        <v>0.09829204226586505</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1582139390753187</v>
+        <v>0.1352619994156599</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07862534933966354</v>
+        <v>0.09793640177903358</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.09154252227977533</v>
+        <v>0.06366058288489065</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0825450464451275</v>
+        <v>0.03213614966381664</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0502474655916529</v>
+        <v>0.04305331320313399</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08132641213114482</v>
+        <v>0.1007412797254306</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1027506609919809</v>
+        <v>0.08853736865834017</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08031507748476714</v>
+        <v>0.1002980023121072</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1559718624927304</v>
+        <v>0.1347459772146412</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08022994830577913</v>
+        <v>0.09993510385615671</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09098431900176257</v>
+        <v>0.06405164589607473</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08419594737403005</v>
+        <v>0.03277887265709297</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0498407944087339</v>
+        <v>0.04268125757074621</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0829529403737677</v>
+        <v>0.1027561053199392</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1026213205677421</v>
+        <v>0.08888803465320025</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0819213790344625</v>
+        <v>0.1023039623583493</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1555045863662067</v>
+        <v>0.1343138758418699</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08183454727189471</v>
+        <v>0.1019338059332798</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08742230396735484</v>
+        <v>0.06443440020289248</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0858468483029326</v>
+        <v>0.03342159565036931</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04953692877443515</v>
+        <v>0.04290401759188868</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08457946861639061</v>
+        <v>0.1047709309144478</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1024092123169105</v>
+        <v>0.0894279580505227</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08352768058415784</v>
+        <v>0.1043099224045915</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1540045973333454</v>
+        <v>0.1344654731902514</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0834391462380103</v>
+        <v>0.103932508010403</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09086060652234834</v>
+        <v>0.0648088561446441</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08749774923183515</v>
+        <v>0.03406431864364564</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04962498723897202</v>
+        <v>0.04282152088181802</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08620599685901351</v>
+        <v>0.1067857565089564</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1009159378984926</v>
+        <v>0.08955699086582705</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08513398213385318</v>
+        <v>0.1063158824508336</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1523850759712997</v>
+        <v>0.1354005471526907</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08504374520412589</v>
+        <v>0.1059312100875261</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08230335601253924</v>
+        <v>0.06517502406062972</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0891486501607377</v>
+        <v>0.03470704163692197</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04916977990495371</v>
+        <v>0.0430336950557909</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0878325251016364</v>
+        <v>0.108800582103465</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1007557376637395</v>
+        <v>0.08917498511463293</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08674028368354852</v>
+        <v>0.1083218424970758</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1525675604051592</v>
+        <v>0.1351188756220932</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08664834417024146</v>
+        <v>0.1079299121646493</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0857406410275017</v>
+        <v>0.06553291429014957</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09079955108964026</v>
+        <v>0.0353497646301983</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0487756274326142</v>
+        <v>0.04294046772906393</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0894590533442593</v>
+        <v>0.1108154076979737</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09964285196390241</v>
+        <v>0.08938179281245989</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08834658523324386</v>
+        <v>0.1103278025433179</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1496735887600132</v>
+        <v>0.1341830163853591</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08825294313635705</v>
+        <v>0.1099286142417724</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08610251267380872</v>
+        <v>0.06588253717250378</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09245045201854279</v>
+        <v>0.03599248762347464</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04824966672206545</v>
+        <v>0.04313695198227623</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09108558158688218</v>
+        <v>0.1128302332924823</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09849152115023233</v>
+        <v>0.08856827300352157</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08995288678293921</v>
+        <v>0.1123337625895601</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1481246991609517</v>
+        <v>0.1340091311931216</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08985754210247263</v>
+        <v>0.1119273163188955</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08039015937877259</v>
+        <v>0.06622390304699258</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09410135294744536</v>
+        <v>0.03663521061675097</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04809903467341933</v>
+        <v>0.04263508637783169</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09271210982950509</v>
+        <v>0.1148450588869909</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09781598557398044</v>
+        <v>0.08861016197670413</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09155918833263456</v>
+        <v>0.1143397226358022</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1476424297330639</v>
+        <v>0.1345114325976176</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09146214106858822</v>
+        <v>0.1139260183960187</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0796170350445996</v>
+        <v>0.06655702225291604</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09575225387634789</v>
+        <v>0.03727793361002731</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04733086818678782</v>
+        <v>0.04252428256961734</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09433863807212799</v>
+        <v>0.1168598844814995</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0964304855863978</v>
+        <v>0.08856614431707821</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09316548988232989</v>
+        <v>0.1163456826820443</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1453483186014393</v>
+        <v>0.132380302513477</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09306674003470379</v>
+        <v>0.1159247204731418</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07879659357349608</v>
+        <v>0.06688190512957443</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09740315480525046</v>
+        <v>0.03792065660330363</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04695230416228284</v>
+        <v>0.04213399604036652</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09596516631475088</v>
+        <v>0.1188747100760081</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09494926153873556</v>
+        <v>0.08679643926567526</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09477179143202523</v>
+        <v>0.1183516427282865</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1436639038911676</v>
+        <v>0.1315061228553291</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09467133900081938</v>
+        <v>0.1179234225502649</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.07794228886766835</v>
+        <v>0.06719856201626787</v>
       </c>
       <c r="G125" t="n">
-        <v>0.099054055734153</v>
+        <v>0.03856337959657997</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04657047950001632</v>
+        <v>0.04199368227281267</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09759169455737378</v>
+        <v>0.1208895356705167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09388655378224478</v>
+        <v>0.0868612660635267</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09637809298172058</v>
+        <v>0.1203576027745286</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1422107237273382</v>
+        <v>0.1306792755378038</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09627593796693495</v>
+        <v>0.119922124627388</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08206757482932259</v>
+        <v>0.06750700325229658</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1007049566630556</v>
+        <v>0.0392061025898563</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04609253110010017</v>
+        <v>0.04173279674968912</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09921822279999666</v>
+        <v>0.1229043612650253</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09335660266817655</v>
+        <v>0.08552084395166401</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09798439453141593</v>
+        <v>0.1223635628207708</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1417103162350408</v>
+        <v>0.1304901424755304</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09788053693305054</v>
+        <v>0.1219208267045112</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08218590536066514</v>
+        <v>0.06780723917696069</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1023558575919581</v>
+        <v>0.03984882558313264</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04552559586264633</v>
+        <v>0.04158079495372927</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1008447510426196</v>
+        <v>0.1249191868595339</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0920682865838405</v>
+        <v>0.08543539217111862</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09959069608111126</v>
+        <v>0.1243695228670129</v>
       </c>
       <c r="N127" t="n">
-        <v>0.140064450639953</v>
+        <v>0.1296291055831385</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09948513589916613</v>
+        <v>0.1239195287816343</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07731073436390229</v>
+        <v>0.06809928012956037</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1040067585208607</v>
+        <v>0.04049154857640896</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04497681068776675</v>
+        <v>0.04126713236766646</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1024712792852425</v>
+        <v>0.1269340124540426</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09152699690437263</v>
+        <v>0.084665129962922</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1011969976308066</v>
+        <v>0.1263754829132551</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1385189634941871</v>
+        <v>0.1274865467752578</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1010897348652817</v>
+        <v>0.1259182308587574</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07645551574124032</v>
+        <v>0.06838313644939581</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1056576594497632</v>
+        <v>0.0411342715696853</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04454130818336295</v>
+        <v>0.04102126447423411</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1040978075278654</v>
+        <v>0.1289488380485512</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09090875017521657</v>
+        <v>0.08376689379762131</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1028032991805019</v>
+        <v>0.1283814429594972</v>
       </c>
       <c r="N129" t="n">
-        <v>0.137761406684864</v>
+        <v>0.1280756494542482</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1026943338313973</v>
+        <v>0.1279169329358806</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07763370339488554</v>
+        <v>0.06865881847576719</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1073085603786658</v>
+        <v>0.04177699456296163</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04416864555693474</v>
+        <v>0.04055382737258285</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1057243357704883</v>
+        <v>0.1309636636430598</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08973393146336001</v>
+        <v>0.08394461984060095</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1044096007301973</v>
+        <v>0.1303874030057393</v>
       </c>
       <c r="N130" t="n">
-        <v>0.135322612044359</v>
+        <v>0.1265949951437911</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1042989327975129</v>
+        <v>0.1299156350130037</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07883655416674504</v>
+        <v>0.06892633654797464</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1089594613075683</v>
+        <v>0.04241971755623796</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04366104820809441</v>
+        <v>0.0406993264705872</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1073508640131112</v>
+        <v>0.1329784892375684</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08802292583579058</v>
+        <v>0.08303200782752657</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1060159022798926</v>
+        <v>0.1323933630519815</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1339334114050472</v>
+        <v>0.1265310114656681</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1059035317636285</v>
+        <v>0.1319143370901268</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07697060273558354</v>
+        <v>0.0691857010053184</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1106103622364708</v>
+        <v>0.0430624405495143</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04312873261144298</v>
+        <v>0.04045011252664282</v>
       </c>
       <c r="K132" t="n">
-        <v>0.108977392255734</v>
+        <v>0.134993314832077</v>
       </c>
       <c r="L132" t="n">
-        <v>0.087496118359496</v>
+        <v>0.08303195583138354</v>
       </c>
       <c r="M132" t="n">
-        <v>0.107622203829588</v>
+        <v>0.1343993230982236</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1329246365993043</v>
+        <v>0.1255880480825562</v>
       </c>
       <c r="O132" t="n">
-        <v>0.107508130729744</v>
+        <v>0.13391303916725</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07904018582659977</v>
+        <v>0.0694369221870986</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1122612631653734</v>
+        <v>0.04370516354279063</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04248191524158137</v>
+        <v>0.04020760309662257</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1106039204983569</v>
+        <v>0.1370081404265856</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08607389410146399</v>
+        <v>0.08284736192515732</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1092285053792833</v>
+        <v>0.1364052831444658</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1312271194595051</v>
+        <v>0.1255704546571327</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1091127296958596</v>
+        <v>0.1359117412443731</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0740645627047434</v>
+        <v>0.0696800104326154</v>
       </c>
       <c r="G134" t="n">
-        <v>0.113912164094276</v>
+        <v>0.04434788653606696</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04183081257311062</v>
+        <v>0.03977321573639923</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1122304487409799</v>
+        <v>0.1390229660210942</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08497663812868222</v>
+        <v>0.08248112418183337</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1108348069289787</v>
+        <v>0.1384112431907079</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1287716918180251</v>
+        <v>0.1255825808520746</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1107173286619752</v>
+        <v>0.1379104433214962</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07106299263496407</v>
+        <v>0.06991497608116903</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1155630650231785</v>
+        <v>0.04499060952934329</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04118564108063168</v>
+        <v>0.03984836800184577</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1138569769836027</v>
+        <v>0.1410377916156028</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08382473550813838</v>
+        <v>0.0829361406743972</v>
       </c>
       <c r="M135" t="n">
-        <v>0.112441108478674</v>
+        <v>0.1404172032369501</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1276891855072397</v>
+        <v>0.1251287763300592</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1123219276280908</v>
+        <v>0.1399091453986194</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06705473488221136</v>
+        <v>0.0701418294720596</v>
       </c>
       <c r="G136" t="n">
-        <v>0.117213965952081</v>
+        <v>0.04563333252261963</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04115661723874557</v>
+        <v>0.03983447744883492</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1154835052262256</v>
+        <v>0.1430526172101114</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08293857130682009</v>
+        <v>0.08241530947583409</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1140474100283694</v>
+        <v>0.1424231632831922</v>
       </c>
       <c r="N136" t="n">
-        <v>0.126310432359524</v>
+        <v>0.1249133907537635</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1139265265942064</v>
+        <v>0.1419078474757425</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06705904871143492</v>
+        <v>0.0703605809445873</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1188648668809836</v>
+        <v>0.04627605551589596</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04015395752205325</v>
+        <v>0.03963296163323962</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1171100334688485</v>
+        <v>0.1450674428046201</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08273853059171515</v>
+        <v>0.0822215286591296</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1156537115780647</v>
+        <v>0.1444291233294344</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1251662642072534</v>
+        <v>0.1240407737858646</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1155311255603219</v>
+        <v>0.1439065495528657</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07009519338758444</v>
+        <v>0.07057124083805236</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1205157678098862</v>
+        <v>0.0469187785091723</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03978787840515575</v>
+        <v>0.03964523811093268</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1187365617114714</v>
+        <v>0.1470822683991287</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08094499842981112</v>
+        <v>0.08175769629726917</v>
       </c>
       <c r="M138" t="n">
-        <v>0.11726001312776</v>
+        <v>0.1464350833756765</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1230875128828031</v>
+        <v>0.1240152750890399</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1171357245264375</v>
+        <v>0.1459052516299888</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06618242817560949</v>
+        <v>0.07077381949175487</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1221666687387887</v>
+        <v>0.04756150150244862</v>
       </c>
       <c r="J139" t="n">
-        <v>0.039568596362654</v>
+        <v>0.03977272443778698</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1203630899540943</v>
+        <v>0.1490970939936373</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08097835988809576</v>
+        <v>0.08122671046323832</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1188663146774554</v>
+        <v>0.1484410434219186</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1220050102185484</v>
+        <v>0.1241412443259665</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1187403234925531</v>
+        <v>0.1479039537071119</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07034001234045975</v>
+        <v>0.07096832724499502</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1238175696676913</v>
+        <v>0.04820422449572496</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03900632786914905</v>
+        <v>0.03921683816967533</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1219896181967172</v>
+        <v>0.1511119195881459</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0806590000335568</v>
+        <v>0.08223146923002231</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1204726162271507</v>
+        <v>0.1504470034681608</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1208495880468646</v>
+        <v>0.1247226880654663</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1203449224586687</v>
+        <v>0.1499026557842351</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07158720514708483</v>
+        <v>0.07115477443707302</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1254684705965938</v>
+        <v>0.04884694748900129</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03861128939924185</v>
+        <v>0.03947887456003696</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1236161464393401</v>
+        <v>0.1531267451826545</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08030730393318181</v>
+        <v>0.08206863431008113</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1220789177768461</v>
+        <v>0.1524529635144029</v>
       </c>
       <c r="N141" t="n">
-        <v>0.121552078200127</v>
+        <v>0.1241384348836229</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1219495214247843</v>
+        <v>0.1519013578613582</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06994326586043437</v>
+        <v>0.07133317140728901</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1271193715254963</v>
+        <v>0.04948967048227763</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03859369742753341</v>
+        <v>0.03935192484832475</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125242674681963</v>
+        <v>0.1551415707771631</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07974365665395858</v>
+        <v>0.08141947550733813</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1236852193265414</v>
+        <v>0.1544589235606451</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1212433125107109</v>
+        <v>0.1242712512079609</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1235541203908999</v>
+        <v>0.1539000599384813</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06442745374545802</v>
+        <v>0.07150352849494318</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1287702724543989</v>
+        <v>0.05013239347555396</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03826376842862469</v>
+        <v>0.03943047452767112</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1268692029245859</v>
+        <v>0.1571563963716718</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07974191817752452</v>
+        <v>0.08168027211263151</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1252915208762367</v>
+        <v>0.1564648836068872</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1215549289592157</v>
+        <v>0.1233174145029655</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1251587193570154</v>
+        <v>0.1558987620156045</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0660590280671054</v>
+        <v>0.07166585603933573</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1304211733833014</v>
+        <v>0.05077511646883029</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03863007909609363</v>
+        <v>0.03961331042306172</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1284957311672088</v>
+        <v>0.1591712219661804</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08007839469423567</v>
+        <v>0.08124854389233996</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1268978224259321</v>
+        <v>0.1584708436531294</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1201159034742162</v>
+        <v>0.1232732022331214</v>
       </c>
       <c r="O144" t="n">
-        <v>0.126763318323131</v>
+        <v>0.1578974640927276</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06085724809032615</v>
+        <v>0.07182016437976674</v>
       </c>
       <c r="G145" t="n">
-        <v>0.132072074312204</v>
+        <v>0.05141783946210662</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03834054228555588</v>
+        <v>0.0395992193594821</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1301222594098317</v>
+        <v>0.161186047560689</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08014359736041871</v>
+        <v>0.08152181061284219</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1285041239756274</v>
+        <v>0.1604768036993715</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1210200831089357</v>
+        <v>0.1236348918629141</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1283679172892466</v>
+        <v>0.1598961661698507</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06082661925151815</v>
+        <v>0.07196646385553648</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1337229752411065</v>
+        <v>0.05206056245538295</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03876559279645622</v>
+        <v>0.03958698816191783</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1317487876524546</v>
+        <v>0.1632008731551976</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07943602828877711</v>
+        <v>0.08089759204051691</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1301104255253228</v>
+        <v>0.1624827637456137</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1213652023515621</v>
+        <v>0.1242987608568285</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1299725162553622</v>
+        <v>0.1618948682469739</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06885227704392102</v>
+        <v>0.07210476480594508</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1353738761700091</v>
+        <v>0.05270328544865929</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03870447992596256</v>
+        <v>0.03947540365535451</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1333753158950775</v>
+        <v>0.1652156987497062</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07945418959201411</v>
+        <v>0.08127340794174279</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1317167270750181</v>
+        <v>0.1644887237918558</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1222489956902835</v>
+        <v>0.1242610866793498</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1315771152214778</v>
+        <v>0.163893570324097</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06190468356528091</v>
+        <v>0.07223507757029271</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1370247770989116</v>
+        <v>0.05334600844193562</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03865645297124271</v>
+        <v>0.03946325266477774</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1350018441377004</v>
+        <v>0.1672305243442148</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08019658338283317</v>
+        <v>0.08154677808289862</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1333230286247135</v>
+        <v>0.1664946838380979</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1220691976132879</v>
+        <v>0.124218146794963</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1331817141875934</v>
+        <v>0.1658922724012201</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06398242365182483</v>
+        <v>0.07235741248787955</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1386756780278142</v>
+        <v>0.05398873143521196</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03882076122946455</v>
+        <v>0.03914932201517307</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1366283723803233</v>
+        <v>0.1692453499387234</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07996171177393763</v>
+        <v>0.08081522223036314</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1349293301744088</v>
+        <v>0.1685006438843401</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1211235426087638</v>
+        <v>0.1229662186681531</v>
       </c>
       <c r="O149" t="n">
-        <v>0.134786313153709</v>
+        <v>0.1678909744783433</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06608408213977982</v>
+        <v>0.07247177989800577</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1403265789567167</v>
+        <v>0.05463145442848829</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03889665399779593</v>
+        <v>0.03943239853152612</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1382549006229462</v>
+        <v>0.171260175533232</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08044807687803091</v>
+        <v>0.08107626015051497</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1365356317241042</v>
+        <v>0.1705066039305822</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1228097651648989</v>
+        <v>0.1237015797634055</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1363909121198245</v>
+        <v>0.1698896765554664</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06920824386537297</v>
+        <v>0.07257819013997155</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1419774798856193</v>
+        <v>0.05527417742176462</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03878338057340472</v>
+        <v>0.03921126903882245</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1398814288655691</v>
+        <v>0.1732750011277406</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08105418080781632</v>
+        <v>0.08142741160973291</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1381419332737995</v>
+        <v>0.1725125639768244</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1226255997698816</v>
+        <v>0.1235205075452051</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1379955110859401</v>
+        <v>0.1718883786325895</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07035349366483123</v>
+        <v>0.07267665355307709</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1436283808145219</v>
+        <v>0.05591690041504096</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03888019025345875</v>
+        <v>0.03938472036204765</v>
       </c>
       <c r="K152" t="n">
-        <v>0.141507957108192</v>
+        <v>0.1752898267222492</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08047852567599728</v>
+        <v>0.08146323689771792</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1397482348234948</v>
+        <v>0.1745185240230665</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1226687809118998</v>
+        <v>0.1229891085824147</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1396001100520557</v>
+        <v>0.1738870807097127</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06651841637438169</v>
+        <v>0.07276718047662248</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1452792817434244</v>
+        <v>0.05655962340831729</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03908633233512587</v>
+        <v>0.03913870921262487</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1431344853508149</v>
+        <v>0.1773046523167578</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08161961359527717</v>
+        <v>0.08051973541789856</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1413545363731902</v>
+        <v>0.1765244840693087</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1238370430791419</v>
+        <v>0.1234111022457592</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1412047090181713</v>
+        <v>0.1758857827868358</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06170159683025137</v>
+        <v>0.07284978124990796</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1469301826723269</v>
+        <v>0.05720234640159362</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03900105611557399</v>
+        <v>0.03884443082653095</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1447610135934378</v>
+        <v>0.1793194779112665</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08157594667835927</v>
+        <v>0.08087897994791726</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1429608379228855</v>
+        <v>0.1785304441155508</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1244281207597957</v>
+        <v>0.1219923871903555</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1428093079842869</v>
+        <v>0.1778844848639589</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0669016198686673</v>
+        <v>0.0729244662122337</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1485810836012295</v>
+        <v>0.05784506939486995</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03912361089197089</v>
+        <v>0.03870518527686209</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1463875418360606</v>
+        <v>0.1813343035057751</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08187442491976685</v>
+        <v>0.08005053785348903</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1445671394725808</v>
+        <v>0.180536404161793</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1234066255820249</v>
+        <v>0.1227473228936143</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1444139069504024</v>
+        <v>0.1798831869410821</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07111707032585657</v>
+        <v>0.07299124570289986</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1502319845301321</v>
+        <v>0.05848779238814628</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03945393318823175</v>
+        <v>0.03872565231996841</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1480140700786836</v>
+        <v>0.1833491291002837</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08259673622732921</v>
+        <v>0.08014397650032878</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1461734410222762</v>
+        <v>0.1825423642080351</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1252399648253247</v>
+        <v>0.1210902688329463</v>
       </c>
       <c r="O156" t="n">
-        <v>0.146018505916518</v>
+        <v>0.1818818890182052</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06634653303804613</v>
+        <v>0.07305013006120656</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1518828854590346</v>
+        <v>0.05913051538142261</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03986604901776325</v>
+        <v>0.03871051171220014</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1496405983213064</v>
+        <v>0.1853639546947923</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08263812540599927</v>
+        <v>0.07996886325415145</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1477797425719716</v>
+        <v>0.1845483242542772</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1252971674921045</v>
+        <v>0.119835584485762</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1476231048826336</v>
+        <v>0.1838805910953283</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07061966178685247</v>
+        <v>0.07310112962645407</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1535337863879371</v>
+        <v>0.05977323837469894</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03969436951224957</v>
+        <v>0.03806444320990744</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1512671265639293</v>
+        <v>0.1873787802893009</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08445337485357188</v>
+        <v>0.078634765480672</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1493860441216669</v>
+        <v>0.1865542843005194</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1283098432487708</v>
+        <v>0.1204976293294721</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1492277038487492</v>
+        <v>0.1858792931724515</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0691019265782831</v>
+        <v>0.0731442547379425</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1551846873168397</v>
+        <v>0.06041596136797529</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04051623276507421</v>
+        <v>0.03809212656944054</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1528936548065523</v>
+        <v>0.1893936058838095</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08519726696784163</v>
+        <v>0.07795125054560534</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1509923456713622</v>
+        <v>0.1885602443467615</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1297096017617311</v>
+        <v>0.1184907628414873</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1508323028148648</v>
+        <v>0.1878779952495746</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07078206020676461</v>
+        <v>0.07317951573497206</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1568355882457423</v>
+        <v>0.06105868436125162</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0410089768696205</v>
+        <v>0.03779824154714957</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1545201830491751</v>
+        <v>0.1914084314783182</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08572458414660336</v>
+        <v>0.07762788581466643</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1525986472210576</v>
+        <v>0.1905662043930036</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1314280526973918</v>
+        <v>0.1182293444992182</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1524369017809803</v>
+        <v>0.1898766973266977</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06861734229361072</v>
+        <v>0.07320692295684289</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1584864891746448</v>
+        <v>0.06170140735452795</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04154993991927197</v>
+        <v>0.03758746789938477</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1561467112917981</v>
+        <v>0.1934232570728268</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08699010878765187</v>
+        <v>0.07757423865357022</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1542049487707529</v>
+        <v>0.1925721644392458</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1320968057221601</v>
+        <v>0.1162277337800755</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1540415007470959</v>
+        <v>0.1918753994038209</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07256505246013531</v>
+        <v>0.07322648674285515</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1601373901035474</v>
+        <v>0.06234413034780428</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04191646000741198</v>
+        <v>0.03736448538249629</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1577732395344209</v>
+        <v>0.1954380826673353</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08894862328878181</v>
+        <v>0.07699987642803163</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1558112503204483</v>
+        <v>0.194578124485488</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1334474705024432</v>
+        <v>0.1151002901614698</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1556460997132115</v>
+        <v>0.193874101480944</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07258247032765205</v>
+        <v>0.07323821743230907</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1617882910324499</v>
+        <v>0.06298685334108062</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04258587522742395</v>
+        <v>0.03663397375283434</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1593997677770438</v>
+        <v>0.197452908261844</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08945491004778802</v>
+        <v>0.0761143665037656</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1574175518701436</v>
+        <v>0.1965840845317301</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1368116567046477</v>
+        <v>0.1145613731208119</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1572506986793271</v>
+        <v>0.1958728035580672</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07262687551747476</v>
+        <v>0.07324212536450478</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1634391919613525</v>
+        <v>0.06362957633435695</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04323552367269134</v>
+        <v>0.03630061276674908</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1610262960196668</v>
+        <v>0.1994677338563526</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09056375146246515</v>
+        <v>0.07472727624648712</v>
       </c>
       <c r="M164" t="n">
-        <v>0.159023853419839</v>
+        <v>0.1985900445779722</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1377209739951807</v>
+        <v>0.1129253421355123</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1588552976454427</v>
+        <v>0.1978715056351903</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07465554765091717</v>
+        <v>0.07324212536450481</v>
       </c>
       <c r="G165" t="n">
-        <v>0.165090092890255</v>
+        <v>0.06362957633435695</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04364274343659756</v>
+        <v>0.03586908218059071</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1626528242622896</v>
+        <v>0.2014825594508612</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09183564049293103</v>
+        <v>0.07484817302191105</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1606301549695343</v>
+        <v>0.2005960046242144</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1386239659396344</v>
+        <v>0.1119065566829816</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1604598966115583</v>
+        <v>0.1998702077123134</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07562576634929308</v>
+        <v>0.07209075296336703</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1667409938191576</v>
+        <v>0.06362930780589293</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04418491696434854</v>
+        <v>0.0360440617507094</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1642793525049125</v>
+        <v>0.2034973850453698</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09224821447061171</v>
+        <v>0.07358662419575238</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1622364565192297</v>
+        <v>0.2026019646704565</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1394523596596877</v>
+        <v>0.1119193762406306</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1620644955776739</v>
+        <v>0.2018689097894366</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07949481123391625</v>
+        <v>0.07095155085473473</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1683918947480601</v>
+        <v>0.06362903927742891</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0442843783390541</v>
+        <v>0.03553023123345538</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1659058807475354</v>
+        <v>0.2055122106398784</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09344114229310971</v>
+        <v>0.07275219713372605</v>
       </c>
       <c r="M167" t="n">
-        <v>0.163842758068925</v>
+        <v>0.2046079247166987</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1403512332006204</v>
+        <v>0.1110781602858699</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1636690945437894</v>
+        <v>0.2038676118665597</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0762458554278371</v>
+        <v>0.06982498121483541</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1700427956769626</v>
+        <v>0.06362877074896489</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04467395879546188</v>
+        <v>0.03533227038517879</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1675324089901583</v>
+        <v>0.207527036234387</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09351585839886206</v>
+        <v>0.07285445920154704</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1654490596186203</v>
+        <v>0.2066138847629408</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1420227561096542</v>
+        <v>0.1104972682961102</v>
       </c>
       <c r="O168" t="n">
-        <v>0.165273693509905</v>
+        <v>0.2058663139436828</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.07696636986123892</v>
+        <v>0.06871150622004349</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1716936966058652</v>
+        <v>0.06362850222050087</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04525437723745714</v>
+        <v>0.03495485896222986</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1691589372327812</v>
+        <v>0.2095418618288956</v>
       </c>
       <c r="L169" t="n">
-        <v>0.093973797226306</v>
+        <v>0.07240297776493015</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1670553611683157</v>
+        <v>0.2086198448091829</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1434690979340107</v>
+        <v>0.1095910597487621</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1668782924760206</v>
+        <v>0.207865016020806</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0816693022987611</v>
+        <v>0.06761158804658604</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1733445975347677</v>
+        <v>0.06362823369203686</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04562635256892521</v>
+        <v>0.03460267672095874</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1707854654754041</v>
+        <v>0.2115566874234043</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09471639321387859</v>
+        <v>0.07110732018959051</v>
       </c>
       <c r="M170" t="n">
-        <v>0.168661662718011</v>
+        <v>0.2106258048554251</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1441924282209118</v>
+        <v>0.1083738941212361</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1684828914421362</v>
+        <v>0.2098637180979291</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.07735600795939465</v>
+        <v>0.06652568887073934</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1749954984636703</v>
+        <v>0.06362796516357284</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04619060369375144</v>
+        <v>0.03418040341771561</v>
       </c>
       <c r="K171" t="n">
-        <v>0.172411993718027</v>
+        <v>0.2135715130179129</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09584508080001705</v>
+        <v>0.07117705384124293</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1702679642677064</v>
+        <v>0.2126317649016673</v>
       </c>
       <c r="N171" t="n">
-        <v>0.146494916517579</v>
+        <v>0.1078601308909433</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1700874904082518</v>
+        <v>0.2118624201750522</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.07502784206213062</v>
+        <v>0.06545427086873348</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1766463993925729</v>
+        <v>0.06362769663510882</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04624784951582109</v>
+        <v>0.03429271880885071</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1740385219606499</v>
+        <v>0.2155863386124215</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09626129442315853</v>
+        <v>0.07111453711955451</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1718742658174017</v>
+        <v>0.2146377249479094</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1475787323712339</v>
+        <v>0.1076256565935121</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1716920893743673</v>
+        <v>0.2138611222521754</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.08368615982595995</v>
+        <v>0.06439779621693797</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1782973003214754</v>
+        <v>0.0636274281066448</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0467988089390195</v>
+        <v>0.0338212485097167</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1756650502032728</v>
+        <v>0.2176011642069301</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09776646852174012</v>
+        <v>0.07005560415159284</v>
       </c>
       <c r="M173" t="n">
-        <v>0.173480567367097</v>
+        <v>0.2166436849941515</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1487460453290982</v>
+        <v>0.1071777771403877</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1732966883404829</v>
+        <v>0.2158598243292985</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.08433231646987374</v>
+        <v>0.06335672709158224</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1799482012503779</v>
+        <v>0.0636271595781808</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04684420086723198</v>
+        <v>0.03404445789491156</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1772915784458957</v>
+        <v>0.2196159898014387</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09766203753419905</v>
+        <v>0.07048859591549692</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1750868689167924</v>
+        <v>0.2186496450403937</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1483990249383938</v>
+        <v>0.1067212865195358</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1749012873065985</v>
+        <v>0.2178585264064216</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.07896766721286302</v>
+        <v>0.06233152566894264</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1815991021792805</v>
+        <v>0.06362689104971678</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04758474420434385</v>
+        <v>0.03346583564598084</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1789181066885186</v>
+        <v>0.2216308153959473</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0986494358989724</v>
+        <v>0.06932067588173615</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1766931704664877</v>
+        <v>0.2206556050866358</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1493398407463422</v>
+        <v>0.1062669362476702</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1765058862727141</v>
+        <v>0.2198572284835447</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.08559356727391881</v>
+        <v>0.06132265412525194</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1832500031081831</v>
+        <v>0.06362662252125276</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0477211578542404</v>
+        <v>0.03358888568421466</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1805446349311415</v>
+        <v>0.2236456409904559</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09893009805449737</v>
+        <v>0.06925900752078026</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1782994720161831</v>
+        <v>0.222661565132878</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1511706623001652</v>
+        <v>0.1058254778415043</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1781104852388297</v>
+        <v>0.2218559305606679</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.08221137187203209</v>
+        <v>0.06033057463687429</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1849009040370856</v>
+        <v>0.06362635399278874</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04805416072080697</v>
+        <v>0.03311711193090315</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1821711631737644</v>
+        <v>0.2256604665849645</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09992351807277897</v>
+        <v>0.06931075430309866</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1799057735658784</v>
+        <v>0.2246675251791201</v>
       </c>
       <c r="N177" t="n">
-        <v>0.152127398677751</v>
+        <v>0.1038076628177517</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1797150842049453</v>
+        <v>0.223854632637791</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07982243622619395</v>
+        <v>0.05935574938004175</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1865518049659881</v>
+        <v>0.06362608546432473</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04859153293503472</v>
+        <v>0.03335401830733652</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1837976914163873</v>
+        <v>0.2276752921794731</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1008563340230995</v>
+        <v>0.06918307969916096</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1815120751155738</v>
+        <v>0.2266734852253622</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1529419377839928</v>
+        <v>0.1046242426931262</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1813196831710608</v>
+        <v>0.2258533347149142</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.08543297827798185</v>
+        <v>0.05839864053103069</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1882027058948907</v>
+        <v>0.06362581693586071</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0484486043052962</v>
+        <v>0.03320310873480485</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1854242196590102</v>
+        <v>0.2296901177739818</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1018054425215123</v>
+        <v>0.0687831471794367</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1831183766652691</v>
+        <v>0.2286794452716044</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1550777441966999</v>
+        <v>0.103485968984341</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1829242821371764</v>
+        <v>0.2278520367920373</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.08107818955511539</v>
+        <v>0.05745971026607694</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1898536068237932</v>
+        <v>0.06362554840739669</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0488145972538442</v>
+        <v>0.03296788713459835</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1870507479016331</v>
+        <v>0.2317049433684904</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1024462024456269</v>
+        <v>0.06831812021439543</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1847246782149644</v>
+        <v>0.2306854053178465</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1558975489210956</v>
+        <v>0.1032035932081102</v>
       </c>
       <c r="O180" t="n">
-        <v>0.184528881103292</v>
+        <v>0.2298507388691604</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0877459043884137</v>
+        <v>0.05653942076153857</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1915045077526958</v>
+        <v>0.06362527987893267</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04937716227988019</v>
+        <v>0.03285185742800711</v>
       </c>
       <c r="K181" t="n">
-        <v>0.188677276144256</v>
+        <v>0.233719768962999</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1031539726730527</v>
+        <v>0.06729516227450666</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1863309797646598</v>
+        <v>0.2326913653640887</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1570640829624034</v>
+        <v>0.1026878668811471</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1861334800694076</v>
+        <v>0.2318494409462835</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.08341284250584899</v>
+        <v>0.05563823419365068</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1931554086815984</v>
+        <v>0.06362501135046865</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04962394988260557</v>
+        <v>0.0327585235363213</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1903038043868789</v>
+        <v>0.2357345945575076</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1037041120813991</v>
+        <v>0.06812143683023994</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1879372813143551</v>
+        <v>0.2346973254103308</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1582400773258467</v>
+        <v>0.1021495415201653</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1877380790355232</v>
+        <v>0.2338481430234067</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.08805572363539355</v>
+        <v>0.05475661273868958</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1948063096105009</v>
+        <v>0.06362474282200464</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0501426105612218</v>
+        <v>0.03239138938083111</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1919303326295018</v>
+        <v>0.2377494201520162</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1042719795482754</v>
+        <v>0.06720410735206481</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1895435828640505</v>
+        <v>0.236703285456573</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1587882630166488</v>
+        <v>0.1019993686418785</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1893426780016388</v>
+        <v>0.2358468451005298</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.08565126750501967</v>
+        <v>0.05389501857289456</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1964572105394034</v>
+        <v>0.06362447429354061</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05012079481493031</v>
+        <v>0.03235395888282663</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1935568608721247</v>
+        <v>0.2397642457465248</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1049329339512912</v>
+        <v>0.06805033731045085</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1911498844137458</v>
+        <v>0.2387092455028151</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1596713710400331</v>
+        <v>0.1028480920430151</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1909472769677543</v>
+        <v>0.237845547177653</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.08717619384269967</v>
+        <v>0.05305391387261694</v>
       </c>
       <c r="G185" t="n">
-        <v>0.198108111468306</v>
+        <v>0.0636242057650766</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05054615314293255</v>
+        <v>0.03264834297445847</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1951833891147476</v>
+        <v>0.2417790713410334</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1055635267509111</v>
+        <v>0.06765631756821036</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1927561859634412</v>
+        <v>0.2407152055490573</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1590571447708926</v>
+        <v>0.1015734894954886</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1925518759338699</v>
+        <v>0.2398442492547761</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.08860722237640575</v>
+        <v>0.05223376081409512</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1997590123972086</v>
+        <v>0.06362393723661258</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05060708563391868</v>
+        <v>0.0327621526320781</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1968099173573704</v>
+        <v>0.243793896935542</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1058349464761801</v>
+        <v>0.06799565731849763</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1943624875131365</v>
+        <v>0.2427211655952994</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1591678047530475</v>
+        <v>0.1022461402489188</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1941564748999855</v>
+        <v>0.2418429513318992</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.08292107283411024</v>
+        <v>0.05143502157360543</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2014099133261111</v>
+        <v>0.06362366870814858</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05113968424259441</v>
+        <v>0.03289089302166399</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1984364455999933</v>
+        <v>0.2458087225300507</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1058005659006465</v>
+        <v>0.06726499381818396</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1959687890628319</v>
+        <v>0.2447271256415416</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1610696712858192</v>
+        <v>0.102663158714757</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1957610738661011</v>
+        <v>0.2438416534090224</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.08416448069920229</v>
+        <v>0.05065815832739089</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2030608142550137</v>
+        <v>0.06362340017968454</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05106941067343634</v>
+        <v>0.0329336237293732</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2000629738426162</v>
+        <v>0.2478235481245593</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1064602943416457</v>
+        <v>0.06806240447077377</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1975750906125272</v>
+        <v>0.2467330856877837</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1599626072142638</v>
+        <v>0.1033216593044544</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1973656728322167</v>
+        <v>0.2458403554861455</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.08340255785048523</v>
+        <v>0.04990363325179546</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2047117151839162</v>
+        <v>0.06362313165122054</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05139621947861049</v>
+        <v>0.03248940434136267</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2016895020852391</v>
+        <v>0.2498383737190679</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1063140411165128</v>
+        <v>0.06838596667977143</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1991813921622225</v>
+        <v>0.2487390457340259</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1606464753834373</v>
+        <v>0.1025187564294623</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1989702717983323</v>
+        <v>0.2478390575632687</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.08963522658371084</v>
+        <v>0.04917002130326598</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2063626161128188</v>
+        <v>0.06362286312275652</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05142006521028278</v>
+        <v>0.03285729444378944</v>
       </c>
       <c r="K190" t="n">
-        <v>0.203316030327862</v>
+        <v>0.2518531993135765</v>
       </c>
       <c r="L190" t="n">
-        <v>0.106861715542583</v>
+        <v>0.0678337578486812</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2007876937119179</v>
+        <v>0.250745005780268</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1622211386383959</v>
+        <v>0.1033515645012319</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2005748707644478</v>
+        <v>0.2498377596403918</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.08586240122432789</v>
+        <v>0.04844646133930857</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2080135170417213</v>
+        <v>0.06362259459429249</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0513409024206192</v>
+        <v>0.03293635362281053</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2049425585704849</v>
+        <v>0.2538680249080851</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1070032269371917</v>
+        <v>0.06870385538100754</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2023939952616132</v>
+        <v>0.2527509658265101</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1618864598241957</v>
+        <v>0.1032171979312144</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2021794697305634</v>
+        <v>0.2518364617175149</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.090083996097785</v>
+        <v>0.0477315283163738</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2096644179706239</v>
+        <v>0.06362232606582847</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05175868566178565</v>
+        <v>0.03292564146458291</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2065690868131078</v>
+        <v>0.2558828505025937</v>
       </c>
       <c r="L192" t="n">
-        <v>0.107238484617674</v>
+        <v>0.06849433668025473</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2040002968113085</v>
+        <v>0.2547569258727523</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1614423017858927</v>
+        <v>0.1029127711308609</v>
       </c>
       <c r="O192" t="n">
-        <v>0.203784068696679</v>
+        <v>0.2538351637946381</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09029992552953101</v>
+        <v>0.04702568441080022</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2113153188995264</v>
+        <v>0.06362205753736445</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05137336948594817</v>
+        <v>0.03322421755526359</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2081956150557307</v>
+        <v>0.2578976760971023</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1066673979013652</v>
+        <v>0.06840327914992717</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2056065983610039</v>
+        <v>0.2567628859189944</v>
       </c>
       <c r="N193" t="n">
-        <v>0.162888527368543</v>
+        <v>0.1044353985116229</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2053886676627946</v>
+        <v>0.2558338658717612</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.08551010384501456</v>
+        <v>0.04632939179883288</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2129662198284289</v>
+        <v>0.06362178900890045</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05148490844527273</v>
+        <v>0.03313114148100958</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2098221432983536</v>
+        <v>0.259912501691611</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1076898761056007</v>
+        <v>0.06922876019352922</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2072128999106992</v>
+        <v>0.2587688459652366</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1628249994172028</v>
+        <v>0.1042821944849513</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2069932666289102</v>
+        <v>0.2578325679488843</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.08771444536968442</v>
+        <v>0.04564311265674808</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2146171207573315</v>
+        <v>0.06362152048043643</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0518932570919252</v>
+        <v>0.03344547282797787</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2114486715409765</v>
+        <v>0.2619273272861196</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1073058285477153</v>
+        <v>0.06916885721456517</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2088192014603946</v>
+        <v>0.2607748060114787</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1639515807769281</v>
+        <v>0.1052502734622975</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2085978655950257</v>
+        <v>0.2598312700260075</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0939128644289893</v>
+        <v>0.04496730916079298</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2162680216862341</v>
+        <v>0.06362125195197241</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05209836997807163</v>
+        <v>0.03356627118232548</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2130751997835994</v>
+        <v>0.2639421528806282</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1083151645450446</v>
+        <v>0.06912164761653944</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2104255030100899</v>
+        <v>0.2627807660577208</v>
       </c>
       <c r="N196" t="n">
-        <v>0.164268134292775</v>
+        <v>0.1059367498551129</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2102024645611413</v>
+        <v>0.2618299721031305</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.09310527534837787</v>
+        <v>0.04430244348730277</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2179189226151366</v>
+        <v>0.06362098342350839</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05190020165587797</v>
+        <v>0.03369259613020942</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2147017280262223</v>
+        <v>0.2659569784751368</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1078177934149238</v>
+        <v>0.06948520880295642</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2120318045597853</v>
+        <v>0.264786726103963</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1633745228097996</v>
+        <v>0.1050387380748484</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2118070635272569</v>
+        <v>0.2638286741802537</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.08729159245329893</v>
+        <v>0.04364897781252412</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2195698235440391</v>
+        <v>0.06362071489504438</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05209870667751017</v>
+        <v>0.03392350725778667</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2163282562688452</v>
+        <v>0.2679718040696454</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1084136244746881</v>
+        <v>0.07025761817732035</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2136381061094806</v>
+        <v>0.2667926861502051</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1633706091730581</v>
+        <v>0.1051533525329553</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2134116624933725</v>
+        <v>0.2658273762573768</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.08647173006920117</v>
+        <v>0.04300737431273335</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2212207244729417</v>
+        <v>0.06362044636658036</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05239383959513415</v>
+        <v>0.03375806415121424</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2179547845114681</v>
+        <v>0.269986629664154</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1082025670416727</v>
+        <v>0.070237028003406</v>
       </c>
       <c r="M199" t="n">
-        <v>0.215244407659176</v>
+        <v>0.2687986461964473</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1635562562276065</v>
+        <v>0.1067867651225618</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2150162614594881</v>
+        <v>0.2678260783345</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.08664560252153325</v>
+        <v>0.04237809516417968</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2228716254018442</v>
+        <v>0.06362017783811634</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05248555496091596</v>
+        <v>0.03421803434946372</v>
       </c>
       <c r="K200" t="n">
-        <v>0.219581312754091</v>
+        <v>0.2720014552586626</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1079845304332129</v>
+        <v>0.07081023116551016</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2168507092088713</v>
+        <v>0.2708046062426894</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1652313268185007</v>
+        <v>0.1064104790323038</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2166208604256037</v>
+        <v>0.2698247804116231</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.08681312413574402</v>
+        <v>0.04176160254319424</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2245225263307468</v>
+        <v>0.06361990930965232</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05247380732702149</v>
+        <v>0.03415679870537534</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2212078409967139</v>
+        <v>0.2740162808531713</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1089594239666438</v>
+        <v>0.07054757068710338</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2184570107585667</v>
+        <v>0.2728105662889315</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1643956837907971</v>
+        <v>0.1070773362530703</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2182254593917193</v>
+        <v>0.2718234824887463</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09297420923728208</v>
+        <v>0.04115835862602569</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2261734272596494</v>
+        <v>0.06361964078118831</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05265855124561676</v>
+        <v>0.03457136431117622</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2228343692393368</v>
+        <v>0.2760311064476799</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1084271569593009</v>
+        <v>0.07193729126075055</v>
       </c>
       <c r="M202" t="n">
-        <v>0.220063312308262</v>
+        <v>0.2748165263351737</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1649491899895518</v>
+        <v>0.109869693467296</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2198300583578348</v>
+        <v>0.2738221845658694</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0911287721515962</v>
+        <v>0.04056882558895036</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2278243281885519</v>
+        <v>0.06361937225272429</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0528397412688677</v>
+        <v>0.03495598120640109</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2244608974819597</v>
+        <v>0.2780459320421884</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1086876387285192</v>
+        <v>0.07206763757901663</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2216696138579573</v>
+        <v>0.2768224863814159</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1646917082598205</v>
+        <v>0.1096699073574161</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2214346573239504</v>
+        <v>0.2758208866429925</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09527672720413513</v>
+        <v>0.03999346560821985</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2294752291174545</v>
+        <v>0.06361910372426027</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05261733194894029</v>
+        <v>0.03560489943058466</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2260874257245826</v>
+        <v>0.2800607576366971</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1092407785916339</v>
+        <v>0.07322685433446643</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2232759154076527</v>
+        <v>0.278828446427658</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1665231014466598</v>
+        <v>0.1123603346058654</v>
       </c>
       <c r="O204" t="n">
-        <v>0.223039256290066</v>
+        <v>0.2778195887201156</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.09441798872034754</v>
+        <v>0.03943274086016061</v>
       </c>
       <c r="G205" t="n">
-        <v>0.231126130046357</v>
+        <v>0.06361883519579625</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05259127783800047</v>
+        <v>0.03561236902326163</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2277139539672055</v>
+        <v>0.2820755832312057</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1091864858659806</v>
+        <v>0.07500318621966492</v>
       </c>
       <c r="M205" t="n">
-        <v>0.224882216957348</v>
+        <v>0.2808344064739002</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1663432323951254</v>
+        <v>0.1138233318950789</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2246438552561816</v>
+        <v>0.2798182907972388</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.08955247102568215</v>
+        <v>0.03888711352102358</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2327770309752595</v>
+        <v>0.06361856666733223</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05276153348821423</v>
+        <v>0.03617264002396675</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2293404822098284</v>
+        <v>0.2840904088257143</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1097246698688941</v>
+        <v>0.07608487792717694</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2264885185070434</v>
+        <v>0.2828403665201423</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1661519639502735</v>
+        <v>0.1154412559074917</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2262484542222972</v>
+        <v>0.2818169928743619</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0886800884455877</v>
+        <v>0.03835704576708512</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2344279319041621</v>
+        <v>0.06361829813886823</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0529280534517475</v>
+        <v>0.03727996247223474</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2309670104524513</v>
+        <v>0.2861052344202229</v>
       </c>
       <c r="L207" t="n">
-        <v>0.10935523991771</v>
+        <v>0.07716017414956747</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2280948200567387</v>
+        <v>0.2848463265663844</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1665491589571604</v>
+        <v>0.1175964633255385</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2278530531884128</v>
+        <v>0.283815694951485</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.08780075530551293</v>
+        <v>0.03784299977459952</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2360788328330647</v>
+        <v>0.06361802961040419</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05289079228076629</v>
+        <v>0.03762858640760029</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2325935386950742</v>
+        <v>0.2881200600147316</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1095781053297633</v>
+        <v>0.0779173195794014</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2297011216064341</v>
+        <v>0.2868522866126266</v>
       </c>
       <c r="N208" t="n">
-        <v>0.166434680260842</v>
+        <v>0.1195713108316546</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2294576521545283</v>
+        <v>0.2858143970286082</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.09091438593090653</v>
+        <v>0.0373454377198879</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2377297337619672</v>
+        <v>0.06361776108194019</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05314970452743652</v>
+        <v>0.03861276186959811</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234220066937697</v>
+        <v>0.2901348856092401</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1094931754223893</v>
+        <v>0.07944455890924357</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2313074231561294</v>
+        <v>0.2888582466588687</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1658083907063744</v>
+        <v>0.1212481551082746</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2310622511206439</v>
+        <v>0.2878130991057313</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09302089464721727</v>
+        <v>0.03686482177920383</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2393806346908698</v>
+        <v>0.06361749255347617</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05280474474392419</v>
+        <v>0.03912673889776296</v>
       </c>
       <c r="K210" t="n">
-        <v>0.23584659518032</v>
+        <v>0.2921497112037487</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1101003595129234</v>
+        <v>0.08163013683165896</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2329137247058247</v>
+        <v>0.2908642067051109</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1674701531388136</v>
+        <v>0.1229093528378337</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2326668500867595</v>
+        <v>0.2898118011828544</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0871201957798938</v>
+        <v>0.03640161412882365</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2410315356197723</v>
+        <v>0.06361722402501216</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05335586748239522</v>
+        <v>0.03956476753162956</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2374731234229429</v>
+        <v>0.2941645367982573</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1103995669187006</v>
+        <v>0.08336229803921241</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2345200262555201</v>
+        <v>0.292870166751353</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1677198304032159</v>
+        <v>0.1254372607027668</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2342714490528751</v>
+        <v>0.2918105032599776</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.08721220365438484</v>
+        <v>0.0359562769450047</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2426824365486748</v>
+        <v>0.06361695549654812</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05340302729501564</v>
+        <v>0.0404210978107326</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2390996516655657</v>
+        <v>0.2961793623927659</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1104907069570562</v>
+        <v>0.08452928722446887</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2361263278052154</v>
+        <v>0.2948761267975952</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1670572853446373</v>
+        <v>0.1289142353855087</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2358760480189907</v>
+        <v>0.2938092053371008</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.09229683259613922</v>
+        <v>0.0355292724040621</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2443333374775774</v>
+        <v>0.06361668696808412</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05344617873395135</v>
+        <v>0.04128997977460683</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2407261799081887</v>
+        <v>0.2981941879872746</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1101736889453255</v>
+        <v>0.08561934907999322</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2377326293549108</v>
+        <v>0.2968820868438373</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1674823808081339</v>
+        <v>0.1314226335684947</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2374806469851063</v>
+        <v>0.2958079074142239</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09637399693060555</v>
+        <v>0.03512106268225239</v>
       </c>
       <c r="G214" t="n">
-        <v>0.24598423840648</v>
+        <v>0.0636164184396201</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05328527635136833</v>
+        <v>0.04226566346278693</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2423527081508116</v>
+        <v>0.3002090135817832</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1106484222008438</v>
+        <v>0.08712072829835038</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2393389309046061</v>
+        <v>0.2988880468900794</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1668949796387617</v>
+        <v>0.1335448119341596</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2390852459512218</v>
+        <v>0.297806609491347</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.08944361098323259</v>
+        <v>0.03512106268225238</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2476351393353825</v>
+        <v>0.0636164184396201</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05352027469943256</v>
+        <v>0.04314239891480766</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2439792363934344</v>
+        <v>0.3022238391762918</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1099148160409461</v>
+        <v>0.08882166957210524</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2409452324543014</v>
+        <v>0.3008940069363216</v>
       </c>
       <c r="N215" t="n">
-        <v>0.167594944681577</v>
+        <v>0.1357631271649383</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2406898449173374</v>
+        <v>0.2998053115684701</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.09050558907946907</v>
+        <v>0.03427027566333517</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2492860402642851</v>
+        <v>0.06355947966493267</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05315112833031001</v>
+        <v>0.04391443617020373</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2456057646360573</v>
+        <v>0.3042386647708004</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1099727797829679</v>
+        <v>0.0905104175938227</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2425515340039968</v>
+        <v>0.3028999669825637</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1667821387816357</v>
+        <v>0.1386599359432658</v>
       </c>
       <c r="O216" t="n">
-        <v>0.242294443883453</v>
+        <v>0.3018040136455933</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09355984554476368</v>
+        <v>0.03342760785808675</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2509369411931876</v>
+        <v>0.06350254089024522</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05327779179616661</v>
+        <v>0.04467602526850983</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2472322928786802</v>
+        <v>0.306253490365309</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1101222227442443</v>
+        <v>0.09177521705606767</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2441578355536921</v>
+        <v>0.3049059270288059</v>
       </c>
       <c r="N217" t="n">
-        <v>0.167456424783994</v>
+        <v>0.1404175949515771</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2438990428495686</v>
+        <v>0.3038027157227164</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09060629470456516</v>
+        <v>0.03259329352700532</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2525878421220902</v>
+        <v>0.06344560211555779</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05340021964916832</v>
+        <v>0.04492141624926073</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2488588211213031</v>
+        <v>0.3082683159598176</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1106630542421106</v>
+        <v>0.09420431265140503</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2457641371033875</v>
+        <v>0.306911887075048</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1675176655337078</v>
+        <v>0.1431184608723071</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2455036418156842</v>
+        <v>0.3058014177998395</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.08864485088432228</v>
+        <v>0.03176756693058846</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2542387430509927</v>
+        <v>0.06338866334087034</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05331836644148115</v>
+        <v>0.04564485915199108</v>
       </c>
       <c r="K219" t="n">
-        <v>0.250485349363926</v>
+        <v>0.3102831415543262</v>
       </c>
       <c r="L219" t="n">
-        <v>0.110095183593902</v>
+        <v>0.09508594907239973</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2473704386530828</v>
+        <v>0.3089178471212901</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1674657238758336</v>
+        <v>0.1453448903878908</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2471082407817997</v>
+        <v>0.3078001198769627</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09067542840948364</v>
+        <v>0.03095066232933435</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2558896439798952</v>
+        <v>0.0633317245661829</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05353218672527103</v>
+        <v>0.04634060401623566</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252111877606549</v>
+        <v>0.3122979671488348</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1101185201169538</v>
+        <v>0.09660837101161665</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2489767402027782</v>
+        <v>0.3109238071675323</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1674004626554271</v>
+        <v>0.1479792401807632</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2487128397479153</v>
+        <v>0.3097988219540858</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.08969794160549804</v>
+        <v>0.03014281398374057</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2575405449087978</v>
+        <v>0.06327478579149545</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05354163505270396</v>
+        <v>0.04740290088152918</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2537384058491718</v>
+        <v>0.3143127927433435</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1100329731286012</v>
+        <v>0.0983598231616207</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2505830417524735</v>
+        <v>0.3129297672137745</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1672217447175445</v>
+        <v>0.1487038669333592</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2503174387140309</v>
+        <v>0.3117975240312089</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09471230479781426</v>
+        <v>0.02934425615430528</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2591914458377003</v>
+        <v>0.06321784701680802</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05334666597594585</v>
+        <v>0.04772599978740635</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2553649340917947</v>
+        <v>0.3163276183378521</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1107384519461793</v>
+        <v>0.09882855021497675</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2521893433021689</v>
+        <v>0.3149357272600166</v>
       </c>
       <c r="N222" t="n">
-        <v>0.168529432907242</v>
+        <v>0.1513011273281139</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2519220376801465</v>
+        <v>0.3137962261083321</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0907184323118809</v>
+        <v>0.02855522310152608</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2608423467666029</v>
+        <v>0.06316090824212058</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05333778161455831</v>
+        <v>0.04820415077340189</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2569914623344176</v>
+        <v>0.3183424439323607</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1101271181402101</v>
+        <v>0.1000027968642497</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2537956448518642</v>
+        <v>0.3169416873062588</v>
       </c>
       <c r="N223" t="n">
-        <v>0.168043898687773</v>
+        <v>0.152853378047462</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2535266366462621</v>
+        <v>0.3157949281854552</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.09464395917998705</v>
+        <v>0.02777594908590112</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2624932476955055</v>
+        <v>0.06310396946743314</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05321969162941448</v>
+        <v>0.04923160387905053</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2586179905770405</v>
+        <v>0.3203572695268693</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1102554656671142</v>
+        <v>0.1020708078020046</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2554019464015596</v>
+        <v>0.3189476473525009</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1665645072210827</v>
+        <v>0.1539429757738386</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2551312356123776</v>
+        <v>0.3177936302625783</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09433315899581765</v>
+        <v>0.027006668367928</v>
       </c>
       <c r="G225" t="n">
-        <v>0.264144148624408</v>
+        <v>0.0630470306927457</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05307892717842637</v>
+        <v>0.04970260914388695</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2602445188196634</v>
+        <v>0.3223720951213779</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1096501959869055</v>
+        <v>0.1029208277208061</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2570082479512549</v>
+        <v>0.320953607398743</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1653332162003341</v>
+        <v>0.1561522771896788</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2567358345784932</v>
+        <v>0.3197923323397014</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.08880545330648135</v>
+        <v>0.02624761520810489</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2657950495533106</v>
+        <v>0.06299009191805827</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05262965632310412</v>
+        <v>0.04991141660744591</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2618710470622863</v>
+        <v>0.3243869207158865</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1092395788202312</v>
+        <v>0.1037411013132193</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2586145495009503</v>
+        <v>0.3229595674449852</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1642927827716684</v>
+        <v>0.1570636389774174</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2583404335446088</v>
+        <v>0.3217910344168246</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.08608755058638873</v>
+        <v>0.02549902386692936</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2674459504822131</v>
+        <v>0.06293315314337082</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05208604712495785</v>
+        <v>0.05035227630926215</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2634975753049092</v>
+        <v>0.3264017463103951</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1074518838877387</v>
+        <v>0.103919873271809</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2602208510506456</v>
+        <v>0.3249655274912273</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1637859640812271</v>
+        <v>0.1578594178194894</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2599450325107244</v>
+        <v>0.3237897364939477</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.08820615930995029</v>
+        <v>0.02476112860489959</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2690968514111156</v>
+        <v>0.06287621436868338</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05146226764549773</v>
+        <v>0.0503194382888703</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2651241035475321</v>
+        <v>0.3284165719049038</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1068153809100752</v>
+        <v>0.1051453882891402</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2618271526003409</v>
+        <v>0.3269714875374695</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1609555172751513</v>
+        <v>0.1587219703983298</v>
       </c>
       <c r="O228" t="n">
-        <v>0.26154963147684</v>
+        <v>0.3257884385710709</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09218798795157662</v>
+        <v>0.02403416368251318</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2707477523400182</v>
+        <v>0.06281927559399593</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05117248594623389</v>
+        <v>0.05090899975143004</v>
       </c>
       <c r="K229" t="n">
-        <v>0.266750631790155</v>
+        <v>0.3304313974994124</v>
       </c>
       <c r="L229" t="n">
-        <v>0.105058339607888</v>
+        <v>0.105217306484934</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2634334541500363</v>
+        <v>0.3289774475837116</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1599441994995824</v>
+        <v>0.1598650229358593</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2631542304429556</v>
+        <v>0.327787140648194</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.08805974498567817</v>
+        <v>0.02331836336026827</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2723986532689208</v>
+        <v>0.0627623368193085</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05033087008867645</v>
+        <v>0.05077110598009195</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2683771600327779</v>
+        <v>0.332446223093921</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1042090297018243</v>
+        <v>0.1055507819968345</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2650397556997316</v>
+        <v>0.3309834076299538</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1581947679006617</v>
+        <v>0.1605680853716175</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2647588294090711</v>
+        <v>0.3297858427253171</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.08984813888666562</v>
+        <v>0.02261396189866246</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2740495541978233</v>
+        <v>0.06270539804462105</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04955158813433559</v>
+        <v>0.05083037701892812</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2700036882754008</v>
+        <v>0.3344610486884296</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1022957209125315</v>
+        <v>0.1057784014045926</v>
       </c>
       <c r="M231" t="n">
-        <v>0.266646057249427</v>
+        <v>0.3329893676761959</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1562499796245305</v>
+        <v>0.1603622844230609</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2663634283751867</v>
+        <v>0.3317845448024402</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08657987812894943</v>
+        <v>0.02192119355819392</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2757004551267259</v>
+        <v>0.06264845926993362</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04894880814472143</v>
+        <v>0.05088670160371067</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2716302165180237</v>
+        <v>0.3364758742829382</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1010466829606568</v>
+        <v>0.1060999372379129</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2682523587991223</v>
+        <v>0.334995327722438</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1530525918173299</v>
+        <v>0.1616472786843456</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2679680273413023</v>
+        <v>0.3337832468795634</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.08428167118694019</v>
+        <v>0.02124029259936024</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2773513560556284</v>
+        <v>0.06259152049524618</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04853669818134404</v>
+        <v>0.05113996847021172</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2732567447606466</v>
+        <v>0.3384906998774468</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09939018556684739</v>
+        <v>0.1066151620265002</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2698586603488176</v>
+        <v>0.3370012877686802</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1505453616252015</v>
+        <v>0.1615227267496274</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2695726263074179</v>
+        <v>0.3357819489566866</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.07898022653504841</v>
+        <v>0.02057149328265957</v>
       </c>
       <c r="G234" t="n">
-        <v>0.279002256984531</v>
+        <v>0.06253458172055874</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04782942630571368</v>
+        <v>0.05159006635420341</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2748832730032695</v>
+        <v>0.3405055254719555</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0980544984517506</v>
+        <v>0.1061238483000591</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2714649618985129</v>
+        <v>0.3390072478149223</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1491710461942865</v>
+        <v>0.1624882872130621</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2711772252735334</v>
+        <v>0.3377806510338097</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08370225264768466</v>
+        <v>0.01991502986858952</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2806531579134335</v>
+        <v>0.06247764294587129</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04694116057934043</v>
+        <v>0.05133688399145785</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2765098012458924</v>
+        <v>0.3425203510664641</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09676789133601366</v>
+        <v>0.1066257685882941</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2730712634482083</v>
+        <v>0.3410132078611645</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1461724026707261</v>
+        <v>0.1624436186688059</v>
       </c>
       <c r="O235" t="n">
-        <v>0.272781824239649</v>
+        <v>0.3397793531109328</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.07547445799925948</v>
+        <v>0.01927113661764823</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2823040588423361</v>
+        <v>0.06242070417118386</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04628606906373443</v>
+        <v>0.05178031011774714</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2781363294885152</v>
+        <v>0.3445351766609727</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09575863394028386</v>
+        <v>0.1066206954209102</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2746775649979036</v>
+        <v>0.3430191679074066</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1445921882006617</v>
+        <v>0.1624883797110144</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2743864232057646</v>
+        <v>0.3417780551880559</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0803235510641834</v>
+        <v>0.01864004779033333</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2839549597712386</v>
+        <v>0.06236376539649641</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04587831982040579</v>
+        <v>0.05202023346884348</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2797628577311382</v>
+        <v>0.3465500022554813</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09445499593243528</v>
+        <v>0.1080084013276119</v>
       </c>
       <c r="M237" t="n">
-        <v>0.276283866547599</v>
+        <v>0.3450251279536487</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1438730686535061</v>
+        <v>0.1635222289338438</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2759910221718802</v>
+        <v>0.3437767572651791</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.08227147621314501</v>
+        <v>0.01802199764714293</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2856058607001412</v>
+        <v>0.06230682662180898</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04491627260310635</v>
+        <v>0.05215654278051896</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2813893859737611</v>
+        <v>0.3485648278499899</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09331136972957801</v>
+        <v>0.1082886588381037</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2778901680972943</v>
+        <v>0.3470310879998909</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1410395146863266</v>
+        <v>0.1640448249314501</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2775956211379958</v>
+        <v>0.3457754593423022</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.07824749558719341</v>
+        <v>0.01741722044857467</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2872567616290437</v>
+        <v>0.06224988784712153</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04485587738009446</v>
+        <v>0.05228912678854565</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2830159142163839</v>
+        <v>0.3505796534444985</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09166349788864928</v>
+        <v>0.1078612404820905</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2794964696469897</v>
+        <v>0.3490370480461331</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1393995297046868</v>
+        <v>0.1634558262979889</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2792002201041114</v>
+        <v>0.3477741614194254</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.07621959332801254</v>
+        <v>0.01682499389142702</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2889076625579463</v>
+        <v>0.06219294907243409</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04389335809967425</v>
+        <v>0.05221787422869577</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2846424424590069</v>
+        <v>0.3525944790390071</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09071131343763239</v>
+        <v>0.1083259187892768</v>
       </c>
       <c r="M240" t="n">
-        <v>0.281102771196685</v>
+        <v>0.3510430080923752</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1373530124153217</v>
+        <v>0.1640548916276164</v>
       </c>
       <c r="O240" t="n">
-        <v>0.280804819070227</v>
+        <v>0.3497728634965485</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.07918770616223605</v>
+        <v>0.0162398128539996</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2905585634868488</v>
+        <v>0.06213601029774665</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04352868119718262</v>
+        <v>0.05244267383674135</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2862689707016298</v>
+        <v>0.3546093046335157</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08915474940451093</v>
+        <v>0.1080824662893674</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2827090727463804</v>
+        <v>0.3530489681386174</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1352998615249666</v>
+        <v>0.1652416795144884</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2824094180363426</v>
+        <v>0.3517715655736716</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07315177081649765</v>
+        <v>0.01566095503309087</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2922094644157514</v>
+        <v>0.06207907152305921</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04306181310795645</v>
+        <v>0.0524634143484546</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2878954989442526</v>
+        <v>0.3566241302280243</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08829373881726829</v>
+        <v>0.109130655512067</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2843153742960757</v>
+        <v>0.3550549281848595</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1341399757403569</v>
+        <v>0.1654158485527609</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2840140170024582</v>
+        <v>0.3537702676507947</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.06811172401743101</v>
+        <v>0.01508865468919848</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2938603653446539</v>
+        <v>0.06202213274837177</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04249272026733261</v>
+        <v>0.05237998449960758</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2895220271868755</v>
+        <v>0.358638955822533</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08752821470388789</v>
+        <v>0.1088702589870801</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2859216758457711</v>
+        <v>0.3570608882311016</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1333732537682276</v>
+        <v>0.1656770573365897</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2856186159685737</v>
+        <v>0.3557689697279179</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.07006750249166976</v>
+        <v>0.01452314608282053</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2955112662735564</v>
+        <v>0.06196519397368433</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04152136911064799</v>
+        <v>0.05259227302597244</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2911485554294984</v>
+        <v>0.3606537814170416</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08565811009235322</v>
+        <v>0.1098010492441114</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2875279773954664</v>
+        <v>0.3590668482773438</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1300995943153139</v>
+        <v>0.1651249644601309</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2872232149346893</v>
+        <v>0.357767671805041</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.06701904296584762</v>
+        <v>0.01396466347445467</v>
       </c>
       <c r="G245" t="n">
-        <v>0.297162167202459</v>
+        <v>0.06190825519899688</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04114772607323948</v>
+        <v>0.05280016866332132</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2927750836721213</v>
+        <v>0.3626686070115501</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08508335801064779</v>
+        <v>0.1096227988128657</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2891342789451617</v>
+        <v>0.3610728083235859</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1281188960883511</v>
+        <v>0.1656592285175403</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2888278139008049</v>
+        <v>0.3597663738821641</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.06796628216659825</v>
+        <v>0.013413441124599</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2988130681313615</v>
+        <v>0.06185131642430945</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04047175759044394</v>
+        <v>0.05310356014742632</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2944016119147442</v>
+        <v>0.3646834326060587</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08330389148675488</v>
+        <v>0.1100352802230475</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2907405804948571</v>
+        <v>0.3630787683698281</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1264310577940744</v>
+        <v>0.1672795081029739</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2904324128669205</v>
+        <v>0.3617650759592873</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.07290915682055538</v>
+        <v>0.01286971329375118</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3004639690602641</v>
+        <v>0.06179437764962201</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04009343009759823</v>
+        <v>0.05320233621405959</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2960281401573671</v>
+        <v>0.3666982582005674</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08291964354865808</v>
+        <v>0.1095382660043616</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2923468820445524</v>
+        <v>0.3650847284160702</v>
       </c>
       <c r="N247" t="n">
-        <v>0.124935978139219</v>
+        <v>0.1661854618105876</v>
       </c>
       <c r="O247" t="n">
-        <v>0.292037011833036</v>
+        <v>0.3637637780364104</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07084760365435261</v>
+        <v>0.01233371424240931</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3021148699891666</v>
+        <v>0.06173743887493457</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03961271003003929</v>
+        <v>0.05289638559899325</v>
       </c>
       <c r="K248" t="n">
-        <v>0.29765466839999</v>
+        <v>0.368713083795076</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08203054722434075</v>
+        <v>0.1105315286865126</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2939531835942478</v>
+        <v>0.3670906884623124</v>
       </c>
       <c r="N248" t="n">
-        <v>0.12273355583052</v>
+        <v>0.1665767482345373</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2936416107991516</v>
+        <v>0.3657624801135335</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.06278155939462368</v>
+        <v>0.01180567823107104</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3037657709180692</v>
+        <v>0.06168050010024712</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03902956382310399</v>
+        <v>0.05328559703799939</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2992811966426129</v>
+        <v>0.3707279093895846</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08023653554178639</v>
+        <v>0.1102148407992051</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2955594851439431</v>
+        <v>0.3690966485085544</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1223236895747128</v>
+        <v>0.167253025968979</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2952462097652672</v>
+        <v>0.3677611821906567</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.06071096076800226</v>
+        <v>0.01128583952023447</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3054166718469717</v>
+        <v>0.06162356132555969</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03824395791212917</v>
+        <v>0.05346985926685019</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3009077248852358</v>
+        <v>0.3727427349840932</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07873754152897838</v>
+        <v>0.1105879748721438</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2971657866936385</v>
+        <v>0.3711026085547966</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1203062780785326</v>
+        <v>0.1679139536080686</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2968508087313828</v>
+        <v>0.3697598842677798</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05963574450112199</v>
+        <v>0.01077443237039727</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3070675727758743</v>
+        <v>0.06156662255087225</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03745585873245176</v>
+        <v>0.05354906102131772</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3025342531278587</v>
+        <v>0.3747575605786018</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0774334982139003</v>
+        <v>0.1109507034350335</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2987720882433338</v>
+        <v>0.3731085686010387</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1179812200487143</v>
+        <v>0.1674591897459621</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2984554076974984</v>
+        <v>0.3717585863449029</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.06055584732061656</v>
+        <v>0.01027169104205752</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3087184737047768</v>
+        <v>0.06150968377618481</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03706523271940862</v>
+        <v>0.05342309103717416</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3041607813704816</v>
+        <v>0.3767723861731104</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07682433862453547</v>
+        <v>0.1108027990175788</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3003783897930291</v>
+        <v>0.3751145286472809</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1165484141919935</v>
+        <v>0.1678883929768152</v>
       </c>
       <c r="O252" t="n">
-        <v>0.300060006663614</v>
+        <v>0.373757288422026</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05847120595311969</v>
+        <v>0.009777849795712883</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3103693746336794</v>
+        <v>0.06145274500149736</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03667204630833661</v>
+        <v>0.05379183805019158</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3057873096131045</v>
+        <v>0.378787211767619</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07500999578886741</v>
+        <v>0.1112440341494844</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3019846913427245</v>
+        <v>0.377120488693523</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1141077592151051</v>
+        <v>0.169101221894784</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3016646056297296</v>
+        <v>0.3757559904991492</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.056381757125265</v>
+        <v>0.009293142891861436</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3120202755625819</v>
+        <v>0.06139580622680993</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03587626593457263</v>
+        <v>0.05375519079614215</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3074138378557274</v>
+        <v>0.3808020373621276</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07409040273487949</v>
+        <v>0.1104741813604547</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3035909928924198</v>
+        <v>0.3791264487397652</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1130591538247845</v>
+        <v>0.1689973350940244</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3032692045958451</v>
+        <v>0.3777546925762724</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05928743756368619</v>
+        <v>0.008817804591000886</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3136711764914845</v>
+        <v>0.06133886745212248</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03537785803345357</v>
+        <v>0.05371303801079796</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3090403660983503</v>
+        <v>0.3828168629566363</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07266549249055521</v>
+        <v>0.1115930131801947</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3051972944421152</v>
+        <v>0.3811324087860073</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1109024967277669</v>
+        <v>0.1692763911686925</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3048738035619607</v>
+        <v>0.3797533946533955</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.06218818399501696</v>
+        <v>0.008352069153629273</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3153220774203871</v>
+        <v>0.06128192867743504</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03447678904031631</v>
+        <v>0.05386526842993118</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3106668943409732</v>
+        <v>0.3848316885511449</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07143519808387802</v>
+        <v>0.1108003021384089</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3068035959918105</v>
+        <v>0.3831383688322494</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1096376866307874</v>
+        <v>0.1694380487129439</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3064784025280763</v>
+        <v>0.3817520967305186</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06008393314589099</v>
+        <v>0.007896170840244292</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3169729783492896</v>
+        <v>0.0612249899027476</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03397302539049772</v>
+        <v>0.05371177078931388</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3122934225835961</v>
+        <v>0.3868465141456535</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07029945254283143</v>
+        <v>0.110995820764802</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3084098975415058</v>
+        <v>0.3851443288784916</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1071646222405812</v>
+        <v>0.1684819663209347</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3080830014941919</v>
+        <v>0.3837507988076418</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05397462174294191</v>
+        <v>0.007450343911344026</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3186238792781921</v>
+        <v>0.06116805112806017</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03336653351933469</v>
+        <v>0.05375243382471824</v>
       </c>
       <c r="K258" t="n">
-        <v>0.313919950826219</v>
+        <v>0.3888613397401621</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06985818889539874</v>
+        <v>0.1110793415890786</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3100161990912012</v>
+        <v>0.3871502889247338</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1054832022638836</v>
+        <v>0.1682078025868208</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3096876004603075</v>
+        <v>0.3857495008847649</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05586018651280345</v>
+        <v>0.00701482262742615</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3202747802070947</v>
+        <v>0.06111111235337272</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0330572798621641</v>
+        <v>0.05368714627191633</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3155464790688419</v>
+        <v>0.3908761653346707</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06851134016956351</v>
+        <v>0.1116506371409435</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3116225006408965</v>
+        <v>0.3891562489709759</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1029933254074298</v>
+        <v>0.1697152161047582</v>
       </c>
       <c r="O259" t="n">
-        <v>0.311292199426423</v>
+        <v>0.387748202961888</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05574056418210926</v>
+        <v>0.006589841248988725</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3219256811359972</v>
+        <v>0.06105417357868528</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03234523085432281</v>
+        <v>0.05401579686668032</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3171730073114648</v>
+        <v>0.3928909909291793</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06675883939330909</v>
+        <v>0.1117094799501012</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3132288021905919</v>
+        <v>0.391162209017218</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1009948903779551</v>
+        <v>0.1688038654689027</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3128967983925386</v>
+        <v>0.3897469050390112</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05761569147749301</v>
+        <v>0.006175634036529445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3235765820648998</v>
+        <v>0.06099723480399784</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03193035293114774</v>
+        <v>0.05393827434478231</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3187995355540877</v>
+        <v>0.3949058165236879</v>
       </c>
       <c r="L261" t="n">
-        <v>0.066000619594619</v>
+        <v>0.1121556425462565</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3148351037402872</v>
+        <v>0.3931681690634602</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09938779588219437</v>
+        <v>0.1689734092734106</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3145013973586542</v>
+        <v>0.3917456071161343</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0524855051255884</v>
+        <v>0.005772435250546375</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3252274829938024</v>
+        <v>0.06094029602931041</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03091261252797575</v>
+        <v>0.05365446744199442</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3204260637967106</v>
+        <v>0.3969206421181966</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06483661380147668</v>
+        <v>0.1114888974591141</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3164414052899826</v>
+        <v>0.3951741291097023</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09797194062688319</v>
+        <v>0.1701235061124373</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3161059963247698</v>
+        <v>0.3937443091932574</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0463499418530291</v>
+        <v>0.005380479151537214</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3268783839227049</v>
+        <v>0.06088335725462296</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03069197608014372</v>
+        <v>0.05416755543683759</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3220525920393335</v>
+        <v>0.3989354677127052</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06316675504186559</v>
+        <v>0.1122157743537546</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3180477068396779</v>
+        <v>0.3971800891559445</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09514722331875652</v>
+        <v>0.1702639932706715</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3177105952908854</v>
+        <v>0.3957430112703805</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04920893838644882</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3285292848516074</v>
+        <v>0.06082641847993552</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03006841002298856</v>
+        <v>0.05416755543683759</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3236791202819564</v>
+        <v>0.4009502933072138</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06129097634376918</v>
+        <v>0.1117157743537545</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3196540083893732</v>
+        <v>0.3991860492021866</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09361354266454969</v>
+        <v>0.1700639932706716</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3193151942570009</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3977417133475037</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06081326058519868</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005878572089193075</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06081352911366269</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006753200490097963</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06081379764212671</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007623851421421059</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06081406617059073</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00849049110175517</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06081433469905475</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00935308574980686</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06081460322751876</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01021160158424472</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06081487175598278</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01106600482377442</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0608151402844468</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01191626168699021</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06081540881291082</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01276233839259792</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06081567734137483</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01360420115926616</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06081594586983884</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01444181620569988</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06081621439830287</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01527514975049474</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06081648292676688</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0161041680123559</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0608167514552309</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01692883720995193</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06081701998369491</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01774912356198704</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06081728851215894</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01856499328705841</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06081755704062295</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01937641260387043</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06081782556908697</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02018334773109167</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06081809409755098</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02098576488742557</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06081836262601501</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02178363029147085</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06081863115447902</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02257691016193113</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06081889968294304</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.023365570717475</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06081916821140705</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02414957817680507</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06081943673987108</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02492889875852169</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06081970526833509</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02570363662176425</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06081997379679911</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02647458562782095</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06082024232526312</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02724184993583028</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06082051085372715</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02800539576439399</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06082077938219116</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02876518933221419</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06082104791065518</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02952119685795945</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06082131643911919</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03027338456033104</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06082158496758322</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03102171865793203</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06082185349604723</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03176616536946384</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06082212202451125</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03250669091359507</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06082239055297526</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03324326150902631</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06082265908143929</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03397584337436198</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0608229276099033</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03470440272830285</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06082319613836731</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03542890578951747</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06082346466683133</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03614931877670575</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06082373319529535</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03686560790847353</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06082400172375937</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03757773940352083</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06082427025222339</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03828567948051629</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0608245387806874</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03898939435815901</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06082480730915143</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03968885025505629</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06082507583761544</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.04038401338990748</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06082534436607945</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.04107484998138116</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06082561289454347</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0417613262481757</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0608258814230075</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04244340840889992</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06082614995147151</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04312106268225239</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06082641847993552</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0431210626822524</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06081326058519868</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04387000852513908</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06087073641681415</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04461327509768368</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06092821224842963</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04535075816898335</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0609856880800451</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04608235350813517</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06104316391166058</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04680795688423631</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06110063974327605</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04752746406638383</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06115811557489153</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0482407708236749</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.061215591406507</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04894777292520663</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06127306723812248</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0496483661400761</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06133054306973795</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.05034244623738045</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06138801890135342</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05102990898621682</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0614454947329689</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.05171065015568232</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06150297056458438</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05238456551487406</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06156044639619986</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05305155083288916</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06161792222781533</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05371150187882475</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06167539805943081</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05436431442177794</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06173287389104628</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05500988423084584</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06179034972266175</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0556481070751256</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06184782555427723</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05627887872371431</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0619053013858927</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05690209494570909</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06196277721750818</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05751765151020708</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06202025304912365</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05812544418630538</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06207772888073913</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05872536874310112</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06213520471235461</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0593173209496913</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06219268054397007</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05990162218469338</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06225015637558554</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.06048072187432491</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06230763220720101</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.06105494139720314</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06236510803881649</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.06162417652242515</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06242258387043197</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0621883230190881</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06248005970204745</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0627472766562891</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06253753553366292</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06330093320312527</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0625950113652784</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06384918842869369</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06265248719689387</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06439193810209154</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06270996302850934</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0649290779924159</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06276743886012481</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0654605038687639</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0628249146917403</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06598611150023265</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06288239052335577</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0665057966559193</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06293986635497124</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06701945510492094</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06299734218658672</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06752698261633466</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06305481801820219</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.06802827495925765</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06311229384981767</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.068523227902787</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06316976968143315</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.06901173721601983</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06322724551304862</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06949369866805322</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06328472134466409</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06996900802798434</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06334219717627958</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07043756106491028</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06339967300789505</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0708992535479282</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06345714883951052</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07135398124613518</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06351462467112599</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07180163992862831</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06357210050274147</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07224212536450478</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06362957633435695</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07224212536450478</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06362957633435695</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07286850487216212</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06760300553454263</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0734473729634102</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0715764347347283</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07398060353136704</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07554986393491396</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07447007046915052</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07952329313509965</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07491764766987866</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08349672233528532</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07532520902666934</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.087470151535471</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0756946284326406</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.09144358073565667</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0760277797809103</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09541700993584235</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07632653696459646</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09939043913602803</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07659277387681698</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.1033638683362137</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07682836441068985</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1073372975363994</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07703518245933305</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1113107267365851</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07721510191586442</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1152841559367707</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.07736999667340205</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1192575851369564</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.07750174062506379</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1232310143371421</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.07761220766396765</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1272044435373277</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.07770327168323155</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1311778727375134</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.07777680657597344</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1351513019376991</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.07783468623531128</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1391247311378848</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.07787878455436306</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1430981603380704</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0779109754262467</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1470715895382561</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.07793313274408012</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.07794713040098131</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1550184479386275</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.07795484229006822</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1589918771388131</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.07795814230445877</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1629653063389988</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.07795890433727098</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1669387355391845</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.07776358857935217</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1709121647393702</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.07687368945800027</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1748855939395559</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.07562913596720947</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1788590231397415</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.07443722457389484</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1828324523399272</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.07368245892789799</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1868058815401129</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.07314036664917867</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1907793107402986</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.07264398736178274</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1947527399404842</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.07221292235705185</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1987261691406699</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07186677292632779</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.2026995983408556</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07162514036095216</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.2066730275410412</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.07149865903969299</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.2106464567412269</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07142553394251713</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.2146198859414126</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07137648931935039</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.2185933151415983</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0713347499605792</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2225667443417839</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07128354065659001</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2265401735419696</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.07120608619776925</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2305136027421553</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07101705645858369</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.234487031942341</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.07051662769922393</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2384604611425266</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.06975126596156792</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2424338903427123</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.06878568070037849</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.246407319542898</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.06768458137041855</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2503807487430837</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.06651267742645103</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2543541779432694</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.06533467832323883</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.258327607143455</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.06421529351554478</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2623010363436407</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.06321923245813182</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2662744655438263</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.06241120460576279</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2702478947440121</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0617864975556383</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2742213239441977</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.06115331952350412</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2781947531443834</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.06053814860545368</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.282168182344569</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05998943536584354</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2861416115447547</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05955563036903024</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2901150407449404</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.05928518417937031</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2940884699451261</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05922220590396798</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2980618991453118</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.05930327108726654</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.3020353283454974</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0594818486576385</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.3060087575456831</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0597449350177856</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.3099821867458687</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0600795265704096</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.3139556159460545</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06047261971821221</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.3179290451462402</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.06091121086389519</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.3219024743464258</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.06138229641016032</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.3258759035466115</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.06206775700592845</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.3298493327467971</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.06328049728978266</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.3338227619469828</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.06494953365079145</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.3377961911471685</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.06699535835847187</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.3417696203473542</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.06933846368234092</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.3457430495475398</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.07189934189191577</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.3497164787477255</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.07459848525671334</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.3536899079479112</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.07735638604625084</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3576633371480969</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.08009353653004514</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3616367663482826</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.08273042897761348</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3656101955484682</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.08518755565847283</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3695836247486539</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.08738540884214024</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3735570539488395</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0892444807981328</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3775304831490253</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.09068526379596753</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3815039123492109</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09162825010516149</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3854773415493966</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09221058379690519</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3894507707495823</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09276675476029034</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.393424199949768</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.09330113795261441</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3973976291499536</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09381219486482217</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.4013710583501393</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09429838698785867</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.405344487550325</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09475817581266865</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.4093179167505106</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0951900228301972</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.4132913459506963</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09559238953138907</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.417264775150882</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.09596373740718928</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.4212382043510677</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0963025279485426</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.4252116335512534</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0966072226463941</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.429185062751439</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09687628299168854</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.4331584919516248</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09710817047537093</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.4371319211518104</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0973013465883861</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.4411053503519961</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09745427282167898</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4450787795521817</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.09756541066619451</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.4490522087523675</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.09765616715267306</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.4530256379525531</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.09765616715267306</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.4569990671527387</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
